--- a/lda/result/data_topic.xlsx
+++ b/lda/result/data_topic.xlsx
@@ -1,464 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>content_cutted</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.196368    	
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>content_cutted</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>概率最大的主题序号</t>
+  </si>
+  <si>
+    <t>每个主题对应概率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.196368    	
 2012年卫生部政府信息公开工作报告	
 2012年卫生部政府信息公开工作报告
 （卫生部政务公开办公室　2013年1月25日）
@@ -493,22 +69,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>政府 信息 工作 报告 政府 信息 工作 报告 政务 办公室 信息 条例 条例 信息 条例 工作 社会 年度 政府 信息 工作 报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 工作 计划 部分 报告 数据 期限 报告 电子版 网站 政府 信息 专题 报告 政务 办公室 联系 地址 邮编 电话 电子邮箱 条例 政府 信息 重点 工作 政府 信息 工作 重点 领域 信息 力度 有序 信息 工作 医疗卫生 服务 单位 信息 机关 卫生系统 信息 工作 印发 政务 政务 服务 意见 卫生系统 政务 政务 服务 工作 印发 血站 信息 工作 政发 标准 信息 工作 监督 标准 群众利益 社会 高度 卫生领域 信息 工作 规范 力度 印发 公共卫生 公益 电话 建设 工作 政务 工作 交流 全国 热线 工作 会议 政务 热线 建设 年度 重点 工作 部署 热线 全国 省份 卫生系统 政府 信息 工作 网站 重点 功能 视频点播 矩阵 信息 办事 功能 信息 功能 网民 网站 内容 网站 稳定性 全国 范围 院务 示范点 活动 部分 单位 政府 信息 情况 政府 信息 网站 公报 新闻 形式 公众 利用 网站 政府 信息 工作 信息 动态 政府 信息 目录 网站 信息 政府 信息 目录 目录 信息 机构 职能 政策法规 信息 规划 计划 信息 行政许可 信息 卫生标准 信息 卫生统计 信息 工作 动态 信息 通告 公告 信息 网站 条例 有关 网站 部门 部门 经费 情况 公报 月刊 规章 规范性 法定 传染病 疫情 信息 政府 信息 方式 全国 行政 机关 医疗卫生 机构 免费 公报 发放量 公报 电子版 网站 公众 利用 新闻 方式 政府 信息 政策 指导性 政策 动态性 要闻 新闻 发布会 媒体 发布新闻 通稿 政府 信息 情况 政府 信息 互联网 表单 形式 电子邮件 信函 形式 政府 信息 全部 政府 信息 信息 信息 内容 机关 政府 信息 条例 范围 政府 信息 收费 情况 政府 信息 费用 行政复议 情况 有关 政府 信息 事务 行政复议 件次 全部 问题 工作 计划 政府 信息 工作 公众 日益增长 差距 政府 信息 力度 载体 信息化 水平 全面 政务 工作 条例 政务 政务 服务 意见 政府 信息 全国 医疗卫生 服务 单位 信息 工作 成果 基础 重点 工作 群众 生活 信息 工作 群众 区域 医疗机构 基本 情况 时间 特色 科室 便民 信息 区域 医疗 服务质量 费用 评价 监管 信息 方便群众 医疗机构 医疗机构 服务 提高质量 信息 行政部门 信息 内容 形式 责任 分工 信息 公众 交流 国家标准 工作 政府 信息 工作 信息化 水平 网站 内容 网站 办事 项目 网站 公众 行政部门 公众 交流 平台 影响力 网站 品牌 建设 矩阵 卫生系统 互联网 渠道 宣传 政策 热线 行政 主管部门 质量 考核 评价 制度 热线 管理中心 考核 工作 热线 政府 信息 工作 群众 针对性 医疗 服务 信息 新农 信息 服务型 政府 信息 政府 信息 方便群众 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.210589    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.210589    	
 农业部办公厅关于卫生杀虫剂申请政府信息公开答复意见的函	
 农业部办公厅关于卫生杀虫剂申请政府信息公开答复意见的函
 （农办农[2013]66号）
@@ -523,22 +86,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>办公厅 杀虫剂 政府 信息 意见 办公厅 杀虫剂 政府 信息 意见 信息 核实 农药 登记证 产品 蚊香 实业 有限公司 生产 产品名称 电热 蚊香 炔丙 菊酯 和四氟 甲醚 菊酯 含量 有效期 农药 登记证 产品 蚊香 实业 有限公司 生产 产品名称 电热 灭蚊 炔丙 菊酯 含量 有效期 信息 电子标签 农药 信息网 产品 标签 复印件 附件 农药 登记证 产品 标签 复印件 农药 登记证 产品 标签 复印件 办公厅 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.234160    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.234160    	
 卫生部2011年政府信息公开工作报告	
 卫生部2011年政府信息公开工作报告
 　　根据《中华人民共和国政府信息公开条例》（以下简称《条例》）和《卫生部关于做好贯彻实施＜中华人民共和国政府信息公开条例＞工作的通知》（卫办发〔2008〕25号）的要求，特向社会公布2011年度卫生部政府信息公开年度报告。本报告由概述，主动公开政府信息情况，依申请公开政府信息情况，因政府信息公开申请行政复议、提起行政诉讼情况，存在主要问题及改进情况和附表共六个部分组成。本报告中所列数据的统计期限自2011年1月1日起至2011年12月31日止。本报告的电子版可在卫生部网站（http：//www.moh.gov.cn/）“卫生部政府信息公开专题”下载。如对本报告有任何疑问，请与卫生部政务公开办公室联系（地址：北京市西城区西直门外南路1号；邮编：100044；电话：010-68792084；传真：010-68792087；电子邮箱：apply@moh.gov.cn）。
@@ -642,22 +192,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>政府 信息 工作 报告 政府 信息 工作 报告 信息 条例 条例 信息 条例 工作 社会 年度 政府 信息 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 行政复议 情况 问题 情况 附表 部分 报告 数据 期限 报告 电子版 网站 政府 信息 专题 报告 政务 办公室 联系 地址 邮编 电话 电子邮箱 条例 政府 信息 工作 依法 政府 信息 工作 新闻 制度 公共卫生 事件 信息 行政许可 医疗卫生 服务 单位 信息 工作 机关 卫生系统 信息 工作 办公厅 印发 政府 信息 工作 机关 政府 信息 工作 保密 审查 细化 规定 院务 规范化 建设 印发 医院 基层 医疗卫生 机构 院务 考核 标准 全国 范围 医院 基层 医疗卫生 机构 全国 院务 示范点 专科医院 院务 工作 督导 全国 院务 示范点 经验交流 全国 院务 培训班 部分 地方 行政部门 区域 医疗机构 病种 质量 状况 住院日 医疗 质量指标 大众 媒体 医疗机构 质量 内涵 建设 政府 信息 情况 政府 信息 网站 公报 新闻 形式 公众 利用 网站 政府 信息 工作 信息 动态 政府 信息 目录 网站 信息 政府 信息 目录 目录 信息 政策法规 信息 规划 计划 信息 行政许可 信息 卫生标准 信息 卫生统计 信息 工作 动态 信息 通告 公告 信息 网站 有力 政府 信息 工作 条例 有关 网站 部门 经费 情况 公报 月刊 规章 规范性 法定 传染病 疫情 信息 政府 信息 方式 全国 行政 机关 医疗卫生 机构 免费 公报 发放量 公报 电子版 网站 公众 利用 新闻 方式 政府 信息 政策 指导性 政策 动态性 要闻 新闻 价值 信息 新闻 发布会 媒体 问题 媒体 公众 有关 政府 信息 新闻 发布会 媒体 发布新闻 通稿 政府 信息 情况 政府 信息 互联网 表单 形式 电子邮件 信函 形式 政府 信息 全部 政府 信息 政府 信息 信息 部门 条例 范围 信息 内容 地址 有误 行政复议 情况 有关 政府 信息 事务 行政复议 件次 全部 问题 工作 计划 工作 人民 群众 高度 政府 信息 工作 内容 人民 群众 差距 医疗卫生 服务 单位 信息 管理 办法 行政部门 医疗卫生 服务 单位 信息 工作 指导 督查 全面 政务 工作 条例 法治 政府 建设 意见 机关 全国 医疗卫生 服务 单位 信息 工作 政府 信息 制度 印发 政务 政务 服务 意见 卫生系统 政府 信息 工作 政府 信息 力度 网站 卫生系统 网站 建设 工作 方案 财力 人力 调整 网站 栏目 设置 重点 服务 交流 能力 政策 工作 政府 信息 可读性 利用 媒体 政府 信息 工作 标准 利用 部长 信箱 热线 渠道 群众 咨询 政府 信息 工作 交流 督导 检查 全国 政务 工作 交流会 总结 条例 经验 全国 卫生系统 政府 信息 水平 全国 卫生系统 政府 信息 工作 督导 检查 考核 指标体系 行政许可 平台 重点 信息化 建设 将部 全部 行政许可 行政许可 项目 行政许可 平台 系统 网站 后台 办理 网站 模式 网站 办理 流程 结果 附表 情况 单位 数量 信息 情况 单位 数量 总数 电子邮件 信函 总数 信息 部门 信息 范围 信息 内容 地址 有误 情况 单位 数量 行政复议 政务 办公室 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.155624    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.155624    	
 卫生部关于印发《卫生监督信息报告管理规定(2011年修订版)》的通知	
 卫生部关于印发《卫生监督信息报告管理规定（2011年修订版）》的通知
 （卫监督发[2011]63号）
@@ -718,22 +255,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>印发 监督 信息 报告 管理 规定 修订版 印发 监督 信息 报告 管理 规定 修订版 监督 自治区 直辖市 疾病 监督 中心 监督 信息 报告 管理工作 信息 报告 质量 效率 监督 调查 制度 工作 监督 信息 报告 管理 规定 规定 印发 监督 信息 报告 管理 规定 修订版 总则 监督 信息 报告 管理 信息 报告 质量 效率 统计法 全国 卫生统计 工作 管理 办法 全国 监督 调查 制度 法律法规 规定 监督 信息 报告 监督 工作 内容 行政部门 基本 职能 行政部门 监督 信息 报告 工作 领导 监督管理 监督机构 规定 监督 信息 报告 工作 监督 信息 报告 依法 报告 统一 标准规范 分级 属地 管理 原则 职责 全国 监督 信息 报告 系统 建设 规定 监督 信息 报告 范围 内容 信息 标准 方式 监督 信息 报告 管理制度 地方 行政部门 辖区 监督 信息 报告 管理制度 信息 报告 系统 建设 监督 信息 报告 工作 监督 信息 报告 工作 监督 检查和 考核 评估 行政部门 监督 数据 资源 中心 建设 监督 中心 监督 信息 报告 系统 网络平台 数据 资源 中心 全国 监督 信息 报告 业务管理 培训 指导 全国 监督 信息 报告 汇总 分析 监督 信息 报告 系统 数据安全 地方 监督机构 辖区 监督 信息 报告 业务管理 培训 指导 辖区 监督 信息 报告 汇总 分析 信息 报告 网络系统 数据安全 报告 制度 行政部门 监督机构 监督 信息 责任 报告 单位 职责 分工 范围 监督 信息 报告 任务 监督员 监督 信息 报告 工作 监督机构 专职 报告 管理员 系统管理员 报告 管理员 监督 信息 报告 质量 工作 系统管理员 监督 信息 报告 工作 环境 管理 用户 权限 管理 监督 信息 报告 内容 全国 监督 调查 制度 规定 报告 信息 行政部门 监督 工作 信息 报告 内容 监督 信息 报告 网络 报告 方式 全国 统一 监督 信息 报告 系统 报告 监督 业务 系统 报告 监督 业务 系统 省份 国家 监督 信息 标准规范 机制 国家 监督 数据 资源 中心 信息 报告 工作 规定 报告 监督 个案 信息 报告 信息 产生 系统 机构 人员 信息 信息 数据 省份 机制 国家 监督 数据 资源 中心 信息 监督 信息 报告 规定 监督 信息 差错 报告 单位 漏报 补报 信息 资料 利用 管理 监督机构 监督 信息 分析 结果 监督机构 行政部门 报告 监督机构 结果 报告 行政部门 定期 社会公众 监督 工作 信息 监督 信息 规定 行政部门 监督 信息 制度 监督 信息 报告 资料 监督 档案管理 监督机构 监督 数据 定期 备份 信息安全 监督机构 国家 信息安全 制度 监督 信息 报告 系统 信息安全 监督机构 信息 报告 系统 用户 权限 信息 报告 系统 账户 管理 信息 报告 系统 人员 信息 报告 系统 账号 密码 信息 报告 系统 人员 账号 密码 被盗 密码 行政部门 监督机构 报告 保密 范围 监督 信息 规定 统一 管理 考核 评估 行政部门 监督 信息 报告 工作 考核 通报制度 定期 监督机构 行政部门 监督 信息 报告 工作 考核 评估 通报 成绩突出 单位 个人 奖励 问题 责令 限期 通报 行政部门 通报 监督机构 定期 机构 监督 信息 报告 工作 检查 检查 情况 监督 人员 考核内容 单位 个人 虚报 监督 信息 报告 资料 方式 单位 个人 信息 规定 规定 机构 人员 依法 依纪 追究责任 措施 行政部门 监督 信息 报告 工作 领导 监督 信息 报告 工作 运行机制 保障机制 监督 信息系统 建设 信息化 建设 资源 力量 监督机构 设置 专门 部门 监督 信息 报告 管理工作 监督 信息 报告 工作 所需 人员 设备 工作 条件 工作 经费 监督机构 监督 信息 报告 培训 工作 信息 报告 管理 队伍 监督 信息 报告 管理水平 信息 报告 质量 附则 自治区 直辖市 规定 实际 情况 实施细则 铁路 军队 部门 监督 信息 报告 工作 规定 规定 规定 监督 信息 报告 管理 规定 监督 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.163872    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.163872    	
 卫生部关于印发《卫生行业信息安全等级保护工作的指导意见》的通知	
 卫生部关于印发《卫生行业信息安全等级保护工作的指导意见》的通知
 （卫办发〔2011〕85号）
@@ -787,22 +311,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>印发 行业 信息安全 工作 指导 意见 印发 行业 信息安全 工作 指导 意见 自治区 直辖市 计划单列市 直属 单位 机关 司局 国家 信息安全 制度 规范 指导 全国 行业 信息安全 工作 公安部 信息安全 建设 工作 指导 意见 公信 行业 实际 研究 行业 信息安全 工作 指导 意见 印发 行业 信息安全 工作 指导 意见 信息安全 工作 卫生事业 发展 信息安全 工作 信息化 发展 医药卫生 公共利益 社会秩序 国家 意义 国家 信息安全 制度 规范 指导 全国 行业 信息安全 工作 指导 意见 工作 目标 国家 信息安全 制度 标准规范 行业 全面 信息安全 备案 建设 工作 信息安全 重点 信息安全 责任 信息安全 工作 长效机制 行业 信息安全 能力 隐患 能力 应急 能力 信息化 发展 全面 公共利益 社会秩序 国家 工作 原则 标准 重点保护 国家 信息安全 标准规范 行业 信息系统 特点 优先 信息系统 优先 重点 信息安全 行业 指导 属地 管理 行业 信息安全 工作 行业 指导 属地 管理 地方 行政部门 国家 信息安全 制度 有关 地区 信息系统 指导 管理工作 行业 单位 主管 运营 信息安全 责任 建设 动态 信息系统 规划设计 建设 过程 信息安全 工作 信息 信息系统 业务 类型 范围 条件 调整 信息系统 措施 工作 机制 地方 行政部门 信息安全 责任 信息化 工作 领导小组 信息安全 工作 信息化 工作 领导小组 全国 行业 信息安全 工作 组织协调 监督 指导 机关 信息安全 工作 地市级 行政部门 信息化 工作 领导小组 地区 行业 信息安全 工作 组织协调 监督 指导 单位 信息安全 工作 信息安全 工作 联络员 机制 行政部门 设置 信息安全 工作 联络员 联络员 职责 国家 信息安全 工作 有关 政策 技术标准 地区 信息安全 工作 动态 总体 情况 代表 地区 信息安全 管理 部门 联系 交流 地区 信息安全 工作 行政部门 信息安全 技术 专家 委员会 信息系统 指导 备案 审查 方案 论证 咨询 技术 工作 信息安全 技术 专家 委员会 行业 公安机关 信息安全 技术 专家 工作 任务 备案 行业 单位 单位 建设 运营 信息系统 自查 信息系统 信息安全 技术 信息系统 指南 工作 国家 信息安全 制度 信息安全 指导 监督 专控 信息系统 卫生统计 网络 直报 系统 传染性 疾病 报告 系统 监督 信息 报告 系统 公共卫生 事件 应急 信息系统 跨省 信息系统 国家 信息 平台 新农 监督 妇幼保健 数据中心 核心 业务 信息系统 网站 系统 信息安全 技术 专家 委员会 信息系统 信息系统 信息安全 技术 专家 委员会 论证 评审 行业 单位 信息系统 信息系统 属地 公安机关 行政部门 备案 跨省 信息系统 公安部 备案 分支 系统 属地 公安机关 备案 建设 信息系统 国家 信息安全 工作 规范 信息安全 技术 信息系统 基本 国家标准 现状 分析 国家 信息安全 标准 差距 信息系统 现状 分析 结果 信息安全 技术 信息系统 基本 信息安全 技术 信息系统 设计 技术 国家标准 信息系统 建设 方案 信息系统 建设 方案 信息安全 技术 专家 委员会 论证 行业 单位 信息系统 建设 方案 设施 管理制度 管理 措施 信息安全 技术 体系 信息安全 管理体系 信息系统 系统 建设 工作 信息安全 管理 办法 全国 信息安全 机构 目录 机构 信息系统 合格 报告 属地 公安机关 行政部门 备案 信息系统 部门 信息系统 宣传 培训 行政部门 信息化 工作 领导小组 地区 医疗卫生 机构 政策 标准规范 培训 单位 信息安全 管理人员 技术 能力 管理水平 行业 单位 信息安全 培训 全员 信息安全 意识 规范 信息安全 信息安全 能力 监督 检查 信息化 工作 领导小组 督导 检查 医疗卫生 机构 信息安全 工作 情况 机关 信息系统 责任 单位 信息安全 工作 行政部门 信息化 工作 领导小组 督导 检查 地区 行业 单位 信息安全 工作 情况 单位 信息安全 工作 行政部门 信息化 工作 领导小组 信息化 工作 领导小组 地区 信息系统 备案 建设 自查 工作 情况 工作 领导 行业 单位 信息安全 工作 居民 信息安全 医疗卫生 机构 运转 社会 意义 单位 负责同志 总责 分管 负责同志 职责 任务 信息安全 工作 议事日程 工作 绩效考核 指标 层层 经费 监管 行业 单位 经费 机制 信息安全 建设 信息安全 服务 技术培训 费用 信息化 建设 资金 监管 行政部门 信息安全 管理 部门 沟通交流 协作 机制 信息安全 工作 备案 建设 监督 检查 环节 信息安全 工作 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卫生部关于申请互联网医疗保健信息服务有关问题的批复
+  </si>
+  <si>
+    <t>卫生部关于申请互联网医疗保健信息服务有关问题的批复
 （卫办函〔2011〕332号）
 （法宝联想:　 地方法规规章约1篇 ）
 广东省卫生厅：
@@ -810,22 +321,9 @@
 　　《互联网医疗保健信息服务管理办法》（以下简称《办法》）第五条“熟悉医疗卫生管理法律、法规和医疗卫生专业知识的技术人员”一般指通过医师资格考试取得医师资格证书的人员。对于非医疗卫生机构开办的网站，此类人员应当为网站或频道的正式全职员工，网站按照《办法》第七条申请提供互联网医疗保健信息服务时，只需提供医师资格证书，不需提供医师执业证书。非医疗卫生机构开办的网站提交《办法》第七条（三）规定的申请材料时，需要提交医疗卫生专业人员学历证明及医师资格证书复印件，可不提供医师执业证书复印件。
 　　此复。
 　　二〇一一年十月二十五日</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>互联网 医疗保健 信息 服务 有关 问题 卫办 地方 法规 规章 视康 远程 医学 科技 有限公司 互联网 医疗保健 信息 服务 有关 问题 研究 互联网 医疗保健 信息 服务 管理 办法 办法 医疗卫生 管理 法律 法规 医疗卫生 专业知识 技术人员 医师资格 考试 医师资格 证书 人员 医疗卫生 机构 网站 人员 网站 频道 全职 员工 网站 办法 互联网 医疗保健 信息 服务 医师资格 证书 医师 执业 证书 医疗卫生 机构 网站 办法 规定 申请材料 医疗卫生 专业 人员 学历证明 医师资格 证书 复印件 医师 执业 证书 复印件</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.169077    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.169077    	
 卫生部办公厅关于2011年度白内障复明手术信息报告情况的通报	
 卫生部办公厅关于2011年度白内障复明手术信息报告情况的通报
 （卫办医政函〔2012〕174号）
@@ -1199,22 +697,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>办公厅 年度 白内障 手术 信息 报告 情况 通报 办公厅 年度 白内障 手术 信息 报告 情况 通报 自治区 直辖市 白内障 手术 信息 报告 系统 白内障 信息系统 行政部门 全面 医疗机构 白内障 手术 工作 情况 全国 设置 眼科 医疗机构 白内障 信息系统 白内障 手术 白内障 手术 全国 人口 白内障 手术 手术 例数 附件 白内障 信息系统 行政部门 全面 辖区 白内障 手术 情况 手段 白内障 手术 信息 白内障 手术 医疗机构 责任 义务 白内障 手术 信息 工作 程度 重点 工作 白内障 手术 医疗机构 办公厅 白内障 手术 信息 报告 系统 政发 信息 工作 医疗机构 信息 补报 工作 行政部门 综合 措施 辖区 医疗机构 信息 管理 白内障 手术 信息 情况 定期 通报 地区 行政部门 信息 医疗机构 部将 白内障 手术 信息 情况 评价 医疗机构 眼科 建设 工作 指标 医疗机构 眼科 能力 建设 工作 评先 资格 附件 白内障 手术 例数 全国 手术 医疗机构 手术 例数 医疗机构 数量 信息 综合 医院 附件 白内障 手术 例数 手术 例数 附件 全国 手术 医疗机构 序号 机构名称 例数 眼科 中心 眼科医院 眼科医院 眼科医院 眼视光 医院 眼科医院 人民 医院 眼科医院 医科大学 医院 耳鼻喉科 医院 新视界 眼科医院 眼科 中心 眼科医院 眼科医院 眼科医院 眼科 中心 集里 医院 眼科医院 光明 眼科医院 眼科医院 附件 手术 例数 医疗机构 数量 手术 例数 医疗机构 附件 信息 综合 医院 医疗机构 人民 医院 总医院 医科大学 医院 人民 医院 医科大学 医院 人民 医院 医院 医院 人民 医院 医院 联谊 医院 大学 医院 鼓楼 医院 医学院 医院 医学院 医院 医院 人民 医院 医院 眼科医院 同济 医学院 同济 医院 医科大学 医院 医科大学 医院 人民 医院 医科大学 医院 人民 医院 医院 人民 医院 医学院 医院 医院 医院 人民 医院 医院 医学院 医院 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.177376    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.177376    	
 卫生部办公厅关于做好2012年卫生统计和信息化工作的通知	
 卫生部办公厅关于做好2012年卫生统计和信息化工作的通知
 （卫办综发〔2012〕37号）
@@ -1245,22 +730,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>办公厅 卫生统计 信息化 工作 办公厅 卫生统计 信息化 工作 自治区 直辖市 直属 单位 机关 司局 全国 工作 会议 精神 医药卫生 有力 卫生统计 信息化 工作 监测 评估 工作 进展 监测 工作 工作 规划 印发 监测 方案 监测 指标 常规 制度 监测 指标 连续性 一致性 监测 工作 领导 监测 工作 机制 监测数据 数据 督导 检查 信息 通报 制度 监测数据 质量 监测数据 汇总 分析 数据 研究 分析 报告 评估 工作 阶段性 评估 基础 评估 方案 力量 年度 评估 工作 居民 调查 医患 关系 行政部门 力量 地区 评估 工作 卫生统计 调查 工作 卫生统计 调查 制度 国家 卫生统计 调查 制度 印发 重点 调查 内容 监测 指标 住院 病案 人口 信息 常规 信息 调查 范围 军队 医院 地方 病人 数据 信息 方式 居民 档案 电子 病历 业务 系统 数据 数据 质量 现行 国家 卫生统计 调查 制度 有关 任务 年报 季报 周报 日报 工作 部将 全国 卫生统计 工作 管理 办法 工作 数据 质量检查 重点 医疗卫生 机构 医师 护士 登记注册 工作 住院 病案 数据库 具备条件 医院 直报 平台 季度 住院 病案 数据库 行政部门 工作 布置 人员培训 系统升级 疾病 编码 工作 部将 疾病 分类 代码 人口 信息库 部将 居民 水平 影响 因素 测量方法 标准 研究 人口 制度 人口 信息库 人口 死因 监测 工作 国家 服务 调查 工作 国家 服务 调查 框架 设计 家庭 调查 方案 调查 样本 调查 内容 设计 工作 部分 样本 地区 调查 调查 设计 服务 调查 代表性 服务 调查 工作 利用 行政部门 医药卫生 重点 工作 充分利用 卫生统计 数据库 专题 分析 分析 报告 信息 咨询 助手 大力 信息化 建设 印发 信息化 发展 规划 部将 印发 信息化 建设 指导 意见 信息化 发展 规划 指导 全国 信息化 建设 工作 地方 行政部门 地区 单位 规划 政策 居民 工作 居民 管理中心 密钥 管理系统 建设 模块 制作 系统 建设 综合 建设 任务 管理制度 业务 规则 工作 流程 全省 整体 全市 整体 银医 业务 条线 合作 模式 条件 试点 建设 力度 范围 居民 密钥 体系 管理制度 能力 建设 居民 信息 部级 居民 产品 检测 资质 管理机制 居民 产品 检测 资质 备案 工作 居民 金融 工作 方便群众 居民 标准规范 大类 居民 技术标准 规范 基础 试点 建设 工作 问题 实际 有关 标准规范 信息 标准 建设 工作 信息 标准 研制 工作 启动 年度 信息 标准制 项目 信息 标准 管理 平台 建设 工作 信息 标准 动态 管理 信息 标准 工作 体系 专家 队伍 利用 项目 资金 电子 档案 电子 病历 区域 平台 重点 内容 信息 标准 测试 规范 标准 管理 平台 标准 测试 平台 医疗卫生 机构 信息系统 标准化 成熟度 试点工作 基层 机构 企业应用 标准化 产品 信息 专项 建设 工作 信息化 专项 信息化 专项 建设项目 技术 指导 检查 督导 项目 技术 工作 项目 效益 基层 医疗卫生 机构 信息系统 方案 建设 标准 工作 综合 管理 平台 建设 信息 平台 建设 工作 信息 平台 区域 信息 平台 建设 跨地区 机构 信息 信息 业务 协同 办公厅 全面 行业 信息安全 工作 政策 技术培训 监督 检查 工作 行业 备案 工作 应急 信息系统 升级 工作 视频会议 系统 建设 工作 研究 综合 管理 数据 指标体系 数据 资源管理 工作 国家 行政部门 电子政务 骨干 传输 网络 建设 工作 电子政务 信息安全 工作 有关 信息化 工作 行政部门 卫生统计 信息化 工作 领导 总责 分管领导 有关 密切配合 卫生统计 信息 机构 骨干 主力军 工作 机制 医疗卫生 机构 卫生统计 信息化 建设 工作 责任感 紧迫感 信息化 服务 能力 水平 整体 工作 信息化 建设 力度 卫生统计 信息化 建设 发展 规划 发展 改革 财政 部门 卫生统计 信息化 建设 工作 所需 信息 机构 人才队伍 建设 人才队伍 建设 有关 信息 机构 队伍 建设 规划 机构 设置 人才 经费 政策 方面 措施 信息 机构 人员培训 服务 意识 监测 评估 信息化 建设 技术 卫生统计 信息化 工作 国际 合作 交流 充分发挥 学会 协会 学术 力量 信息化 建设 卫生统计 信息化 培训 宣传 信息化 技术标准 专业知识 业务 能力 层级 培训 技术水平 服务 能力 信息化 专项 信息化 人才 培训 地区 项目 任务 工作 信息技术 交流 大会 信息化 论坛 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.206122    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.206122    	
 卫生部办公厅关于做好2013年卫生统计和信息化工作的通知	
 卫生部办公厅关于做好2013年卫生统计和信息化工作的通知
 （卫办综发[2013]19号）
@@ -1301,22 +773,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>办公厅 卫生统计 信息化 工作 办公厅 卫生统计 信息化 工作 自治区 直辖市 直属 单位 机关 司局 全国 工作 会议 精神 医药卫生 有力 卫生统计 信息化 工作 大力 信息化 建设 信息化 建设 指导 意见 信息化 建设 指导 意见 意见 意见 意见 地区 信息化 情况 地区 信息化 发展 规划 实施方案 信息化 建设 目标 任务 工作 绩效考核 指标 信息化 建设 监测 评价 工作 信息 标准 信息 目标 部将 国家 信息 标准 中央 投资 基层 医疗卫生 信息系统 建设 重点 部将 全国 统一 基层 医疗卫生 信息 标准 标准 系统 标准化 工作 机构 地域 信息 区域 医院 基层 医疗卫生 信息 标准 测试 试点工作 医疗卫生 机构 医疗 信息技术 企业 国家标准 信息 产品 信息 资源整合 利用 居民 工作 居民 便民 目标 居民 农民 新生儿 儿童 职业病 人群 无偿献血者 重点 人群 医疗机构 突破口 银行 社会 资助 银医 合作 居民 工作 医疗机构 工作 目标 任务 医院 居民 行政部门 居民 密钥 管理系统 居民 管理系统 建设 居民 管理系统 地区 部级 居民 管理系统 发卡 管理 管理 居民 工作 技术 信息 平台 建设 平台 试点 省份 试点 项目 目标 任务书 项目 任务 项目 建设 试点 省份 技术 方案 项目 评估 工作 部将 进展 地区 督导 项目 建设 国家 综合 管理 信息 平台 建设 区域 信息 平台 建设 部将 部分 省份 综合 平台 数据 利用 信息安全 管理工作 行业 信息安全 工作 指导 意见 信息安全 工作 机制 主管 运营 医疗卫生 单位 信息系统 全面 信息系统 备案 工作 培训 检查 工作 监测 监测 工作 年度 监测 工作 数据 汇总 年度 监测 结果 报告 监测 方案 年度 监测 工作 布置 平台 升级 人员培训 工作 国家 服务 调查 部将 全国 国家 服务 调查 调查 全国 试点县 部长 服务 调查 领导小组 专家组 工作组 调查 方案设计 师资 培训 调查 质量 技术 指导 咨询 工作 行政部门 样本 地区 服务 调查 领导 质量 资料 监督 指导 技术支持 工作 卫生统计 调查 制度 印发 国家 卫生统计 调查 制度 有关 任务 调查 制度 建设 医院 住院 病案 乡村 医生 数据库 报告 年报 季报 数据 业务 数据 校核 机制 统计数据 质量 人口 信息 制度 部将 有关 部门 印发 人口 信息 管理工作 规范 居民 工作 人群 人口 信息库 代表性 死因 监测 数据库 监测点 平台 建设 人员培训 漏报 调查 工作 有关 卫生统计 信息 工作 管理 卫生统计 信息化 建设 工作 领导 卫生统计 信息 机构 医疗卫生 机构 充分发挥 骨干 主力军 信息 工作 机制 工作 任务 资金 当地政府 发展 改革 财政 部门 筹集资金 项目 信息化 建设 统筹安排 项目 建设 设备 资金 卫生统计 信息化 建设 发展 信息 机构 人才队伍 建设 人才队伍 建设 有关 信息 机构 队伍 建设 规划 机构 设置 人才 经费 政策 方面 卫生统计 信息 工作 国际交流 合作 充分利用 学会 协会 学术团体 卫生统计 信息化 建设 办公厅 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.163592    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.163592    	
 卫生部办公厅关于全面开展卫生行业信息安全等级保护工作的通知	
 卫生部办公厅关于全面开展卫生行业信息安全等级保护工作的通知
 （卫办综函〔2011〕1126号）
@@ -1338,22 +797,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>办公厅 全面 行业 信息安全 工作 办公厅 全面 行业 信息安全 工作 卫办 自治区 直辖市 计划单列市 直属 单位 机关 司局 国家 信息安全 制度 行业 信息安全 工作 指导 意见 指导 意见 全面提高 行业 信息安全 能力 水平 信息化 发展 全面 信息安全 工作 有关 事项 具体内容 工作 机制 行政部门 信息安全 工作 联络员 信息安全 技术 专家 委员会 联络员 名单 专家 委员会 成员名单 限时 备案 情况 行政部门 将本 地区 备案 信息系统 情况 备案 工作 行业 单位 单位 信息系统 备案 工作 建设 工作 行业 单位 信息系统 备案 情况 工作 差距 风险 隐患 建设 方案 信息安全 建设 工作 行业 单位 标准 重点保护 行业 指导 属地 管理 建设 动态 原则 信息安全 工作 长效机制 行政部门 地区 行业 单位 指导 意见 信息安全 工作 行政部门 工作 联络员 报告 行政部门 报告 情况 地区 信息安全 工作 总结 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.179005    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.179005    	
 卫生部办公厅关于加强卫生统计与信息化人才队伍建设的意见	
 卫生部办公厅关于加强卫生统计与信息化人才队伍建设的意见
 （卫办综发〔2012〕43号）
@@ -1396,22 +842,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>办公厅 卫生统计 信息化 人才队伍 建设 意见 办公厅 卫生统计 信息化 人才队伍 建设 意见 自治区 直辖市 直属 单位 机关 司局 医药卫生 意见 医药卫生 规划 实施方案 全面 卫生统计 信息化 人才队伍 建设 卫生统计 信息化 服务 能力 意见 卫生统计 信息化 人才队伍 建设 重要性 紧迫性 改革开放 卫生统计 工作 信息化 建设 卫生统计 信息化 人才队伍 不断扩大 人才 素质 国家 行政部门 医疗卫生 机构 卫生统计 信息化 管理体系 行政部门 统计法 部门 工作 信息化 发展 综合 信息 机构 专职 卫生统计 信息 人员 地市级 行政部门 人员 卫生统计 信息 工作 医疗卫生 机构 专职 卫生统计 信息 人员 工作 信息化 建设 卫生统计 信息化 人才队伍 建设 总量 专业 程度 问题 卫生统计 信息化 人才 方面 政策 管理体制 机构 性质 人员 待遇 因素 人员 变动 人才队伍 人才 结构 布局 人才 缺口 问题 制约 卫生统计 信息化 工作 发展 时期 医药卫生 卫生事业 全面 发展 关键 阶段 监测 任务 政府 社会公众 卫生统计 服务 信息化 任务 技术 日益 政府 社会 卫生统计 信息化 工作 任务 卫生统计 信息化 人才队伍 建设 指导思想 总体目标 基本 指导思想 医药卫生 意见 医药卫生 人才 发展 规划 人才 战略 卫生统计 信息化 人才 制度 机制 人才 总量 人员素质 卫生统计 信息化 工作 任务 人才 总体目标 卫生统计 信息化 人才 总量 基本 卫生统计 信息化 事业 发展 行政 信息 公共卫生 医疗 服务 机构 人员 卫生统计 信息 工作 人才 区域 结构 优化 人才 局面 人才 整体 水平 全面 卫生统计 信息 人才 发展 工作 机制 着力 规模 素质 结构合理 技术 管理 卫生统计 信息化 人才队伍 基本 战略 导向 原则 进展 监测 评估 信息化 建设 战略 任务 人才 素质 卫生统计 信息化 人才 增量 优化结构 确保重点 原则 进展 监测 评估 信息化 建设 重点 领域 优化 人才 结构 人才 发展 优先 顺序 人才 计划 整体 工作 机制 能力 原则 人才 施展 才干 环境 人才 发挥作用 平台 事业 制度 好人 原则 人才 能力 原则 信息化 发展 政府 社会 企业 市场 资源 合力 侧重于 信息化 标准规范 行业 指导 工作 合理 社会 企业 人才资源 信息化 工作 专家 团队 集思广益 工作 任务 卫生统计 信息化 人才 发展 任务 工程 实用型 卫生统计 人才 工程 卫生统计 人才 工程 实用型 信息技术 人才 工程 信息化 人才 工程 卫生统计 信息化 发展 层级 人才队伍 实用型 卫生统计 人才 工程 实用型 人才 医疗卫生 专业知识 技能 专业 学科 医疗 服务 妇幼卫生 疾病 防控 监督 财务 资产 人力 管理 专项 人才 人才 卫生统计 人才 比重 基础性 数据 整理 工作 统计数据 准确性 有效性 关键作用 医疗卫生 机构 国家 卫生统计 调查 制度 规定 内容 机构 工作 性质 工作量 合理 熟悉业务 工作 技能 专业 人员 卫生统计 人才 队伍素质 重点 技能 法规 培训 培训 规划 统计人员 全员 岗位培训 岗位培训 合格证书 培训 结果 岗位 年度 考核 职称 专业 统计人员 定期 教育 制度 人员 医疗卫生 机构 部门 专业 统计人员 培训基地 利用 医学院校 专业 卫生机构 妇幼卫生 疾病 防控 机构 优势 医疗卫生 机构 专业 统计人员 卫生统计 人才 工程 卫生统计 人才 专业 教育 背景 专业技能 管理 政策 专业 人才 卫生统计 管理 统计数据 综合 分析 利用 工作 卫生统计 人才 国家 专业 行政部门 综合 机构 规模 医疗卫生 机构 专职 人才 管理 方面 专业 背景 高校 毕业生 研究生 本科生 行政部门 医疗卫生 机构 卫生统计 工作 研究 卫生统计 人才 发展 规划 创新能力 建设 核心 建设 卫生统计 人才队伍 卫生统计 计划 影响力 学科 带头人 综合 卫生统计 人才 政策 管理 培训 服务 管理工作 充分发挥 卫生统计 工作 实用型 信息技术 人才 工程 实用型 信息技术 人才 基本 信息技术 系统 教育 背景 信息技术 技能 专业人才 实用型 信息技术 人才 医疗卫生 机构 管理系统 综合 管理 平台 运维 工作 行政部门 信息 机构 医疗卫生 机构 工作 实用型 信息化 人才 信息化 建设 管理 方面 培训 服务 信息化 工作 培训 规划 有关 人员 培训 岗位培训 合格证书 培训 结果 岗位 年度 考核 职称评定 信息化 人员 定期 教育 制度 信息化 人才 工程 信息化 人才 信息技术 医疗卫生 专业 特点 工作 流程 专业知识 信息技术 技能 人才 人才 规划 信息化 建设 信息 标准 规范 政策 工作 区域 信息化 人才 行政部门 信息化 技术 规划 管理 能力 人才 积极探索 信息化 基地 行政部门 医疗卫生 机构 信息化 人员 业务培训 措施 领导 信息化 人才队伍 建设 工作 行政部门 卫生统计 信息化 人才 建设 工作 卫生统计 信息化 人才 发展 战略 医药卫生 人才 发展 总体 战略规划 卫生统计 信息化 人才队伍 建设 卫生事业 改革 发展 重点 任务 领导 研究 卫生统计 信息化 人才 工作 责任制 目标 任务 资源 措施 卫生统计 信息化 人才队伍 建设 卫生统计 信息化 人才队伍 建设 力度 行政部门 发展 改革 财政 管理 部门 卫生统计 信息 机构 卫生统计 信息 机构 建设 经费 人才队伍 培训 经费 卫生统计 信息化 人才队伍 发展 经济 条件 地区 列支 专门 经费 卫生统计 信息化 人才队伍 建设 地区 卫生部门 会商 财政部门 财政 经费 卫生统计 信息化 人才队伍 建设 政府 用人单位 社会 资助 卫生统计 信息化 人才队伍 建设 机制 中央 地方 行政部门 卫生统计 信息化 专项资金 管理 办法 卫生统计 信息化 人才 建设 力度 社会 资本 卫生统计 信息化 人才队伍 建设 资金 监督管理 效益 体制 机制 卫生统计 信息化 人才队伍 活力 卫生统计 信息化 环节 卫生统计 信息化 人才 发展 制度 机制 卫生统计 信息化 机制 卫生统计 信息化 人才 教育培养 教育部门 协商 卫生统计 信息化 途径 卫生统计 信息化 人才 教育培养 学校 教育 医学教育 教育 发展 重点 研究生 教育 专科 教育 信息化 发展 人才 卫生统计 信息化 人才 增量 教育 重点 人才 培训 人员 基础性 专业培训 职业培训 制度 培训 项目 申报 国家 教育 学分 人才 职称评定 基础 卫生统计 信息化 人才 机制 卫生统计 信息化 人才队伍 类型 公平 方式 卫生统计 信息化 工作 人才 卫生统计 信息化 管理 部门 医疗卫生 机构 基层 医疗卫生 机构 人才 机制 标准 信息 人才 交叉性 人才 专业 背景 岗位 标准 方法 人才 管理制度 改革 人才 单位 部门 地域 户籍 单位 跨地区 人才 人才 管理权限 过分 管理 方法 管理制度 问题 卫生统计 信息化 人才 机制 统计法 有关 规定 综合 卫生统计 人员 当地政府 部门 统计人员 资格证书 方可 定期 考核 统计人员 资格证书 人员 培训 形式 信息化 人员 有关 部门 资格 管理 人才队伍 人才 素质 卫生统计 信息化 人员 管理 岗位 工资制度 卫生统计 信息化 人员 职称 晋升制度 绩效考核 激励机制 岗定酬 任务 定酬 业绩 定酬 原则 重点 关键 岗位 突出成绩 人员 部分 人才 工资 协议 工资 项目 工资 分配 办法 工作 业绩 核心 品德 能力 内容 卫生统计 信息化 人才 绩效考核 激励机制 业绩 人员 奖励 大胆 机制 卫生统计 信息化 人才 评价 体系 国家 人力资源 管理 部门 指导 卫生统计 信息化 专业 技术资格 评价 认证工作 积极探索 卫生统计 信息化 人才 评价 方法 客观 评价 卫生统计 信息化 专业 技术人员 能力 水平 卫生统计 信息化 人才 发展 情况 评估 工作 问题 技术 能力 水平 人才 发展 规划 任务 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.151877    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.151877    	
 卫生部办公厅关于印发《基于电子病历的医院信息平台建设技术解决方案(1.0版)》的通知	
 卫生部办公厅关于印发《基于电子病历的医院信息平台建设技术解决方案（1.0版）》的通知
 （卫办综发〔2011〕39号）
@@ -1425,22 +858,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>办公厅 印发 电子 病历 医院 信息 平台 建设 技术 解决方案 办公厅 印发 电子 病历 医院 信息 平台 建设 技术 解决方案 自治区 直辖市 部属 医院 改革 试点工作 电子 病历 医院 管理 重点 医院 信息化 建设 医疗卫生 领域 业务 系统 信息 电子 病历 基本 架构 数据 标准 基础 电子 病历 医院 信息 平台 建设 技术 解决方案 印发 标准 文本 网站 过程 问题 有关 建议 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.187366    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.187366    	
 卫生部办公厅关于印发卫生监督信息化建设指导意见(2012版)的通知	
 卫生部办公厅关于印发卫生监督信息化建设指导意见（2012版）的通知
 （卫办监督发〔2012〕121号）
@@ -1531,22 +951,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>办公厅 印发 监督 信息化 建设 指导 意见 办公厅 印发 监督 信息化 建设 指导 意见 监督 自治区 直辖市 监督 中心 监督 信息化 建设 指导 意见 印发 监督 信息化 建设 指导 意见 医药卫生 监督 体系 建设 精神 信息化 建设 指导 意见 规范 指导 全国 监督 信息化 建设 监督 事业 发展 监督 信息化 建设 意见 监督 信息化 建设 重要性 监督 事业 发展 人民 群众 权益 医疗卫生 秩序 社会 力量 社会 经济 发展 方式 监督 社会 利益 格局 人们 思想观念 变化 监督 信息化 社会 管理 监督 体系 建设 社会 管理 效能 服务质量 途径 工作 全面 启动 监督 信息化 任务 工作 动态 辅助 科学决策 总体 框架 基本 原则 工作 目标 总体 框架 监督 信息化 建设 平台 核心 层级 业务 监督 信息 体系 架构 监督 信息 平台 建设 核心 国家 监督 业务 全国 监督 信息系统 管理 社会公众 公共卫生 服务 监督机构 人员 信息化 管理 服务 模式 行政部门 管理者 科学决策 基本 原则 总体规划 时期 信息化 建设 总体 思路 规划 全国 监督 信息化 建设 工作 充分利用 基础 网络 设备 人员 顶层 设计 监督 业务 信息化 发展 目标 监督 信息系统 统一标准 监督 信息 标准 业务 规范 监督 信息化 建设 指导 全国 监督 信息化 工作 行政部门 监督机构 标准规范 监督 法定 职责 监督 业务 服务 重点 核心 业务 系统 建设 信息技术 监督 工作 监督 发展 监督 信息化 实际 情况 充分利用 信息 资源 监督机构 行政部门 医疗 机构 信息 机制 监督 信息化 建设 实用性 信息化 前瞻性 信息化 现状 解决问题 国家 信息安全 制度 监督 信息化 建设 试点 先行 条件 单位 先行 试点 试点工作 指导 力度 试点 科学 技术 路线 经验 指导 全国 充分发挥 试点 指导作用 工作 目标 全面 全国 监督 情况 规范 监督 业务 监督 工作效率 传统 工作 模式 信息化 监督 信息 资源 中心 监督 信息 辅助 分析 决策 科学决策 提供数据 基础 重点 任务 重点 建设 监督 信息 平台 监督 信息 平台 设备 功能 性能 监督 信息 平台 监督 信息 报告 系统 业务 系统 计算技术 监督 信息化 领域 部分 地区 平台 服务 地市级 区级 网络 硬件 环境 条件 市级 监督 信息 网络平台 监督 信息 平台 建设 监督机构 装备 标准 建设 标准 监督 信息 标准 体系 监督 信息化 发展 目标 研究 监督 信息化 标准 体系 监督 信息化 标准 全国 监督 信息 标准 工作 标准 咨询服务 机制 监督机制 统一 业务 系统 省份 监督 信息 地方 标准 全省 范围 监督 业务 系统 国家 监督 信息 报告 系统 重点 调查 功能 统一 监督 监测 评价 系统 监督 综合 监督 培训 信息系统 试点 行政许可 管理系统 基础 监督 检查和 行政处罚 系统 基础 终端 打印机 规范 监督 工作效率 试点 监督 绩效考核 系统 基础 监督 工作 绩效考核 指标 信息 联网 技术 监督 现场 监测 领域 国家 统一 监督 信息 报告 系统 监督 监测 评价 信息系统 监督 培训 信息系统 监督 信息 国家标准 范围 统一 监督 业务 系统 监督 绩效考核 系统 国家 监督 业务 系统 基础 监督 绩效考核 系统 基础 实际 情况 条件 省份 全省 范围 统一 业务 监督 综合 信息系统 突发事件 信息系统 国家 统一 监督 业务 监督 网站 平台 办公自动化 系统 建设 监督 信息 资源 中心 信息 大力 监督 数据 资源 中心 建设 综合 管理 平台 监督 法定 职能 开展业务 分析 信息 资源 数据库 资源 目录 标准 数据库 国家 监督管理 基础 数据库 管理 信息 基础 信息 综合 管理 监督 信息 监督 评价 指标体系 监督 信息 分析 利用 管理决策 公共服务 标准化 规范化 监督 信息 资源 中心 监督机构 信息 监督机构 业务 系统 省份 监督 平台 全省 监督 信息系统 监督机构 充分利用 信息 资源 中心 监督 信息 分析 利用 监督 信息安全 保障体系 建设 国家 国家 综合 安全策略 技术 体系 管理体系 体系 建设 信息安全 能力 风险 监测 能力 应急 恢复能力 一体 综合 体系 建设 监督 信息化 人才队伍 监督 信息化 人才 发展 长效机制 教育 人才 制度 信息化 信息技术 操作技能 培训 创新型 监督 信息化 人才 研究 激励机制 监督 信息化 人员 职业培训 经费 重点 建设 监督 信息化 队伍 监督 信息化 专家 队伍 队伍 建设 系统管理员 信息 报告 管理员 队伍 措施 领导 机构 行政部门 领导 主管 领导 监督 信息化 建设 工作组 发挥作用 辖区 监督 信息化 建设 国家 监督机构 专门 信息化 管理 部门 区级 监督机构 信息化 管理 部门 专职 信息管理 人员 科学 规划 国家 研究 监督 信息化 建设 总体规划 信息 标准 功能 规范 国家 地区 实际 情况 监督 信息系统 建设 规划 发展 总体目标 方向 制度 行政部门 当地政府 监督 信息化 建设 工作 地区 信息化 重点 规划 项目 监督 信息管理 制度 规范 资产 管理 充分发挥 地方 积极性 创造性 监督 信息化 事业 培训 宣传 岗位培训 教育 重点 分类 形式 信息化 人力资源 培训 制度 监督 培训 信息系统 监督 业务 信息技术 人才 利用 网站 平台 宣传 监督 信息化 工作 监督 信息化 建设 社会 基础 评估 综合 全国 监督 信息化 工作 实际 情况 考核 指标 科学 信息化 工作 绩效考核 评价 体系 综合 激励机制 监督 信息化 工作 考核 信息化 工作实绩 考核 监督 信息化 队伍 整体 活力 附件 监督 信息系统 业务 软件名称 监督 信息 报告 系统 监督 信息 直报 动态 管理 统一 监督 监测 评价 系统 监督 监测 信息 网络 报告 动态 管理 统一 监督 综合 监督 综合 管理 信息 动态 统一 监督 培训 信息系统 监督员 网络 培训 统一 行政许可 管理系统 基础 规范 行政许可 审查 备案 工作 程序 监督管理 基本 信息 动态 管理 试点 标准 规范 监督 检查和 行政处罚 系统 基础 规范 监督 检查 工作 监督 监测 信息 现场 文书 监督 检查 工作 动态 管理 试点 标准 规范 监督 绩效考核 系统 基础 监督 工作 绩效考核 指标 信息 机构 人员 考核 试点 标准 规范 监督 综合 行政 管理 决策 全省 信息系统 咨询 信息化 管理 全省 突发事件 信息系统 公共卫生 事件 应急 工作 信息化 管理 全省 监督 网站 平台 监督 信息 咨询 功能 电子政务 系统 公众 监督 信息 办公自动化 系统 决策 信息管理 业务 功能 优化 工作 流程 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.206123    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.206123    	
 卫生部办公厅关于召开2013年全国卫生统计信息工作会议的通知	
 卫生部办公厅关于召开2013年全国卫生统计信息工作会议的通知
 各省、自治区、直辖市卫生厅局，新疆生产建设兵团卫生局，部分计划单列市卫生局，部直属有关单位，部机关有关司局：
@@ -1600,22 +1007,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>办公厅 全国 卫生统计 信息 工作 会议 办公厅 全国 卫生统计 信息 工作 会议 自治区 直辖市 部分 计划单列市 直属 有关 单位 机关 有关 司局 全国 工作 会议 精神 卫生统计 信息 工作 全国 卫生统计 信息 工作 会议 有关 事项 会议 内容 总结 全国 卫生统计 信息 工作 部署 工作 研究 进展 监测 评估 国家 服务 调查 死因 调查 有关 工作 研究 区域 信息 平台 建设 居民 信息 标准 信息安全 工作 交流 信息化 建设 监测 评估 工作 经验 实地考察 信息 平台 建设 居民 管理 情况 会议 时间 地点 会议 时间 日报 会议 地点 酒店 地址 旅游 度假区 枫丹路 电话 人员 有关 司局 负责同志 分管 信息化 工作 办公室 负责人 信息 机构 负责人 部分 计划单列市 信息 机构 负责人 直属 有关 单位 负责同志 有关 单位 负责同志 专家 事项 信息化 建设 综合 试点 信息安全 服务 调查 监测 评估 医院 信息 标准 测试 经验交流 材料 电子 文档 人员 交通费 自理 会议 会议 地点 会议 会议 交流 材料 联系人 联系人 电子邮箱 会议 联系人 联系人 电子邮箱 联系人 电子邮箱 附件 全国 卫生统计 信息 工作 会议 会议 宾馆 交通图 办公厅 附件 全国 卫生统计 信息 工作 会议 姓名 性别 所在单位 职务 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.157199    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.157199    	
 卫生部办公厅关于启用国家重性精神疾病基本数据收集分析系统的通知	
 卫生部办公厅关于启用国家重性精神疾病基本数据收集分析系统的通知
 （卫办疾控函〔2011〕722号）
@@ -2144,22 +1538,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>办公厅 国家 重性 精神疾病 基本 数据 分析 系统 办公厅 国家 重性 精神疾病 基本 数据 分析 系统 卫办疾 自治区 直辖市 计划单列市 疾病 重性 精神疾病 动态 国家 重性 精神疾病 基本 数据 分析 系统 系统 系统 工作 行政部门 辖区 精神 医疗机构 精神 技术 管理机构 基层 医疗卫生 机构 系统 管理人员 培训 费用 中央 地方 疾病 业务培训 项目 国家 重性 精神疾病 基本 数据 分析 系统管理 规范 附件 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 附件 网站 重性 精神疾病 患者 患者 信息 重性 精神疾病 管理 项目 项目 地区 全国 精神疾病 信息管理系统 患者 信息 系统 项目 地区 卫办疾 患者 信息 精神疾病 信息系统 省份 疾控中心 精神 中心 联系 国家 信息系统 基础 数据 国家 信息系统 信息系统 系统 过程 问题 疾控中心 精神 中心 联系 联系人 疾控中心 精神 中心 附件 国家 重性 精神疾病 基本 数据 分析 系统管理 规范 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 附件 国家 重性 精神疾病 基本 数据 分析 系统管理 规范 管理 国家 重性 精神疾病 基本 数据 分析 系统 系统 基本 数据 国家 基本 公共卫生 服务 规范 重性 精神疾病 管理 工作 规范 计算机信息 系统安全 条例 规范 基本 原则 分级 行政部门 精神 技术 管理机构 精防 机构 系统 建设 管理 行政部门 精防 机构 技术 指导 精神 工作 指导 意见 印发 精神 体系 建设 发展 规划 社会 精防 机构 行政部门 辖区 具备条件 精神 专科医院 精神科 专科 特长 综合 医院 精神 专科医院 行政部门 委托 疾病 管理 责任 委托 政府 精神科 综合 医院 技术 指导 责任 属地 管理 医疗机构 系统 基本 数据 报告 单位 精防 机构 技术 指导 管理 报告 病种 基本 数据 范围 报告 病种 精神分裂症 情感性 障碍 精神病 双相 情感 障碍 癫痫 精神障碍 精神 发育 精神障碍 重性 精神疾病 附表 病例 疑似病例 系统 报告 范围 基本 数据 范围 患者 个案 信息 附表 精神 工作 报表 责任 报告 单位 人员 责任 报告 单位 重性 精神疾病 服务 管理 精神 医疗机构 医疗机构 社区卫生 服务中心 乡镇 精防 机构 责任 报告 重性 精神疾病 患者 患者 建档 管理 基层 医务人员 患者 应急 医疗 精神 专业 人员 重性 精神疾病 管理 工作 报表 精防 机构 人员 人员 责任 报告 基本 数据 表格 数据 数据 患者 信息 基本 数据录入 质量 管理 人员 业务 管理员 业务 管理员 精防 机构 系统 用户 账号 分配 用户 权限 用户 管理 职责 责任人 基本 数据 报告 流程 患者 个案 信息 系统 患者 患者 辖区 基本 公共卫生 服务 管理 管理 居家 患者 患者 管理 应急 医疗 患者 管理 患者 患者 管理 任务 基层 医务人员 表格 数据 系统 患者 患者 应急 医疗 应急 医疗 精神 医疗机构 重性 精神疾病 应急 医疗 记录 应急 复印件 小时 内报 精防 机构 精防 机构 应急 精防 机构 辖区 患者 精防 机构 应急 患者 社区卫生 服务中心 乡镇 知情 前提 管理 患者 档案 定期 报告 程序 患者 辖区 患者 精防 机构 应急 单报 市级 精防 机构 市级 精防 机构 数据 本市 患者 应急 医疗 报表 系统 精神 工作 报表 患者 情况 工作 机构 人员 情况 工作 情况 重性 精神疾病 管理 项目 情况 精防 机构 汇总 年度 精神 工作 情况 报表 行政部门 系统 部门 机构 职责 行政部门 系统 管理 任务 管理 规范 制度 定期 督导 行政部门 系统 管理 硬件 地区 精神 工作 信息化 条件 报告 重性 精神疾病 种类 内容 系统 基础 设计 地区 重性 精神疾病 信息管理系统 系统 地市级 行政部门 地区 系统 管理 工作 技术 指导 管理机构 疾控中心 公共卫生 监测 信息 服务中心 系统 建设 定期 备份 师资 培训 疾控中心 精神 中心 精神 研究所 系统 管理 职责 系统管理 规范 管理制度 委托 系统 业务管理 工作 系统 权限 管理 机构 编码 数据 质量 汇总 报表 定期 师资 培训 委托 工作 精防 机构 行政部门 地区 重性 精神疾病 基本 数据 分析 方案 系统 业务管理 权限 管理 系统 数据 质量 汇总 报表 定期 行政部门 培训 市级 精防 机构 辖区 患者 应急 医疗 报表 汇总 网络 报告 任务 精防 机构 辖区 应急 单的 汇总 信息 分流 工作 精神 医疗机构 精神 医疗机构 精神 专科医院 精神科 综合 医院 单位 系统管理 报告 制度 重性 精神疾病 患者 出院 信息 出院 信息 精防 机构 基层 医疗机构 社区卫生 服务中心 乡镇 单位 系统管理 报告 制度 辖区 患者 基本 数据 网络 报告 任务 社区卫生 服务站 社区卫生 服务中心 乡镇 辖区 患者 基本 数据 报告 工作 信息管理 信息 报告 管理 患者 基本 数据 报告 纸质 表格 系统 网络 报告 形式 网络 报告 网络 直报 条件 责任 报告 单位 基本 数据录入 系统 网络 直报 条件 社区卫生 服务中心 乡镇 所在地 精防 机构 社区卫生 服务中心 乡镇 直报 用户 账号 信息 责任 报告 数据 基本 数据 准确性 完整性 责任 报告 纸质 表格 错项 漏项 逻辑 错误 检查 信息 数据 信息 核实 精防 机构 数据 辖区 网络 报告 基本 数据 信息 责任 报告 单位 核实 信息 责任 报告 单位 管理 信息 变化 患者 系统 信息 精防 机构 辖区 系统 网络 报告 信息 报告 患者 信息 基本相同 责任 报告 单位 数据 取得联系 核实 信息 信息安全 管理 精防 机构 系统 用户 管理 行政部门 系统 范围 权限 部门 机构 系统 信息 证明 行政部门 备案 行政部门 依法 全国 重性 精神疾病 管理 信息 责任 报告 单位 责任 报告 数据 精神 疾病防治 人员 无权 社会 信息 人员 患者 信息 业务 管理员 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 规定 履行职责 国家 法律法规 国家 保密制度 有关 规定 责任心 计算机 互联网络 基本 网络安全 网络 系统 信息 系统 资料 系统 患者 个案 信息 系统 定期 自动 常规 报表 统计图表 精神 管理 资料 基层 医疗机构 建档 产生 纸质 材料 患者 档案 信息 系统 自动 清空 患者 个案 信息 数据 定期 备份 基本 数据 结果 考核 评估 行政部门 定期 辖区 重性 精神疾病 信息 报告 管理工作 考核 精防 机构 行政部门 考核 方案 定期 医疗机构 指导 评估 有关 医疗机构 精神疾病 基本 数据 分析 工作 单位 考核 范围 定期 自查 附表 系统 报告 病种 名称 编码 系统 基础 数据 附表 系统 报告 病种 名称 编码 序号 编码 名称 编码 癫痫 精神障碍 精神分裂症 精神分裂症 精神分裂症 精神分裂症 分化 精神分裂症 精神分裂症 精神分裂症 精神分裂症 精神分裂症 精神分裂症 精神病 情感性 障碍 情感性 障碍 情感性 障碍 情感性 障碍 情感性 障碍 发作 精神病 症状 精神病 症状 发作 发作 双相 情感 障碍 发作 双相 情感 障碍 双相 情感 障碍 精神病 症状 发作 双相 情感 障碍 精神病 症状 发作 发作 双相 情感 障碍 双相 情感 障碍 精神病 症状 重度 发作 双相 情感 障碍 精神病 症状 重度 发作 发作 双相 情感 障碍 状态 双相 情感 障碍 双相 情感 障碍 双相 情感 障碍 精神 发育 精神障碍 附表 系统 基础 数据 序号 信息 条目 序号 信息 条目 患者 编号 时间 知情 基础 管理 病情 分类 知情 时间 危险性 评估 监护人 姓名 滋事 监护人 电话 肇事 监护人 患者 关系 肇祸 患者 姓名 身份证号 性别 服药 出生日期 效果 两系 重性 精神疾病 家族史 实验室 检查 婚姻状况 药物 民族 职业 个案 管理 文化 程度 个案 管理 病情 总体 评估 国标码 个案 管理 社会 功能 总评 户籍 国标码 应急 医疗 应急 滋事 时间 肇事 肇祸 精神病 药物 精神病 时间 经济 状况 急性 药物 项目管理 患者 项目管理 时间 应急 措施 现场 情况 精神科 门诊 住院 情况 精神科 住院 出院 时间 住院 患者 经费 原因 应急 医疗 状况 应急 医疗 性质 原因 应急 医疗 对象 来源 项目 重性 精神疾病 管理 项目 信息 条目 患者 个人信息 信息 附件 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 规范 国家 重性 精神疾病 基本 数据 分析 系统 系统 用户 权限 用户 职责 用户 功能 角色 定义 用户 系统 使用者 功能 用户 系统 个案 信息 角色 权限 管理 角色 功能 个案 信息 功能 角色 用户 类型 业务 管理员 精防 机构 系统 用户 账号 分配 权限 用户 管理 职责 责任人 用户 管理系统 系统 用户 管理系统 用户 账号 分配 权限 业务 管理员 责任心 计算机 网络 管理 精神 工作 体系 人员 国家 法律法规 国家 保密制度 有关 规定 网络 系统 信息 用户 业务 管理员 分配 权限 业务 功能 用户 国家 精神 医疗机构 精防 机构 直报 用户 业务 管理员 分配 患者 个案 信息 报告 用户 社区卫生 服务中心 乡镇 业务 管理员 职责 业务 管理员 负责管理 业务 管理员 用户 直报 用户 分级 方式 业务 管理员 辖区 用户 账号 角色 权限 分配 工作 业务 管理员 系统 角色 权限 分配 国家 市级 业务 管理员 业务 管理员 用户 账号 角色 业务 管理员 直报 用户 用户 账号 角色 分级 国家 市级 业务 管理员 业务 管理员 用户 培训 技术 指导 管理 任务 业务 管理员 直报 用户 用户 培训 技术 指导 管理 任务 业务 管理员 辖区 系统安全 用户 用户 原则 工作 用户 用户 权限 分配 数据 报告 原则 系统 角色 用户 合理 权限 业务 管理员 基层 医疗机构 责任 报告 单位 直报 用户 账号 网络 直报 条件 单人 原则 用户 账号 系统 用户 信息 实名制 系统 调整 业务 管理员 调整 角色 环境 用户 程序 用户 业务 管理员 国家 重性 精神疾病 基本 数据 分析 系统 用户 申请表 附表 用户 申请表 经本 单位 主管 领导 业务 管理员 账号 精防 机构 精神 医疗机构 医疗机构 系统 网络 直报 数据管理 用户 申请表 经本 单位 主管 领导 精防 机构 业务 管理员 账号 社区卫生 服务中心 乡镇 用户 申请表 经本 单位 领导 精防 机构 业务 管理员 直报 用户 账号 用户 业务 管理员 用户 申请表 国家 重性 精神疾病 基本 数据 分析 系统 用户 附表 经本 单位 主管 领导 单位 用户 单位 用户 申请表 业务 管理员 用户 步骤 账号 角色 角色 分配 权限 角色 业务 管理员 用户 账号 用户 业务 管理员 角色 用户 账号 命名 规则 用户 账号 命名 规则 用户 类型 首字母 县区 名称 首字母 用户 姓名 全拼 县区 名称 首字母 用户 行政区划 名称 首字母 字母 全部 小写 保定市 业务 管理员 账号 管理员 保定市 用户 账号 直报 用户 账号 直报 区县 用户 姓名 拼音 情况 顺序 账号 阿拉伯数字 角色 管理 角色 类型 角色 类型 个案 信息 个案 信息 报表 患者 应急 医疗 报表 报表 精神 工作 报表 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 报表 角色 业务 管理员 用户 对应 角色 附表 角色 用户 有效期 用户 有效期 设置 有效期 用户 业务 管理员 期限 期限 管理 系统安全 管理 用户 国家 法律法规 单位 规章制度 网络 反动 言论 国家 单位 机密 传播 系统 信息 用户 规定 网络 环境 专机 专用 计算机 系统 用户 系统 计算机上安装 防火墙 定期 病毒 木马 程序 黑客程序 用户 管理 账号 管理 业务 管理员 用户 信息 表单 定期检查 用户 账号 情况 用户 账号 角色 用户 调离 岗位 业务 管理员 报告 业务 管理员 用户 账号 密码 管理 业务 管理员 用户 账号 分配 初始密码 用户 业务 管理员 有权 重设 业务 管理员 账号密码 重设 生效 业务 管理员 记录 重设 原因 备查 用户 系统 初始密码 用户 密码 设置 数字 字母 符号 混合 用户 账号 密码 应急 管理 直报 用户 用户 账号密码 小时 业务 管理员 业务 管理员 情况 用户 权限 数据 用户 所报 数据 核查 报告 数据 用户 密码 用户 报告 权限 书面 记录 备查 业务 管理员 检查用户 权限 系统 用户 用户 信息 用户 账号 补救措施 危害 数据 行政部门 精防 机构 疾控中心 精神 中心 疾控中心 公共卫生 监测 信息 服务中心 报告 业务 管理员 账号 报告 业务 管理员 业务 管理员 用户 权限 核查 系统 账号 管理 数据安全 补救措施 系统安全 账号 功能 业务 管理员 业务 管理员 工作 单位 负责人 现场 账号 信息 密码 系统 用户 信息 文档 核查 工作 书面 报告 双方 单位 负责人 报告 业务 管理员 业务 管理员 业务 管理员 账号 业务 管理员 账号 督导 考核 评估 督导 责任 报告 单位 定期 权限 用户 管理 专项 督导 督导 重点 内容 业务 管理员 用户 申请表 分配 业务 管理员 用户 直报 用户 权限 岗位职责 用户 权限 申请表 权限 用户 有效期 管理 情况 调离 岗位 用户 机构 编码 年度 机构 用户 用户 权限 表单 用户 密码 管理 设置 密码 定期 密码 用户 账号 专人 专用 考核 评估 单位 考核 形式 重点 考核 管理 数据 质量 通报 年度 考核 结果 附表 系统 用户 申请表 系统 用户 用户 对应 角色 附表 系统 用户 申请表 所在单位 姓名 部门 手机 单位 性质 行政部门 疾病 机构 精神 医疗机构 社区卫生 服务中心 乡镇 精防 机构 账号 用户 类型 业务 管理员 用户 直报 用户 用途 系统管理 业务 业务 管理权限 系统 用户 管理 用户 管理 用户 角色 用户 资料 个案 信息管理 基本 信息 信息 全部 个案 信息 个案 信息 报表 管理 全部 报表 报表 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 报表 质量 全部 信息 报告 单位 类型 分析 报告 单位 直报 情况 调查 账号 有效期 单位 主管 领导 附表 系统 用户 单位名称 姓名 部门 用途 系统管理 业务 业务 账号 用户 类型 业务 管理员 用户 数据 用户 直报 用户 情况 理由 账号 有效期 地址 用户 账号 初始密码 业务 管理员 单位 主管 领导 初始密码 计算机 系统 附表 用户 对应 角色 序号 用户 类型 分配 角色 业务 管理员 用户 数据 个案 信息 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 报表 用户 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 业务 管理员 用户 数据 报表 个案 信息 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 用户 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 市级 业务 管理员 市级 用户 数据 报表 个案 信息 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 市级 用户 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 业务 管理员 用户 数据 个案 信息 个案 信息 汇总 报表 用户 个案 信息 汇总 报表 直报 用户 个案 信息 个案 信息 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.168837    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.168837    	
 卫生部办公厅关于建立内部审计工作信息报告与通报制度的通知	
 卫生部办公厅关于建立内部审计工作信息报告与通报制度的通知
 （卫办规财发〔2012〕22号）
@@ -2264,22 +1645,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>办公厅 审计工作 信息 报告 通报制度 办公厅 审计工作 信息 报告 通报制度 自治区 直辖市 部属 单位 卫生系统 审计工作 规定 部长 全国 卫生系统 审计工作 交流会 精神 地区 单位 审计工作 情况 交流 工作 信息 工作 经济 管理 科学化 信息化 建设 审计工作 信息 报告 通报制度 有关 事项 审计工作 信息 报告 工作 信息内容 经济 责任 财务收支 经济效益 专项资金 经济合同 项目 审计工作 情况 信息内容 项目 数量 资金 总额 问题 资金 额度 条数 问题 线索 情况 部门 情况 情况 范围 时间 自治区 直辖市 审计工作 情况 报告 专项 审计工作 情况 统计表 项目 审计工作 情况 统计表 附件 附件 附件 时间 工作 情况 年度 工作 情况 单位 部属 单位 审计工作 情况 报告 部属 单位 专项 审计工作 情况 统计表 部属 单位 项目 审计工作 情况 统计表 附件 附件 附件 时间 季度 信息 时间 行政部门 单位 方式 工作效率 经济 管理 信息化 建设 审计工作 信息 报告 报表 全部 地区 单位 规划 财务 信息 交流平台 纸质 报表 地区 单位 规划 财务 信息 平台 网址 情况 质量 地区 单位 专人 报表 审计工作 报表 编报 质量 管理 数据 真实性 准确性 部将 审计工作 信息 质量 监督 检查 资料 单位 质量 单位 通报 审计工作 信息 通报 部将 地区 单位 审计工作 信息 汇总 分析 规划 财务 信息 平台 通报 信息 地区 单位 负责人 地区 直属单位 地区 审计工作 情况 形式 通报 地区 单位 过程 问题 规划 联系 联系人 电话 附件 审计工作 情况 报告 专项 审计工作 情况 统计表 项目 审计工作 情况 统计表 部属 单位 审计工作 情况 报告 部属 单位 专项 审计工作 情况 统计表 部属 单位 项目 审计工作 情况 统计表 附件 审计工作 情况 报告 审计工作 情况 报告 单位 工作 概况 统计表 数据 问题 工作 计划 建议 典型 案例 负责人 报告 报告 工作 情况 工作 情况 附件 专项 审计工作 情况 统计表 专项 审计工作 情况 统计表 单位 金额 单位 类型 行次 项目 数量 资金 总额 问题 资金 处理意见 建议 线索 部门 项目 部门 人员 单位 意见 建议 规范 财务 资金 金额 资金 金额 损失 金额 规章制度 合计 管理 规范 金额 违规 违纪 金额 经济 责任 财务收支 经济效益 专项资金 经济合同 合计 负责人 统计表 统计表 工作 情况 工作 情况 项目 审计工作 情况 本表 附件 项目 审计工作 情况 统计表 项目 审计工作 情况 统计表 单位 金额 单位 行次 项目 资金 资金 违规 资金 处理意见 建议 问题 线索 部门 项目 部门 人员 资金 金额 单位 意见 建议 合计 项目 委托 项目 项目 项目 合计 负责人 统计表 统计表 工作 情况 工作 情况 附件 部属 单位 审计工作 情况 报告 单位 工作 概况 统计表 数据 问题 工作 计划 建议 典型 案例 负责人 报告 报告 统计表 统计表 工作 情况 工作 情况 情况 工作 附件 部属 单位 专项 审计工作 情况 统计表 单位 金额 单位 类型 行次 项目 数量 资金 总额 问题 资金 处理意见 建议 线索 部门 项目 部门 人员 单位 意见 建议 规范 财务 资金 金额 资金 金额 损失 金额 规章制度 合计 管理 规范 金额 违规 违纪 金额 经济 责任 财务收支 经济效益 专项资金 经济合同 合计 负责人 统计表 统计表 工作 情况 工作 情况 情况 工作 情况 项目 审计工作 情况 本表 附件 部属 单位 项目 审计工作 情况 统计表 单位 金额 单位 行次 项目 资金 资金 违规 资金 处理意见 建议 问题 线索 部门 项目 部门 人员 资金 金额 单位 意见 建议 合计 项目 委托 项目 项目 项目 合计 负责人 统计表 统计表 工作 情况 工作 情况 情况 工作 情况 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>卫生部办公厅关于开展国家新型农村合作医疗信息平台建设试点工作的通知
+  </si>
+  <si>
+    <t>卫生部办公厅关于开展国家新型农村合作医疗信息平台建设试点工作的通知
 （卫办综函〔2011〕1150号）
 各省、自治区、直辖市卫生厅局，新疆生产建设兵团卫生局，部直属各单位：
 　　按照《中共中央 国务院关于深化医药卫生体制改革的意见》关于建立和完善医疗保障信息系统的要求，我部正在组织建设国家新型农村合作医疗信息平台（以下简称国家新农合平台），并委托中国医学科学院医学信息研究所承担具体工作，目的是联通各省级新农合信息平台（以下简称省级新农合平台），通过新农合业务数据的交换和共享，实现对全国新农合业务运行的有效监控和参合农民跨省就医的有效管理，为参合农民服务，为卫生决策服务。
@@ -2290,22 +1658,9 @@
 　　中国医学科学院医学信息研究所联系人：郭珉江
 　　联系电话：010-52328873
 　　二〇一一年十二月十三日</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>办公厅 国家 新型农村 合作医疗 信息 平台 建设 试点工作 卫办 自治区 直辖市 直属 单位 医药卫生 意见 医疗保障 信息系统 建设 国家 新型农村 合作医疗 信息 平台 国家 新农 平台 委托 医学 信息 研究所 工作 目的 联通 新农 信息 平台 新农 平台 新农 业务 数据 全国 新农 业务 监控 农民 跨省 管理 农民 服务 决策 服务 国家 新农 平台 新农 平台 国家 新农 平台 联通 试点工作 医院 试点 省份 单位 国家 平台 试点 省份 单位 领导 专人 实施方案 充分利用 资源 技术 优势 新农 业务 系统 环境 联通 试点工作 试点 局应 信息化 标准规范 实际 有关 项目 建设 建设 新农 平台 新农 信息系统 国家 新农 平台 联通 部将 新农 平台 程度 试点 范围 新农 平台 国家 新农 平台 办公厅 联系人 医学 信息 研究所 联系人</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.221110    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.221110    	
 卫生部办公厅关于推进国家新型农村合作医疗信息平台建设工作的通知	
 卫生部办公厅关于推进国家新型农村合作医疗信息平台建设工作的通知
 （卫办农卫函〔2012〕842号）
@@ -2403,22 +1758,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>办公厅 国家 新型农村 合作医疗 信息 平台 建设 工作 办公厅 国家 新型农村 合作医疗 信息 平台 建设 工作 自治区 直辖市 直属 单位 办公厅 国家 新型农村 合作医疗 信息 平台 建设 试点工作 卫办 国家 新型农村 合作医疗 信息 平台 国家 新农 平台 部分 新农 平台 医院 信息系统 国家 新农 平台 建设 国家 新农 平台 新农 业务 监控 跨省 管理 联通 范围 有关 事项 联通 范围 联通 省份 单位 医院 附件 工作 内容 实施方案 联通 省份 单位 联通 实施方案 国家 新农 平台 联通 工作 平台 系统 管理 办法 指派 专人 定期 工作 机制 工作 平台 联通 联通 省份 单位 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 技术 方案 硬件 设备 所需 设置 参数 分配 网络带宽 系统 数据 功能 国家 新农 平台 联通 数据 联通 省份 介质 拷贝 形式 新农 基础 数据 业务 数据 报表 数据 数据 跨省 数据 技术 方案 时间 频率 联通 医院 技术 方案 时间 频率 跨省 数据 试点 跨省 管理 联通 省份 地区 试点 农民 跨省 费用 核查 服务 条件 地区 启动 农民 跨省 异地 结报 服务 评估 联通 工作 总体 联通 省份 单位 工作 全面 总结 问题 成功经验 平台 国家 新农 平台 联通 联通 省份 单位 网络 环境 系统 联通 省份 单位 数据 工作 联通 情况 检查 督导 工作 国家 新农 平台 平台 医院 信息系统 新农 合作 措施 单位 领导 有关 部门 工作 小组 分工 力量 联通 工作 联通 省份 新农 平台 国家 新农 平台 联通 工作 数据 跨省 数据 国家 新农 平台 平台 系统 医院 平台 联通 单位 联通 方式 平台 联通 单位 国家 新农 平台 联通 农民 跨省 数据 医学 信息 研究所 委托 建设 国家 新农 平台 联通 工作 联通 工作 技术 方案 网络 环境 测试 调用 程序 基础 数据 业务 数据 跨省 数据 联通 工作 技术支持 联通 范围 技术 方案 建设 新农 平台 数据 规范 程度 新农 信息系统 国家 新农 平台 联通 工作 系统 建设 基础 数据 质量 规范 省份 申请加入 联通 省份 办公厅 联系人 电话 农卫司 联系人 电话 医学 信息 研究所 联系人 电话 附件 联通 医院 名单 联通 省份 单位 联系人 登记表 办公厅 附件 联通 医院 名单 序号 医院 名称 心血管病 医院 人民 医院 医院 医院 联谊 医院 医院 肿瘤医院 人民 医院 人民 医院 同济 医院 梨园 医院 医院 医院 医院 医院 人民 医院 附件 联通 省份 单位 联系人 登记表 联通 省份 单位 联系人 电子邮件 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.150339    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.150339    	
 卫生部办公厅关于统一使用医疗质量安全事件信息报告系统的通知	
 卫生部办公厅关于统一使用医疗质量安全事件信息报告系统的通知
 （卫办医管函〔2011〕337号）
@@ -2436,22 +1778,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>办公厅 统一 医疗 质量 安全事件 信息 报告 系统 办公厅 统一 医疗 质量 安全事件 信息 报告 系统 自治区 直辖市 医疗 质量 安全事件 报告 医疗 质量 安全事件 信息 报告 系统 报告 系统 行政部门 医疗机构 统一 报告 系统 报告 医疗 质量 安全事件 有关 报告 系统 行政部门 医疗机构 行政部门 医疗机构 医管司 主页 版本 软件 说明书 行政部门 用户名 密码 统一 医疗机构 用户名 密码 医疗机构 执业 行政部门 设置 行政部门 医疗机构 医疗 医疗事故 报告 制度 规定 统一 医疗 医疗事故 报告 工作 软件 医疗 医疗事故 报告 工作 软件 报告 信息 报告 系统 过程 意见 建议 医管司 联系人 医管司 技术 咨询电话 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.150228    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.150228    	
 卫生部疾控局关于启用寄生虫病防治信息管理系统的通知	
 卫生部疾控局关于启用寄生虫病防治信息管理系统的通知
 （卫疾控血防便函〔2011〕29号）
@@ -2471,22 +1800,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>疾控局 寄生虫病 信息管理系统 疾控局 寄生虫病 信息管理系统 血防 自治区 直辖市 局疾 地病 疾病 办公厅 国家 卫生统计 网络 直报 工作 局商 疾病 利用 疾病 信息系统 平台 寄生虫病 信息管理系统 寄生虫病 专报 系统 系统 月份 有关 事项 管理 疾病 寄生虫病 全国 寄生虫病 专报 系统 管理 行政部门 机构 专门 人员 本行政区域 寄生虫病 专报 系统 管理工作 报告 内容 办公厅 全国 监督 调查 制度 制度 寄生虫病 专报 系统 报告 内容 血吸虫病 工作 调查表 疟疾 工作 调查表 包虫病 工作 调查表 土源 线虫病 工作 调查表 卫统 卫统 血吸虫病 疟疾 土源 线虫病 国家 监测点 报表 寄生虫病 专报 系统 网络 直报 方式 寄生虫病 专报 系统 网址 数据 网络 直报 网络 直报 条件 网络 直报 网络 直报 条件 汇总 数据 网络 直报 权限 时限 网络 直报 数据 报表 领导 寄生虫病 专报 系统 规范 寄生虫病 信息管理 报告 效率 行政部门 单位 寄生虫病 专报 系统 工作 宣传 培训 寄生虫病 专报 系统 责任心 专业 人员 设备 设施 工作 经费 工作 顺利进行 疾病 系统维护 人员培训 技术 指导 保证系统 寄生虫病 专报 系统 管理 情况 检查和 督导 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.144311    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.144311    	
 卫生部疾病预防控制局关于印发《结核病防治核心信息(2010版)》的通知	
 卫生部疾病预防控制局关于印发《结核病防治核心信息（2010版）》的通知
 （卫疾控结防便函〔2011〕3号）
@@ -2534,22 +1850,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>疾病 印发 结核病 核心 信息 疾病 印发 结核病 核心 信息 自治区 直辖市 局疾 统一 规范 宣传 结核病 工作 政策 要点 印发 结核病 核心 信息 核心 信息 核心 信息 结核病 工作 结核病 疫情 变化 工作 部分 核心 信息 调整 专家 结核病 核心 信息 结核病 核心 信息 印发 地区 工作 实际 结核病 工作 结核病 核心 信息 结核病 核心 信息 面向 人群 面向 目标 人群 核心 信息 面向 人群 核心 信息 核心 信息 工作 核心 信息 基础 目标 人群 面向 目标 人群 政府 领导 医务人员 患者 流动人口 教师 核心 信息 面向 人群 核心 信息 肺结核 传染病 肺结核 传播 勤洗手 通风 肺结核 掩口 随地吐痰 肺结核 传播 医院 结核病 定点 医疗卫生 机构 肺结核 检查 部分 项目 免费 政策 宣传 定点 医疗卫生 机构名称 免费 项目 面向 目标 人群 核心 信息 政府 领导 核心 信息 肺结核 依法 传染病 肺结核 疫情 社会 经济 发展 水平 政府 肺结核 疫情 关键 肺结核 政府 民生 肺结核 疫情 现状 面向 医务人员 核心 信息 患者 肺结核 肺结核 病例 依法 报告 肺结核 患者 家属 教育 面向 肺结核 患者 核心 信息 全程 规范 肺结核 耐药 关键 肺结核 传播 家人 社会 义务 责任 面向 核心 信息 患者 服药 定期 复查 规范 房间 通风 个人 面向 流动人口 核心 信息 肺结核 优惠政策 户籍 患者 居住地 全程 主管 医生 患者 居住地 结核病 医疗卫生 机构 面向 教师 核心 信息 结核病 检查 学校 常规 项目 教师 义务 学生 结核病 教育 学生 学校 结核病 定点 医疗卫生 机构 证明 管理 学生 患者 休学 复学 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">国家中医药管理局办公室关于印发《国家中医临床研究基地中医医疗与临床科研信息共享系统建设基本要求》（试行）的通知
+  </si>
+  <si>
+    <t xml:space="preserve">国家中医药管理局办公室关于印发《国家中医临床研究基地中医医疗与临床科研信息共享系统建设基本要求》（试行）的通知
 （国中医药办科技发〔2011〕36号）
 （法宝联想:　 部门规章约4篇 地方法规规章约1篇 ）
 各省、自治区、直辖市卫生厅局、中医药管理局，局各直属单位，北京中医药大学，各国家中医临床研究基地建设单位，国家中医临床研究基地督导组成员：
@@ -2941,22 +2244,9 @@
 　　（2） BO软件的安装和部署，元信息数据库的导入和报表文件的导入处理。
 　　（3） ETL和复杂网络分析系统的部署。
 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>办公室 印发 国家 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 科技 部门规章 地方 法规 规章 自治区 直辖市 管理局 直属单位 国家 临床 研究 基地 建设 单位 国家 临床 研究 基地 督导组 成员 临床 科研 模式 特点 研究 方法 国家 临床 研究 基地 临床 研究 能力 效率 国家 临床 研究 基地 业务 建设 工作 总体 部署 国家 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 印发 有关 事项 基地 建设 单位 单位 实际 调查 研究 内容 工作 计划 工作 目标 步骤 工作 责任 系统 建设 有关 科技司 基地 科学院 联系 研究 信息 系统 建设 方案 过程 意见 建议 科技司 基地 业务 建设 督导组 基地 情况 督导 检查 重点 病种 研究 方面 系统 联系人 电话 科技司 科技处 基地 办公室 科学院 国家 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 总则 国家 临床 研究 基地 基地 业务 建设 充分利用 产生 大量 信息 高质量 研究 重点 建设 发展 规划 临床 研究 基地 建设 指导 意见 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 基本 基地 医疗 临床 科研 信息 系统 系统 临床 科研 理念 临床 流行病学 循证 医学 原则 充分利用 信息技术 标准化 规范化 基础 计算机 数理统计 数据挖掘 人工智能 方法 临床 研究 技术 平台 系统 建设 目标 临床 研究 特点 基地 利用 临床 实际 数据 研究 关键技术 问题 临床 数据 管理 利用 技术 支撑体系 医疗 临床 科研 信息 整体 基地 临床 研究 能力 效率 基地 国家 服务 科技 体系 龙头 现代化 临床 研究 机构 基地 系统 建设 医院 领导 专职人员 专项经费 协同 建设 原则 系统 建设 基本 技术 指南 基地 医院 信息化 状况 系统 建设 实施方案 基地 临床 研究 系统 重点 病种 临床 研究 导向 充分利用 信息技术 计算机技术 数理统计 方法 高质量 临床 研究 数据 技术 资源 优化 系统 建设 医院 信息系统 基础 检验 图像 管理系统 充分利用 资源 优化 系统集成 技术 信息 孤岛 基地 管理 部门 总体 基础 定期 基地 系统 建设 质量 检查 国家 医疗 临床 科研 信息 系统 专家 指导 小组 基地 系统 建设 实施方案 系统 建设 技术咨询 业务 指导 科学院 基地 系统 共性 产品 技术 服务 项目 整体 部署 人员培训 指导 建设 规划 方案 研究 系统 关键技术 问题 基地 专家组 实施方案 计划 基地 系统 建设 任务 医院 信息系统 建设 系统 有机 融合 系统 临床 充分利用 海量 临床 数据 临床 研究 标准化 知识产权 信息 标准化 工作 系统 建设 基地 人员 信息 标准 质量 工作 基地 系统 建设 国家 行业标准 专家 基地 信息化 建设 标准 体系 系统 规范化 建设 基地 基地 重点 病种 方面 规范 术语 体系 质量关 高质量 临床 数据 国家 知识产权 规定 数据库 数据仓库 权限 管理 办法 单位 部门 个人 知识产权 系统 功能 医疗 临床 科研 信息 系统 临床 术语 术语 字典 数据 系统 数据 管理 数据仓库 数据挖掘 分析 部分 部分 有机 联系 临床 病历 书写 管理 高质量 临床 数据 产生 利用 功能 临床 术语 术语 字典 临床 术语 集是 规范 术语 有机 临床 术语 字典 临床 数据挖掘 利用 基础 规范 术语 来源 系统 建设 发展 基础 术语 字典 数据 系统 临床 规范 术语 工具 临床 数据 模板 病历 书写 术语 来源 系统 建设 统一 临床 术语 临床 术语 术语 字典 基地 临床 医疗 研究 术语 临床 数据 临床 研究 数据 质量 系统 结构化 数据 结构化 文本 临床 医疗 业务 科研 数据 系统 电子 病历 系统 功能 规范 电子 病历 系统 功能 规范 规范 系统 全面 规范 多媒体 格式 临床 信息 文字 表格 图片 音频 视频 系统 医院 系统集成 融合 系统 数据 研究 分析 所需 信息 数据 数据挖掘 工作 有机 病历 质量 临床 研究 数据 质量 监测 功能 数据 管理 原始数据 数据源 特征 数据 系统 全面 动态 数据 批量 汇总 数据 整理 数据 任务 数据 自动 数据仓库 特点 统一 建模 临床 数据仓库 数据 批量 数据 检索 可视化 合理 权限 管理 知识产权 功能 面向 重点 病种 专用 分析 功能 临床 研究 数据挖掘 分析 数据挖掘 基本 工具 基地 数据中心 全面 系统 数据库 管理 数据 整理 汇总 任务 基地 临床 研究 信息技术 中心 专用 工作场地 设备 专职人员 重点 病种 数据挖掘 人员 人员 国家 临床 研究 数据中心 国家 临床 研究 数据库 网络 建设 管理 数据 汇总 分析 研究 任务 基地 数据中心 技术支持 国家 临床 研究 数据中心 临床 基地 信息 双向 流通 机制 基地 信息 技术 管理 规范 附则 基本 科技司 基本 基地 协作单位 基本 附件 医疗 临床 科研 信息 系统 项目 指南 管理 建设 分工 条件 建设 硬件 软件 临床 术语 技术 技术 路线 实施方案 考核 数据 系统 技术 基本 步骤 考核 模板 系统 数据 质量 数据仓库 分析 技术 基本 基础设施 步骤 任务 分工 考核 平台 成果 基础设施 硬件 软件 数据仓库 软件 部署 管理 医疗 临床 科研 信息 系统 系统 临床 科研 理念 利用 信息技术 标准化 规范化 基础 计算机 数理统计 数据挖掘 人工智能 方法 临床 研究 技术 平台 临床 研究 基地 建设 指导 意见 临床 研究 基地 业务 建设 临床 科研 信息 系统 临床 研究 基地 业务 建设 任务 基地 建设 一体 两翼 建设 任务 指导 规范 基地 医疗 临床 科研 信息 系统 建设 医疗 临床 科研 信息 系统 项目 指南 指南 国家 系统 规范 研究 技术 标准规范 建设 基地 国家 统一 指导 系统 建设 基地 管理 部门 定期 基地 系统 建设 质量 检查 基地 系统 建设 基地 建设 总体方案 基础设施 建设 学科 专科 建设 协同 建设 分工 国家 医疗 临床 科研 信息 系统 专家 指导 小组 基地 系统 建设 标准 管理 咨询 科研 方法 指导 临床 科研 信息 学术交流 平台 定期 临床 研究 学术活动 技术 交流 临床 研究 人才 基地 系统 建设 领导小组 设置 机构 专职 人员 领导小组 医院 领导 成员 重点 研究 病种 负责人 科研 信息 医务 职能 科室 负责人 领导小组 基地 系统 建设 规划 重点 研究 病种 技术标准 体系 人员 技术培训 硬件 建设 信息系统 调试 方面 建设 任务 重点 研究 病种 病种 研究 术语 标准 规范 人员 名词术语 重点 病种 术语 字典 重点 病种 病历 模板 基地 科研 管理 医务 部门 科研 数据 质量 体系 规范 监督 重点 病种 数据 过程 指导 重点 病种 术语 模板 标准 体系 中医理论 临床 科研 数据 分析 能力 临床 科研 方法学 研究 人员 重点 病种 疗效 评价 方案 优化 评价 经验总结 研究 工作 基地 信息管理 部门 医院 系统安全 专职人员 语言 软件 编程语言 专业 数据库 能力 人员 数据 系统维护 传输数据 数据 基地 实际 系统 建设 专家 技术 系统 建设 技术咨询 方案 审查 质量 科学院 深入研究 系统 关键技术 问题 基地 共性 产品 技术 服务 项目 整体 部署 人员培训 指导 建设 规划 方案 条件 建设 硬件 系统 医院 信息 网络 基础 系统 医院 硬件 系统 中心 机房 综合 布线 系统 网络 建设 数据库 存储系统 符合国家 国际 建设 规范 技术标准 核心 设备 临床 研究 基地 信息 平台 软件 系统 建设 临床 数据 系统 数据库 管理系统 数据仓库 分析 软件 软件 临床 数据 系统 结构化 电子 病历 系统 信息化 建设 功能 规范 电子 病历 系统 实际 系统 临床 研究 基地 系统 临床 术语 临床 术语 集是 规范 术语 有机 临床 术语 字典 临床 数据挖掘 利用 基础 规范 术语 来源 术语 字典 数据 系统 临床 规范 术语 工具 临床 数据 模板 病历 书写 术语 来源 系统 建设 统一 临床 术语 临床 术语 术语 字典 技术 重点 病种 临床 术语 字典 系统 服务 方面 数据 数据检索 模型 病历 模板 数据 临床 数据 便捷性 灵活性 信息 数据检索 数据检索 调用 实际 检索 术语 能将 术语 术语 属性 同义 术语 编码 检索 模型 数据挖掘 模型 数据 整理 临床 数据仓库 数据挖掘 研究 服务 数据挖掘 结果 真实性 准确性 病历 模板 病历 模板 系统 核心 重点 病种 临床 术语 字典 病历 模板 技术 路线 实施方案 临床 术语 科学院 研制 临床 术语 资源 基地 基地 使用权 版权 科学院 过程中将 基地 情况 术语 重点 病种 临床 术语 字典 基地 重点 病种 研究 典型 病历 文献 病种 术语 统一 重点 病种 临床 术语 字典 结构 重点 病种 临床 术语 属性 临床 术语 重点 病种 临床 术语 字典 重点 病种 临床 术语 字典 术语 来源 临床 术语 若需 规范 重点 病种 临床 术语 字典 重点 病种 临床 术语 字典 术语 术语 术语 术语 时间 时间 结果 人员 权限 重点 病种 研究 专家 重点 病种 临床 术语 字典 术语 标识 重点 病种 临床 术语 字典 字典 权限 重点 病种 研究 专家 痕迹 考核 重点 病种 临床 术语 字典 临床 术语 术语 字典 机制 模式 数据 系统 技术 基本 临床 科研 病历 数据 工具 系统 结构化 电子 病历 工具 临床 医疗 业务 科研 数据 电子 病历 规范 系统 电子 病历 系统 功能 规范 电子 病历 系统 功能 规范 规范 全面 临床 信息 功能 系统 全面 规范 多媒体 格式 临床 信息 文字 表格 图片 音频 视频 医疗系统 系统 医院 系统集成 融合 数据挖掘 系统 有机 系统 数据 数据 数据挖掘 工作 有机 科研 病历 监测 功能 科研 病历 质量 监测 功能 核查 科研 病历 数据 信息 范围 基地 重点 病种 研究 科室 功能模块 基地 系统 项目 合理 分析 单位 功能模块 基础设施 基地 设备 网络 结构化 电子 病历 基本 项目 入场 基地 单位 设备 部门 科室 网络 系统 数据挖掘 分析 系统 专用 服务器 临床 科研 病历 数据 实际 数据库 管理软件 人员 基地 单位 专职 团队 工作 人员 医院 工作人员 基地 科研人员 工作 流程 方法 科室 基础 系统 设计 系统 系统 方案 医院 实际 情况 地区 方案 入场 组织协调 医院 信息系统 系统 工作 系统 医院 系统集成 融合 方案 计划 调研 报告 项目 基地 项目 调研 报告书 医院 项目 领导小组 成员 医院 信息化 现状 医院 硬件 建设 情况 机房 服务器 医院 重点 科室 临床 科室 情况 病历 结构 模板 格式 工作 场所 情况 接口标准 方案 系统 系统 方案 实施方案 计划 项目 调研 工作 方案 基地 单位 整体 实施方案 计划 步骤 项目 启动 会议议程 人员 会议 会议 地点 环境 检查 检查 服务器 客户端 环境 基础 环境 工作 客户端 网络 环境 工作 方案 细节 内容 开发计划 项目 启动 领导小组 动员 项目 工作 工作 计划 科室 调研 医院 情况 调研 科室 调研 重点 病种 临床 科室 病历 模板 资料 测试 商定 方案 计划 工作 环境 工作 实际 测试 模板 制作 重点 病种 临床 术语 临床 术语 部分 模板 电子 病历 系统 功能 规范 电子 病历 系统 功能 规范 规范 模板 制作 模板 模板 小组 专门 重点 病种 科研 模板 病种 模板 整理 制作 工作 调整 病历 模板 元素 内容 临床 科研 计划 项目 负责人 整体 计划 阶段 计划 计划 环境 服务器 客户端 环境 调试 科室 模板 整理 科室 病历 模板 格式 模板 制作 整理 调整 测试 工作 科室 院方 负责人 模板 培训 培训 环境 材料 科室 系统 培训 功能模块 科研 培训 内容 培训 系统 系统 实际 入院 病人 病历 内容 电子 病历 书写 规范 重点 病种 数据 关键点 病历 模板 内容 结构化 病历 信息 结构化 程度 定期 解析 内容 前台 数据 解析 数据 一致性 基地 数据中心 基地 临床 科研 数据 汇总 解析 任务 国家 临床 研究 数据中心 数据 信息 系统维护 电子 病历 整理 定期检查 服务器 客户端 系统 情况 考核 模板 原则 模板 格式 国家 电子 病历 书写 规范 标准 病历 模板 内容 科研 目的 科研 病历 数据 病历 模板 标准化 术语 术语 标准 知识库 病历 内容 后台 术语 库间 病历 模板 基本 元素 数值 典型 文本 重点 病种 病历 数据 测试 病历 解析 病历 数据字 结构 核查 系统 系统 重点 病种 数据 方面 工作 系统 合格 数据 质量 病历 模板 临床 实际操作 病人 入院 记录 病程 记录 手术 记录 量表 出院 记录 信息 书写 重点 病种 临床 研究 目标 关键 信息 病历 内容 病史 舌象 脉象 实验室 检查 特色 病历 内容 结构化 数据仓库 分析 临床 数据 中医理论 方法 疗效 证据 结构化 系统 数据 面向 临床 研究 数据 利用 研究 基地 临床 科研 信息 核心内容 任务 阶段 基地 临床 研究 人员 临床 研究 合理 分析 目标 临床 研究 数据 数据 整理 数据 质量 阶段 研究 过程 交叉 研究 步骤 数据仓库 分析 平台 临床 数据 利用 分析 研究 技术 结构化 临床 数据 数据 利用 分析 步骤 任务 方面 指导 技术 信息化 建设 基本 规范 临床 研究 分析 经验 辅助 功能 规范 国家 临床 研究 基地 临床 科研 信息 数据仓库 分析 技术 基本 数据 数据 结构化 病历 数据 关键 信息 病历 症状 体征 中药 处方 关键 疗效 指标 患者 记录 数据 结构化 病历 数据库 科研 分析 数据 代码 来源 病历 数据 数据仓库 数据 自动 数据 病历 数据 数据仓库 数据 自动 批量 汇总 数据仓库 细节 数据模型 病历 数据 患者 人口 信息 病历 病程 方药 检查 信息 面向 科研 分析 关系 数据模型 病历 数据 汇总 数据 细节 数据 规范 模型 细节 数据模型 数据模型 结构 规范 整理 科研 分析 数据 数据管理 数据库 管理软件 数据仓库 结构化 客户端 软件 环境 机制 数据 整理 数据 数据 整理 临床 术语 系统 临床 信息 标准 词典 症状 体征 方药 检查 规范 标准化 功能 数据 规范 数据 人工 规范 数据 数据 数据格式 整理 数据 分析 数据格式 数据 规范 整理 数据 分析 软件 数据 格式 检索 症状 体征 方药 指标 时间 患者 人口 信息 医生 用户 条件 面向 病种 研究 临床 数据 分析 数据挖掘 分析 专用 分析 平台 实际 临床 数据 面向 重点 病种 临床 研究 分析 专用 分析 功能 经验 处方 随症 规律 分析 临床 数据 方药 临床 优化 方案 经验 研究 临床 研究 数据挖掘 分析 任务 分析 算法 临床 效为 分析 主线 数据 预处理 因素 检验 分类 聚类 分析 网络分析 分析 算法 主题 数据模型 面向 主题 数据模型 检索 功能 数据模型 模式 主题 事实 形式 建模 动态数据 结构化 电子 病历 数据源 数据仓库 平台 医院 信息 来源 临床试验 数据库 动态数据 汇总 技术 基地 个性化 科研 分析 数据源 数据仓库 临床 决策 循证 数据仓库 平台 基础 面向 病种 辅助 决策 功能 临床 证据 分析 证据 证据 方法 辅助 临床 证据 数据挖掘 分析 阶段 方案 分析方法 临床 实际 数据 利用 决策 过程 模型 分析 动态 方案 核心 处方 药随症 规律 分析方法 研制 核心 处方 网络分析 方法 随症 用药 关系 方法 数据仓库 分析 平台 平台 利用 研究 阶段 部分 过程 原则 步骤 基本 基地 信息 条件 实际 临床 数据 病种 临床 研究 基础 数据仓库 分析 平台 病种 临床 研究 有机 基地 临床 研究 专职人员 临床 仓库 分析 平台 建设 研究 平台 扩展性 管理决策 基础设施 基本 局域网络 环境 数据仓库 分析 平台 软件 环境 硬件 数据仓库 服务器 分析 数据 管理 性能 内存 基础 重点 大容量 磁盘 盘阵 服务器 分析 报表 应用服务 服务 能力 数据处理 分析 工作站 数据 软件 分析 功能 数据 分析 高端 性能 服务器 软件 数据库 管理软件 中间件 软件 数据仓库 软件 部署 数据库 环境 数据表 细节 数据表 数据表 网络分析 数据表 系统 所需 信息 软件 部署 信息 数据库 报表 网络分析 系统 部署 步骤 数据仓库 分析 平台 临床 研究 平台 数据 数据仓库 专用 数据挖掘 检索 部分 功能 系统 数据 系统 分析 数据 数据仓库 系统 分析 数据 临床 研究 内容 数据 元素 关系 管理 结构化 服务 专用 数据挖掘 分析 系统 数据仓库 数据组织 模式 基础 数据挖掘 分析 算法 面向 数据 检索 系统 数据仓库 数据 检索 临床 数据 显性 数据 关系 数据仓库 系统 数据库 管理系统 基础 数据库 数据仓库 关系 数据表 临床 研究 问题 对应 数据 内容 数据模型 设计 软件 设计 数据模型 模型 数据仓库 数据表 数据 系统 测试 硬件 服务器 环境 数据 系统 部署 结构化 数据 数据 数据 测试 数据 一致性 专用 数据挖掘 系统 测试 专用 数据挖掘 分析 系统 数据仓库 系统 联机 数据仓库 数据 数据 测试数据 样例 功能 测试 检索 分析 系统 分析 设计 检索 分析 系统 数据模型 临床 分析 问题 基础 分析 设计 工具 水晶 报表 分析 报表 设计 平台 流程 临床 数据 利用 分析 临床 利用 阶段 任务 利用 临床 结构化 数据 重点 病种 重点 科室 临床 分析 目标 临床 数据 数据挖掘 分析 临床 研究成果 总结 科研任务 分析 经验 平台 流程 数据 利用 分析 流程 部分 内容 测试 平台 分析 基地 平台 分析 测试阶段 分析 目的 基地 目标 分析 技术 环节 基地 分析 人员 平台 功能 培训 任务 基地 平台 分析 基地 分析 人员 临床 研究 人员 常规 分析 研究 平台 研究组 人员 技术 指导 分析 过程 平台 功能 优化 分析 临床 研究 基地 临床 人员 病种 研究 特点 面向 分析 临床 研究 临床 研究 目标 内容 分析 数据 条件 研究 目标 临床 数据 内容 病史 症状 体征 指标 药物 结局 指标 临床 角度 数据 研究 目标 程度 研究 目标 数据 充分利用 基地 数据 优势 特点 临床 研究 核心 目标 数据 数据 质量 部分 工作 基地 临床 研究 人员 分析 目标 临床 人员 临床 研究 目标 平台 技术 人员 分析 临床 数据 情况 角度 临床 人员 面向 分析 临床 研究 数据 信息 利用 数据 系统 数据 数据 整理 数据 功能 临床 数据仓库 科研 临床 结构化 临床 数据 分析 目标 数据 元素 变量 规范 整理 整理 数据 数据 分析 数据 内容 临床 病历 内容 分析 数据 显性 分析 利用 检索 分析 系统 分析 功能 临床 分析 目标 报表 检索 分析 结果 临床 结果 分析 隐性 分析 临床 研究 基地 分析 目标 数据仓库 整理 数据 专用 数据挖掘 系统 数据挖掘 建模 分析 数据挖掘 分析方法 数据挖掘 分析 任务 利用 临床 理论 分析 结果 总结 规律 特点 专家 知识库 指导 医生 结果 临床 成果 总结 结果 分析 结果 基地 临床 研究 人员 预期 研究 目标 情况 分析 步骤 数据 重新处理 分析 临床 研究成果 总结 基础理论 预期 临床 研究 目标 基地 临床 研究 人员 分析 结果 理论 临床 研究成果 数据 利用 分析阶段 流程 任务 分工 原则 平台 阶段 技术 人员 基地 临床 研究 专职人员 条件 建设 数据 利用 分析阶段 基地 临床 研究 专职人员 技术 人员 技术 指导 辅助 具体任务 平台 过程 任务 基础设施 专职人员 条件 专职 数据仓库 数据处理 分析 人员 数据 测试 数据 数据 内容 数据 整理 分析 报表 测试 步骤 利用 任务 分析 主体 工作 基地 分析 人员 培训 基地 临床 研究 平台 基础 分析 工作 专职 分析 人员 基地 临床 研究 人员 平台 研究组 人员 重点 分析方法 任务 指导 临床 研究 数据 内容 临床 研究 关键 分析 研究 结果 实际 数据 条件 基础 合理 临床 研究 数据 整理 数据 整理 保证数据 数据 质量 预期 目标 环节 工作量 步骤 专职 临床 研究 人员 结果 面向 病种 分析 结果 临床 阶段性 问题 平台 技术 研究成果 基地 病种 研究 平台 临床 数据 基础 价值 临床 研究 结果 病证 经验 规律 优势 病种 方案 考核 平台 基本功能 功能 数据仓库 分析 平台 平台 数量 住院 门诊 病历 记录 分析 利用 临床 数据 数据 内容 分析 成果 平台 实际 临床 数据 分析 研究成果 典型 医案 分析 案例 典型 医案 数据仓库 平台 分析方法 研究 专家 病证 经验 面向 基地 病种 优化 方案 实际 临床 数据 临床 研究 研究 机制 模式 基础设施 基本 局域网络 环境 数据仓库 分析 平台 软件 环境 硬件 数据仓库 服务器 分析 数据 管理 性能 内存 基础 重点 大容量 磁盘 盘阵 服务器 分析 报表 应用服务 服务 能力 数据处理 分析 工作站 数据 软件 分析 功能 数据 分析 高端 性能 服务器 软件 数据库 管理软件 中间件 软件 数据仓库 软件 部署 数据库 环境 数据表 细节 数据表 数据表 网络分析 数据表 系统 所需 信息 软件 部署 信息 数据库 报表 网络分析 系统 部署</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.214198    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.214198    	
 国家卫生和计划生育委员会、国家中医药管理局关于加快推进人口健康信息化建设的指导意见	
 国家卫生和计划生育委员会、国家中医药管理局关于加快推进人口健康信息化建设的指导意见
 （国卫规划发〔2013〕32号）
@@ -3016,22 +2306,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国家 委员会 人口 信息化 建设 指导 意见 国家 委员会 人口 信息化 建设 指导 意见 规划 自治区 直辖市 人口 计生委 计生委 管理局 人口 计生委 机关 司局 直属 联系 单位 建设 人口 信息化 计生 服务 管理水平 意见 人口 信息化 建设 重要性 紧迫性 信息化 经济 社会 发展 驱动力 人口 信息化 国家 信息化 建设 重点 领域 医药卫生 内容 国民 生活 质量 国家 综合 实力 标志 领导 有关 部门 系统 人口 信息化 建设 全面 发展 计生 服务 管理水平 城乡 传染病 公共卫生 事件报告 网络 全面 临床 电子 病历 建设 内容 医院 信息化 建设 进展 远程 系统 基层 医疗卫生 步伐 居民 试点 信息 标准 体系 建设 日益 标准 规范 人口 信息化 建设 部分 地方 信息 平台 地市 区域 信息 平台 区域 信息 区域 业务 协同 国家 全员 人口 信息 资源库 人口 信息 人口 业务 人口 决策 数据 服务 模式 服务 管理 信息 跨部门 地域 服务 管理 粗放型 精细化 人口 信息化 建设 问题 计生 信息系统 区域 信息 平台 覆盖面 联网 水平 系统 互通 信息 业务 协同 计生 服务 能力 水平 人民 群众 医疗卫生 机构 信息化 建设 状态 医疗卫生 机构 信息化 建设 发展 数据 信息 资源 水平 科学决策 能力 制度 管理 人才 资金 信息 标准 体系 信息化 建设 时期 医药卫生 攻坚 阶段 基本 医疗卫生 制度 关键时期 人口 信息化 决策 战略部署 人口 信息化 建设 机遇 信息技术 人口 生命周期 精细化 人口 服务 人口 社会 全面 大力 人口 信息技术 计生 融合 发展 服务水平 服务 模式 管理工作 机制 手段 事关 目标 事关 基本国策 事关 计生 事业 科学 发展 人口 信息化 建设 人人 基本 医疗 服务 目标 战略意义 现实意义 基本 原则 总体 框架 建设 目标 基本 原则 国家 信息化 发展 战略 部署 制度 先行 设计 业务 协同 原则 生育 政策 计生 融合 发展 全面 人口 信息化 工作 业务 系统 协同 评估 运维 机制 科学决策 精细化 管理 个性化 服务水平 重点 行业 发展 总体 框架 人口 信息 资源 制度 标准 体系 建设 全员 人口 信息 电子 档案 电子 病历 数据库 资源 公共卫生 医疗 服务 医疗保障 药品 管理 综合 管理 业务 建设 国家 人口 信息 平台 平台 业务 枢纽 居民 群众 计生 服务 介质 计生 机构 机构 统一 网络 业务 信息 协同 总体目标 业务 管理 导向 全面 人口 信息 网络体系 医药卫生 基本国策 事业 发展 计生 服务 管理水平 人人 基本 医疗卫生 服务 目标 有力 信息技术 阶段 目标 基本 计生 机构 信息 网络安全 区域 重点 全员 人口 信息 电子 档案 电子 病历 数据库 建设 试点 地区 地方 实际 合理 信息 平台 业务 基本 省份 地市 县区 综合 改革 试点 地区 试点 地区 居民 时期 新一轮 信息技术 革命 人口 信息化 全力 重点 业务 全员 人口 信息 电子 档案 电子 病历 数据库 基本 覆盖全国 人口 全面 信息 平台 业务 业务 协同 信息 居民 全国 一卡通 重点 任务 健全制度 统一标准 体系 人口 信息化 管理制度 居民 工作 机制 管理制度 区域 人口 信息 平台 全员 人口 信息 电子 档案 电子 病历 数据库 建设 和运维 管理 工作 机制 工作 业务 发展 计生 科学 发展 数据 管理 方面 人口 信息化 标准规范 体系 全员 人口 信息 电子 档案 电子 病历 数据 标准 技术规范 统一 人口 数据 值域 代码 数据库 业务 领域 信息 标准 协同 业务 术语 标准 数据 标准 统一 接口标准 信息化 标准 管理工作 机制 信息 标准 人口 软件 终端 网络 标准 测试 标准 评估 人口 信息系统 标准 统一 互通 发展 建设 数据库 全员 人口 信息 数据库 建设 全员 人口 信息 动态 管理 人口 经济社会 资源 环境 全面 发展 居民 电子 档案 数据库 建设 居民 电子 档案 数据库 区域 基层 计生 机构 信息 动态 业务 协同 公共卫生 基层 医疗卫生 应用服务 水平 居民 个人 档案 信息 自我保健 管理 能力 全民 水平 电子 病历 建设 电子 病历 核心 医院 信息 资源整合 医疗 服务 效率 质量 监管 公益性 区域 信息 平台 居民 基本 信息 检查 检验 结果 医学影像 用药 记录 医疗机构 信息 区域 居民 电子 档案 电子 病历 动态 数据 质量 全员 人口 信息 电子 档案 电子 病历 数据库 数据库 基本 信息 一致性 准确性 完整性 基础 部门 信息 临床 基础医学 科学研究 水平 信息 资源 综合 信息 人口 战略决策 精细化 服务 管理 建设 业务 系统 建设 计生 业务 领域 公共卫生 医疗 服务 医疗保障 药品 管理 综合 管理 重点 业务 系统 数据 联网 联网 技术 人口 信息化 业务 水平 公共卫生 信息系统 建设 数据 协同 疾病 防控 教育 妇幼 血液 管理 综合 监督 应急 决策 信息系统 业务 能力 计生 门户网站 服务 热线 建设 基本 公共卫生 服务 均等化 信息系统 建设 人口 信息 监测 预警 机制 流动人口 服务 管理 地域 业务 协同 人口 性别比 利益 导向 政策 依法行政 便民服务 家庭 发展 能力 人口 目标 管理 责任制 考核 人口 工作 转型 发展 医疗 服务 信息系统 建设 电子 病历 远程 医疗 优化 医疗 服务 流程 规范 医疗 服务 信息化 手段 医疗 服务质量 效率 医疗 方便群众 医疗保障 信息系统 计生 行业 医疗 体系 信息 新农 信息系统 新农 基金 监管 水平 效率 农民 异地 结报 全国 新农 业务 监控 信息 决策 医疗机构 公共卫生 机构 药品 供应 信息系统 基本 药物 管理 药品 医疗器械 招标 物流配送 管理 监管 综合 管理 信息系统 人口 信息 数据 准确性 信息 数据 能力 计生 机构 业务 工作 财务管理 精细化 管理 计生 战略决策 政策 规划 合理 信息 平台 建设 标准 统一 融合 有机 国家 人口 信息 平台 服务 人口数量 地域 特点 合理 规划 建设 地市 区域 信息 平台 联通 区域 计生 机构 信息系统 服务 居民 中心 公共卫生 医疗 服务 医疗保障 药品 管理 综合 管理 业务 远程 挂号 双向 咨询 服务 传染病 防控 预防接种 重点 精神障碍 报告 管理 电子 病历 电子 档案 信息 居民 个人 档案 区域 医疗卫生 人员 绩效考核 计生 服务 监管 药物 监管 精细化 管理 联通 信息 平台 区域 业务 协同 信息 平台 数据 辖区 内地 信息 平台 全省 居民 电子 档案 业务 功能 综合 管理 科学决策 区域 信息 业务 协同 全员 人口 信息 数据库 辖区 服务 管理 联通 国家 平台 跨省 业务 协同 国家 平台 数据 平台 管理 疾病 妇幼 综合 监督 新农 应急 管理 功能 信息 资源库 主题 数据库 全国 人口 信息 数据挖掘 综合 分析 国家 人口 管理 决策 跨省 业务 领域 信息 业务 协同 有关 部门 信息系统 信息 人口 信息网络 统一 建设 人口 信息化 建设 重点 信息 计生 业务 协同 数据 信息 资源 数据 优势 人口 科学决策 服务 管理水平 国家 电子政务 外网 骨干 网络 人口 信息网络 网络 覆盖面 信息 平台 平台 计生 机构 信息系统 行业 信息 业务 协同 居民 建设 居民 介质 人口 信息 平台 全员 人口 信息 电子 档案 电子 病历 信息 居民 专属 功能 居民 身份 基本 信息 区域 机构 费用 居民 个人 电子 信息 动态 个人 疾病 监测 管理 优化 规范 流程 居民 计生 服务 信息安全 体系 建设 国家 信息安全 制度 分级 制度 信息安全 审查 制度 规划 设计 人口 信息系统 平台 建设 管理机制 制度 信息安全 体系 建设 容灾 备份 工作 系统 信息安全 电子 技术 基础 网络 信任 体系 建设 统一 体系 业务 居民 信息安全 体系 建设 信息 发展 重点 工程 全面 全民 信息化 工程 工程 国家 政务 信息化 规划 建设 全民 信息化 工程 政务 部门 信息 业务 协同 公共卫生 事件 能力 疾病 防控 能力 综合 监督 公众 能力 基层 医疗卫生 服务 能力 医疗卫生 事业 行政 监督管理 水平 远程 医疗 服务 能力 基本 公共卫生 服务 均等化 人民 群众 医疗卫生 服务 重点 疾病 防控 网络 主体 协同 公共卫生 信息系统 风险 监测 评估 主体 信息系统 城乡 公共卫生 医疗 服务 综合 监督 信息系统 基本 药物 采购供应 管理 居民 管理 绩效考核 功能 基层 医疗卫生 管理系统 妇幼卫生 监测 孕产妇 儿童 管理 生殖 服务 妇幼 服务 信息系统 城乡居民 电子 档案 电子 病历 重点 建设 医院 医药 医疗 业务 协同 居民 监测 咨询 医疗 公共服务 信息系统 医疗机构 分级 协作 费用 核查 建设 基本 药物 制度 基本 医疗卫生 服务质量 绩效评价 信息系统 国家 全员 人口 工程 建设 全员 人口 信息 业务 办理 人口 服务 管理 国家 全员 人口 数据中心 标准 统一 全员 人口 管理 信息 资源 公共服务 管理 基本 全国 流动人口 信息 异地 办证 人口 医学 证明 信息系统 人口 信息 监测 性别比 家庭 主体 信息管理 家庭 利益 导向 人口老龄化 政策 人口 政策 辅助 决策 支撑体系 人口 总量 素质 结构 动态 家庭 发展 能力 人口 城镇化 关系 社会 发展 问题 动态 监测 分析 评价 科学 预测 政策 信息 全面 业务 基础设施 数据 信息 数据 信息 工程 信息 消费 扩大内需 远程 医疗 居民 建设 信息 工程 建设 国家 远程 医疗 服务 监管 系统 远程 医疗 服务 信息系统 远程 医疗系统 远程 医疗 服务 资源 远程 远程 影像 远程 心电 远程 病理 远程 监护 远程 医学 服务 居民 医疗机构 新农 人群 新生儿 群体 职业 人群 无偿献血者 人群 服务 居民 情况 医院 评审 考核 指标 区域 人口 信息化 全国 区域 人口 信息化 成功经验 居民 医疗卫生 人员 绩效考核 电子 区域 人口 信息 业务 协同 资源 集约 流程 科学 服务 规范 服务 模式 居民 优质 医疗卫生 服务 居民 管理 理念 管理 监管 绩效考核 政府 补偿 核心 监管 体系 整体 效应 信息化 建设 继续加强 人口 信息化 综合 建设 工作 居民 电子 档案 电子 病历 门诊 管理 综合 管理 信息 平台 区域 信息 平台 建设 医疗卫生 机构 单位 建设 统一 基层 医疗卫生 机构 基本 药物 招标 采购供应 居民 管理 公共卫生 监测 服务 规范化 绩效考核 基本功能 基层 医疗卫生 机构 规范化 服务质量 水平 医疗卫生 机构 药品 电子 监管 系统 建设 医疗机构 疾控 机构 药品 疫苗 全程 监管 事件 应急 信息化 建设 国家 突发事件 应急 体系 建设 规划 基础 应急 决策 信息系统 建设 移动 应急 平台 建设 应急 监测 应急 信息 数据 分析 研判 能力 应急 预警 评估 辅助 决策 现场 异地 会商 队伍 物资 管理 调度 国家 信息 反应 应急 体系 服务 信息化 建设 人口 信息 平台 计生 业务 协同 信息 建设 电子政务 综合 系统 医院 社区卫生 服务中心 电子 病历 医疗 信息系统 中药 资源 基础 数据服务 动态 监测 信息系统 建设 民族 医药 信息化 能力 建设 措施 机制 计生 行政部门 领导 人口 信息化 管理 专业 机构 业务部门 机构 信息化 建设 工作 职责 任务 信息化 建设 业务 指导 监督 评估 信息化 建设 年度 目标 考核内容 部门 政策 方面 人口 信息化 工作 制度 人才队伍 建设 人口 信息化 管理机制 规章制度 体系 人口 信息化 建设 管控 有序 重点 人才队伍 建设 高端 急需 人才 基层 人才 业务培训 考核 职称 制度 制度 人才队伍 管理 保障制度 力度 计生 行政部门 统筹安排 信息化 建设 资金 会同 发展 改革 财政 信息化 管理 有关 部门 人口 信息化 建设 科研 资金投入 重点 系统 运维 经费 人口 信息化 建设 体制 机制 信息化 归口 管理 业务部门 分工协作 工作 机制 政府 部门 社会 便民 合作 人口 信息化 建设 模式 充分利用 信息 资源 专业 咨询机构 科研机构 知识产权 知名企业 战略 合作 充分发挥 信息 学会 协会 行业软件 评价 机制 国家 计生委 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.225008    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.225008    	
 国家卫生和计划生育委员会关于印发《人口健康信息管理办法(试行)》的通知
 Notice of the National Health and Family Planning Commission on Issuing the Measures for the Administration of Population Health Information (for Trial Implementation)	
 国家卫生和计划生育委员会关于印发《人口健康信息管理办法（试行）》的通知
@@ -3077,22 +2354,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国家 委员会 印发 人口 信息管理 办法 国家 委员会 印发 人口 信息管理 办法 规划 自治区 直辖市 计生委 人口 计生委 人口 计生委 机关 司局 直属 联系 单位 规范 人口 信息 管理工作 人口 信息 利用 计生 事业 科学 发展 法律法规 研究 人口 信息管理 办法 印发 国家 计生委 人口 信息管理 办法 规范 人口 信息 管理工作 人口 信息 利用 计生 事业 科学 发展 办法 办法 医疗卫生 计生 服务 机构 人口 信息 管理 利用 工作 办法 人口 信息 国家 法律法规 工作 职责 医疗卫生 计生 服务 机构 服务 管理 过程 产生 人口 基本 信息 医疗卫生 服务 信息 人口 信息 电子签名 有关 法律法规 规定 人口 电子信息 纸质 文本 法律效力 人口 信息管理 工作 统一标准 属地 管理 责权 便民 计生 行政部门 行政部门 人口 信息 主管部门 国家 计生委 全国 人口 信息 发展 规划 管理 规范 指导 全国 人口 信息管理 工作 地方 计生 行政部门 指导 监督 本行政区域 人口 信息管理 工作 医疗卫生 计生 服务 机构 服务 机构 人口 信息 利用 管理 人口 信息管理 责任 单位 责任 单位 利用 管理 人口 信息 法律法规 规定 医学 原则 信息安全 责任 单位 单位 人口 信息 利用 管理 情况 人口 信息管理 部门 岗位职责 人口 信息 质量 管理制度 利用 信息系统 标准 程序 标准 统一 术语 规范 内容 责任 单位 一源 原则 人口 信息 信息 业务 管理 服务 管理 对象 单位 信息系统 身份 标识 基本 数据项 一致性 信息 信息 程序 人口 信息 分级 责任 单位 国家 管理工作 产生 人口 信息 规定 数据 容灾 备份 管理 条件 人口 信息 容灾 备份 工作 机制 定期 备份 检测 数据 历史数据 管理 责任 单位 服务 管理工作 人口 信息 信息 状态 人口 信息 服务器 服务器 委托 机构 运维 人口 信息 委托 单位 人口 信息 管理 责任 委托 运维 机构 委托 协议 人口 信息管理 技术支持 权限 利用 人口 信息 责任 单位 管理 人口 信息 主管部门 职能 机构 管理 人口 信息 人口 信息 利用 分类管理 人口 信息 利用 医学 研究 科学决策 便民服务 水平 目的 依法 社会 信息 保密 信息 信息 责任 单位 人口 信息 工作 制度 利用 有关 信息 利用 单位 个人 范围 利用 人口 信息 责任 单位 服务 管理 对象 人口 个案 信息 服务 信息 渠道 责任 单位 人口 信息安全 工作 国家 信息安全 制度 建设 人口 信息 系统安全 保障体系 管理制度 技术规范 人口 信息安全 利用 单位 个人 人口 信息安全 工作 国家 秘密 人口 信息系统 国家 信息管理 分级 责任 单位 痕迹 管理制度 人口 信息 用户 身份 管理 人口 信息 系统 信息技术 产品 服务提供者 信息安全 审查 制度 方式 合理 技术支持 服务 人口 信息 系统 条件 计生 行政部门 本行政区域 责任 单位 人口 信息管理 工作 监督 检查 本行政区域 责任 单位 人口 信息 工作 指导 监督 精细化 人口 服务 管理 能力 计生 行政部门 通报制度 单位 个人 人口 信息 利用 人口 信息系统 建设 技术支持 过程 办法 规定 主管部门 责任 单位 通报 情节严重 国家 法律法规 法律法规 追究其 法律责任 计生 行政部门 人口 信息管理 工作 责任 制度 办法 规定 主管部门 责任 单位 主管部门 情节 督导 行政处分 建议 办法 印发 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>国家卫生和计划生育委员会办公厅关于印发《国家新型农村合作医疗信息平台联通技术方案（试行）》的通知
+  </si>
+  <si>
+    <t>国家卫生和计划生育委员会办公厅关于印发《国家新型农村合作医疗信息平台联通技术方案（试行）》的通知
 （卫办农卫函〔2013〕456号）
 （法宝联想:　 部门规章约2篇 ）
 各省、自治区、直辖市卫生厅局（卫生计生委），新疆生产建设兵团卫生局，部相关直属单位：
@@ -5106,22 +4370,9 @@
 　　（5）农民个人参合服务
 　　1）农民个人基本数据上传服务
 　　public String uploadBasicFarmers（St</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 印发 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 部门规章 自治区 直辖市 计生委 直属单位 新农 信息化 建设 指导 国家 新农 信息 平台 新农 信息 平台 医院 信息系统 联通 新农 基础 数据 业务 数据 跨省 数据 国家 新农 信息 平台 新农 信息 平台 系统 研究 论证 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 国家 委员会 网站 印发 附件 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 国家 委员会 办公厅 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 目录 适用范围 规范性 术语 定义 缩略语 国家 平台 联通 平台 技术 方案 技术 方案 网络 环境 流程 内容 服务 技术 方案 网络 环境 模式 身份验证 服务 国家 平台 联通 医院 信息系统 技术 方案 网络 环境 流程 内容 内容 频率 内容 结构设计 服务 医院 信息系统 调用 模式 医院 信息系统 拷贝 模式 页面 模式 内容 结构 医疗机构 管理机构 数据 乡镇 档案 数据 农民 家庭 数据 农民 个人 数据 医疗 记录 补偿 数据 基金 管理 数据 医院 信息系统 数据 报表 内容 结构 卫统 报表 情况 调查表 卫统 报表 新农 基金 情况 调查表 卫统 报表 新农 基金 分配 情况 调查表 卫统 报表 新农 补偿 情况 调查表 住院 补偿 卫统 报表 新农 补偿 情况 调查表 门诊 补偿 卫统 报表 新农 补偿 情况 调查表 补偿 卫统 报表 新农 经办 机构 调查表 疾病 医疗保障 水平 试点工作 基本 情况 调查表 疾病 医疗保障 水平 试点工作 补偿 情况 季度 报表 新农 数据 字典 疾病 目录 药品 项目 材料 行政区域 数据 代码 规范 性别 代码 国家标准 个人 基本 信息 分类 代码 婚姻状况 代码 国家标准 婚姻状况 代码 民族 代码 国家标准 民族 代码 地区 代码 国家标准 健康状况 代码 国家标准 健康状况 代码 家庭 关系 代码 家庭 关系 代码 职业 分类 代码 国家标准 医疗卫生 专业 技术 职务 代码 国家标准 属性 代码 户口 类别 代码 标志 代码 个人 状态 代码 卫生机构 分类 代码 行业标准 机构 关系 代码 国家标准 科室 代码 定点 医疗机构 类型 代码 资助 部门 类型 代码 医疗机构 级别 代码 疾病 分类 代码 国家标准 入院 状态 代码 信息 数据 值域 代码 部分 医学 住院 疾病 状态 代码 出院 状态 代码 病情 代码 医疗 服务项目 代码 类型 代码 补偿 类别 代码 属性 代码 手术 名称 代码 补偿 帐户 类别 代码 状态 代码 指标 代码 基本 药品 目录 会计科目 代码 标识 代码 报告期 代码 医院 资质等级 户籍 类型 机构 类型 名称 行政级别 医疗 状态 项目 类别 跨省 项目 类别 病案 费用 类别 适用范围 方案 国家 新型农村 合作医疗 信息 平台 国家 平台 联通 新型农村 合作医疗 信息 平台 平台 医院 信息系统 网络 环境 部署 数据处理 流程 传输服务 方案 指导 国家 平台 平台 医院 信息系统 联通 新农 数据 国家 平台 平台 系统 新农 监控 跨省 管理 远程 平台 技术 规范性 新型农村 合作医疗 基本 规范 修订版 新型农村 合作医疗 信息系统 基本 规范 数据 格式 公民 身份 号码 性别 代码 婚姻状况 代码 民族 名称 拼写法 代码 文化 程度 代码 户口 类别 代码 信息 数据 目录 信息 数据 值域 代码 城乡居民 档案 基本 数据 居民 技术规范 部门 新型农村 合作医疗 制度 意见 新型农村 合作医疗 信息系统 建设 指导 意见 办公厅 新型农村 合作医疗 试点工作 卫办 基妇 新型农村 合作医疗 试点工作 农卫 信息系统 基本 公通字 医院 信息系统 软件 基本功能 规范 政务信息 资源 体系 对象 协议 服务 描述语言 服务 业务流程 语言 印发 全国 新型农村 合作医疗 制度 农卫司 调整 新农 疾病 医疗保障 试点 信息 报表 术语 定义 信息 基本 数据 规范 术语 定义 方案 方案 术语 定义 新型农村 合作医疗 新农 政府 农民 个人 集体 政府 筹资 大病 农民 医疗 共济 制度 国家 新型农村 合作医疗 信息 平台 服务 决策 联系 新农 信息网络 枢纽 海量 数据 数据 业务 监测 功能 费用 核查 农民 医疗机构 费用 纸质 凭证 信息 经办 机构 经办 机构 管理人员 国家 平台 费用 数据 核查 凭证 信息 真实性 过程 异地 结报 农民 医疗机构 费用 纸质 凭证 信息 经办 机构 经办 机构 管理人员 异议 国家 平台 费用 数据 核查 补偿 方案 金额 补偿 费用 农民 银行帐户 过程 标记 语言 标记 电子 结构性 标记 语言 标记 数据 定义数据 类型 用户 标记 语言 定义 源语言 自描述 模块化 定位 调用 专用 网络 通讯 协议 专用 网络 通讯 线路 中间件 网络 环境 数据库 软件 标准接口 协议 异构 系统 数据 平台 医院 信息系统 新农 国家 平台 过程 新农 数据 新农 基本 数据 业务 数据 跨省 数据 数据 平台 医院 信息系统 国家 平台 数据 过程 国家 平台 数据 跨省 数据 管理 数据 信息 缩略语 缩略语 方案 国际 疾病 分类 国际 疾病 分类 第九版 临床 国家 平台 联通 平台 医院 信息系统 技术 方案 网络 环境 流程 内容 频率 定义 国家 平台 平台 医院 信息系统 服务 技术 方案 网络 环境 模式 方案 国家 平台 联通 平台 技术 方案 国家 平台 联通 医院 信息系统 技术 方案 部分 方案 技术 方案 适用范围 规范性 术语 定义 缩略语 规范 内容 格式 数据 代码 规范 内容 格式 数据 代码 规范 新型农村 合作医疗 基本 规范 修订版 数据字 标识 编号 基本 数据 代号 新型农村 合作医疗 基本 规范 修订版 数据 代码 规范 代号 新型农村 合作医疗 基本 规范 修订版 基本 数据 新型农村 合作医疗 基本 规范 修订版 基础 数据 代号 新型农村 合作医疗 基本 规范 修订版 基础 数据 服务 数据 服务 国家 平台 医院 信息系统 服务 数据 元值 数据类型 方案 字符 形式 字符 形式 枚举 代码 形式 数据 元值 数据类型 规则 数据类型 字符 字符 形式 类型 字母 字符 数字 字符 又称 逻辑 形式 类型 数值 数字 形式 类型 格式 类型 时间 格式 类型 字符 时间 标志符 时间 时间 时间 格式 类型 二进制 无法 数据类型 图像 音频 视频 二进制 数据 元值 格式 数据 元值 格式 字符 含义 规则 字母 字符 数字 字符 字母 数字 字符 格式 年份 月份 格式 小时 格式 字符 时间 标志符 时间 字符 数据 元值 格式 字符 规则 数据类型 字符 数目 定义 字符 数据类型 数据 字符 数目 定义 字符 数据类型 字符 字符 字符 规定 字符 规定 字符 小数位 字符 整数 位数 小数点 位数 国家 平台 联通 平台 技术 方案 技术 方案 网络 环境 平台 国家 平台 联通 平台 部署 前置 平台 业务 影响 前置 服务器 建议 部署 双机 热备 前置 机应 性能 内存 硬盘 网卡 双网卡 分配 IP地址 设备 建议 国家 平台 品牌 设备 部署 环境 系统 环境 版本 防火墙 流程 新农 平台 新农 数据 方案 规定 格式 国家 平台 中间件 国家 平台 国家 平台 数据 校验 国家 平台 数据中心 平台 流程图 流程 数据 平台 国家 平台 标记 语言 标准 数据 数据 平台 调用 前置 部署 程序 数据 前置 前置 数据 网络 传输 国家 平台 前置 数据 数据 规则 传输 国家 平台 前置 机上 数据 数据 前置 数据 入库 数据 入库 规则 数据 规范 数据 国家 平台 中心 数据库 数据 国家 平台 数据 程序 国家 中心 数据库 平台 数据 跨省 费用 核查 数据 标准 格式 国家 平台 前置 数据 国家 平台 前置 程序 平台 数据 网络 平台 前置 数据 平台 系统 调用 前置 数据 系统 内容 内容 频率 内容 频率 新农 业务 数据 基础 数据 新农 定点 医疗机构 管理机构 乡镇 基本 情况 医疗机构 数据 新农 管理 经办 机构 数据 乡镇 档案 数据 频率 数据 农民 家庭 个人 基本 情况 情况 频率 医疗 记录 补偿 数据 农民 基本 情况 情况 补偿 情况 农民 医疗 记录 补偿 数据 门诊 基础 数据 门诊 数据 门诊 费用 补偿 数据 住院 基础 数据 住院 数据 住院费用 补偿 数据 数据 频率 补偿 数据 数据 频率 基金 管理 数据 全省 新农 基金 情况 基金 数据 基金 规划 数据 基金 分配 数据 基金 数据 农民 家庭 帐户 管理 数据 基金 数据 基金 规划 数据 基金 分配 数据 农民 家庭 帐户 管理 数据 频率 基金 数据 频率 报表 数据 全省 新农 情况 疾病 医疗保障 试点工作 情况 全国 新型农村 合作医疗 调查 制度 规定 卫生统计 报表 疾病 医疗保障 水平 试点工作 基本 情况 调查表 基本 情况 报表 疾病 医疗保障 水平 试点工作 补偿 情况 季度 报表 补偿 情况 报表 卫生统计 报表 数据 频率 全国 新型农村 合作医疗 调查 制度 规定 基本 情况 报表 频率 补偿 情况 报表 频率 新农 补偿 方案 补偿 方案 情况 年度 补偿 方案 补偿 方案 频率 跨省 业务 数据 外省 农民 跨省 医疗 记录 补偿 数据 外省 农民 定点 医疗机构 跨省 医疗 记录 补偿 情况 频率 费用 核查 申请单 数据 新农 管理 经办 机构 农民 定点 医疗机构 费用 核查 情况 频率 内容 频率 跨省 核查 定点 医疗机构 数据 跨省 费用 核查 功能 定点 医疗机构 数据 频率 跨省 信息 服务 农民 跨省 核查 定点 医疗机构 数据 频率 跨省 信息 批量 农民 跨省 核查 定点 医疗机构 数据 频率 内容 结构设计 格式 平台 国家 平台 数据 双向 格式 内容 格式 设计 新型农村 合作医疗 基本 规范 修订版 规范 全国 新型农村 合作医疗 调查 制度 调查 制度 农卫司 调整 新农 疾病 医疗保障 试点 信息 报表 规范性 数据 类别 内容 内容 格式 基础 数据 新农 定点 医疗机构 规范 住院 床日 门诊 费用 住院费用 职能 机构 类型 管理机构 数据格式 乡镇 规范 行政区域 代码 行政区域 名称 行政区域 全称 机构名称 数据 农民 家庭 基本 数据 规范 户籍 类型 医疗 卡号 户主 代码 医疗 状态 农民 家庭 数据 规范 年度 农民 家庭 资助 数据 数据格式 农民 个人 基本 数据 规范 个人 代码 居民 卡号 农民 个人 数据 规范 个人 代码 年度 地区 代码 属性 医疗 记录 补偿 数据 门诊 基础 数据 规范 机构名称 地区 代码 年度 症状 疾病诊断 代码 疾病诊断 名称 疾病诊断 代码 疾病诊断 名称 门诊 数据 规范 项目名称 单位 地区 代码 个人 代码 补偿 金额 门诊 费用 补偿 数据 规范 补偿 机构名称 地区 代码 个人 代码 民族 药费 门诊 费用 补偿 年度 基金 补偿 金额 民政 救助 金额 保险 补偿 金额 年度 金额 住院 基础 数据 规范 机构名称 入院 科室 名称 出院 科室 名称 医院 名称 地区 代码 手术 名称 代码 手术 名称 疾病诊断 代码 疾病诊断 名称 疾病诊断 代码 疾病诊断 名称 年度 名称 住院 数据 规范 项目名称 单位 地区 代码 个人 代码 补偿 金额 住院费用 补偿 数据 规范 机构名称 个人 代码 地区 代码 补偿 年度 住院 民族 药费 费用 基金 补偿 金额 民政 救助 金额 年度 数据 规范 经办 机构名称 医院 名称 医院 名称 姓名 地区 代码 疾病 名称 数据 规范 补偿 数据 数据格式 基金 管理 数据 农民 家庭 账户 管理 规范 地区 代码 年度 基金 规范 季度 基金 分配 规范 基金 规范 月份 基金 规划 数据格式 全国 新农 合卫统 报表 数据 卫统 卫统 卫统 卫统 卫统 卫统 卫统 调查 制度 疾病 医疗保障 试点 信息 报表 基本 情况 调查表 基本 情况 调查表 补偿 情况 季度 报表 补偿 情况 季度 报表 跨省 数据 费用 核查 申请单 数据格式 跨省 基础 数据 跨省 数据 服务 服务 面向 引擎 核心 架构 异构 系统 复杂性 动态性 可扩展性 国家 平台 服务 服务 调用 格式 信息 新农 标记 语言 格式 新农 标记 语言 格式文件 国家 新农 数据中心 报文 统一 类型 数据 基本 理念 报文 报文 文体 文体 内容 接口类型 内容 批量 类型 形式 响应速度 报文 数据 记录 批量 数据文件 结构 数据文件 定义 基本 结构 报文 数据项 数据 时间 格式 数据 类型 信息 数据项 数据 报文 声明 数据文件 声明 规范 文字 编码 标准 语言 服务 参数 定义 参数 名称 平台 服务 用户 名称 平台 服务 用户 密码 调用 时间 国家 行政区域 代码 代码 服务 返回值 参数 名称 返回值 用户名 密码 对应 服务 权限 节点 节点 服务 参数 文档 规范 调用 参数 错误 格式 规范 错误 文档 格式 规范 节点 节点 节点 节点 节点 代指 节点 名称 节点 属性 属性 数据 农民 家庭 个人 资助 门诊 住院 键值 文档 规范 代指 主键 节点 名称 代指 主键 节点 名称 前置 国家 前置 机间 网络 网络连接 前置 硬盘 错误 错误 联系 人员 结果 样式 服务 汇总 编号 名称 定义 参数 测试 案例 服务 服务 医疗机构 数据 服务 管理机构 数据 服务 乡镇 档案 数据 服务 农民 家庭 基本 数据 服务 农民 家庭 数据 服务 农民 个人 基本 数据 服务 农民 个人 数据 服务 门诊 数据 服务 住院 数据 服务 数据 服务 补偿 数据服务 农民 家庭 账户 管理 数据服务 基金 数据服务 基金 规划 数据服务 基金 分配 数据服务 基金 数据服务 跨省 患者 医疗 记录 数据服务 全国 新型农村 合作医疗 卫统 报表 服务 疾病 医疗保障 试点 信息 报表 服务 费用 核查 服务 费用 核查 申请单 服务 费用 核查 申请单 服务 数据 服务 新农 补偿 方案 服务 数据 字典 服务 服务 跨省 核查 定点 医疗机构 服务 跨省 信息 服务 跨省 信息 批量 服务 费用 核查 待处理 申请单 服务 费用 核查 申请单 服务 数据 服务 数据 数据 条数 规范 编号 名称 条数 文档 医疗机构 数据 服务 管理机构 数据 服务 乡镇 档案 数据 服务 农民 家庭 基本 数据 服务 农民 家庭 数据 服务 农民 个人 基本 数据 服务 农民 个人 数据 服务 门诊 数据 服务 门诊 基础 数据 门诊 数据 门诊 费用 补偿 数据 服务 住院 数据 服务 住院 基础 数据 住院 数据 住院费用 补偿 数据 服务 数据 服务 补偿 数据 服务 农民 家庭 账户 管理 数据 服务 基金 数据 服务 基金 规划 数据 服务 基金 分配 数据 服务 基金 数据 服务 跨省 患者 医疗 记录 数据 服务 全国 新型农村 合作医疗 卫统 报表 服务 疾病 医疗保障 试点 信息 报表 服务 费用 核查 服务 费用 核查 申请单 服务 费用 核查 申请单 服务 数据 服务 新农 补偿 方案 服务 数据 字典 服务 医疗机构 管理机构 数据 服务 医疗机构 数据 服务 参数 参数 名称 医疗机构 内容 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 机构 代码 地区 代码 卫生机构 代码 卫生机构 名称 关系 代码 主管 单位 机构 级别 代码 通讯地址 邮政编码 电话号码 电子邮箱 开业 法定代表 姓名 负责人 注册资金 个数 床位数 床位数 职工 总数 卫技 人员 科室 行政区划 代码 门诊 次数 农民 门诊 次数 出院 次数 农民 出院 次数 业务收入 农民 业务收入 申报 定点 类型 代码 定点 类型 代码 年度 医院 代码 职能 标志 机构 类型 代码 关系 名称 住院 床日 门诊 费用 住院费用 机构 级别 名称 行政区划 名称 申报 定点 类型 名称 定点 类型 名称 医院 资质等级 名称 职能 标志 名称 机构 类型 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 机构 代码 地区 代码 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 管理机构 数据 服务 参数 参数 名称 管理机构 内容 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 机构 代码 地区 代码 卫生机构 代码 卫生机构 名称 行政区划 代码 法定代表 姓名 邮政编码 电话号码 电子邮箱 人数 人数 人数 乡镇 人数 乡镇 开户银行 名称 开户银行 账号 关系 代码 通讯地址 年度 行政区划 名称 关系 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 机构 代码 地区 代码 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 乡镇 档案 数据 服务 参数 参数 名称 乡镇 档案 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 地区 代码 乡镇 代码 年度 行政区划 代码 乡镇 代码 行政级别 代码 乡镇 行政村 组数 农业 户数 人口数 农业 人口数 五保户 人口数 人口数 人口数 人口数 联系人 姓名 通讯地址 邮政编码 经办 机构 电话号码 电子邮箱 行政区划 代码 行政区划 名称 行政区域 全称 乡镇 名称 年度 生产总值 财政收入 财政支出 农民 纯收入 行政区划 名称 行政级别 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 地区 代码 乡镇 代码 年度 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 农民 家庭 服务 农民 家庭 基本 数据 服务 参数 参数 名称 农民 家庭 基本 数据 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 家庭 代码 地区 代码 家庭 代码 行政区划 代码 乡镇 代码 代码 代码 户主 姓名 户主 性别 代码 户主 身份证号 通讯地址 邮政编码 家庭 电话号码 联系人 姓名 联系人 移动 电话号码 电子邮箱 家庭 人口数 家庭 农业 人口数 家庭 农业 人口数 属性 代码 属性 代码 户口 类别 代码 标志 代码 标志 代码 原因 原因 民政 救助 家庭 标志 姓名 医疗 卡号 户主 代码 医疗 状态 标志 户籍 类型 代码 地区 名称 乡镇 名称 户主 性别 名称 属性 名称 属性 名称 户口 类别 名称 标志 名称 民政 救助 家庭 标记 名称 医疗 状态 名称 户籍 类型 名称 户主 档案 编号 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 家庭 代码 地区 代码 对应 文档 节点 对应 文档 节点 数据 信息 农民 家庭 数据 服务 参数 参数 名称 农民 家庭 数据 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 家庭 代码 地区 代码 年度 农民 家庭 数据 家庭 代码 家庭 金额 民政 医疗 救助 金额 行政区划 代码 年度 地区 名称 时间 时间 农民 家庭 资助 数据 家庭 代码 行政区划 代码 年度 资助 部门 代码 资助 金额 地区 名称 资助 部门 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 家庭 代码 地区 代码 年度 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 农民 个人 服务 农民 个人 基本 数据 服务</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.236582    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.236582    	
 国家卫生和计划生育委员会办公厅关于印发老年健康核心信息的通知	
 国家卫生和计划生育委员会办公厅关于印发老年健康核心信息的通知
 （国卫办家庭函〔2014〕885号）
@@ -5155,22 +4406,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 印发 核心 信息 国家 委员会 办公厅 印发 核心 信息 家庭 自治区 直辖市 计生委 老年人 意识 教育 营造 社会 关心 社会 氛围 老年人 素养 水平 专家 核心 信息 印发 国家 计生委 办公厅 核心 信息 老龄化 老年人 自我保健 意识 监护 技能 规范 疾病 疾病 功能 合理 膳食 营养 老年人 饮食 定量 食物 品种 谷类 豆类 薯类 动物性 食物 蔬菜 水果 奶类 奶制品 坚果 烹调油 食盐 摄入量 建议 老年人 能量 分配 早餐 午餐 晚餐 零食 水果 运动 老年人 情况 轻中度 运动 项目 游泳 舞蹈 太极拳 运动 时间 运动 时间 戒烟 限量 饮酒 戒烟 饮酒 限量 饮用 烈性酒 保持良好 小时 安眠药 医嘱 定期 监测 血压 情绪 劳累 测量 间隔 平均值 高血压 患者 测血压 血压 晨峰 现象 心肌梗死 用药 低血压 定期 监测 血糖 老年人 监测 血糖 监测 空腹 血糖 监测 小时 血糖 糖尿病 患者 血糖 监测 血糖 糖尿病 患者 血糖 控制目标 空腹 血糖 小时 血糖 糖化 水平 心脑血管 疾病 老年人 生活 方式 心脑血管 疾病 因素 油脂 盐分 过量 运动 保持良好 定期 冠心病 症状 症状 老年人 肢体 无力 语言 恶心 症状 条件 医院 功能 浓茶 咖啡 毒性 药物 庆大霉素 链霉素 力求 生活 环境 听力 老年人 医疗机构 检查 助听器 定期检查 视力 视力 口腔 饭后漱口 合理 牙线 牙签 口腔 检查 龋齿 牙齿 功能 老年人 骨折 运动 眼镜 视力 环境 规则 物品 地面 骨关节 疾病 骨质疏松症 膝关节 过量 下楼梯 体重 下肢 关节 压力 时间 蛋白质 饮食 步行 跑步 运动 强度 压力 腹压 方式 生活习惯 保持良好 心态 学会 老年人 头痛 眼花 症状 心情 精神 小事 活动 兴趣 自卑 被动 过分 生活 意义 心情 无力 胸闷 障碍 体重 头晕 头痛 症状 专科医生 心理 辅导 药物 发展 进行性 记忆 语言 空间 障碍 人格 老年人 记忆力 症状 发展 合理 用药 用药 医嘱 禁忌证 用药 用药 抗生素 消炎 止痛药 强心药 秘方 偏方 验方 新药 洋药 用药 定期 老年人 政府 医院 普查 肿块 肠腔 癌症 信号 肿瘤 专科医院 癌症 医院 规范化 疾病 采取有效 措施 疾病 风险 病历 资料 应急 姓名 家庭 住址 工作 单位 家属 基本 信息 疾病 情况 要点 联系 车辆 医院 事项 老年人 社会 情况 有益 体育 文化娱乐 活动 科学 生活 方式 生殖 社会 老年人 有所 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>远程医疗信息系统建设技术指南
+  </si>
+  <si>
+    <t>远程医疗信息系统建设技术指南
 （2014 年版）
 国家卫生和计划生育委员会
 2014 年 年 11 月
@@ -6281,44 +5519,18 @@
 应用功能和基础功能，如图4-3 所示。
 监管功能主要包括对基本运行情况、服务质量、财务等方面的监管。
 应用功能包括基本业务功能和高端业务功能。其中基本业务功能包括远程</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>远程 医疗 信息系统 建设 技术 指南 国家 委员会 背景 发展 简况 发展 概况 紧迫性 社会效益 经济效益 原则 目标 任务 建设 原则 建设 目标 建设 任务 分析 用户 分析 业务 分析 功能 分析 信息 分析 技术 分析 信息安全 设计 架构 系统 架构 功能 架构 信息 架构 技术 架构 标准 标准规范 建设 信息安全 建设 基础设施 建设 远程 医疗系统 硬件 建设 远程 医疗 建设 远程 医疗 中心 机房 建设 网络系统 建设 服务 站点 建设 远程 终端 系统 专用 远程 诊室 远程 重症 监护 系统 手术 系统 多媒体 系统 教学 系统 系统 部署 模式 集中式 模式 分布式 模式 远程 医疗 运营 职责 数据中心 管理 服务 流程 管理 规范 服务 过程 服务 系统 支撑体系 服务 资源 信息管理 营运 管理 服务 质量 监理 建设 质量 管理 质量 管理 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 站点 市级 远程 医疗 服务 站点 远程 医疗 服务 站点 乡镇 社区 远程 医疗 服务 站点 远程 医疗 信息系统 建设 技术 指南 总结 远程 医疗 信息系统 建设 发展 经验教训 远程 医疗 信息系统 建设 发展 远程 医疗 信息系统 建设 原则 目标 任务 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 站点 基本功能 技术 架构 建设 标准 远程 医疗 信息系统 区域 信息 平台 关系 项目 建设 管理 运营 工作 建议 远程 医疗 信息系统 建设 技术 指南 指导 远程 医疗 信息系统 建设 规范性 远程 医疗 信息系统 建设 方案设计 工程 项目 评估 工作 远程 医疗 信息系统 建设 技术 指南 内容 部分 背景 发展 简况 紧迫性 效益 经济效益 分析 部分 原则 目标 任务 远程 医疗 信息系统 建设 原则 建设 目标 建设 任务 部分 分析 用户 业务 功能 信息 技术 信息安全 角度 远程 医疗 信息系统 技术 分析 部分 总体设计 远程 医疗 信息系统 总体 系统 架构 功能 架构 信息 架构 技术 架构 部分 标准 远程 医疗 信息系统 标准 体系 框架 标准 信息安全 部分 基础设施 建设 远程 医疗 信息系统 硬件 基础设施 远程 数据中心 机房 网络 建设 方案 建议 部分 服务 站点 建设 场景 功能 技术参数 方面 远程 终端 系统 专用 远程 诊室 远程 重症 监护 系统 手术 系统 多媒体 系统 教学 系统 远程 服务 站点 建设 部分 系统 部署 模式 集中式 分布式 建设 部署 模式 部分 医疗机构 数据中心 基础设施 工厂 设备 统一 管理 服务 管理 服务 服务 管理 服务 资源 信息 管理 运维 服务 内容 部分 质量 监理 建设 质量 管理 质量 管理 方面 内容 背景 卫生事业 发展 医疗 资源 总量 资源配置 问题 优质 医疗 资源 地区 基层 农村 地区 医疗 服务 服务 效率 医疗 服务质量 群众 看病难 问题 远程 医疗 利用 医疗卫生 资源 基层 医疗卫生 服务 能力 城乡 医疗 服务 均等化 人口 信息化 建设 远程 医疗 信息技术 网络化 信息 平台 联通 地区 医疗 机构 患者 机构 地域 医疗 交流 医疗 活动 医疗 服务 业务 监管 和运维 服务 体系 医药卫生 意见 发展 面向农村 远程 医疗 国家 远程 医疗 建设项目 办公厅 印发 远程 建设 项目管理 方案 办公厅 印发 远程 系统 项目 技术 方案 医管司 远程 系统 建设 目的 办公厅 医院 能力 建设 远程 系统 建设项目 重要文件 印发 卫生事业 规划 远程 医疗 信息系统 医药卫生 信息化 建设 重点 工程 发展 面向农村 远程 系统 基层 医疗 服务水平 公平性 国家 战略性 发展 规划 医疗 信息 工程 建设 内容 全民 信息化 工程 基础 远程 医疗 分析 调查 研究 服务业 发展 面向基层 地区 远程 影像 远程 远程 监护 指导 远程 手术 指导 内容 发展 远程 医疗 国家 计生委 印发 人口 信息化 建设 指导 意见 规划 明确提出 医疗 服务 信息系统 建设 电子 病历 医疗 任务 远程 医疗 信息系统 建设 进展 总体规划 功能 方面 关键问题 迫切需要 规范性 技术 指导 远程 医疗 信息系统 建设 项目 建设 效率 质量 远程 信息系统 规范 科学 发展 国家 计生委 规划 息司 全国 专家 研究 远程 医疗 信息系统 建设 指南 发展 简况 发展 经历 远程 医疗 概念 世纪 远程 医疗 侧重于 研究性 局部 试点 世纪 技术 远程 医疗 发展 远程 咨询 远程 医学 远距离 传输 远程 会议 方面 进展 代表性 教育 医学 系统 中心 综合性 医学中心 乡村 医院 远端 站点 活动 世界 远程 医疗 网络 国家 大力发展 远程 医疗 目的 医疗 质量 目的 医疗 费用 国家 宇航局 远程 医学 试验台 太空 宇航员 印第安人 居住区 远程 医疗 服务 远程 医疗 试验 医疗 改革 计划 信息 远程 手段 医疗 费用 目的 利用 远程 医疗 技术 发展 卫生事业 国家 全国 远程 医疗 网络 远程 医疗 重点 发展 乡村 地区 远程 医疗保健 网络 建设 家庭 远程 监护 远程 医疗 发展 状况 集中地 代表 远程 医疗 活动 水平 远程 医疗 远程 医学教育 远程 医学 研究 公共卫生 医疗保健 管理 方面 进展 大学 医院 实验性 网络 远程 医疗 基础 国家 远程 医疗系统 临床学科 远程 读片 中心 系统 中心 数据 多用户 医生 专家 社区 医生 网络 电信 合作 收费 服务 运营 模式 系统 系统 服务 处方 总结 报告 数据 社区 远程 医学 内容 世纪 生物医学 战略 优先 资助 领域 国家 本学科 领域 产品 技术水平 生产 品种 规模 产品 临床 产品 产品 领先地位 产品 基本上 代表 远程 医学 产品 方向 技术 远程 医疗 特征 公众 通讯网 服务 客户端 桌面 服务 发展 商业化 项目 移动 联网 联网 技术 远程 医疗 发展 远程 动态 监测 血压 血糖 心电 智能 医疗 产品 监测 设备 技术 发展 远程 医疗 医院 大门 社区 家庭 面向 个人 定向 个性化 服务 发展 特点 远程 医疗 发展 历史 远程 医疗 技术 高科技 领域 军用 民用 社区 家庭 老百姓 远程 医疗 人人 目标 技术 手段 程度 人类 技术 多元化 融合 远程 通讯 技术 信息学 技术 医疗 技术 日益 发展 融合 远程 医疗 技术 多元化 专业化 小型化 方面 体系化 医疗 服务 远程 通讯 技术 计算机 发展 远程 医疗 网络 环境 材料 工艺 革新 远程 医学 系统 设备 体积小 功能 个人 家庭 护理 研制 程度较高 移动性 携式 远程 医学 设备 远程 医疗 社区 家庭 医疗保健 救援 军队 平战时 伤病 远程 医学 远程 医疗 运行机制 发展 远程 数据通信 技术 计算机 条件 制约 远程 医疗 科研 试验 项目 总体 阶段 世纪 技术 项目 启动 远程 医疗 发展 远程 医疗 概念 发展 系统 理念 远程 医学 咨询 远程 病情 监护 远程 手术 指导 远程 远程 学术交流 远程 医学 文献 服务 模式 远程 医疗 基础 平台 医技 专科 融合 实践证明 远程 医疗 临床 专科 辅助 专业 医学 科研 教育 远程 医学 国家 发展 经验 远程 医学 专科 程度 远程 医学 效益 医疗 专家 前线 远程 放射学 远程 病理学 技术 放射学 理学 传统 模式 相似性 产生 系统 技术标准 人员 资质 标准 质量保证 标准 业内人士 医学 领先 学科 发展 概况 全国 信息化 发展 规划 纲要 研究 数据 远程 医疗 市场 发展 阶段 阶段 发展 简况 世纪 研究性 远程 医疗 试验 实用性 远程 医疗系统 建设 开花 专域 发展 局面 部分 医院 地区 医院 医疗系统 医疗 专网 远程 医疗系统 面向全国 地区 信息网络 架构 远程 医疗 业务 国家 政策 实际 业务 省市 建设 远程 医疗 信息系统 对口 欠发达 省份 工作 世纪 远程 医疗 建设 发展 国家 区域性 远程 医疗 试点 项目 建设 范围 部属 综合 医院 综合 医院 综合 医院 医院 远程 医学中心 协和 医院 高端 远程 医疗系统 投入使用 年度 基层 远程 系统 项目 任务 年度 基层 远程 系统 项目 任务 社会效益 远程 医疗系统 投入使用 程度 医疗 资源 问题 技术 研究 机构 生产 厂商 医疗机构 联网 技术 发展 家居 监测 产品 远程 医疗 模式 前景 总体 远程 医疗系统 建设 局域 研究 试用 区域性 集团化 建设 域性 协同 阶段 典型 案例 远程 医疗 项目 典型 远程 医学中心 国家 计生委 医疗 管理 培训中心 全国 省市 自治区 国家 地区 远程 医疗 活动 远程 医疗 信息管理 平台 统一 管理 视频 远程 视频 终端 手术 远程 直播 教育 培训 系统 数字 专线 国际 线路 互联网 方式 临床 影像 病理 教学 培训 手术 学科 病例 学术会议 远程 医疗 活动 远程 手术 领先水平 远程 医疗 业务流程 医疗 质量 管理 运营 机制 方面 有益 群众 看病难 看病贵 基层医院 医疗 服务水平 医院 医院 国际 远程 医学中心 国家 科技 计划 重点项目 国家 数字 关键技术 区域 研究 核心 成果 网络 医疗 服务平台 全省 远程 医疗 服务 网络 医院 市县 医院 社区服务 远程 远程 监护 双向 远程 区域 影像 检验 服务 省市 大学 大学 总院 医学中心 国际 远程 医疗 平台 交流 合作 优质 医疗 国际 全省 余例 远程 专家 远程 监护 临床 案例 远程 专题 教学 学术 远程 知识讲座 远程 手术 直播 国际 合作 交流 医院 远程 医学中心 实际 远程 医学中心 中心 面积 通讯 远程 影像 视频会议 挂号 双向 管理 培训 数字 资源共享 功能 一体 区域 协同 医疗 综合 服务平台 中心 免费 协作 医院 远程 医疗 设备 光纤 专线 基础设施 免费 远程 电子 图书馆 远程 教育 远程 医疗 服务 模式 医院 服务网络 人民 医院 人民 医院 区域 建设 乡镇 服务中心 社区卫生 服务 远程 医疗 服务体系 病人 培训 基层 医务人员 远程 中心 人民 医院 医科 大学 附院 远程 分中心 互联网 内地 医院 远程 自治区 基层 医疗机构 服务 远程 出院 患者 服务 一体 网络 医院 现场 双向 病人 个性化 服务 服务 挂号 人次 病人 人次 远程 专家门诊 影像 病理 移动 远程 监护 小时 远程 医学教育 远程 心电 人次 事件 远程 指导 远程 医学中心 信息 专网 远程 医学网 远程 医学 活动 远程 医学中心 单位 医疗机构 地区 医疗机构 医疗机构 合作 传统 远程 医学 手段 车载 内窥镜 指导 远程 门诊 公共卫生 应急 中心 建立联系 卫生事件 国家 计生委 远程 医学 信息 服务 标准 远程 医学 内涵 问题 影响 远程 医疗 信息系统 建设 问题 政策法规 管理 方面 技术 建设 方面 问题 地区 远程 医疗 信息系统 建设 成形 地区 系统 远程 医疗 信息学 系统 合力 地域 范围 协同 效应 远程 医疗 具体内容 远程 医疗 信息系统 技术规范 建设 地域 系统 远程 医疗 业务 协同 远程 医疗 信息系统 远程 医疗 信息系统 功能 国家 行政 管理部 业务 监管 手段 远程 医疗 服务 点对点 业务 功能 远程 医疗 信息系统 数据 标准 信息 孤岛 优质 医疗 资源 无法 效用 远程 医疗 集成度 融合 系统 高度 融合 系统 信息安全 措施 患者 保密 医疗 信息安全 隐患 全国 统一 系统 建设 评价 体系 远程 医疗 建设 水平 信息 技术 激励机制 无法 国产化 发展 远程 医疗 信息系统 医院 信息系统 临床 信息系统 医疗 设备 远程 医疗 信息系统 区域 信息 平台 信息 远程 医疗 远程 医疗 远程 医疗 设备 特色 远程 医疗 运营 体系 闭环 流程 决策 流程 决策 问题 紧迫性 地区 差距 城乡 差距 阶层 差距 医疗卫生 资源 看病难 看病贵 问题 原因 医疗 资源 结构性 医疗 资源 过分 医院 基层 医疗机构 服务 能力 服务质量 医疗卫生 机构 人次 入院 人数 年份 人数 入院 人数 医院 基层 医疗卫生 机构 医院 基层 医疗卫生 机构 来源 卫生统计 医院 病床 使用率 总计 经济 类型 医院 医院 医院 医院 医院 类别 综合 医院 专科医院 来源 卫生统计 基层 医疗机构 服务 能力 服务质量 病人 医院 资源 利用 医院 医院 病床 使用率 医疗 服务 供给 方面 低效率 医院 基层 医疗机构 病床 医疗卫生 人员 充分利用 医疗 服务 财政负担 城乡 医疗卫生 服务体系 发展 均衡性 世界 医疗 资源 医疗 费用 问题 远程 医疗 医疗 资源 整体 医疗 水平 医疗 费用 医疗 水平 区域 地区 整体 医疗 条件 信息技术 医疗卫生 资源 建设 远程 医疗 信息系统 社会 病人 人民 生活 水平 服务 经验 医学专家 教授 岗位 人们 医疗 服务 发展 远程 医疗 信息系统 服务 异地 病人 医疗 服务 疑难 危重病 患者 危重 患者 外地 看病难 节约 资源 患者 时间 远程 医疗 信息系统 服务 突破 地域 时间 医疗 优质 医疗 资源 医疗 技术 基层 医疗机构 医生 医疗 指导 异地 医生 疑难 危重 患者 检查 患者 患者 时间 医学专家 技术 社会 服务 充分利用 患者 节省 费用 社会效益 经济效益 社会效益 分析 基层医院 医疗 服务质量 远程 医疗 信息系统 研究 医院 专科 医疗 中心 优质 医疗 资源 基层医院 准确率 患者 医疗 服务 途径 远程 医疗 信息系统 研究 原本 患者 医院 资深 专家 患者 专家 局面 异地 盲目性 社会 医疗 资源 远程 医疗 信息系统 研究 突破 地域 时间 利用 重点 医院 范围 患者 权威性 服务 优质 医疗 资源 医疗 技术 基层 医疗 医疗 资源共享 经验丰富 医疗 专家 服务 充分利用 优质 医疗 资源 患者 节省 费用 资源 状况 构筑 临床 案例 医学教育 渠道 远程 医疗 信息系统 技术 传统 医护人员 教育 方式 医护人员 工作岗位 临床 案例 高质量 培训 现实 基层 医护人员 优质 教育 机会 医护人员 技术水平 终身教育 体制 事件 战争 远程 医疗 信息系统 事件 战争 环境 时期 环境 伤员 工作 环境 应急 机动 远程 医疗 信息系统 地面 条件 影响 医疗机构 管理 部门 联系 事件 地区 医疗卫生 资源 事发 现场 事发 疾病 应急 水平 传染病 传播 途径 医务人员 限度 人民 群众 官兵 医护人员 生命 经济效益 分析 医疗 服务 医疗 资源 重症 患者 异地 成本 属地 远程 医疗 信息系统 研究 患者 异地 检查 费用 个人 国家 医疗 支出费用 交通费 住宿费 家属 误工 损失 患者 总体 成本 优质 医学教育 基层 医疗机构 教育 经费有限 方式 选派 人员 教育 成本 教育 面窄 选派 人员 培训 基层医院 工作 远程 医疗 信息系统 研究 医护人员 工作岗位 高质量 医学教育 成本 教育 人群 医师 基层医院 门诊量 医疗 远程 医疗 信息系统 研究 基层 医疗机构 服务 能力 服务质量 患者 范围 医院 公信力 患者 信赖 基层 医疗机构 基层 医院 医院 专科 医疗 中心 管理 优势 基层 医疗机构 管理效率 基层医院 医疗 原则 目标 任务 建设 原则 顶层 设计 资源共享 全国 远程 医疗 服务 监管 体系 目标 全局 分层 分阶段 建设 政府 政策 医疗机构 医疗 资源共享 统一标准 待发布 远程 医疗 标准规范 建设 系统 人为 设置 技术 壁垒 建设 体系 远程 医疗系统 信息 资源 医疗 资源 全国 范围 条件 信息 系统安全 医疗系统 规范 服务 监管 规范 优化 远程 医疗 服务 流程 不断扩大 服务 范围 形式 服务 管理 规范 服务 局面 远程 医疗系统 建设 运营 情况 政府 监管 机制 政策 行政 监管 手段 远程 医疗系统 有序 发展 政府 远程 医疗 建设 管理 任务 政府 工作 计划 考核 指标 专门 部门 人员 工作 积极性 社会 力量 积极性 市场 运营 机制 远程 医疗 建设 业务 基础 省份 医院 重点 建设 远程 医疗系统 建设 浪费 充分发挥 示范带头 全国 地区 建设 经验 管理 机制 模式 积极探索 建设 经验 全国 范点 样板间 建设 模式 全国 省份 地区 地区 基础 定位 建设 系统 重点 特色 远程 医疗 业务 全国 统一 远程 医疗 服务 管理 建设 目标 业务 目标 全国 统一 远程 医疗 服务体系 覆盖全国 远程 医疗 服务网 体系 利用 全国 优质 医疗 服务 资源 地域 均等化 体系 远程 医疗 服务 全国 综合性 医院 高端 医疗 专家 优质服务 基层 医疗卫生 机构 远程 医疗 服务 模式 远程 远程 重症 监护 远程 影像 远程 心电 远程 经络 远程 宏观 观舌 培训 远程 手术 指导 远程 医疗 服务 模式 基础 联网 视频 技术 发展 远程 手术 器械 远程 体质 远程 医疗 特色 服务 模式 远程 医疗 服务 范围 远程 医疗 运营 监管 机制 国家 区域 远程 服务 资源 监管 中心 核心 远程 医疗 运营 服务质量 业务费 内容 监督管理 机制 全国 范围 远程 医疗 建设 有序 机制 制度 建设 研究 有关 远程 医疗 权利 医疗 责任 患者 运行机制 方面 制度 规范 远程 医疗 建设 运营 管理制度 技术标准 信息化 目标 国家 统一 规范 标准 远程 医疗 服务 业务 监管 和运维 服务 体系 国家 优势 资源 信息 跨域 远程 医疗 综合 服务 农村 医疗卫生 服务质量 水平 医疗 百姓 看病难 问题 目标 远程 医疗 业务 服务 技术 体系 覆盖全国 远程 医疗 服务网络 体系 利用 全国 优质 医疗 服务 资源 地域 体系 专科 特色化 建设 远程 医疗 服务 技术 体系 全国 综合性 医院 高端 医疗 专家 优质服务 基层 医疗卫生 机构 远程 远程 重症 监护 远程 影像 远程 心电 远程 培训 远程 手术 指导 远程 医疗 模式 移动 联网 视频 技术 发展 远程 手术 器械 检查 远程 医疗 服务 模式 医疗 服务 范围 远程 医疗 业务 监管 体系 建设 国家 区域 远程 医疗 服务 资源 监管 中心 远程 医疗 运营 服务质量 业务费 内容 监督管理 机制 研究 有关 远程 医疗 权利义务 医疗 责任 患者 运行机制 方面 制度 规范 远程 医疗 建设 运营 管理制度 政策 制度 远程 医疗 医疗 服务 项目 新农 远程 医疗 筹资 收费 合理 补偿 方案 管理 远程 医疗机构 专家 资质 机制 业务 监管 机制 远程 医疗 标准 中国国情 远程 医疗 监督管理 体系 全国 范围 远程 医疗 建设 有序 远程 医疗 运维 服务体系 远程 医疗 业务 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 数据中心 基础设施 设备 统一 维和 管理 部署 运维 服务 机制 远程 医疗 服务平台 项目 数据中心 运营 运维 服务 部门 整体 运维 服务 运维 服务 部门 公司 服务 形式 整体 数据中心 运维 技术 服务体系 项目 队伍 服务 制度 管理制度 项目 上线 建设 任务 功能 标准 统一 协同 远程 医疗 系统 标准化 远程 医疗 系统 乡镇 社区 医疗卫生 机构 远程 医疗 服务 统一 远程 医疗 功能 远程 医疗 服务 信息网络 框架 体系 积极探索 网络 技术 模式 远程 医疗 服务 管理 医疗 网络 环境 国家 信息 专网 核心 国家 远程 医疗 监管 网络 利用 技术 医疗机构 远程 医疗 服务网络 全国 地域 统一标准 远程 医疗 信息网络 体系 国家 远程 医疗 服务 资源 监管 中心 信息系统 平台 规范化 标准化 方式 远程 医疗 区域 平台 建设 统一 远程 医疗 监督管理 服务 机制 全国 远程 医疗 业务 监督管理 跨省 远程 医疗 服务 协同 医疗 资源 调配 业务 统一 分级 部署 建设 国家 远程 医疗 服务 资源 监管 中心 系统 平台 规范化 标准化 方式 全国 远程 医疗 业务 监督 跨省 远程 医疗 服务 协同 医疗 资源 调配 业务 规范化 远程 医疗 用户 终端 服务 站点 标准化 方式 远程 医疗机构 分级 功能 标准 统一 远程 医疗 用户 终端 站点 社区 医疗卫生 机构 远程 医疗 服务 统一 远程 医疗 服务 国家 省市 信息 平台 应急 指挥系统 平战 管理 业务 国家 标准规范 远程 医疗 服务 信息网络 国家 信息 平台 应急 信息系统 资源共享 业务 协同 分析 用户 分析 远程 医疗 信息系统 面向 国家 远程 医疗 服务 资源 监管 中心 面向 医疗机构 服务 站点 面向 系统 服务提供商 面向 就诊者 业务 远程 医疗 信息系统 用户 行政 监管 用户 系统 管理 用户 服务 运营 用户 业务 用户 患者 远程 医疗 信息系统 用户 行政 监管 人员 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 用户 远程 医疗 服务 资源 监管 中心 用户 系统 远程 医疗 服务 监督管理 工作 系统 人员 远程 医疗 信息系统 技术 管理 用户 远程 医疗 服务器 数据中心 基础设施 设备 统一 维和 管理 服务 运营 人员 远程 医疗 服务 运营 用户 医疗机构 机构 运营 服务 管理员 服务 调度员 服务提供商 系统 远程 医疗 服务 管理 合作方 工作 服务 资源 时间 远程 医疗 业务 远程 医疗 资源 业务 专家 医务人员 远程 医疗 业务 医疗机构 科室 人员 总体 区分 远程 医疗 用户 用户 用户 远程 医疗 远程 医疗 资料 远程 医疗 过程 远程 医疗 结果 报告 用户 用户 远程 医疗 远程 医疗 资料 专家 时间 意见 远程 医疗 服务 用户 患者 远程 医疗 服务 目标 对象 业务 分析 远程 医疗 业务 基本 业务 高端 业务 业务 基本 业务 远程 远程 影像 远程 心电 远程 经络 远程 体质 远程 医学教育 远程 远程 双向 高端 业务 远程 重症 监护 远程 病理 远程 手术 远程 宏观 微观 业务 医疗 专业 远程 患者 个人 家庭 医疗机构 医疗 服务 指南 部门 远程 医疗 基本 高端 业务 服务 远程 远程 方向 专家 远程 远程 意见 报告 过程 远程 医院 专家 会同 基层医院 患者 主管 医生 远程 技术手段 患者 病情 针对性 方案 远程 小病 社区 疾病 远程 系统 专家 服务 远程 资源共享 目的 远程 流程图 远程 影像 影像 诊断系统 利用 影像 数字化 医疗机构 检查 设备 结果 数字化 系统 病历 资料 报告 视频 远程 系统 评价 报告 管理员 系统 视频 书面 诊断书 专家 专家 单位 专家 账号 管理 会议 管理 远程 病历 数据 远程 远程 影像 流程图 远程 心电 远程 心电 诊断系统 模块 申请单 系统 病历 资料 影像 报告 远程 远程 影像 系统 评价 影像 报告 管理员 系统 远程 影像 报告 专家 专家 单位 专家 账号 管理 管理 患者 病历 信息 申请单 启动 心电 诊断系统 检查 心电 诊断系统 检查 报告 意见 管理 模块 意见 检查报告 报告单 远程 心电 流程图 系统 病历 资料 心电 报告 远程 远程 心电 系统 评价 心电 报告 管理员 系统 远程 心电 报告 专家 专家 单位 专家 账号 管理 管理 远程 经络 远程 经络 诊断系统 手掌 经络 全息 理论 利用 手指 皮肤 生物电 测量 技术 检测 单元 经络 生物 电信号 经络 原理 自动 经络 数据 网络 远程 病历 数据 远程 远程 经络 流程图 系统 病历 资料 经络 报告 远程 远程 经络 系统 评价 经络 报告 管理员 系统 远程 经络 报告 专家 专家 单位 专家 账号 管理 管理 远程 医学教育 课件 培训 模式 远程 培训 系统 远程 专题讲座 远程 学术 研讨 课件 远程 培训 远程 病案 远程 手术 远程 护理 示教 临床 实际 案例 远程 培训 远程 实际 案例 针对性 医护人员 工作 优质 培训 临床 问题 情况 目的 基层 医护人员 优质 教育 大规 高效能 基层 医务人员 服务 能力 水平 培训 专家 音视频 课件 培训 参与方 培训 过程 远程 中心 流媒体 课件 制作 整理 归类 课件 远程 培训 系统 课件 服务 文字 幻灯 课件网 课件 管理 功能 远程 医学教育 流程图 远程 基层医院 门诊 疑难 病人 门诊 医生 病情 医院 专家门诊 病情 门诊 医生 系统 病人 挂号 系统 医院 专门 专家 专家 挂号 情况 医生 平台 自动 过程 短信 方式 医生 病人 基层医院 挂号 检查 转院 医院 信息反馈 远程 流程图 双向 双向 病情 人群 医院 科室 过程 医院 本院 范围 患者 本院 患者 医院 医院 病情 情况 患者 医院 双向 流程图 远程 重症 监护 远程 重症 监护 网络 生理 信息 医学 信号传 监护 分析 检测 人体生理 参数 视频 监控 监护 对象 身体状况 自动 分析 监护 对象 健康状况 情况 医疗 中心 报警 救助 系统 医院 医疗 信息系统 信息 意见 技术手段 远程 监护 技术 医生 患者 距离 医生 生理 信息 患者 医疗 服务 远程 重症 监护 流程图 远程 病理 利用 远程 病理 检查 工作站 患者 病理切片 专家 病理 专家 分析 病理 专家 远端 移动 图像 病理 图片 病理 报告 患者 主治医生 临床 远程 病理 流程图 系统 病历 资料 病理 报告 远程 远程 病理 系统 评价 病理 报告 管理员 系统 远程 病理 报告 专家 专家 单位 专家 账号 管理 管理 远程 手术 远程 技术 视频 技术 临床 手术 现场 手术 画面 影像 全程 记录 远程 传输 远程 手术 教学 系统 医院 手术 系统 手术室 手术 信息 视频 终端 视频 手术 医生 手术室 电脑 全部 屏蔽 部分 终端 远程 手术 手术 系统 手术室 医生 手术过程 手术室 医疗 设备 视频 资料 实习医生 人员 教学 学术交流 目的 手术 教学 手术 转播 医院 手术 现状 手术 优点 利用 医院 网络 节省 大量 建设 经费 手术过程 细节 信息 微创 镜类 手术 设备 教学效果 手术过程 传统 模式 时间 空间 人数 资料 备份 方式 方式 方式 地域 手术 手术 影像 场景 视频 全程 记录 高质量 教学 争议 手术 利用 视频 资料 科学 手术 影像 资料 研究 医生 手术 水平 手术 现场 教学 过程 关键 动作 方法 图片 分析 学习者 图片下载 专家 远程 专家 手术室 会议室 手术 画面 现场 医生 患者 手术 指导 现场 手术 网络 教学 终端 手术 研讨会 手术 远程 手术 流程图 远程 体质 利用 远程 体质 工作站 体质 模块 体质 申请单 信息 患者 病历 信息 申请单 启动 体质 辅助 设备 辅助 设备 检查 报告 意见 专家 体质 量表 报告 意见 体质 管理 模块 意见 报告 报告单 远程 体质 流程图 系统 病历 资料 体质 报告 远程 远程 体质 系统 评价 体质 报告 管理员 系统 远程 体质 报告 专家 专家 单位 专家 账号 管理 管理 远程 宏观 微观 远程 宏观 微观 诊断系统 运用 舌象 津血 同源 原理 电子 技术 专业 医疗 技术 舌部 图像 信息 舌苔 样本 微观 分析 宏观 舌象 临床 图谱 病理 评估 脏腑 气血 健康状况 病理 报告 患者 主治医生 临床 远程 宏观 微观 流程图 系统 病历 资料 报告 远程 远程 宏观 微观 系统 评价 报告 管理员 系统 远程 报告 专家 专家 单位 专家 账号 管理 管理 功能 分析 远程 医疗 信息系统 远程 医疗 信息系统 功能 规范 功能 医院 医院 医院 管理 医院 远程 远程 双向 远程 影像 远程 心电 远程 经络 远程 监护 远程 病理 远程 手术 远程 体质 远程 宏观 微观 业务 远程 医疗 信息系统 远程 医疗 信息系统 规范 远程 医疗 信息 系统 会员 医院 中心 业务 远程 医疗 信息系统 平台 医院 信息 平台 区域 信息 平台 远程 医疗 信息系统 业务 医疗 信息 资料 功能 远程 医疗 信息系统 音视频 协作 经络 远程 设备 功能 辅助 医院 医院 医院 部署 医院 远程 远程 双向 远程 影像 远程 心电 远程 经络 远程 监护 远程 病理 远程 手术 远程 门诊 体质 远程 宏观 微观 远程 管理 业务 远程 音视频 协作 系统 医疗 协作 场景 详细描述 远程 医疗 服务 业务 业务流程 功能 管理工具 管理 业务 系统集成 节点 监控 远程 医疗 业务 情况 用户 数据 数据 保密 业务流程 系统日志 记录 消息 可靠性 消息 系统 备份 功能 高可靠性 单点 系统 数据 用户 系统 数据库 二次开发 环境 基础 业务 组件 信息 分析 信息内容 远程 医疗 数据 总体 远程 医疗 业务 数据 监管 数据 系统 数据 服务 运营 数据 远程 医疗 业务 数据 远程 医疗 业务 数据 业务 数据 数据 方数 远程 医疗 申请量 远程 申请量 病历 数据 科室 申请量 比重 医生 人数 申请量 远程 疗病 数据 远程 医疗 服务 数据 专家 资源 数据 医院 医疗机构 远程 医疗 业务 情况 分析 远程 医疗 业务 数据 远程 医疗 医院 趋势 分析 远程 医疗 费者 趋势 分析 远程 医疗 消费者 区域分析 区域 人口 分析 分析 全面 远程 医疗 服务 情况 政策 决策 提供数据 监管 数据 监管 数据 基本 情况 数据 服务质量 数据 财务 监管 数据 情况 机构 数量 分析 机构 情况 分析 服务 资源 情况 分析 辅助 项目 分析 患者 病情 情况 分析 单位 远程 医疗 信息系统 基本 情况 监管 服务质量 服务满意 分析 情况 分析 评价 分析 系统 情况 评价 分析 质量 评价 分析 单位 区域 远程 医疗 服务质量 监管 财务 监管 分析 诊疗费 分析 医疗 方式 分析 单位 区域 远程 医疗 财务费用 监管 系统 运维 数据 系统 运维 数据 基础设施 状况 性能 状况 信息安全 状况 容量 状况 业务 连续性 状况 方面 分析 远程 医疗 信息系统 性能 检测 状态 监测 错误 报警 性能 数据 故障 功能 保障系统 基础设施 平台 硬件 基础 平台 平台 数据库 中间件 硬件 基础设施 服务器 系统 存储系统 性能 数据 系统 用户数 服务 时间 网络 性能 数据 网络 服务器 数据库 中间件 系统 性能 监控 性能 基线 定期 性能 报表 趋势 趋势 分析 性能 优化 建议 系统 参数 系统 信息安全 状况 技术 业务 层面 物理 网络安全 数据库安全 系统安全 安全策略 容量 状况 定期 测景 容量 信息系统 能力 问题 网络带宽 状况 容量 状况 系统 情况 系统 吞吐量 业务 连续性 状况 数据中心 灾难 规定 时间 关键 业务 功能 强制性 预先 影响 企业 关键 业务 能力 过程 事件 策略 医疗机构 事件 业务 容灾 技术 数据 容灾 容灾 服务 运营 数据 服务 运营 数据 服务 运营 部门 工作 考核 数据 远程 医疗 申请单 时间 时间 远程 医疗 过程 运营 人员 工作量 服务态度 评价 服务 运营 工作 流程 数据 分析 服务质量 工作效率 音视频 协作 医学专家 医院 医生 病人 远程 交流 异地 摄像头 远程 调整 视角 危重症 患者 床边 患者 病床 专家 远程 远程 监护 服务 医院 国家 计生委 医院 远程 服务 专科 机构 跨区 专家 基层 患者 医院 系统 无缝 系统 效率 能力 专家 音视频 课件 幻灯 双方 交流 培训 过程 医疗机构 视频会议 医疗机构 学术交流 病例 经验 业务 条件 应急 指挥系统 视频 平台 音视频 信息 音视频 会议 教学 过程 网络 方式 专线 终端 平板 电脑 智能手机 终端 通讯 视频 终端 条件 应急 指挥系统 视频 平台 音视频 信息 视频会议 系统 系统 扩展性 应急 视频 平台 条件 情况 远程 视频会议 系统 国家 应急 视频 平台 应急 会商 事件 图像 信息 信息 远程 医疗 信息系统 医疗机构 异构 系统 信息 业务流程 协同 系统 信息 流程 方面 患者 标识 远程 医疗 过程 患者 远程 医疗 交叉 远程 医疗 业务 外院 交流 定位 患者 患者 病历 医院 业务 系统 远程 医疗系统 患者 本院 病历 资料 远程 医疗 数据中心 协同 过程 调用 协作 项目 医技 协作 单所 项目 本院 系统 错误 报告 远程 医疗系统 报告 模块 医院 医技 系统 辅助 检查 系统 社区卫生 服务中心 电子 档案 系统 检验 检查 数据 协作 机构 医疗机构 系统 异构 平台 技术 信息 任务 适配器 行业 方案 系统 耦合 系统 整体 可靠性 病历 病历 远程 医疗 信息系统 核心 病历 服务 目录 目录 检索 文档 功能 文档 病历 住院 医嘱 检查报告 检验 报告 病历 病历 医院 业务 系统 数据 医院 业务 系统 资料 加工 标准化 格式 文档 远程 医疗 数据中心 远程 医疗 业务 病历 目录 管理 文档 目录 文档 信息 文档 信息 远程 医疗 客户 检索服务 文档 文档 服务 文档 有效性 文档 技术 分析 远程 医疗 信息系统 建设 信息化 技术 理念 技术 成熟性 实用性 系统 专业 信息系统 建设 功能 总体设计 国际 技术标准 国家标准 技术 管理 体系结构 形象 服务 服务 社会 大类 特点 系统 技术 网络 环境 架构 信息 资源 社会公众 信息 交流 渠道 优质 服务 信息 资源 基础 标准化 原则 系统 管理 信息化 标准 档案 公文 管理 有关 规定 资源 建设 属性 国家 信息技术 软件 质量标准 可靠性 可用性 系统 可靠性 因特网 用户 系统 用户 用户界面 可用性 用户 界面设计 系统 功能 原则 用户 可扩展性 系统 过程 用户 系统 扩展性 功能 模块化 系统 规模 系统 模块 模块 任务 功能 模块 设计 任务 细分 代码 模块化 功能 独立性 成本 培训 成本 客户端 浏览器 软件 系统 应用程序 升级 计算机 标准接口 数据库 平台 数据库系统 系统 数据备份 功能 海量 数据 性能 数据库 机制 物理 网络安全 数据 方面 基本 技术 技术 体系 建设 统一 身份验证 中心 人员 统一 权限 分配 能力 访问控制 页面 系统 平台 过程 全程 数据 关键 数据 传输 过程 监听 敏感数据 用户 密码 系统 界面 系统 服务 专业 人员 培训 系统 流程 处理速度 使用者 额外负担 界面 用户 特色 环境 适应性 环境 不确定性 计算机本身 处理速度 网络 环境 因素 系统配置 方面 网络 环境 方面 功能 网络 环境 计算机硬件 条件 性能需求 构件 面向对象 系统 架构 体系 充分考虑 系统 能力 网络 性能 网络 环境 操作性 界面 系统 时间 数据量 记录 字节 数据量 系统 稳定性 系统 小时 故障 时间 故障 视音频 视频 声音 现象 声音 声音 标准 标准 音视频 外设 终端 诊室 部署 桌面 实际 用户 外院 本院 用户 规模 平台 医疗 用户 远程 医疗 信息系统 网络 诊室 实际 系统 数据 数据 医疗 质量 核磁 光机 经络 辅助 设备 医学影像 信息 数据 一致性 互动性 资源共享 医院 资源 利用 标准 校验 稳定性 系统 过程 错误 无法 现象 影响 信息安全 患者 信息 远程 医疗 信息系统 信息 电子 病历 档案 信息 影像 数据 电子 病历 档案 个人 基本 信息 病史 数据 信息 专家 患者 信息 患者 数据 患者 利益 影响 医院 远程 医疗 信息 传输 过程 影响 结果 医疗事故 信息 传输 完整性 检测 保密性 数据备份 数据 异地 备份 数据安全 远程 医疗 信息系统 机构 信息 远程 医疗 专业 机构 企业 内网 远程 医疗 部分 信息 大量 信息 医疗机构 挑战 部分 联通 情况 医疗机构 信息安全 远程 医疗系统 整体 基层医院 互联网 地市级 数据中心 医院 网络 联网 边界 防火墙 完整性 检测 控制措施 业务 数据库 远程 医疗系统 教学 大量 业务 信息 业务 工作 部分 患者 信息 动态 历史 信息 医疗 业务 网络层 业务 系统 核心 信息 资产 危害 远程 医疗系统 信息安全 管理制度 管理 措施 系统 病毒 网络 传播 影响 系统 完整性 可用性 权限 过度 系统资源 权限 系统配置 数据 运维 人员 错误 问题 设计 架构 系统 架构 远程 医疗 信息系统 总体 架构 远程 医疗 信息系统 总体 架构 远程 医疗 信息系统 管理 服务 角度 业务 覆盖范围 过程 环节 建模 业务 驱动 前提 统一 目标 设计 管理机构 医院 基层 社区 机构 统一 业务 发展 融合 远程 医疗 信息系统 远程 医疗 业务 管理 运转 远程 医疗 信息系统 管理 服务 业务流程 优化 目标 远程 医疗 信息系统 远程 医疗 服务 资源 监管 中心 医疗机构 终端 站点 专用 业务 网络 系统 远程 医疗 信息系统 总体 架构 远程 医疗 信息系统 部署 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 体系 后台 管理 角色 远程 医疗 信息系统 核心 管理 要素 远程 医疗 服务 资源 监管 中心 业务 监管 宏观 指导 监管 远程 医疗系统 建设 运营 情况 整体 建设 规划 措施 全国 远程 医疗 资源 合理 调配 统一 管理 远程 医疗 服务 资源 监管 中心 统一 平台 医疗 资源 远程 医疗 特色 医疗 服务 条件 专科 系统 应急 指挥系统 监管 职责 指导 监督 远程 医疗系统 建设 运营 情况 国家 监管 服务 信息 互通 全国 统一 服务 监管 网络 医疗机构 终端 站点 医院 服务站 医院 服务 站点 基层 医疗卫生 机构 服务 站点 远程 医疗 服务 资源 监管 中心 医疗 监管 服务 中心 远程 医疗 系统 医院 医院 基层 医疗卫生 机构 图像 设备 音视频 终端 医疗 数据 设备 医生 工作站 医疗机构 远程 医疗 终端 站点 医疗 业务 服务 医疗 信息 医疗 资源 业务 活动 服务质量 医疗 专用 业务 网络 远程 医疗 信息网络 远程 医疗 服务 资源 监管 骨干 网络 核心 节点 医院 医院 乡镇 社区卫生 服务中心 救护车 业务 单元 机构 机构 医疗 信息系统 基本 单位 专线 远程 医疗 服务 资源 监管 中心 系统 远程 医疗 服务 资源 监管 中心 远程 医疗 信息 资源 远程 医疗 子系统 业务 体系 远程 医疗 信息系统 国家 信息 平台 信息 平台 区域 信息 平台 医院 信息 平台 信息 远程 医疗 服务 资源 监管 中心 建设 模式 远程 医疗 监管 任务 地区 建设 经验 远程 医疗 服务 资源 中心 建设 模式 单体 模式 区域 信息 平台 医院 综合 医院 成型 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 区域 医疗机构 分体 模式 监管 资源 服务 系统 远程 医疗 服务 系统 部分 管理机构 建设 监管 资源 服务 系统 区域 远程 医疗 服务 中心 医院 协同 备份 区域 远程 医疗 服务 系统 功能 架构 系统 业务 功能 架构图 远程 医疗 信息系统 远程 医疗 信息系统 业务 功能 监管 功能 功能 基础 功能 监管 功能 基本 情况 服务质量 财务 方面 监管 功能 基本 业务 功能 高端 业务 功能 基本 业务 功能 远程</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>国家卫生和计划生育委员会办公厅关于印发远程医疗信息系统建设技术指南的通知
+  </si>
+  <si>
+    <t>国家卫生和计划生育委员会办公厅关于印发远程医疗信息系统建设技术指南的通知
 （国卫办规划发〔2014〕69号）
 （法宝联想:　 地方法规规章约1篇 律所实务约1篇 ）
 各省、自治区、直辖市卫生计生委，新疆生产建设兵团卫生局、人口计生委：
 　　为进一步规范和指导我国远程医疗体系建设，推动远程医疗系统建设的快速发展，我委研究制定了《远程医疗信息系统建设技术指南》（可从我委网站“规划信息”栏目下载）。现印发给你们，请参照执行。
 国家卫生计生委办公厅
 2014年12月10日</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 印发 远程 医疗 信息系统 建设 技术 指南 规划 地方 法规 规章 实务 自治区 直辖市 计生委 人口 计生委 规范 指导 远程 医疗 体系 建设 远程 医疗系统 建设 发展 研究 远程 医疗 信息系统 建设 技术 指南 网站 规划 信息 栏目 印发 国家 计生委 办公厅</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.229657    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.229657    	
 国家卫生和计划生育委员会办公厅关于开展2014年卫生监督信息报告工作督导检查的通知	
 国家卫生和计划生育委员会办公厅关于开展2014年卫生监督信息报告工作督导检查的通知
 （国卫办监督函〔2014〕617号）
@@ -6516,22 +5728,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 监督 信息 报告 工作 督导 检查 国家 委员会 办公厅 监督 信息 报告 工作 督导 检查 监督 自治区 直辖市 计生委 监督 中心 全国 监督 调查 制度 计生 行政部门 监督 调查 制度 布置 监督 信息 报告 工作 督导 检查 监督 信息 报告 工作 督导 检查 方案 附件 方案 自查 工作 自查 工作 总结 我委 地方 工作 情况 督导 检查 联系人 国家 计生委 监督局 红军 附件 监督 信息 报告 工作 督导 检查 方案 国家 计生委 办公厅 年度 监督 信息 报告 督导 检查 方案 工作 目的 国家 计生委 办公厅 印发 全国 资源 医疗 服务 调查 制度 制度 规划 办公厅 印发 监督 信息 报告 管理 规定 监督 现场 督导 检查 基层 监督 信息 报告 实际 工作 现状及 问题 信息 报告 工作 重点 监督 信息 报告 质量 检查 范围 检查 范围 监督 信息 报告 系统 网络 直报 省份 信息 报告 省份 方式 监督 信息 报告 工作 省份 省份 监督机构 督导 对象 地市级 监督机构 区级 监督机构 重点 检查 直辖市 地市级 监督机构 检查 检查 内容 全国 监督 调查 制度 监督 信息 报告 管理 规定 修订版 监督 监督 信息 报告 工作 情况 全国 监督 调查 制度 报告 系统 情况 全省 培训 机构 人员 基本 信息 情况 系统 人员 信息 实际 情况 监督 单位 个案 信息 情况 现场 经常性 监督 监督 监测 案件 建设项目 审查 信息 报告 情况 现场 工作 情况 系统 个案 信息 检查 个案 信息 报告 时限 质量 利用 情况 监督 信息 报告 数据 分析 利用 情况 省份 监督机构 检查 检查 具体内容 附件 计生 行政部门 监督机构 自查 国家 计生委 监督局 监督 中心 督导 检查 方式 工作 自查 阶段 督导 方案 自查 工作 现场 督导 国家 计生委 监督局 监督 中心 监督 信息 报告 数据 分中心 专家 现场 督导 总结 通报 国家 计生委 监督局 监督 中心 督导 工作 总结 信息 报告 工作 通报 监督 信息 报告 工作 督导 检查 评分表 检查 单位 调研 时间 检查 内容 工作 方法 检查 评分 项目 评分标准 管理 情况 全国 监督 调查 制度 培训 情况 全省 范围 全国 监督 调查 制度 培训 工作 会议 交流 资料 全国 监督 调查 制度 专题 培训 信息化 培训 全国 监督 调查 制度 有关 内容 督导 全国 监督 调查 制度 督导 情况 全省 范围 全国 监督 调查 制度 督导 工作 会议 交流 资料 全国 监督 调查 制度 专项 督导 监督 工作 督导 全国 监督 调查 制度 有关 内容 督导 信息 报告 工作 情况通报 全省 范围 监督 信息 报告 工作 情况通报 会议 交流 资料 计生 行政 通报 监督机构 通报 督导 工作 计划 本年度 监督 信息 报告 工作 计划 会议 交流 资料 监督 中心 年度 监督 信息 报告 工作 监督 信息 报告 工作 计划 监督 中心 年度 监督 信息 报告 工作 督导 措施 专人 监督 信息 报告 工作 会议 交流 资料 信息 报告 管理员 管理员 省份 省份 督导 人员 稳定性 信息 报告 管理人员 会议 交流 资料 信息 报告 管理员 监督 单位 报告 情况 监督 单位 情况 监督 单位 信息 情况 监督 信息 报告 系统 数据 会议 交流 监督 信息 报告 系统 监督 信息 报告 系统 监督 单位 重卡 监督 单位 信息 错误率 监督 信息 报告 系统 自动 监控 监督 信息 报告 系统 监督 信息 报告 系统 自动 监控 错误率 错误率 错误率 实际 数值 标化 抽样检查 监督 单位 底档 监督 信息 报告 系统 监督 信息卡 检查 信息卡 有误 单位 档案 监督 信息 报告 系统 现场 调研 资料 监督 单位 信息卡 内容 监督 单位 信息卡 信息 档案 记录 经常性 监督 监督 监测 信息 报告 情况 经常性 监督 报告 经常性 监督 报告 情况 监督 信息 报告 系统 现场 调研 本年度 经常性 监督 信息 经常性 监督 报告 情况 经常性 监督 信息 突击 补报 情况 监督 信息 报告 系统 现场 调研 检查 监督 监督 单位 经常性 监督 覆盖率 单位 经常性 监督 覆盖率 情况 监督 信息 报告 系统 现场 调研 会议 交流 监督 经常性 监督 覆盖率 标化 抽样检查 经常性 监督 监督 监测 信息 监督 信息 报告 系统 经常性 监督 信息卡 监督 监测 信息卡 检查 信息卡 档案 监督 信息 报告 系统 现场 调研 资料 信息卡 信息 档案 记录 案件 信息 报告 情况 案件 信息 错误率 监督 信息 报告 系统 自动 监控 监督 信息 报告 系统 监督 信息 报告 系统 自动 监控 错误率 错误率 错误率 实际 数值 标化 抽样检查 案件 底档 监督 信息 报告 系统 案件 信息卡 检查 信息卡 有误 单位 档案 监督 信息 报告 系统 现场 调研 资料 监督 单位 信息卡 内容 监督 单位 信息卡 信息 档案 记录 机构 人员 信息 报告 情况 机构 情况 年度 监督机构 信息卡 工作 监督 信息 报告 系统 人员 基本 信息 情况 人员 基本 信息 情况 监督 信息 报告 系统 实际 情况 会议 交流 资料 监督机构 人员 情况 信息 汇总表 监督 信息 报告 系统 人力资源 信息卡 监督机构 实际 情况 人员 人扣 数据 工作 情况 分中心 情况 分中心 错误 监督 信息 报告 系统 利用 工作 情况 利用 利用 工作 会议 交流 资料 利用 工作 督导 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.217250    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.217250    	
 国家卫生和计划生育委员会办公厅关于成立人口健康信息化专家咨询委员会的通知(附：人口健康信息化专家咨询委员会章程)	
 国家卫生和计划生育委员会办公厅关于成立人口健康信息化专家咨询委员会的通知
 （国卫办规划函〔2014〕10号）
@@ -6601,22 +5800,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 人口 信息化 专家 咨询 委员会 人口 信息化 专家 咨询 委员会 章程 国家 委员会 办公厅 人口 信息化 专家 咨询 委员会 规划 自治区 直辖市 计生委 人口 计生委 人口 计生委 机关 司局 直属 联系 单位 人口 信息化 工作 水平 经委 会议 研究 人口 信息化 专家 咨询 委员会 医学 信息学 工程学 数学 管理学 法学 社会学 领域 专家 专家 咨询 委员会 委员 名单 附件 专家 咨询 委员会 国家 计生委 信息化 工作 领导小组 领导 工作 专业 咨询 决策 人口 信息化 建设 研究 附件 人口 信息化 专家 咨询 委员会 委员 名单 人口 信息化 专家 咨询 委员会 章程 国家 计生委 办公厅 附件 人口 信息化 专家 咨询 委员会 委员 名单 科学技术 协会主席 传染病 国家 重点 实验室 院士 教授 主任医师 教授 信息 学会 常务 副会长 秘书长 部长 信息 学会 副会长 社会 人口 学院 院长 教授 姓氏笔画 排序 院长 教授 软件 学院 院长 教授 法治 政府 研究院 院长 教授 医学 信息 研究所 图书馆 馆长 研究员 专家 咨询 委员会 员会 研究员 科学院 院长 主任医师 工程 咨询中心 科技 委员 研究员 数据管理 中心 教授级 高工 国家 信息化 专家组 咨询 委员会 委员 协会 副理事长 院士 电子 学会 秘书长 教授级 高工 信息网络 工程 研究 中心 教授 计算机 学院 院长 教授 国家 发展 研究院 教授 国家 食品 研究员 电子政务 工程 常务副 经济 总工程师 教授级 高工 所长 教授 人口 发展 研究 中心 研究员 建平 信息 研究所 教研室 教授 工业 信息化 信息化 副司长 司长级 副校长 医院院长 教授 临床 医学院 医院 书记 教授 数字证书 中心 总经理 高工 附件 人口 信息化 专家 咨询 委员会 章程 人口 信息化 专家 咨询 委员会 国家 计生委 信息化 工作 领导小组 咨询机构 国家 计生委 信息化 工作 领导小组 领导 工作 人口 信息化 专家 咨询 委员会 宗旨 人口 信息化 战略决策 科学化 人口 信息化 发展 进程 专家 咨询 委员会 职责 国家 计生委 信息化 工作 领导小组 领导小组 领导小组 办公室 委托 国家 人口 信息化 发展 战略 政策 规划 意见 建议 领导小组 重要文件 咨询 评议 国家 人口 信息化 发展 问题 建议 信息化 问题 前瞻性 研究 专家 教学科研 单位 政府 机构 人口 信息化 部门 交流 合作 专家 咨询 委员会 专家 咨询 委员会 秘书处 国家 计生委 规划 信息司 专家 咨询 委员会 日常事务 专家 咨询 委员会 委员 国家 人口 信息化 发展 政策 战略 工作 专业 理论 水平 实践经验 社会 联系 医学 信息学 工程学 数学 管理学 法学 社会学 领域 方面 专家 全局观念 敬业精神 人口 信息化 工作 服务 专家 咨询 委员会 人选 秘书处 章程 规定 领导小组 专家 咨询 委员会 委员 人选 秘书处 根据上述 原则 工作 专家 咨询 委员会 委员 候选人 有关 方面 意见 领导小组 专家 咨询 委员会 委员 领导小组 任期 专家 咨询 委员会 委员 基本权利 专家 咨询 委员会 委员 意见 建议 权利 专家 咨询 委员会 经费 人口 信息化 问题 调研 有关 资料 专家 咨询 委员会 委员 义务 专家 咨询 委员会 会议 活动 意见 建议 研究 咨询 任务 有关 事宜 保密 义务 专家 咨询 委员会 统一 部署 分工协作 分散相 会议 方式 职责 范围 有关 事宜 工作 调研 方式 工作 委员 个人 专长 集体 秘书处 专家 咨询 委员会 工作 报告 领导小组 报告 人口 信息化 战略 问题 研究成果 委员 意见 建议 专家 咨询 委员会 全体会议 咨询 评议 问题 专门 会议 全体会议 研究 问题 委员 意见 建议 专家 咨询 委员会 国家 计生委 门户网站 社会 有关 意见 建议 专家 咨询 委员会 秘书处 事业 经费 国家 计生委 有关 规定 办理 专家 咨询 委员会 委员 自律 专家 咨询 委员会 委员 名义 经营 活动 商业 宣传 专家 咨询 委员会 名义 活动 专家 咨询 委员会 委员 义务 章程 秘书处 领导 小组会议 委员 资格 章程 印发 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.217249    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.217249    	
 国家卫生和计划生育委员会办公厅关于成立信息化工作领导小组的通知	
 国家卫生和计划生育委员会办公厅关于成立信息化工作领导小组的通知
 （国卫办规划函〔2014〕9号）
@@ -6669,22 +5855,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 信息化 工作 领导小组 国家 委员会 办公厅 信息化 工作 领导小组 规划 自治区 直辖市 计生委 人口 计生委 人口 计生委 机关 司局 直属 联系 单位 信息化 建设 工作 领导 人口 信息化 工作 水平 经委 会议 国家 计生委 信息化 工作 领导小组 领导小组 领导小组 副组长 副局长 领导小组 成员 领导小组 职责 国家 计生委 信息化 工作 领导小组 国家 计生委 信息化 整体 建设 议事 机构 管理 计生 信息化 总体 建设 计生 信息化 建设 战略规划 重大项目 综合 政策 研究 年度计划 重点 任务 责任 分工 地区 系统 单位 部署 情况 任务 情况 建设 任务 重点难点 问题 领导小组 办公室 职责 领导小组 办公室 办公室 规划 信息司 办公室 规划 信息司 司长 规划 信息司 副司长 副司长 建平 人口 发展 研究 中心 总工程师 领导小组 办公室 成员 振华 领导小组 办公室 职责 领导小组 办公室 国家 计生委 信息化 工作 领导小组 执行机构 领导小组 事项 信息化 制度 工作 机制 阶段性 部署 计生 信息化 年度 建设 任务 国家 计生委 信息化 建设 工作 机制 领导小组 民主集中制 原则 研究 计生 信息化 工作 事项 司局 直属 联系 单位 有关 事项 议题 领导小组 办公室 领导小组 办公室 汇总 议题 意见 领导小组 领导小组 办公室 领导小组 办公室 总体规划 顶层 设计 重点项目 标准 监管 评估 事项 行业 信息化 工作 指导 业务 司局 系统 建设 司局 业务 领域 项目 有关 直属 联系 单位 信息 标准 网络 技术 研究 事项 领导小组 办公室 专题会议 协商 领导小组 领导小组 办公室 有关 部门 办理 研究 情况 处理结果 通报 领导小组 成员 单位 领导 小组会议 制度 领导小组 全体会议 专题会议 计生 信息化 建设 进展 情况 阶段 重点 工作 汇报 研究部署 计生 信息化 建设 工作 任务 工作 问题 领导小组 全体会议 领导小组 专题会议 领导小组 工作 领导小组 全体会议 专题会议 领导小组 办公室 计生 信息化 工作 事项 工作 部署 指导性 意见 会议纪要 形式 印发 有关 单位 会议纪要 领导小组 办公室 会议 主持人 领导小组 成员 部署 工作 事项 阶段性 工作 情况 领导小组 办公室 工作 信息化 项目 情况 任务 领导小组 成员 单位 责任 分工 业务 原则 领导小组 统一 领导 成员 单位 责任 分工 规划 信息司 综合 部门 总体规划 顶层 设计 重点项目 标准 建设 监管 评估 人员培训 具体任务 司局 直属 联系 单位 业务 领域 信息化 建设 项目 监管 任务 计生 信息化 经费 管理 财务 工作 人口 发展 研究 中心 疾病 监督 中心 发展 研究 中心 医院 管理 研究所 信息 有关 直属 联系 单位 信息 标准 网络 技术 业务部门 计生 信息化 建设 调研 项目管理 方案 设计 论证 部署 项目 技术 方案 工作 国家 计生委 办公厅 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.225010    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.225010    	
 国家卫生和计划生育委员会办公厅关于进一步加强医院感染暴发信息报告工作的通知	
 国家卫生和计划生育委员会办公厅关于进一步加强医院感染暴发信息报告工作的通知
 （国卫办医发〔2014〕30号）
@@ -6811,22 +5984,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国家 委员会 办公厅 医院 信息 报告 工作 国家 委员会 办公厅 医院 信息 报告 工作 自治区 直辖市 计生委 医院 报告 管理 规范 政发 规范 全国 医院 信息 报告 系统 报告 系统 医院 信息化 管理 方面 经验 报告 质量 问题 医院 信息 报告 工作 医院 报告 工作 领导 计生 行政部门 机制 医院 报告 医院 管理 手段 医疗机构 医院 信息 报告 医院 事件 全面 医院 客观规律 方面 规范 信息 义务 医院 报告 医疗机构 规定 责任 医院 信息 报告 标准 医疗机构 医院 医院 标准 医院 程度 规范 报告 计生 行政部门 医疗机构 无法 医院 医院 联系 计生 行政部门 计生 行政部门 指导 规范 病原体 病原体 影响 医院 医疗机构 规范 规定 时限 计生 行政部门 规范 报告 系统 管理 计生 行政部门 医疗机构 统一 医院 信息 报告 系统 用户 信息 工作 医疗机构 医院 调查报告 报告 系统 网站 结果 计生 行政部门 地市级 顺序 医院 调查报告 结果 调查 医院 报告 系统 标记 医院 计生 行政部门 规范 调查 报告 系统 标记 计生 行政部门 无法 医院 医院 规范 规定 报告 系统 标记 计生 行政部门 辖区 报告 全国 医院 报告 情况 指导 实际 有关 专家 技术支持 报告 系统 数据 质量 计生 行政部门 充分发挥 医院 管理 质量 专业 指导 医疗机构 报告 制度 程序 医院 报告 数据 质量 医院 管理 能力 数据 质量 医疗机构 我委 委托 机构 数据 质量 区域 单位 数据 季度 全国 医院 信息 报告 数据 质量 标杆 报告 系统 部分 医院 监测 系统 监测 医院 情况 基准值 报告 系统 信息 分析 利用 计生 行政部门 医院 管理 质量 医院 信息 报告 分析 利用 机制 指导 医疗机构 采取有效 防控 措施 总结 医院 预警 应急 方面 工作 经验 书面报告 我委 委托 机构 报告 系统 数据 样本 定期 医院 人群 特点 季节 趋势 易发 部位 病原体 规律性 信息 原则 指导 医院 管理工作 医院 监测 系统 附件 总结 季度 系统 监测 医院 情况 季度 医院 报告 情况 调查表 电子邮件 形式 委医 医管局 表格 附件 附件 医院 监测 系统 名单 医院 报告 情况 调查表 国家 计生委 办公厅 附件 医院 监测 系统 省区市 名单 附件 医院 报告 情况 调查表 市区 季度 填表人 电话 电子邮箱 调查 项目 项目 编码 数量 总体 情况 出院 病人 总数 人次 医院 次数 医院 部位 报告 次数 心血管 系统 血液 系统 腹部 系统 泌尿系统 手术 部位 皮肤 关节 生殖道 口腔 医院 病原体 报告 次数 铜绿 单胞菌 杆菌 金黄色 葡萄球菌 杆菌 球菌 肺炎 白菌 大肠 表皮 葡萄球菌 真菌 病毒 法定 乙类 传染病 调查表 单位 统一 专门 部门 人员 工作 调查 指标值 整数 数据 指标 备注栏 调查表 调查 指标 调查表 格式 调查 指标 信息 调查 指标 出院 病人 总数 卫生统计 年鉴 辖区 全部 医疗机构 出院 病人 总数 医院 次数 指省 医院 事件 次数 部位 病原体 单位 报告 次数 病例 耐药 种类 耐药 医院 控制技术 指南 政发 法定 乙类 传染病 调查 信息 制作 附件 病原体 名称 医院 事件 次数 信息 信息 次数 倒序 时间段 季度 调查表 国家 计生委 医政 医管局 电子邮箱 国家 计生委 医政 医管局 联系人 电话 医院 管理 研究所 联系人 电话 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.237459    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.237459    	
 国家卫生和计划生育委员会流动人口服务中心关于受理流动人口动态监测数据申请的通知	
 国家卫生和计划生育委员会流动人口服务中心关于受理流动人口动态监测数据申请的通知
 （流服发〔2014〕1号）
@@ -6984,22 +6144,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国家 委员会 流动人口 服务中心 流动人口 动态 监测数据 国家 委员会 流动人口 服务中心 流动人口 动态 监测数据 流服 有关 单位 流动人口 数量 流动 情况 国家 人口 计生委 全国 范围 流动人口 动态 监测 调查 数据 资源 数据 政府部门 政策 研究 机构 研究 国家 计生委 流动人口 服务中心 国家 计生委 流动人口 服务 管理司 委托 流动人口 动态 监测数据 项目 年度 数据 工作 通告 主体 数据 范围 主体 动态 监测数据 主体 科研机构 高校 事业单位 内设 机构 法人资格 企业 单位 决策 学术研究 个人 名义 数据 数据 范围 数据 范围 数据 流动人口 发展 状况 特征 情况 社会 融合 心理健康 基本 公共服务 基本 医疗 服务 基本 社会保险 内容 数据 分类 方式 数据 单位 数据 方式 单位 数据 数据 合作 单位 数据 研究成果 数据 年度 数据 方式 数据 研究课题 方案 研究课题 背景 项目名称 研究 内容 时间 预期 成果 课题 方向 人口迁移 基本 公共卫生 计生 服务 医疗卫生 改革 发展 流动人口 社会 融合 内容 时间 数据 有效期 流动人口 服务中心 单位 数据 流动人口 服务中心 单位 资料 情况 流动人口 结果 数据 流程 单位 双方 协议 基础 方式 流程 流程 单位 流动人口 动态 监测数据 申请表 附件 双方 协议 单位 负责人 单位 公章 申请表 协议 电子版 流动人口 服务中心 单位 资质 数据 内容 数据 目的 预计 成果 情况 意见 流动人口 流动人口 服务中心 流动人口 意见 数据 单位 数据 单位 数据 成果 数据 来源 国家 计生委 流动人口 动态 监测数据 数据 成果 核心 刊物 发表文章 学术著作 价值 报告 单位 数据 产生 成果 流动人口 动态 监测数据 成果 登记表 附件 研究成果 原件 复印件 原件 流程 单位 流动人口 动态 监测数据 申请表 附件 双方 协议 数据 调查 方案 问卷 数据 内容 来源 调查 范围 调查 方法 数据 质量 情况 保证数据 来源 合法 质量 单位 负责人 单位 公章 申请表 协议 电子版 流动人口 服务中心 单位 资质 数据 情况 数据 内容 数据 目的 预计 成果 情况 优先 意见 流动人口 流动人口 服务中心 流动人口 意见 数据 单位 数据 单位 数据 成果 数据 来源 国家 计生委 流动人口 动态 监测数据 数据 流动人口 动态 监测数据 成果 登记表 附件 研究成果 原件 复印件 原件 有关 数据 单位 单位 数据 人员 保密 教育 管理 数据 人员 国家 保密法 国家 计生委 有关 数据 保密 规定 调查 数据 受访者 书面 形式 受访者 信息 数据 部分 全部 形式 数据 数据 人员 数据 文本 措施 数据 数据 成果 优质 单位 中心 年度 数据 工作 时间 数据 范围 数据 质量 合作 方式 年度 数据 单位 申报 研究成果 国家 计生委 内部资料 流动人口 发展 报告 课题 成果 单位 数据 利用 产生 价值 成果 单位 协议 规定 数据 单位 流动人口 服务中心 数据 权限 时间 数据 供给 方式 法律责任 流动人口 服务中心 数据 研究 数据 使用权 流动人口 服务中心 数据 研究成果 言论 政治 经济 法律责任 数据 单位 咨询 联系人 郎易 通信地址 知春路 国家 计生委 流动人口 服务中心 邮编 联系 邮箱 附件 流动人口 动态 监测数据 申请表 流动人口 动态 监测数据 申请表 流动人口 动态 监测数据 成果 登记表 国家 计生委 流动人口 服务中心 附件 流动人口 动态 监测数据 申请表 编号 单位 全称 数据 内容 数据 年度 流动人口 发展 状况 人口 流动 特征 流动人口 流动人口 情况 流动人口 社会 融合 流动人口 心理健康 流动人口 基本 公共服务 流动人口 基本 医疗 服务 流动人口 基本 社会保险 数据 目的 预计 成果 形式 数量 联系人 姓名 职务 职称 办公 电话 手机 电子邮箱 单位地址 邮政编码 单位 单位 国家 计生委 流动人口 服务中心 流动人口 动态 监测数据 协议 规定 数据 数据 研究 成果 单位 全部 责任 单位 负责人 单位 公章 流动人口 服务中心 意见 负责人 流动人口 意见 负责人 签章 申请表 纸质 正反面 申请表 知春路 国家 计生委 流动人口 服务中心 数据 邮编 申请表 电子版 邮箱 附件 流动人口 动态 监测数据 申请表 编号 单位 全称 单位 提供数据 内容 来源 单位 提供数据 单位 内容 数据 年度 流动人口 发展 状况 人口 流动 特征 流动人口 流动人口 情况 流动人口 社会 融合 流动人口 心理健康 流动人口 基本 公共服务 流动人口 基本 医疗 服务 流动人口 基本 社会保险 目的 预计 成果 形式 联系人 姓名 职务 职称 办公 电话 手机 电子邮箱 单位地址 邮政编码 单位 单位 国家 计生委 流动人口 服务中心 流动人口 动态 监测数据 协议 规定 数据 单位 全部 责任 单位 负责人 单位 公章 流动人口 服务中心 意见 负责人 流动人口 意见 负责人 申请表 纸质 正反面 申请表 知春路 国家 计生委 流动人口 服务中心 邮编 申请表 电子版 邮箱 附件 流动人口 动态 监测数据 成果 登记表 成果 名称 成果 形式 调查报告 期刊 文章 学术著作 会议 论文 作者 单位 职称 职务 作者 作者 作者 刊物 出版社 出版日期 成果 质量 情况 中文 核心 出版物 领导批示 省部级 司局级 情况 情况 姓名 单位 核实 单位 负责人 单位 公章 登记表 知春路 国家 计生委 流动人口 服务中心 邮编 登记表 电子版 邮箱 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.201448    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.201448    	
 国家卫生和计划生育委员会统计信息中心关于做好2013中国卫生信息技术交流大会组织工作的通知	
 国家卫生和计划生育委员会统计信息中心关于做好2013中国卫生信息技术交流大会组织工作的通知
 （卫统中心便函〔2013〕43号）
@@ -7024,22 +6171,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>国家 委员会 信息技术 交流 大会 工作 国家 委员会 信息技术 交流 大会 工作 卫统 中心 自治区 直辖市 计生委 计划单列市 计生委 有关 医疗卫生 单位 信息技术 交流 大会 信息技术 交流 大会 规模 内容 影响力 信息技术 交流 产品 盛会 充分发挥 会议 交流 信息化 发展 建设 居民 有关 事项 宣传 自治区 直辖市 计生委 大会 附件 网站 人员 工作 地区 系统 单位 卫生统计 信息管理 技术 工作 有关 人员 会议 大会 投稿 会议 优秀论文 作者 证书 部分 优秀论文 作者 作分 论坛 报告 奖励 会议 有关 事项 有关 费用 信息 信息 学会 信息管理 杂志社 信息技术 交流 大会 国家 委员会 网站 会议 官方网站 联系人 联系人 电话 电子邮箱 附件 信息技术 交流 大会 学会 国家 委员会 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.223912    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.223912    	
 国家卫生和计划生育委员会通告(国卫通〔2014〕1号)——关于发布《慢性病监测信息系统基本功能规范》等4项推荐性卫生行业标准的通告	
 国家卫生和计划生育委员会通告
 （国卫通〔2014〕1号）
@@ -7058,22 +6192,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国家 委员会 通告 慢性病 监测 信息系统 基本功能 规范 推荐性 行业标准 通告 国家 委员会 通告 慢性病 监测 信息系统 基本功能 规范 推荐性 行业标准 通告 慢性病 监测 信息系统 基本功能 规范 推荐性 行业标准 编号 名称 慢性病 监测 信息系统 基本功能 规范 新型农村 合作医疗 基本功能 规范 医疗 信息系统 基本功能 规范 监督 业务 信息系统 基本功能 规范 标准 通告 国家 计生委 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.228073    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.228073    	
 国家卫生和计划生育委员会通告(国卫通〔2014〕5号)——关于发布《电子病历基本数据集第1部分：病例概要》等20项卫生行业标准的通告	
 国家卫生和计划生育委员会通告
 （国卫通〔2014〕5号）
@@ -7108,22 +6229,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国家 委员会 通告 电子 病历 基本 数据 部分 病例 行业标准 通告 国家 委员会 通告 电子 病历 基本 数据 部分 病例 行业标准 通告 电子 病历 基本 数据 部分 病例 行业标准 编号 名称 电子 病历 基本 数据 部分 病历 电子 病历 基本 数据 部分 电子 病历 基本 数据 部分 处方 电子 病历 基本 数据 部分 检查 检验 记录 电子 病历 基本 数据 部分 记录 电子 病历 基本 数据 部分 助产 记录 电子 病历 基本 数据 部分 护理 记录 电子 病历 基本 数据 部分 护理 评估 计划 电子 病历 基本 数据 部分 知情 信息 电子 病历 基本 数据 部分 住院 病案 电子 病历 基本 数据 部分 住院 病案 电子 病历 基本 数据 部分 入院 记录 电子 病历 基本 数据 部分 住院 病程 记录 电子 病历 基本 数据 部分 住院 医嘱 电子 病历 基本 数据 部分 出院 小结 电子 病历 基本 数据 部分 记录 电子 病历 基本 数据 部分 医疗机构 信息 居民 档案 医学 检验 项目 代码 电子 病历 医院 信息 平台 技术规范 居民 档案 区域 信息 平台 技术规范 标准 通告 国家 计生委 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.234130    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.234130    	
 国家卫生计生委2013年政府信息公开工作报告	
 国家卫生计生委2013年政府信息公开工作报告
 　　根据《中华人民共和国政府信息公开条例》（以下简称《条例》）的有关规定，编制本年度报告。本报告由概述、主动公开政府信息情况、依申请公开政府信息情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议和提起行政诉讼情况、存在主要问题及改进情况共六个部分组成。本报告中所列数据的统计期限自2013年1月1日起至2013年12月31日止。
@@ -7161,22 +6269,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国家 计生委 政府 信息 工作 报告 国家 计生委 政府 信息 工作 报告 信息 条例 条例 有关 规定 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 情况 部分 报告 数据 期限 国家 计生委 条例 有关 着力 政府 信息 工作 机构 建设 制度 建设 平台 建设 渠道 建设 院务 重点 医疗卫生 机构 信息 工作 全面 政府 信息 工作 水平 政府 信息 机构 建设 国家 计生委 党组 政府 信息 工作 国家 计生委 政务 工作 领导小组 工作 机制 领导小组 副组长 驻委 机关 司局 行政事务 部分 直属 联系 单位 负责同志 成员 领导小组 办公室 国家 计生委 政务 政府 信息 工作 政府 信息 工作 机制 研究 国家 计生委 政府 信息 工作 制度 规范 政府 信息 工作 新闻 新闻媒体 领导 活动 会议 新闻报道 政府 网站 新闻宣传 新闻宣传 新闻宣传 培训 制度 政府 信息 平台 功能 国家 人口 计生委 政府 网站 国家 计生委 网站 政府 信息 平台 重点 功能 视频点播 矩阵 信息 服务 办事 功能 信息 功能 公众 网站 内容 政策 政策 媒体 公众 工作 动态 直属单位 重点 工作 信息 工作 亮点 计生 系统 整体 形象 政府 信息 渠道 积极探索 微信 媒体 手段 辅助 政府 信息 工作 热线服务 管理体系 群众 咨询 建议 公共卫生 事件 活动 舆情 监测 风险 电话 调查 服务 禽流感 疫情 全国 管理中心 小时 网友 问题 充分发挥 计生 服务 热线 服务 范围 行医 建设 政务 大厅 现场 群众 院务 重点 医疗卫生 机构 信息 工作 院务 示范点 建设 医院 基层 医疗机构 院务 示范点 区域 信息化 医院 信息 建设 医疗 服务 信息 方式 患者 检验 检查 结果 医院 方便群众 经济负担 医疗机构 价格 制度 服务 场所 收费 价格 情况 患者 形式 医药 费用 服务 基层 医疗卫生 服务 机构 信息 信息 乡镇 规范 管理 社区卫生 服务 机构 绩效考核 工作 血站 信息 宣传 工作 血站 信息 工作 血液 督导 检查 范围 妇幼保健 机构 信息 信息 妇幼 服务 管理 内容 全面推行 妇幼保健 机构 院务 制度 计生 监督 信息 范围 信誉度 工作 公共卫生 监督 社区 居民 生活 饮用水 监督 监测 信息 试点工作 新农 信息 部署 新农 制度 建设 活动 政府 信息 情况 国家 计生委 政府 信息 委政府 网站 国家 计生委 公报 新闻 形式 公众 政府 网站 信息 情况 国家 计生委 网站 信息 政府 信息 目录 目录 信息 机构 职能 政策法规 信息 规划 计划 信息 行政许可 信息 标准 信息 计生 信息 工作 动态 信息 通告 公告 信息 网站 信息 政府 信息 目录 目录 信息 机构 职能 政策法规 信息 规划 计划 信息 行政许可 信息 卫生标准 信息 卫生统计 信息 工作 动态 信息 通告 公告 信息 国家 人口 计生委 网站 政府 信息 机构 职能 信息 领导 信息 综合 政务 信息 政策法规 信息 规划 计划 信息 信息 人事 信息 财政 信息 政府 信息 业务 工作 信息 工作 信息 信息 条例 有关 国家 计生委 委政府 网站 社会 国家 人口 计生委 部门 行政 经费支出 经费 情况 部门 国家 计生委 委政府 网站 国家标准 国家标准 食源性 疾病 管理 办法 食品 原料 审查 管理 办法 食品 原料 申报 规定 食品 原料 审查 规程 重点 信息 工作 部分 消毒 产品 产品 行政 项目 公告 消毒 产品 消毒 产品 产品 信息 人类 辅助 生殖 技术 设置 人类 精子库 机构 名单 人体 项目 医院 名单 医院 名录 基本 药物 目录 群众 权益 政府 信息 群众 科学 部门 公报 信息 情况 国家 计生委 国家 计生委 公报 月刊 国家 计生委 规章 规范性 法定 传染病 疫情 信息 政府 信息 方式 计生 行政 机构 医疗卫生 计生 服务 机构 免费 国家 计生委 公报 电子版 国家 计生委 网站 公众 新闻 信息 情况 国家 计生委 充分利用 新闻 发布会 专题 新闻 发布会 媒体 形式 群众 热点 问题 信息 国家 计生委 新闻 发布会 新闻 媒体 热线电话 书面 发布新闻 通稿 政府 信息 政府 信息 情况 国家 计生委 政府 信息 互联网 表单 形式 电子邮件 信函 形式 政府 信息 全部 符合条件 政府 信息 政府 信息 信息 信息 内容 机关 政府 信息 条例 范围 政府 信息 收费 情况 国家 计生委 政府 信息 检索 成本费用 行政复议 情况 国家 计生委 国家 计生委 政府 信息 行政复议 案件 全部 行政复议 案件 国家 计生委 案件 案件 问题 情况 国家 计生委 政府 信息 工作 公众 日益增长 差距 政府 信息 工作 力度 信息 平台 渠道 建设 工作 效率 质量 国家 计生委 条例 有关 计生 政府 信息 工作 信息 水平 成果 基础 政府 信息 工作 组织协调 信息 能力 建设 平台 建设 有关 政府 信息 政策 媒体 社会 公信力 工作 依法 人民 群众 信息 院务 重点 医疗卫生 机构 信息 工作 医疗卫生 机构 信息 目录 指导 规范 医疗卫生 机构 信息 工作 信息 工作 培训 信息 工作 培训 计生 行政部门 工作人员 报告 国家 计生委 政务 工作 办公室 联系 地址 邮编 电话 电子邮箱 国家 计生委 政务 工作 办公室 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.325083    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.325083    	
 国家卫生计生委2014年度政府信息公开工作报告	
 国家卫生计生委2014年度政府信息公开工作报告
 （2015年3月30日）
@@ -7370,22 +6465,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国家 计生委 年度 政府 信息 工作 报告 国家 计生委 年度 政府 信息 工作 报告 信息 条例 条例 有关 规定 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 情况 部分 报告 数据 期限 国家 计生委 条例 有关 部门 实际 政府 信息 工作 工作 机制 领导 政务 工作 领导 小组会议 政府 信息 工作 研究部署 印发 国家 计生委 政府 信息 管理 办法 工作 范围 方式 程序 培训 制度 工作 培训 年度 培训 计划 政府 信息 媒体 素养 培训班 工作 水平 新闻 制度 舆情 研判 机制 媒体报道 热点 社会 热议 事件 委政府 信息 指南 目录 动态 机制 分类整理 国家 人口 计生委 网站 政策 信息 全部 委政府 网站 政府 信息 目录 计生 服务 热线 热线服务 工作 人民 群众 咨询服务 医疗卫生 领域 服务 信息 利用 信息化 手段 医疗卫生 服务 机构 信息 服务水平 检验 检查 结果 居民 时段 省份 医院 试点 居民 医疗 异地 检验 检查 信息 居民 管理 医疗 费用 患者 排队 次数 等候 时间 医疗机构 重点 院务 工作 医疗机构 院务 工作 医疗机构 综合 评价 体系 医疗卫生 行风 建设 抗菌 药物 临床 专项 整治 工作 信息 妇幼 优质服务 创建活动 评估 指标 人类 辅助 生殖 技术 医疗机构 名单 建设 乡镇 活动 医务人员 信息 药品 检查 项目 价格 新农 信息 规范 管理制度 患者 指导 血站 信息 血站 基本 开放日 制度 关心 工作 社会 现场 工作 平台 网站 服务 行业 作风 建设 信息 社会 监督 基本 医疗卫生 机构 信息 目录 工作 规范 医疗卫生 机构 信息 工作 公共资源 信息 政府 信息 工作 研究 甲类 医用 设备 记录 机制 指导 招标 采购网 信息 指导 低价 药品 招标 信息 工作 医药 领域 商业 记录 制度 指导 本行政区域 医药 领域 商业 记录 实施办法 国家 计生委 政府 网站 商业 记录 专栏 商业 记录 工程 建设项目 信息 管理 单位 国家 投资 事项 规则 项目 单位 总体规划 项目 情况 信息 建设 事项 科技 管理 项目 经费 信息 委级 科研 基地 核查 信息 社会 工作 国家 科技奖 评审 科技 专项 评审 信息 科研成果 信息 科技 专项 科技 报告 工作 政府 信息 情况 国家 计生委 政府 信息 委政府 网站 国家 计生委 公报 新闻 发布会 形式 公众 委政府 网站 信息 情况 政府 信息 政策 信息 政策 信息 网站 信息内容 形式 计生 重点 工作 政策 网友 交流 栏目 制作 视频 计生 工作 活动 政策 信息 网站 重点 内容 财政 信息 统一 年度 部门 年度 部门 经费 情况 法定 传染病 公共卫生 事件 信息 定期 传染病 疫情 年度 全国 预防接种 反应 监测 信息 综合征 传染病 防控 信息 规范性 卫生标准 信息 委政府 网站 法制网 社会 社会 抚养费 管理条例 送审稿 条例 送审稿 行政 法规 规范性 意见 卫生标准 信息 标准 调整 专业 归类 标准 标准 委政府 网站 社会 信息 国家标准 信息 社会 国家标准 草案 意见 传统 食品 中药材 物质 目录 管理 办法 食源性 疾病 管理 办法 政策 意见 国家标准 项目 计划 国家标准 文本 有关 材料 工作 国家标准 工作 标准 软件 专门 社会 国家标准 鱼肝油 数量 白酒 产品 塑化剂 居民 膳食 风险 评估 结果 社会 信息 委政府 网站 行政 信息 核准 项委 行政 事项 目录 行政 事项 全部 政务 大厅 统一 规范 流程 政务 大厅 网页 信息管理系统 情况 结果 公告 意见反馈 功能 行政处罚 信息 委政府 网站 医疗 秩序 行医 专项 行动 专栏 政策 汇总 全国 执业 证书 执业 助理 医师 名单 基本 公共卫生 服务 信息 委政府 网站 国家 基本 公共卫生 服务项目 专栏 国家 基本 公共卫生 服务项目 有关 政策 经验 群众 问题 国家 基本 公共卫生 服务项目 委政府 网站 部门 公报 信息 情况 编辑出版 国家 计生委 公报 纸质 刊物 出版发行 部门规章 政策 疫情 信息 电子版 委政府 网站 方便群众 新闻 发布会 媒体 信息 情况 专题 新闻 发布会 政策 活动 研究 报告 政务 微信 部分 违规 幼儿 集体 服用 处方药 部分 医院 待产 事件 政策 社会 问题 政务 政府 信息 政务 微信 政府 信息 政府 信息 政府 信息 情况 国家 计生委 政府 信息 互联网 表单 形式 电子邮件 信函 形式 办理 部分 政府 信息 政府 信息 条例 调整 范围 机关 政府 信息 意见 政府 信息 收费 情况 国家 计生委 政府 信息 检索 成本费用 行政复议 情况 国家 计生委 机关 政府 信息 行政复议 政府 信息 机关 审理 行政复议 案件 行政 国家 计生委 情形 法院 审理 国家 计生委 政府 信息 政府 信息 情形 案件 案件 问题 情况 委政府 网站 信息 目录 建设 办理 数量 机构 人员配备 工作 目的 利益 问题 国家 计生委 有关 工作 力度 委政府 网站 建设 功能 信息 服务水平 社会 热点问题 舆情 医疗卫生 领域 信息 医疗卫生 机构 信息 目录 医疗 服务 价格 信息 工作 法定 传染病 公共卫生 事件 信息 政府 信息 工作 水平 政府 信息 情况 统计表 附件 报告 国家 计生委 政务 工作 办公室 联系 地址 邮编 电话 电子邮箱 附件 年度 国家 计生委 政府 信息 情况 统计表 单位 情况 政府 信息 渠道 方式 信息 规范性 规范性 总数 渠道 方式 政府 信息 情况 政府 公报 政府 信息 政府 网站 政府 信息 政务 政府 信息 政务 微信 政府 信息 情况 网络 信函 范围 书面 部分 国家 秘密 商业秘密 国家 经济 社会 条例 所指 政府 信息 行政 机关 信息 条例 调整 范围 情形 意见 行政复议 数量 行政 依法 情形 数量 行政 原告 诉讼请求 依法 情形 数量 条例 规定 挂号信 邮局 信件 信息 费用 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.325084    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.325084    	
 国家卫生计生委2015年度政府信息公开工作报告	
 国家卫生计生委2015年度政府信息公开工作报告
 　　根据《中华人民共和国政府信息公开条例》（以下简称《条例》）的有关规定，编制本年度报告。本报告由概述、主动公开政府信息情况、依申请公开政府信息情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议和提起行政诉讼情况、存在主要问题及改进情况共6个部分组成。本报告中所列数据的统计期限自2015年1月1日起至2015年12月31日止。
@@ -7586,22 +6668,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>国家 计生委 年度 政府 信息 工作 报告 国家 计生委 年度 政府 信息 工作 报告 信息 条例 条例 有关 规定 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 情况 部分 报告 数据 期限 国家 计生委 条例 政府 信息 工作 要点 部门 实际 政府 信息 工作 健全制度 机制 司局 单位 职责 分工 政府 信息 工作 政务 工作 领导 小组会议 总结 年度 委政府 信息 政务 工作 政府 信息 政务 工作 全面 动员 部署 工作 政务 工作 领导小组 办公室 成员 调整 全国 计生 系统 政府 信息 培训班 系统 政府 信息 工作 水平 媒体 素养 培训 计生 系统 媒体 能力 水平 公共资源 信息 医用 设备 配置管理 信息 医用 设备 国产 医疗 设备 目录 政府 信息 建设项目 信息 建设项目 信息 工作 机制 建设 装备 监管 平台 建设 项目 单位 建设项目 监管 投资 信息 国家 发展 改革 平台 投资 项目 核准 药品 招标 信息 委官 药品 政策 建设 国家 药品 供应 综合 管理 信息 平台 医药 领域 商业 记录 工作 省份 医药 领域 商业 记录 名单 医疗卫生 服务 领域 信息 印发 医院 技术 服务 机构 医疗卫生 机构 信息 目录 政务 医疗卫生 机构 信息 工作 指导 医疗卫生 机构 信息 规范 具体内容 形式 方式 方法 方便群众 医疗卫生 服务 机构 设置 职能 工作 规则 办事 程序 服务 内容 服务 收费 项目 监督 渠道 信息 医院 信息 工作 座谈会 交流 医疗机构 院务 经验 研究 院务 工作 计生 行风 建设 院务 医院 巡查 院务 科学 民主决策 医院 信息 医疗 服务 行动计划 印发 医疗 服务 行动计划 实施方案 医疗机构 服务 信息技术 优势 分流 患者 患者 体验 医疗机构 综合 评价 信息 工作 全国 医院 系统 共收录 医院 信息 规范 医院 评审 医院 管理 社会公众 核查 医院 信息 建设 乡镇 活动 医疗保障 制度 政策 制度 社区卫生 信息 平台 社区 公共服务 平台 服务 对象 基层 服务 机构 服务 范围 服务项目 价格 内容 血站 信息 血站 信息 目录 规范 血站 信息 工作 全国 血站 血站 开放日 制度 关心 工作 社会 现场 工作 平台 新农 信息 新农 定期 制度 定期 新农 信息 补偿 方案 目录 基金 收支 信息 国家 新农 平台 新农 平台 医院 信息系统 联通 工作 充分发挥 国家 新农 信息 平台 新农 业务 监控 跨省 管理 政府 信息 情况 政府 信息 工作 部门 经费 部门 情况 法定 传染病 公共卫生 事件 信息 突发事件 应急 传染病 疫情 防控 工作 信息 工作 动态 政策 信息 内容 委官 全国 法定 传染病 疫情 月份 网站 年度 疫情 信息 综合征 疫情 防控 方案 流感 重点 传染病 防控 工作 行政许可 办理 信息 国家 计生委 行政许可 事项 目录 行政许可 事项 职业 健康检查 管理 办法 国家 计生委 血浆 管理 办法 规章 信息 国家标准 国家标准 文本 材料 标准 速冻 食品 生产 规范 饮用 矿泉水 肉制品 经营 规范 标准 草案 社会 传统 食品 中药材 物质 目录 管理 办法 食源性 疾病 管理 办法 意见 计生 监管 信息 指导 计生 行政处罚 职责 目录 违法 案件 信息 医疗机构 医务人员 资质 信用 信息 力度 研究 制度 印发 学校 监督 信息 试点工作 学校 监督 信息 试点工作 汇总 委官 全国 执业 证书 执业 助理 医师 名单 汇总 省份 执业 证书 执业 助理 医师 名单 基层 计生 行政 管理 服务 信息 流动人口 居住地 办理 生育 服务 流程 所需 材料 婚育 证明 材料 流动人口 信息 平台 核查 流动人口 委政府 网站 信息 情况 全国 政府 网站 普查 工作 优化 委政府 网站 栏目 内容 功能 建设 特色 栏目 动态 委政府 信息 目录 官网 政府 信息 主渠道 运用 官方 微信 媒体 信息 政府 信息 传播 范围 信息 平台 渠道 信息 内容 委官 信息 官方 官方 微信 网站 评估 结果显示 委中 文官 部委 直属机构 部委 管理 网站 名次 报刊 新闻 网站 信息 影响力 新闻 发布会 媒体 信息 情况 新闻 制度 信息 政策 社会 问题 组织协调 新闻 发布会 新闻 发布会 专题 发布会 网络 传播 特点 运用 图片 图集 图解 视频 可视化 方式 政策 效果 委官 发布会 视频 政务 大厅 情况 政务 大厅 行政 事项 申报材料 现场 方式 文书 电话 信件 现场 形式 咨询 部门 公报 信息 情况 出版发行 国家 计生委 公报 政策 疫情 信息 政府 信息 政府 信息 情况 国家 计生委 政府 信息 互联网 表单 形式 电子邮件 信函 形式 办理 部分 政府 信息 条例 调整 范围 机关 政府 信息 意见 政府 信息 收费 情况 国家 计生委 政府 信息 检索 成本费用 行政复议 情况 国家 计生委 机关 政府 信息 行政复议 政府 信息 机关 审理 行政 国家 计生委 情况 法院 审理 国家 计生委 政府 信息 审理 行政 原告 诉讼请求 依法 案件 问题 情况 委政府 网站 信息 平台 政府 信息 办理 委政府 信息 大量 提出申请 情况 时有发生 国家 计生委 全面 政务 工作 意见 委官 政府 信息 目录 有关 栏目 内容 将委 官网 建设 计生 政府 信息 平台 利用 新闻 发布会 委官 官方 微信 信息 政策 中心 工作 宣传 建设 战略 宣传 进展 成就 信息 社会 政府 信息 情况 统计表 附件 报告 国家 计生委 政务 办公室 联系 地址 知春路 邮编 电话 国家 计生委 办公厅 附件 年度 国家 计生委 政府 信息 情况 统计表 单位 情况 政府 信息 渠道 方式 信息 规范性 规范性 总数 渠道 方式 政府 信息 情况 政府 公报 政府 信息 政府 网站 政府 信息 政务 政府 信息 政务 微信 政府 信息 情况 网络 信函 单位 意见 范围 部分 国家 秘密 商业秘密 国家 经济 社会 条例 所指 政府 信息 行政 机关 单位 信息 条例 调整 范围 行政复议 数量 行政 依法 情形 未果 数量 行政 原告 诉讼请求 依法 情形 数量 内容 信息 费用 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.223446    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.223446    	
 国家卫生计生委关于印发国家卫生计生委政府信息公开管理办法的通知	
 国家卫生计生委关于印发国家卫生计生委政府信息公开管理办法的通知
 （国卫办发〔2014〕2号）
@@ -7718,22 +6787,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>国家 计生委 印发 国家 计生委 政府 信息 管理 办法 国家 计生委 印发 国家 计生委 政府 信息 管理 办法 机关 司局 联系 单位 国家 计生委 政府 信息 管理 办法 国家 计生委 会议 印发 国家 计生委 国家 计生委 政府 信息 管理 办法 依法行政 水平 规范 国家 计生委 政府 信息 工作 公民 法人 依法 国家 计生委 政府 信息 权益 工作 透明度 政务 依法行政 建设 服务型 政府 信息 条例 法律法规 工作 实际 办法 办法 所称 国家 计生委 政府 信息 国家 计生委 依法 履行职责 过程 制作 形式 记录 信息 国家 计生委 政务 工作 领导小组 指导 机关 政府 信息 工作 研究 政府 信息 工作 问题 领导小组 办公室 办公厅 机关 政府 信息 工作 执行机构 领导小组 办公室 职责 研究 机关 政府 信息 工作 制度 工作 计划 组织协调 机关 政府 信息 保密 审查 工作 考核 机关 政府 信息 工作 统一 公民 法人 依法 国家 计生委 信息 责任 司局 单位 办理 工作 督查 政府 信息 统一 编号 机关 政府 信息 指南 目录 年度报告 政府 信息 有关 职责 产生 原则 司局 单位 职责 范围 政府 信息 工作 司局 单位 政府 信息 工作 制度 规范 政府 信息 流程 政府 信息 保密 审查 司局 单位 负责人 司局 单位 政府 信息 工作 责任人 司局 单位 政府 信息 工作 司局 单位 指派 责任心 业务 同志 政府 信息 工作 联络员 政府 信息 工作 报委 政务 工作 领导小组 办公室 备案 国家 计生委 政府 信息 合法 便民 原则 政府 信息 国家 计生委 信息 行政 机关 有关 行政 机关 信息 国家 计生委 政府 信息 国家 经济 社会 范围 国家 计生委 政府 信息 社会 机构 职能 国家 计生委 内设 机构 直属 联系 单位 机构 设置 领导 办事 指南 政策法规 计生 工作 法律 法规 部门规章 规范性 规划 计划 计生 事业 发展 规划 计生 工作 年度 计生 工作 要点 计生 专项 工作 方案 国家 计生委 部门 部门 国家 计生委 主体 行政许可 事项 名称 条件 数量 程序 期限 全部 材料 目录 文本 办理 情况 收费 项目 标准 卫生标准 国家标准 国家 计生委 技术标准 全国 计生 事业 发展 信息 国家 计生委 公告 通告 法定 传染病 疫情 公共卫生 事件 信息 干部 公务员 招标 社会公众 信息 工作 动态 综合 管理 人事管理 规划 信息 财务管理 应急 疾病 防控 爱国卫生 医政 医管 基层 妇幼 综合 监督 管理 基层 计生 家庭 发展 流动人口 新闻宣传 科技 教育 国际 合作 合作 行风 建设 方面 政策措施 监督 检查 情况 法律法规 规定 事项 国家 计生委 群众利益 规章 标准 规范性 草案 社会 办法 政府 信息 国家 计生委 公报 有关 报纸 杂志 书籍 出版物 公民 法人 生产 生活 科研 国家 计生委 政府 信息 政府 信息 国家 秘密 商业秘密 个人 隐私权 管理 信息 调查 政府 信息 行政 有关 影响 检查 调查 活动 合法权益 法律 法规 规定 情形 国家 计生委 司局 单位 国家 秘密 政府 信息 保密 审查 工作 国家 计生委 保密工作 有关 规定 法律 法规 政府 信息 保密 审查 方式 程序 国家 计生委 信息 国家 计生委 网站 网址 现场 新闻 发布会 国家 计生委 公报 报刊 广播 电视 辅助性 形式 司局 单位 办法 范围 职责 范围 规定 程序 地向 社会 范围 司局 单位 事项 书面 理由 经本 司局 单位 负责人 核签 国家 计生委 政务 工作 领导小组 负责人 司局 单位 政府 信息 产生 法律 法规 政府 信息 期限 规定 规定 规定 政府 信息 政府 信息 国家 计生委 门户网站 内容 工作 有关 规定 方式 程序 公民 法人 信函 电子邮件 国家 计生委 机关 政务 大厅 形式 国家 计生委 政府 信息 国家 计生委 政府 信息 申请表 办公厅 国家 计生委 政府 信息 工作 归口 管理 部门 政府 信息 工作 司局 单位 政府 信息 保密 审查 政策 办公厅 政府 信息 编号 内容 审查 申请表 信息 信息 提出申请 内容 司局 单位 办理 司局 单位 办理 经本 司局 单位 负责人 办公厅 编号 国家 计生委 政务 工作 领导小组 办公室 负责人 期限 工作日 司局 单位 办公厅 政府 信息 事项 分管领导 公民 法人 利益 社会 影响 政府 信息 程序 政务 工作 领导小组 负责人 司局 单位 政府 信息 法律 法规 有关 规定 有关 主管部门 司局 单位 政府 信息 商业秘密 书面 意见 司局 单位 公共利益 影响 国家 计生委 政务 工作 领导小组 办公室 负责人 政府 信息内容 理由 书面通知 意见 时间 办法 规定 期限内 政府 信息 情形 范围 政府 信息 方式 途径 范围 理由 依法 国家 计生委 政府 信息 政府 信息 机关 行政 机关 名称 部分 范围 理由 信息内容 内容 司局 单位 政府 信息 形式 无法 形式 资料 复制件 形式 政府 信息 过程 检索 成本费用 国家 计生委 办公厅 价格 主管部门 会同 财政部门 标准 统一 变相 政府 信息 公民 经济 国家 计生委 政务 工作 领导小组 办公室 负责人 费用 监督 政府 信息 工作 经费 国家 计生委 政府 信息 工作 国家 计生委 绩效考核 建设 责任制 考核 内容 国家 计生委 政务 工作 领导小组 办公室 定期 司局 单位 政府 信息 工作 情况 问题 国家 计生委 政务 工作 领导小组 司局 单位 政府 信息 工作 考核 成绩 工作 不力 考核 内容 范围 政府 信息 政府 信息 依法 政府 信息 政府 信息 保密 审查 群众 问题 依法 政府 信息 义务 情况 责令 行政处分 情形 国家 计生委 政务 工作 领导小组 责令 政府 信息 指南 目录 政府 信息 依法 政府 信息 未经审查 政府 信息 后果 司局 政府 信息 年度 工作 情况 情形 国家 计生委 政务 工作 领导小组 本年度 责令 本年度 行政复议 违法 责令 群众 依法 政府 信息 义务 调查 未经审查 政府 信息 情形 国家 计生委 政务 工作 领导小组 建议 国家 计生委 党组 司局 单位 负责人 责任人 行政处分 资格 司法机关 追究其 法律责任 本年度 责令 本年度 群众 依法 政府 信息 义务 调查 未经审查 政府 信息 失泄密 事件 举报人 司局 单位 前提 交上 年度 政府 信息 工作 情况 办公厅 汇总 国家 计生委 政府 信息 工作 年度报告 国家 计生委 政务 工作 领导小组 年度报告 内容 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 政府 信息 工作 问题 情况 报告 情况 国家 计生委 社会 监督机制 监督 渠道 公民 法人 监督 国家 计生委 政府 信息 工作 政府 信息 工作 民主评议 计生 行风 活动 内容 群众 意见 建议 国家 计生委 监督员 制度 群众 代表 国家 计生委 政府 信息 工作 监督 监督 电话 监察部 国家 计生委 监察局 公民 法人 依法 政府 信息 义务 依法 调查 调查 处理意见 国家 计生委 政务 工作 领导小组 公民 法人 国家 计生委 政府 信息 工作 行政 合法权益 依法 行政复议 国家 计生委 公共事业 单位 信息 工作 办法 办法 办法 国家 计生委 政务 工作 领导小组 办公室 印发 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>国家卫生计生委办公厅关于全面推进国家新型农村合作医疗信息平台建设工作的通知
+  </si>
+  <si>
+    <t>国家卫生计生委办公厅关于全面推进国家新型农村合作医疗信息平台建设工作的通知
 （国卫办基层函〔2015〕870号）
 （法宝联想:　 部门规章约2篇 ）
 各省、自治区、直辖市卫生计生委：
@@ -7765,22 +6821,9 @@
 　　附件：联系人登记表
 国家卫生计生委办公厅
 2015年10月14日</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>国家 计生委 办公厅 全面 国家 新型农村 合作医疗 信息 平台 建设 工作 基层 部门规章 自治区 直辖市 计生委 国家 计生委 新型农村 合作医疗 跨省 费用 核查 结报 工作 指导 意见 基层 指导 意见 有关 国家 新型农村 合作医疗 信息 平台 国家 新农 平台 新农 业务 监控 跨省 管理 全面 国家 新农 平台 新农 平台 医院 信息系统 联通 工作 有关 事项 联通 范围 联通 省份 新农 平台 新农 职能 部门 管理 区域 信息 平台 联通 国家 新农 平台 跨省 数据 国家 新农 平台 联通 省份 创造条件 国家 新农 平台 联通 数据 功能 国家 新农 平台 联通 省份 数据 质量 新农 平台 联通 医院 工作 内容 实施方案 联通 实施方案 国家 新农 平台 联通 工作 新农 平台 系统 管理 办法 指派 专人 定期 工作 工作 平台 联通 医院 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 技术 方案 硬件 设备 所需 设置 参数 分配 网络带宽 系统 数据 功能 国家 新农 平台 联通 数据 指导 意见 技术 方案 时间 频率 新农 基础 数据 业务 数据 报表 数据 联通 医院 指导 意见 技术 方案 时间 频率 跨省 数据 跨省 数据 新农 平台 国家 新农 平台 费用 核查 联通 利用 国家 新农 平台 跨省 数据 省域 新农 经办 机构 跨省 费用 核查 服务 利用 国家 新农 平台 省份 费用 核查 费用 核查 任务 规范 管理 系统安全 规范 国家 新农 平台 联通 流程 管理 医院 有关 国家 新农 平台 运维 联通 省份 新农 平台 网络 环境 系统 启动 新农 数据 工作 省份 部分 地区 定点 医疗机构 跨省 费用 核查 结报 试点 医院 信息系统 跨省 数据 工作 单位 领导 会同 财政部门 指导 意见 有关 部门 工作 小组 部门 部门 分工 力量 联通 工作 专人 部门 部门 附件 计生委 新农 平台 国家 新农 平台 联通 工作 医院 系统 数据 工作 数据 跨省 数据 国家 新农 信息 平台 经办 机构 跨省 费用 核查 服务 利用 信息 平台 省份 费用 核查 联通 医院 新农 部门 联络 新农 合管 机构 核查 人员 票据 真实性 住院处 患者 基本 信息 费用 信息 信息 部门 信息系统 利用 新农 平台 网络 本院 患者 数据 新农 平台 医学 信息 研究所 委托 建设 国家 新农 平台 联通 工作 联通 工作 技术 方案 网络 环境 测试 调用 程序 基础 数据 业务 数据 跨省 数据 联通 工作 技术支持 跨省 费用 核查 业务 联通 省份 医院 工作 我委 定期 通报 工作进度 新农 平台 人口 信息 平台 信息 业务 协同 工作 国家 计生委 基层 联系人 电话 电子邮件 医学 信息 研究所 联系人 电话 电子邮件 附件 联系人 登记表 国家 计生委 办公厅</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.259874    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.259874    	
 国家卫生计生委办公厅关于印发传染病信息报告管理规范(2015年版)的通知	
 国家卫生计生委办公厅关于印发传染病信息报告管理规范（2015年版）的通知
 （国卫办疾控发[2015]53号）
@@ -7957,22 +7000,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>国家 计生委 办公厅 印发 传染病 信息 报告 管理 规范 国家 计生委 办公厅 印发 传染病 信息 报告 管理 规范 国卫 办疾 自治区 直辖市 计生委 疾病 传染病 防控 工作 形势 全国 传染病 信息 报告 管理 报告 质量 传染病 防治法 法律法规 有关 规定 传染病 信息 报告 管理 规范 疾病 防控 业务 频道 印发 印发 传染病 信息 报告 管理 规范 附件 传染病 信息 报告 管理 规范 国家 计生委 办公厅 传染病 信息 报告 管理 规范 传染病 防控 工作 形势 全国 传染病 信息 报告 管理工作 报告 质量 传染病 防治法 电子签名 法律法规 规范 机构 职责 分级 属地 管理 原则 有关 部门 机构 传染病 信息 报告 管理工作 职责 计生 行政部门 辖区 传染病 信息 报告 工作 管理 辖区 传染病 信息 报告 工作 管理 建设 辖区 传染病 信息网络 报告 系统 系统 条件 法律法规 规定 辖区 传染病 信息 报告 工作 实施方案 传染病 信息 报告 工作 定期 医疗卫生 机构 传染病 信息 报告 管理 工作 监督 检查 国家 计生委 地方 计生 行政部门 全国 疾病 工作 调整 传染病 监测 报告 病种 内容 疾病 机构 辖区 传染病 信息 报告 工作 业务 指导 技术支持 疾病 全国 传染病 信息 报告 业务管理 技术培训 工作 指导 国家 计生委 标准 技术规范 指导 方案 全国 传染病 信息 分析 报告 预测 传染病 趋势 传染病 信息 报告 管理 质量 评价 动态 全国 传染病 报告 信息 疫情 变化 态势 分析 分析 报告 异常情况 甲类 甲类 管理 传染病 疫情 国家 信息 报告 网络系统 规划 建设 性能 系统 建设 技术支持 全国 传染病 信息 报告 数据备份 数据安全 全国 传染病 信息 报告 考核 评估 地方 疾病 机构 辖区 传染病 信息 报告 业务管理 技术培训 工作 指导 传染病 信息 报告 管理 规范 方案 传染病 信息 报告 管理 制度 辖区 传染病 信息 分析 报告 预测 传染病 趋势 传染病 信息 报告 管理 质量 评价 动态 辖区 传染病 报告 信息 疫情 变化 态势 分析 分析 报告 调查核实 异常情况 甲类 甲类 管理 传染病 疫情 辖区 信息 报告 网络系统 技术支持 辖区 传染病 信息 分析 数据备份 报告 数据安全 辖区 传染病 信息 报告 工作 考核 评估 疾病 机构 职责 辖区 医疗机构 责任 报告 单位 报告 传染病 信息 辖区 网络 直报 条件 责任 报告 单位 报告 传染病 信息 网络 直报 指导 辖区 基本 公共卫生 服务项目 任务 基层 医疗卫生 机构 网络 直报 条件 责任 报告 单位 报告 传染病 信息 网络 报告 监督机构 计生 行政部门 传染病 报告 管理工作 情况 监督 检查 履行职责 单位 个人 依法 医疗机构 负责制 依法 报告 法定 传染病 传染病 信息 报告 管理 传染病 报告 工作 程序 科室 传染病 信息 报告 管理工作 职责 传染病 报告 培训 质量 管理 自查 制度 部门 人员 传染病 信息 报告 管理工作 医疗机构 人员 医疗机构 人员 医疗机构 传染病 信息 报告 专用 计算机 网络设备 疫情报告 管理工作 单位 医务人员 传染病 标准 信息 报告 管理 技术 内容 培训 传染病 信息 报告 管理 检查 网络 报告 质量 定期 单位 报告 传染病 情况 报告 质量 分析 汇总 通报 疾病 机构 传染病 疫情 调查 信息 报告 质量 考核 评估 基本 公共卫生 服务项目 任务 基层 医疗卫生 机构 职责 报告 责任 范围 传染病 信息 疾病 机构 指导 辖区 网络 直报 条件 责任 报告 单位 报告 传染病 信息网络 报告 采供血 机构 人员 艾滋病 艾滋病 病毒感染 标准 检测 结果 阳性 病例 网络 报告 传染病 信息 报告 责任 报告 单位 报告 医疗卫生 机构 责任 报告 单位 职务 人员 乡村 医生 个体 开业 医生 责任 疫情报告 报告 病种 法定 传染病 甲类 传染病 鼠疫 乙类 传染病 传染性 非典型 肺炎 艾滋病 艾滋病 病毒感染者 病毒性 肝炎 脊髓灰质炎 致病性 禽流感 麻疹 流行性 狂犬病 流行性 乙型 脑炎 登革热 炭疽 细菌性 痢疾 肺结核 副伤寒 流行性 脑脊髓 膜炎 百日咳 白喉 新生儿 淋病 梅毒 钩端 螺旋体 血吸虫病 疟疾 禽流感 丙类 传染病 流行性 流行性 腮腺炎 风疹 急性 出血性 结膜炎 麻风病 流行性 地方性 斑疹伤寒 黑热病 包虫病 丝虫病 细菌性 痢疾 副伤寒 感染性 口病 国家 计生委 乙类 丙类 传染病 管理 传染病 甲类 管理 应急 监测 报告 传染病 传染病 乙类 丙类 管理 地方性 传染病 原因 传染病 原因 肺炎 病例 原因 病例 重点 监测 疾病 分类 责任 报告 传染病 标准 计生 行业标准 传染病 病人 病人 传染病 分类 疑似病例 临床 病例 病例 病原 携带者 报告 病原 携带者 病种 脊髓灰质炎 国家 计生委 规定 传染病 报告 责任 报告 单位 责任 报告 过程 规范 电子 病历 电子 档案 自动 规范 门诊 出院 检测 检验 医生 过程 传染病 病人 病人 规定 报告 病原 携带者 传染病 报告 传染病 报告 附件 电子 病历 电子 档案 自动 文档 标准 电子 传染病 报告 乙类 丙类 管理 地方性 传染病 原因 传染病 传染病 报告 信息 传染病 报告 传染病 报告 统一 格式 纸质 电子 形式 内容 纸质 报告 印刷 钢笔 签字笔 字迹 电子 文档 符合国家 统一 标准 电子签名 时间 传染病 报告 患者 有效证件 居民 社会保障 新农 医疗卡 身份 号码 患者 学生 幼托 儿童 学校 幼托 机构 全称 班级 名称 传染病 专项 调查 监测 信息 报告 国家 传染病 工作 专项 调查 报告 监测 传染病 规范 基础 有关 报告 程序 方式 传染病 报告 管理 负责制 传染病 报告 医生 职务 人员 现场 调查 传染病 病例 属地 医疗机构 报告 采供血 机构 阳性 病例 报告 传染病 疫情 信息 网络 直报 网络 直报 条件 医疗机构 规定 时限 传染病 报告 信息 报告 属地 乡镇 社区卫生 服务中心 疾病 机构 网络 报告 传染病 报告 代报 单位 区域 信息 平台 医疗机构 电子 档案 电子 病历 系统 传染病 信息 报告 管理 功能 传染病 信息 报告 管理 功能 传染病 报告 信息管理系统 数据 自动 功能 军队 医疗卫生 机构 社会公众 医疗 服务 传染病 疫情 规定 传染病 网络 报告 报告 时限 责任 报告 单位 责任 疫情报告 甲类 传染病 乙类 传染病 炭疽 传染性 非典型 肺炎 甲类 管理 传染病 病人 传染病 原因 疾病 小时 传染病 报告 网络 报告 丙类 传染病 病人 病人 规定 报告 传染病 病原 携带者 小时 网络 报告 网络 直报 条件 医疗机构 属地 乡镇 社区卫生 服务中心 疾病 机构 报告 小时 传染病 报告 代报 单位 报告 数据管理 医疗机构 传染病 报告 管理人员 纸质 传染病 报告 电子 病历 电子 档案 系统 电子 传染病 报告 信息 错项 漏项 逻辑 错误 检查 报告 核实 疾病 机构 疫情 管理人员 辖区 报告 传染病 信息 报告 信息 报告 单位 报告 核实 误报 信息 甲类 传染病 乙类 传染病 炭疽 传染性 非典型 肺炎 甲类 管理 病人 病人 传染病 原因 疾病 报告 信息 调查核实 小时 网络 报告 信息 丙类 传染病 报告 疾病 机构 小时 网络 医疗卫生 机构 报告 病例 报告 病例 错误 医疗卫生 机构 报告 传染病 报告 电子 传染病 报告 卡片 类别 报告 报告 疑似病例 专病 报告 管理 传染病 专病 管理机构 部门 报告 病例 传染病 报告 信息 有误 病例 小时 电子 病历 电子 档案 数据 自动 功能 身份 标识 传染病 个案 报告 专病 数据 动态 管理 具备条件 传染病 报告 信息管理系统 信息 动态 保证数据 一致性 补报 责任 报告 单位 本年度 漏报 传染病 病例 补报 疾病 机构 网络 直报 条件 医疗机构 报告 信息 报告 信息 传染病 疫情 分析 利用 疫情 分析 所需 人口 资料 国家 部门 数据 计生 行政部门 定期 本行政区域 传染病 疫情 信息 法定 传染病 死亡数 传染病 报告 信息管理系统 住址 数据 病种 疫情 信息 通报 报告 死亡数 传染病 报告 信息管理系统 数据 保持一致 疾病 机构 网络 报告 传染病 疫情 动态 监控 疾病 机构 报告 疾病 机构 传染病 疫情 分析 医疗机构 传染病 报告 汇总 分析 甲类 甲类 管理 传染病 疫情报告 专题 分析 报告 疾病 机构 疫情 分析 结果 信息 报告 形式 疾病 机构 计生 行政部门 报告 疾病 机构 疾病 机构 定期 辖区 疫情 分析 结果 辖区 医疗机构 疾病 机构 甲类 传染病 乙类 传染病 炭疽 传染性 非典型 肺炎 甲类 管理 传染病 传染病 原因 疾病 传染病 病人 病人 报告 所在地 报告 计生 行政部门 报告 疾病 机构 报告 计生 行政部门 通讯 方式 计生 行政部门 通报 疫情 地区 计生 行政部门 通报 本行政区域 传染病 疫情 监测 预警 信息 信息 利用 分级分类 管理 计生 行业 公民 法人 信息 政府 信息 条例 有关 规定 办理 资料 医疗卫生 机构 纸质 传染病 报告 传染病 报告 记录 网络 直报 条件 医疗机构 传染病 报告 代报 单位 报告 单位 备案 电子签名 电子 传染病 报告 纸质 文本 法律效力 备份 工作 备份 时间 纸质 传染病 报告 纸质 卡片 医生 备案 疾病 机构 传染病 信息 资料 规定 档案管理 信息系统 管理 传染病 信息 报告 管理系统 功能 调整 疾病 风险 评估 国家 计生委 疾病 机构 专网 专网 网络 报告 辖区 医疗机构 疾病 机构 辖区 信息 报告 系统 用户 权限 管理 信息安全 制度 分级 电子 服务体系 信息 报告 系统 账号 管理 医疗机构 电子 病历 传染病 报告 功能 身份 用户 管理 管理 信息系统 人员 信息系统 账号 密码 账号 密码 被盗 密码 疾病 机构 报告 传染病 信息 报告 管理 部门 个人 传染病 数据 制度 利用 传染病 数据 危害 国家 社会 公共利益 合法权益 活动 传染病 病人 信息 资料 考核 评估 计生 行政部门 定期 辖区 传染病 信息 报告 工作 督导 检查 问题 通报 责令 限期 疾病 机构 传染病 信息 报告 工作 考核 方案 定期 辖区 医疗机构 疾病 机构 指导 考核 医疗机构 传染病 信息 报告 管理工作 工作 考核 范围 定期 自查 附件 传染病 报告 卡片 编号 报卡 类别 报告 报告 姓名 患儿 家长 姓名 有效证件 性别 出生日期 出生日期 实足年龄 年龄 单位 工作 单位 学校 病人 本市 县区 外省 外籍 住址 省市 街道 门牌号 人群 分类 幼托 儿童 儿童 学生 教师 保育员 餐饮 食品业 商业 服务 医务人员 工人 民工 农民 牧民 干部 职员 人员 家务 待业 病例 分类 疑似病例 临床 病例 病例 病原 携带者 急性 乙型肝炎 血吸虫病 丙肝 甲类 传染病 鼠疫 乙类 传染病 传染性 非典型 肺炎 艾滋病 艾滋病 病人 病毒性 肝炎 乙型 丙型 分型 脊髓灰质炎 致病性 禽流感 麻疹 流行性 狂犬病 流行性 乙型 脑炎 登革热 炭疽 炭疽 皮肤 炭疽 分型 痢疾 细菌性 肺结核 菌阴 副伤寒 流行性 脑脊髓 膜炎 百日咳 白喉 新生儿 淋病 梅毒 期胎 隐性 钩端 螺旋体 血吸虫病 疟疾 恶性疟 分型 禽流感 丙类 传染病 流行性 流行性 腮腺炎 风疹 急性 出血性 结膜炎 麻风病 流行性 地方性 斑疹伤寒 黑热病 包虫病 丝虫病 细菌性 痢疾 副伤寒 感染性 口病 法定 管理 重点 监测 传染病 原因 报告 单位 医生 传染病 报告 卡片 编码 报告 单位 姓名 患者 名字 姓名 身份证 姓名 家长 姓名 患儿 患者 家长 姓名 有效证件 有效证件 居民身份证 护照 军官证 居民 社会保障 新农 医疗卡 身份 号码 人员 编码 标识 性别 性别 出生日期 出生日期 年龄 出生日期 年龄 实足年龄 出生日期 用户 年龄 年龄 单位 新生儿 月龄 儿童 年龄 单位 工作 单位 学校 患者 工作 单位 学生 幼托 儿童 学校 班级 名称 患者 病例 类别 标识 病人 地址 医院 地区 关系 地址 乡镇 街道 住址 原则 病人 居住地 地址 病人 地址 报告 单位地址 职业 职业 病例 分类 类别 病原 携带者 时间 采供血 机构 报告 献血者 小时 采供血 机构 实验 病例 时间 疾病 名称 病名 法定 管理 重点 监测 传染病 报告 管理 传染病 病种 名称 报告 病名 原因 卡片 合格 原因 报告 单位 报告 传染病 单位 医生 传染病 报告 医生 姓名 本卡 用户 文字 信息 报告 传染病 病名 肺结核 肺结核 患者 报告 卡带 部份 项目 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.252952    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.252952    	
 国家卫生计生委办公厅关于印发健康科普信息生成与传播指南(试行)的通知	
 国家卫生计生委办公厅关于印发健康科普信息生成与传播指南（试行）的通知
 （国卫办宣传函〔2015〕665号）
@@ -8063,22 +7093,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>国家 计生委 办公厅 印发 信息 传播 指南 国家 计生委 办公厅 印发 信息 传播 指南 宣传 自治区 直辖市 计生委 全民 素养 行动 规划 工作 科学 规范 信息 传播 指南 国家 计生委 网站 印发 国家 计生委 办公厅 信息 传播 技术 指南 经济社会 发展 人们 疾病 日益 工作 形式 传播 活动 领域 科学知识 科学 方法 科学 精神 公众 传播 公众 素养 教育 工作 内容 教育 工作 全民 素养 行动 规划 目标 工作 科学 规范 公众 观念 生活 方式 公众 权益 指南 目的 计生 机构 信息 传播 工作 技术 指导 计生 机构 科学 规范 规范 全国 工作 信息 定义 信息 领域 科学技术 科学 观念 科学 方法 科学 技能 内容 公众 方式 传播 信息 信息 公众 观念 技能 素养 信息 原则 流程 信息 原则 科学性 原则 内容 事实 评判 错误 科学 证据 循证 原则 进展 共识 政府 卫生机构 专业 机构 行业标准 指南 报告 研究 方法 证据 文献 个人 观点 专家 机构 评议 意见 公众 专家 个人观点 宣传 教育 目标 信息 适用性 原则 公众 热点问题 信息 语言 文字 目标 人群 文化 水平 能力 民族 性别 宗教 文化 年龄 种族 方面 产生 信息 信息 流程 评估 受众 现场 调查 文献 方式 目标 受众 问题 目标 人群 信息 目标 人群 信息 程度 信息 建议 可行性 影响 信息 传播 因素 态度 文化 经济 服务 受众 信息 形式 能力 信息 传播 时机 场合 信息 信息 受众 受众 信息 信息 信息 信息 过程 领域 专家 信息 信息 通俗化 信息 制作 通俗 信息 目标 人群 信息 试验 信息 定稿 数量 目标 人群 试验性 信息 目标 人群 部分 目标 人群 个人 小组 形式 试验 信息 试验 结果 信息 调整 信息 风险 评估 信息 信息 风险 评估 信息 法律法规 信息 冲突 负面 信息 科学 歧义 社会 公众 公众 工作 实际 专家 试验 阶段 风险 评估 内容 信息 专家 论证 信息 传播 原则 信息 传播 原则 适用性 原则 目标 受众 特点 传播 形式 传播 形式 信息 内容 预期 传播 目标 原则 信息 目标 受众 地方 公告栏 电视 广播 社交 人际 网络 信息 渠道 传播 时间 一致性 经济性 原则 信息 传播 节约 原则 信息 传播 内容 传播 效果 前提 经济 传播方式 传播 渠道 信息 传播 来源 信息 标明 证据 来源 作者 作者 个人 机构 身份 专业 资质 经验 时间 信息 受众 信息 人群 目标 人群 目的 信息 目的 信息 医生 医嘱 疗法 有效性 信息 传播 效果 评价 评价 种类 内容 评价 信息 受众 问题 信息 传播 障碍 信息 流程 受众 评估 部分 过程 评价 方面 信息 内容 形式 信息 媒体 传播 信息 信息 偏差 公众 媒体 工作人员 信息 方法 信息 公众 正确理解 偏差 受众 信息 内容 形式 传播 方式 信息 覆盖面 预期 效果 评价 方面 信息 传播 效果 公众 媒介 信息 指标 传播 内容 传播方式 信息 内容 传播 受众 人群 水平 指标 合格率 知晓率 信息 受众 人群 态度 产生 影响 指标 信念 信息 传播 事件 政策 舆论 生活 质量 促进作用 指标 环境 服务 条件 舆论 发病率 患病率 死亡率 评价 方法 专家 咨询 信息 专业性 适用人群 传播方式 渠道 传播 目标 专业 领域 专家 咨询 信息 阶段 定量 调查 封闭式 问题 结果 分析 信息 传播 阶段 效果 评价 定性 调查 专题 小组 个人 方式 目标 人群 信息 程度 接受程度 语言表达 方式 合理 内容 信息 传播 阶段 评价 舆情 监测 网络 监测 公众 方式 公众 传播 信息 现实生活 热点 焦点 问题 态度 情绪 意见 建议 信息 传播 阶段 效果 评价 公众 教育 内容 信息 总结 经验 教训 调整 信息 内容 传播 形式 信息 教育 人群 技术 指南 计生 机构 社会 机构 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>国家卫生计生委办公厅关于印发医院、计划生育技术服务机构等9类医疗卫生机构信息公开目录的通知
+  </si>
+  <si>
+    <t>国家卫生计生委办公厅关于印发医院、计划生育技术服务机构等9类医疗卫生机构信息公开目录的通知
 （国卫办政务发〔2015〕12号）
 （法宝联想:　 地方法规规章约12篇 案例与裁判文书约2篇 ）
 各省、自治区、直辖市卫生计生委，新疆生产建设兵团卫生局、人口计生委，委机关各司局，委直属和联系单位：
@@ -9455,22 +8472,9 @@
 卫生计生行政部门及各级管理机构认为属于政务公开需要公示的其他信息情况
 国家卫生计生委办公厅
 2015年2月25日</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>国家 计生委 办公厅 印发 医院 技术 服务 机构 医疗卫生 机构 信息 目录 政务 地方 法规 规章 案例 裁判 文书 自治区 直辖市 计生委 人口 计生委 机关 司局 直属 联系 单位 信息 条例 印发 监督 疾病 医院 妇幼卫生 社区卫生 乡镇 医疗卫生 机构 信息 目录 有关 政府 信息 工作 医疗卫生 领域 信息 规范 医疗卫生 服务 信息 工作 调研 基础 计生 综合 监督机构 疾病 机构 医院 妇幼保健 机构 社区卫生 机构 乡镇 技术 服务 机构 血站 教育 机构 医疗卫生 机构 信息 目录 国家 计生委 网站 下载区 印发 计生 行政部门 指导 辖区 医疗卫生 机构 信息 目录 细化 信息 目录 服务 信息 工作 情况 监督 检查 医疗卫生 服务 信息 工作 附件 计生 综合 监督 机构 信息 目录 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 监督机构 基本 情况 机构 机构 性质 职能 网站 公示栏 图册 电子 屏幕 政府 信息 条例 领导 领导 姓名 照片 职务 职责 机构 设置 单位 机构 设置 情况 职责 情况 监督 人员 情况 监督员 姓名 身份 职务 职责 网站 公示栏 办事 指南 单位 地理位置 行走路线 办理 事务 工作 程序 指南 通讯地址 网址 网站 指示牌 法律 计生 监督 法律 网站 图书 公示栏 宣传 画册 法规 计生 监督 行政 法规 地方性 法规 规章 计生 监督 部门规章 政府 规章 规范性 计生 监督 规范性 标准 技术规范 计生 监督 计生 标准 技术规范 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 计生 监督制度 计生 监督 工作 规范 计生 行政部门 计生 监督机构 计生 监督 工作 规范 计生 监督 行政 制度 网站 图书 宣传 画册 办公 场所 显要位置 工作 规范 监督员 执行公务 监督员 证件 政府 信息 条例 行风 行业 作风 规章制度 工作 措施 渠道 信息反馈 渠道 措施 计生 监督 动态 计生 监督 指导 部署 工作 网站 公示栏 资料 媒体 计生 监督 工作 动态 监督 检查 内容 程序 范围 活动 信息 部门 核准 产品 结果 行政许可 事项 依法 行政许可 事项 网站 行政许可 专栏 行政 政府 信息 条例 行政许可 有关 法律 法规 部门规章 收费 项目 标准 大厅 资料 信息 公告栏 电子信息 咨询电话 行政许可 条件 行政许可 程序 全部 材料 目录 资料 时限 情况 情况 理由 短信 平台 书面 文书 电子政务 系统 情况 行政许可 结果 行政许可 结果 网站 公众 渠道 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 计生 行政处罚 行政处罚 情况 计生 行政处罚 种类 程序 时限 结果 网站 新闻媒体 发布公告 计生 监督 信息 专栏 形式 政府 信息 条例 大要案 案件 情况 部门 核准 大案要案 过程 结果 情况 附件 疾病 机构 信息 目录 类别 信息 名称 内容 途径 责任 部门 法规 基本 信息 机构 职能 机构 概况 机构 疾病 机构 时间 单位 历史 成绩 内容 机构 形式 条件 互联网 网站 公示栏 电子 屏幕 基本 概况 机构 情况 人员构成 比例 内容 领导 分工 负责人 内设 处室 职能 科室 职责 分工 资质 资质 能力 机构 资质 能力 情况 专家 队伍 单位 专家 政策 法规 法律法规 标准 传染病 防治法 内部资料 形式 印刷 成文 网站 公示栏 电子 屏幕 精神 卫生法 公共卫生 事件 应急 条例 病原 实验室 管理条例 疫苗 流通 预防接种 管理条例 艾滋病 条例 血吸虫病 条例 法律法规 标准 政策 法规 政策 传染病 技术 方案 疾病 地方 行业 管理 规定 技术 标准 规范 方案 内部资料 形式 印刷 成文 网站 公示栏 电子 屏幕 疾病 业务 指导性 公共卫生 服务 影响 工作 信息 疾病 传染病 传染病 监测 预警 传染病 监测点 设置 传染病 综合 监测 指导 传染病 监测 预测 预报 预警 信息 编印 目录 定期 传染病 疫情 传染源 管理 管理 传播 途径 技术 措施 人群 措施 公众 建议 传染病 免费 管理 免费 政策 技术 方案 免费 物品 管理 信息 规划 辖区 单位 设置 服务 时间 免疫预防 策略 程序 规范 消毒 病媒 生物 疫源地 消毒 病媒 生物 控制技术 方案 措施 重点 行业 场所 消毒 技术标准 地方病 寄生虫病 地方病 寄生虫病 监测 管理 地方病 寄生虫病 病区 分类管理 办法 寄生虫 宿主 媒介 调查 寄生虫 宿主 媒介 生物 种群 密度 消长 趋势 预警 信息 管理 寄生虫病 传染源 传播媒介 公众 建议 寄生虫病 疫情 调查 寄生虫病 流行病学 调查 流程 寄生虫病 人群 指导 建议 地方病 寄生虫病 综合 地方病 寄生虫病 综合 措施 工作 信息 传染性 疾病 死因 报告 管理 规定 因素 防控 建议 社会 心理 因素 措施 编印 目录 定期 口腔疾病 口腔 信息 资料 管理系统 口腔 危害 因素 监测 口腔 防治效果 评估 精神 精神 政策 措施 精神障碍 管理 工作 规范 医疗 服务 职责 医院 信息 目录 公共卫生 事件 应急 公共卫生 事件 应急 公共卫生 事件 应急 机制 应急 预案 技术 方案 目录 预测 预警 机制 管理制度 公共卫生 事件 应急 储备 公共卫生 事件 技能 培训 演练 信息 公共卫生 事件报告 预警 报告 核实 公共卫生 事件报告 流程 事件 预警 公共卫生 事件 预警 建议 公共卫生 事件 控制措施 公共卫生 事件 应急 公共卫生 流程 工作 信息 疫情 因素 信息管理 建设 疾病 信息 平台 基础 建设 网络 建设 信息管理 编印 目录 定期 信息系统 管理 监测 信息系统 疾病 监测 信息系统 目录 信息 利用 服务 社会 信息 服务 疾病 信息 工作 信息 危害 因素 监测 职业病 危害 因素 职业病 危害 因素 职业病 职业 健康检查 信息 编印 目录 定期 职业病 机构 目录 职业 技术 服务 职业 技术 服务 资质 范围 服务项目 信息 信息 医疗 服务 职责 医院 信息 内容 放射性 职业病 危害 因素 放射性 职业病 危害 因素 工作人员 放射性 职业病 职业 健康检查 有关 信息 技术 服务 技术 服务 资质 范围 服务项目 信息 环境危害 因素 环境危害 因素 监测 环境危害 因素 监测 资质 内容 办法 食源性 疾病 风险 监测 风险 监测 内容 办法 标准 食源性 疾病 食源性 疾病 监测 办法 食源性 疾病 食源性 疾病 现场 流行病学 调查 方法 营养 监测 营养 营养 人群 食品 营养 建议 人群 合理 膳食 指导 学生 危害 因素 学生 危害 因素 监测 学生 危害 因素 监测 内容 方法 工作 信息 实验室 检测 评价 实验室 管理 实验室 工作 实验室 资质 检测 项目 目录 实验室 检验 标准 规程 实验室 质量 实验室 建设 规范 实验室 管理 规定 编印 目录 定期 教育 教育 方案 教育 方案 经常性 教育 活动 方案 重点项目 教育 活动 方案 编印 目录 定期 教育 活动 时期 人群 教育 策略 经常性 教育 策略 疫情 教育 策略 规划 公众 教育 策略 农民 学生 社区 居民 重点 人群 教育 策略 教育 公众 宣传 教育 工作 信息 教育 信息 宣传 技术 管理 研究 指导 管理 指导 技术培训 培训 项目 规划 培训 目录 信息 技术支持 技术咨询 行政部门 技术咨询 渠道 内容 热线电话 技术 服务 技术 服务项目 政府 委托 公共服务 服务 内容 机构 形式 条件 互联网 网站 公示栏 电子 屏幕 服务 时间 服务 价格 服务 方式 社会 技术 服务 服务 内容 服务 时间 服务 价格 服务 方式 服务 监督 服务 监督 方式 监督机构 监督机构 服务 监督 结果 信息 附件 医院 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医院 概况 执业 医院院长 法定代表 姓名 科目 执业 地点 医疗机构 执业 有效期 机关 医院 门诊 大厅 设置 公示栏 形式 医疗机构 管理条例 实施细则 基本 信息 医院 名称 级别 网址 技术 行政部门 技术 临床 检验 项目 名称 有效期 人体 技术 人类 辅助 生殖 技术 公示栏 电子屏 形式 人类 辅助 生殖 技术 管理 办法 人体 技术 临床 管理 医用 设备 行政部门 医用 设备 名称 资质 医用 设备 复印件 资质证书 复印件 医用 设备 科室 医用 设备 管理 办法 教学 任务 医院 院校 医学生 专科生 本科生 研究生 任务 基本 情况 学生 数量 教学 时间 医院 门诊 大厅 设置 公示栏 形式 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医院 概况 工作人员 医师 姓名 职务 职称 标牌 形式 护士 姓名 职务 职称 医技 人员 姓名 职务 职称 行政 管理人员 姓名 部门 职务 后勤人员 姓名 部门 职务 试用期 人员 姓名 身份 医院 环境 交通 线路 停靠站 停车场 医院 网站 设置 标牌 路标 形式 交通 医院 车辆 出口 停车场 总车 位数 行车 设置 医院 布局 标牌 路标 形式 科室 布局 科室 格局 绿色通道 路径 应急 应急 路线 应急 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 形式 医院 网站 病人 权利 义务 病人 权利 义务 内容 社会 资助 情况 财产 管理 情况 医疗卫生 机构 社会 资助 管理 暂行办法 医院 服务 方式 本院 服务 监督 部门 电话 信箱 方式 行政部门 电话 信箱 医疗 服务 医疗 服务 基本 情况 临床 医技 科室 名称 服务 内容 公示栏 电子屏 医院 网站 形式 专科 专业 门诊 专科 专业 门诊 服务 内容 特色 专家 姓名 专长 时间 医院 服务 时间 门诊 服务 时间 办理 出院 时间 住院 时间 时间 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医疗 服务 服务 流程 门诊 挂号 交费 事项 流程 服务 地点 公示栏 电子屏 医院 网站 形式 挂号 方式 挂号 时间 流程 方法 住院 服务 流程 入院 出院 转科 转院 服务 流程 特需 服务项目 特需 服务 项目 内容 特殊人群 优先 措施 老年人 特殊人群 服务 优先 措施 门诊 咨询服务 咨询服务 场所 方式 设置 咨询电话 咨询 服务台 形式 教育 咨询服务 常见疾病 教育 合理 用药 咨询服务 时间 地点 公示栏 电子屏 医院 网站 形式 患者 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 患者 病情 制度 情况 内容 公示栏 电子屏 印刷 检查单 形式 服务 流程 患者 重症 监护 手术 血液 净化 服务 流程 检查 项目 报告 临床 检验 项目 报告 时限 公示栏 电子屏 印刷 检查单 形式 造影 辅助 检查 项目 流程 地点 报告 时限 辅助 检查 事项 心电图 造影 辅助 检查 检查 注意事项 处理程序 医院 程序 职能部门 电话 公示栏 电子屏 形式 病历 服务 病历 服务 流程 地点 公示栏 电子屏 形式 医疗机构 病历 管理 规定 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 价格 收费 收费 制度 患者 有关 收费 项目 制度 公示栏 电子屏 医院 网站 形式 医疗 服务项目 价格 医疗 服务 项目名称 项目 内涵 计价 单位 价格 药品 价格 药品 生产厂家 剂型 规格 价格 药品 管理法 条例 医用 耗材 价格 医用 耗材 规格 型号 生产厂家 价格 门诊 费用 门诊 费用 药品 医疗 服务 名称 数量 单价 金额 服务 费用 形式 住院费用 住院病人 费用 出院 总费用 药品 医用 耗材 医疗 服务 名称 数量 单价 金额 医疗机构 价格 规定 附件 妇幼保健 机构 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 机构 资质 依法 执业 医疗机构 执业 业务范围 机构 评审 证书 内容 医疗机构 执业 有效期 科目 代码 校验 情况 内容 门诊 大厅 设置 电子屏 机构 网站 服务 医疗机构 管理条例 实施细则 院长 负责人 姓名 职能 科室 设置 床位数 机构 电话 网址 内容 技术 计生 行政部门 核准 技术 临床 检验 项目 名称 有效期 母婴 专项 技术 人类 辅助 生殖 技术 公示栏 电子屏 科室 形式 母婴 保健法 人类 辅助 生殖 技术 管理 办法 重点学科 人员 情况 重点学科 学科 带头人 资质 信息 公示栏 电子屏 网站 重点学科 主任医师 人员 资质 信息 教学 任务 情况 院校 医学生 专科生 本科生 研究生 临床 临床 毕业 任务 教学 医院 牌匾 机构 门诊 大厅 设置 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 妇幼保健 管理 妇幼保健 管理 单位 辖区 妇幼保健 职责 任务 网站 公示栏 电子屏 形式 母婴 保健法 妇幼保健 机构 管理 办法 单位 妇幼保健 服务项目 孕产 服务 产时 产后 儿童 服务 儿童 儿童 营养 儿童 心理卫生 儿童 儿童 口腔 儿童 耳鼻喉 儿童 儿科 新生儿 儿科 妇女 服务 乳腺 妇女 妇科 妇科 技术 服务 咨询 指导 手术 男性 生殖 避孕药 管理 母婴 专项 技术 筛查 新生儿 疾病 筛查 助产 技术 结扎手术 妇幼保健 管理 辖区 妇幼保健 工作 程序 孕产妇 儿童 手册 医学 检查 医学 证明 流程 注意事项 国家 基本 公共卫生 服务 项目管理 妇幼保健 网点 名称 咨询电话 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医用 设备 医用 设备 规定 医用 设备 医用 设备 科室 地方 计生 行政部门 医用 设备 复制件 形式 医用 设备 管理 暂行办法 机构 环境 科室 格局 机构 结构 布局 示意图 科室 格局 标牌 文字 规范 设置 标牌 路标 网站 方式 应急 应急 应急 路线 绿色通道 路径 标牌 文字 规范 设置 标牌 应急 指示灯 方式 标识 医院 吸烟区 建筑物 等候 会议室 厕所 走廊 电梯 楼梯 区域 标识 吸烟区 标识 计生 机构 评分标准 交通 情况 车辆 出口 停车场 车位 行车 文字 规范 设置 标牌 路标 应急 指示灯 方式 交通 情况 停靠站 停车场 车位 文字 规范 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 服务 方式 本院 服务 监督 部门 电话 网站 信箱 方法 门诊 大厅 大厅 地方 设置 医疗保健 服务 信箱 意见簿 形式 网站 电话 项目 计生 行政部门 机构 政务 信息 情况 公示栏 电子屏 服务 形式 服务 对象 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 病人 对象 权利 义务 病人 对象 权利 义务 重点 内容 公示栏 电子屏 宣传 小册 形式 工作 服务 人员 工作人员 标志 医生 姓名 照片 工号 科室 职务 职称 标牌 胸牌 服务 护理人员 姓名 照片 工号 科室 职务 职称 标牌 医技 人员 姓名 照片 工号 科室 职务 职称 标牌 行政 管理人员 姓名 照片 工号 科室 职务 标牌 后勤人员 姓名 照片 工号 科室 职务 标牌 人员 姓名 照片 身份 专业 情况 职称 标牌 医疗保健 服务 机构 服务 基本 情况 科室 医技 科室 设置 名称 服务 内容 情况 公示栏 电子屏 网站 服务 专科 专业 门诊 专科 专业 门诊 服务 内容 特色 服务 时间 门诊 服务 时间 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医疗保健 服务 服务 流程 门诊 挂号 交费 事项 流程 服务 地点 网络 电话 挂号 指南 电子屏 网络 形式 专家 方式 流程 公示栏 电子屏 服务 住院 服务 流程 入院 出院 转科 转院 服务 流程 新农 住院 证件 办理 流程 书面 形式 基本 医疗保健 服务项目 新农 范围 基本 医疗保健 服务项目 药品 内容 计生 行政部门 规定 公示栏 书面 形式 基本 医疗保健 服务项目 基本 医疗保健 服务项目 特需 服务 自费 医疗保健 服务项目 电子屏 网络 形式 特殊人群 优先 措施 患者 特殊人群 服务 优先 措施 服务 地方 形式 门诊 服务 咨询 门诊 大厅 设置 咨询 服务台 服务 信息 咨询服务 设置 咨询 服务台 咨询服务 形式 咨询服务 热线 咨询服务 热线 对象 母婴 咨询服务 海报 宣传 折页 媒体 形式 社会 咨询服务 热线 号码 医学 证明 办理 程序 时间 地点 公示栏 电子屏 服务 形式 母婴 保健法 有关 规定 教育 咨询服务 服务 对象 就诊者 妇幼保健 疾病防治 合理 用药 教育 咨询服务 文字 图片 影视 讲座 课堂 教育 处方 网站 微信 公众 平台 咨询 病历 服务 患者 病历 资料 内容 服务 流程 病区 医务 管理 部门 病案 管理 部门 形式 医疗机构 病历 管理 规定 服务 患者 病情 制度 患者 手术 创伤性 辅助 生殖 技术 服务 检查 情况 书面 知情 同意书 服务 形式 服务 流程 患者 重症 监护 手术 血液 净化 高值 费用 项目 服务 流程 咨询服务 形式 检查 项目 报告 时限 临床 检验 项目 流程 检验 注意事项 检验 地点 报告 时限 公示栏 电子屏 服务 印刷 检查单 形式 辅助 检查 项目 流程 检验 注意事项 检验 地点 报告 时限 临床 检验 项目 临床 检验 项目 检查 注意事项 报告 时限 辅助 检查 项目 心电图 造影 辅助 检查 检查 注意事项 报告 时限 处理程序 程序 职能部门 电话 具体位置 电子屏 服务 形式 门诊 大厅 服务 价格 收费 制度 收费 项目 制度 公示栏 电子屏 形式 医疗保健 服务项目 价格 医疗 服务项目 名称 项目 内涵 计价 单位 价格 公示栏 电子屏 服务 形式 药品 价格 药品 生产厂家 剂型 规格 价格 药品 管理法 条例 医用 耗材 价格 医用 耗材 规格 型号 生产厂家 价格 住院病人 费用 住院病人 费用 制度 制度 出院 总费用 药品 医用 耗材 医疗 服务 名称 数量 单价 金额 服务 费用 形式 医疗机构 价格 规定 项目 计生 行政部门 机构 政务 服务 情况 公示栏 电子屏 服务 形式 附件 社区卫生 服务 机构 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 机构 资质 依法 执业 医疗机构 执业 社区卫生 服务中心 大厅 设置 公示栏 服务 医疗保险 定点 医疗机构 资质 编码 机构 负责人 姓名 技术 行政部门 核准 技术 有效期 公示栏 电子屏 人员 资质 人员 情况 全科 团队 人员 人员 资质 服务 区域 服务 内容 高级职称 人员 资质 信息 社区卫生 服务 医院 专家 姓名 专长 服务 时间 工作人员 标志 医生 护理人员 姓名 职务 职称 标牌 胸卡 服务 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 机构 环境 科室 格局 科室 格局 标牌 文字 规范 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 应急 路径 路径 应急 路线 标牌 设置 标牌 应急 指示灯 方式 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 服务 方式 机构 服务 监督 部门 电话 信箱 门诊 大厅 大厅 地方 设置 医疗 服务 方法 信箱 咨询电话 形式 方式 行政部门 电话 信箱 项目 信息 情况 服务 人群 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 公共卫生 基本 医疗 服务 服务 区域 服务 人群 基本 情况 机构 服务 区域 范围 公示栏 电子屏 服务 区域 人群 基本 情况 重点 人群 服务 人数 服务 基本 情况 科室 设置 名称 医疗 服务 基本 公共卫生 服务 内容 公示栏 电子屏 网站 服务 服务 时间 门诊 服务 时间 部分 服务项目 服务 时间 服务 流程 门诊 服务 流程 公示栏 电子屏 网络 形式 住院 服务 流程 双向 服务 流程 基本 药物 基本 药物 目录 双向 关系 综合 专科医院 名称 社区卫生 服务 机构 双向 关系 综合 专科医院 名称 服务 特殊人群 优惠 措施 老年人 残疾人 群体 特殊人群 服务 优惠 措施 服务 地方 公示栏 形式 服务 对象 健康状况 服务 对象 健康状况 疾病 情况 公示栏 电子屏 服务 形式 辅助 检查 项目 辅助 检查 检查 注意事项 服务 价格 医疗 服务项目 价格 药品 价格 医用 耗材 价格 项目 服务 情况 公示栏 电子屏 服务 形式 附件 乡镇 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医院 概况 资质 医疗机构 执业 工作人员 标志 医院 门诊 大厅 设置 公示栏 形式 环境 科室 格局 行风 建设 医德 医风 建设 病人 权利 义务 社会 医疗 服务 方式 患者 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 医疗卫生 服务 医疗 服务 基本 情况 服务 时间 服务 流程 特殊人群 优先 措施 基本 公共卫生 服务 内容 公示栏 电子屏 形式 服务 患者 病情 事故 流程 服务 价格 收费 制度 医疗 服务项目 价格 服务 费用 形式 药品 价格 医用 耗材 价格 新农 政策 新农 补偿 流程 公示栏 电子屏 形式 附件 技术 服务 机构 信息 目录 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 基本 情况 技术 服务 机构 时间 单位 机构 性质 职能 机构 公示栏 电子 屏幕 形式 条件 互联网 网站 政府 信息 条例 执业 资质 技术 服务 机构 执业 机构名称 法定代表 服务 科目 有效期 机关 内容 门诊 大厅 设置 电子屏 技术 服务 管理条例 服务 技术 行政部门 核准 技术 服务项目 名称 公示栏 电子屏 形式 技术 服务项目 评审 基本 标准 机构 设置 服务 机构 结构 布局 示意图 科室 格局 标牌 设置 标牌 路标 网站 方式 农村 服务 机构 基础设施 建设 标准 重点 科室 人员 重点 科室 学科 带头人 主治医师 人员 资质 信息 公示栏 电子屏 网站 服务指南 单位 地理位置 行走路线 通讯地址 网址 网站 指示牌 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 基本 情况 应急 应急 路线 绿色通道 路径 标牌 设置 标牌 应急 指示灯 地线 方式 技术 服务 科室 情况 科室 设置 名称 服务 内容 情况 公示栏 电子屏 网站 手册 服务 服务 时间 服务 时间 服务 流程 门诊 挂号 交费 事项 流程 服务 地点 专家 流程 公示栏 电子屏 网络 形式 住院 服务 流程 入院 出院 转科 转院 服务 流程 书面 形式 门诊 服务 咨询 门诊 大厅 设置 咨询 服务台 服务 信息 咨询服务 设置 咨询 服务台 咨询服务 形式 咨询电话 咨询服务 服务 对象 门诊患者 疾病防治 合理 用药 教育 咨询服务 文字 图片 影视 讲座 课堂 教育 处方 个别 咨询电话 服务 医学 文书 服务 服务 对象 文书 资料 服务 流程 管理 部门 文书 管理 部门 形式 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 服务 对象 制度 服务 对象 手术 创伤性 检查 情况 书面 知情 同意书 检查 项目 报告 时限 临床 检验 项目 检查 项目 流程 报告 时限 公示栏 电子屏 服务 印刷 检查单 形式 辅助 检查 项目 心电图 造影 辅助 检查 检查 注意事项 服务 价格 收费 制度 收费 项目 制度 公示栏 电子屏 服务 形式 医疗机构 价格 规定 免费 技术 服务项目 免费 技术 服务项目 项目 内涵 医疗保健 服务项目 价格 医疗 服务项目 名称 项目 内涵 计价 单位 价格 药品 价格 药品 生产厂家 剂型 规格 价格 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 价格 医用 耗材 价格 医用 耗材 品名 规格 价格 有关 情况 住院病人 费用 条件 技术 服务 机构 住院费用 制度 服务 费用 形式 门诊患者 费用 门诊患者 费用 药品 医疗保健 服务 名称 数量 单价 金额 工作人员 工作人员 标志 医生 姓名 职务 职称 标牌 胸卡 服务 护理人员 姓名 职务 职称 标牌 医技 人员 姓名 职务 职称 标牌 行政 管理人员 姓名 部门 职务 标牌 后勤人员 姓名 部门 职务 标牌 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 服务 方式 机构 服务 电话 信箱 方法 门诊 大厅 大厅 地方 设置 技术 服务 信箱 咨询电话 意见簿 形式 项目 诊断室 染色体 检测 设备 工作 场所 设置 医学 胎儿 性别 选择性 人工 标志 公示栏 形式 医学 胎儿 性别 选择性 人工 规定 项目 计生 行政部门 技术 服务 机构 政务 信息 情况 公示栏 电子屏 服务 形式 附件 血站 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 概况 执业 血站 依法 执业 情况 大厅 采血车 网站 公示栏 形式 血站 管理 办法 基本 信息 血站 名称 网址 地址 流动 采血车 流动 采血车 设置 情况 公示栏 电子屏 形式 血站 管理 办法 工作人员 医师 姓名 工号 职务 职称 标牌 形式 护士 姓名 工号 职务 职称 医技 人员 姓名 工号 职务 职称 行政 管理人员 姓名 工号 部门 职务 职称 后勤人员 姓名 工号 部门 职务 试用期 人员 姓名 工号 身份 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 环境 交通 线路 停靠站 停车场 网站 形式 交通 车辆 出口 行车 设置 血站 布局 标牌 路标 形式 科室 布局 科室 格局 应急 应急 路线 应急 行风 建设 医德 医风 建设 行风 建设 规定 网站 公示栏 电子屏 形式 血站 工作人员 执业 职业道德 规范 行为准则 服务 血站 工作人员 服务 用语 服务 规范 服务 标准 服务 社会 资助 情况 财产 管理 情况 医疗卫生 机构 社会 资助 管理 暂行办法 血站 服务 方式 服务 监督 部门 电话 信箱 方式 行政部门 电话 信箱 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 服务 流程 科室 名称 服务 内容 宣传 资料 公示栏 电子屏 网站 形式 服务 服务 热线 服务 网点 服务 时间 地址 联系人 血站 服务 时间 服务 时间 血液 库存 预警 信息 血型 预警 级别 网站 宣传 资料 信息 宣传 橱窗 电子屏 献血者 权利 义务 献血者 权利 义务 内容 献血者 咨询 献血者 咨询 内容 献血者 献血者 内容 注意事项 注意事项 血液 检测 血液 检测 项目 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 服务 合格 血液 合格 血液 流程 献血者 所献 血液 检测 结果 情况 献血者 所献 血液 检测 结果 情况 患者 受血者 信息 电话 短信 微信 形式 献血者 信息 公示栏 电子屏 网站 形式 临床 献血者 临床 费用 政策 程序 咨询电话 收费 项目 标准 国家 行政部门 会同 价格 主管部门 收费 项目 收费 标准 收费 献血者 类别 信息 名称 基本 内容 途径 责任 部门 法规 血站 服务 献血者 所献 血液 检测 结果 情况 献血者 所献 血液 检测 结果 情况 患者 受血者 信息 电话 短信 微信 形式 献血者 附件 教育 机构 信息 目录 类别 序号 信息 名称 内容 途径 责任 部门 法规 教育 机构 基本 情况 机构 性质 基本 情况 机构 性质 时间 地理位置 基本 情况 网站 公示栏 电子屏 宣传 画册 政府 信息 条例 机构 职能 职能 机构 设置 单位 机构 设置 情况 职责 机构 领导 领导 职务 职责 政策 法规 法律法规 教育 法律 网站 图书 公示栏 电子屏 教育 法规 规范性 全国 教育 专业 机构 工作 规范 国家 基本 公共卫生 服务 规范 教育 服务 规范 网站 图书 公示栏 电子屏 教育 地方性 规范 标准 技术规范 教育 技术标准 规范 工作指南 网站 图书 公示栏 电子屏 教育 业务 指导性 公众 重要文献 类别 序号 信息 名称 内容 途径 责任 部门 法规 工作 信息 动态 工作 信息 工作 动态 教育 工作 信息 动态 网站 公示栏 电子 屏幕 通讯 形式 定期 公众 教育 服务 技能 人群 疾病 场所 问题 公共卫生 事件 教育 内容 核心 信息 技能 网站 图书 公示栏 电子屏 大众 媒体 传播 材料 平面 影视 实物 传播 材料 教育 活动 咨询 讲座 教育 活动 信息 资料 形式 印刷 成文 网站 公示栏 电子 屏幕 典型 经验 技术 教育 工作 典型 经验 成果 网站 图书 公示栏 电子屏 大众 媒体 教育 工作 技术 方法 策略 信息 计生 行政部门 管理机构 政务 信息 情况 国家 计生委 办公厅</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.247393    	
+  </si>
+  <si>
+    <t xml:space="preserve">【北大法宝】pkulaw.cn   【法宝引证码】 CLI.4.247393    	
 国家卫生计生委办公厅关于推进出生医学证明管理信息系统建设的通知	
 国家卫生计生委办公厅关于推进出生医学证明管理信息系统建设的通知
 （国卫办妇幼函〔2015〕279号）
@@ -10209,22 +9213,9 @@
 北大法宝www-pkulaw-com.wvpn.ncu.edu.cn系列产品提供法律法规、司法案例、学术期刊、检察文书、行政处罚文书等知识服务及智能应用解决方案。
 欢迎查看所有产品和服务。	 扫码阅读 	
 </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国家 计生委 办公厅 医学 证明 建设 国家 计生委 办公厅 医学 证明 建设 妇幼 自治区 直辖市 计生委 医学 证明 规范 管理 信息 人口 信息化 建设 医学 证明 建设 有关 事项 工作 任务 信息 报告 医学 证明 机构 证书 网络 报告 医学 信息 报告 附件 医学 证明 管理机构 机构 出入库 网络 报告 医学 证明 出库 登记表 附件 系统 建设 医学 证明 数据 接口标准 附件 平台 附件 系统 建设 升级 任务 医学 证明 软件 免费 数据 数据 时间 年度 数据 医学 证明 信息库 省份 医学 证明 数据 接口标准 数据 平台 电子政务 外网 平台 方式 国家 人口 数据中心 传输数据 压缩包 试点 省份 系统 数据 工作 工作 领导 医学 证明 基础 人口 信息 调整 生育 政策 公共卫生 服务 国家 人口 基础 信息库 基础 数据 建设 医学 证明 紧迫性 领导 利用 资源 部署 平台 分工协作 保障机制 人员培训 顺利开展 职责 分工 规划司 妇幼 业务管理 计生委 规划 信息 组织协调 妇幼 业务管理 系统 建设 技术支持 医学 证明 管理机构 信息 数据 人员培训 数据 工作进度 数据 接口标准 规范 数据 信息 校核 机制 数据 纸质 信息 地区 单位 数据 我委 督导 检查 通报 检查 结果 信息 医学 证明 建设 人口 信息化 建设 跨部门 区域 系统 业务 协同 计生 服务水平 人口 政策 信息 国家 信息安全 规定 信息安全 信息 制度 单位 个人 信息 国家 计生委 妇幼 联系人 电话 国家 计生委 规划 信息司 联系人 电话 国家 计生委 联系人 电话 附件 医学 信息 报告 医学 证明 出库 登记表 医学 证明 数据 接口标准 平台 国家 计生委 办公厅 附件 医学 信息 报告 医学 证明 编号 新生儿 信息 新生儿 姓名 性别 时间 体重 身长 出生地点 省市 出生地点 行政区划 代码 医疗机构 名称 人员 母亲 信息 母亲 姓名 病案 母亲 出生日期 母亲 年龄 母亲 国籍 母亲 民族 母亲 户籍 所在地 母亲 户籍 所在地 行政区划 代码 母亲 住址 母亲 身份证件 类别 母亲 身份 证件号码 父亲 信息 父亲 姓名 父亲 出生日期 父亲 年龄 父亲 国籍 父亲 民族 父亲 住址 父亲 身份证件 类别 父亲 身份 证件号码 证人 姓名 新生儿 关系 身份证件 类别 身份 证件号码 机构 机构名称 行政区划 代码 机构 代码 机构 类别 代码 人员 信息 类型 医学 证明 编号 证件 情况 换发 原因 类别 原因 类别 单位 本表 医学 证明 机构 单位 医学 证明 换发 证件 证件 医学 证明 网络 报告 附件 医学 证明 出库 登记表 证件 入库 单位 机构 代码 行政区划 代码 证件 机构名称 证件 机构 机构 代码 入库 入库 证件 编号 入库 证件 编号 入库 证件 数量 入库 类型 入库 调剂 入库 负责人 本表 医学 证明 管理机构 机构 证件 入库 证件 入库 医学 证明 网络 报告 证件 出库 单位 机构 代码 行政区划 代码 证件 机构名称 证件 机构 机构 代码 出库 出库 证件 编号 出库 证件 编号 出库 证件 数量 出库 类型 出库 调剂 出库 原因 错误 遗失 经办人 负责人 本表 医学 证明 管理机构 机构 证件 出库 出库 类型 出库 类型 单张 证件 管理机构 机构 入库 出库 证件 数量 证件 出库 医学 证明 网络 报告 附件 医学 证明 数据 接口标准 医学 信息 报告 序号 字段名 标识符 数据 名称 定义 数据 元值 数据类型 格式 数据 系统 人口 信息系统 新生儿 编码 系统 主键 新生儿 编码 新生儿 标识 医学 证明 编号 新生儿 纸质 医学 证明 顺序号 新生儿 姓名 新生儿 公安 管理 部门 登记注册 姓名 性别 新生儿 生理性 代码 时间 新生儿 纪年 时间 新生儿 母亲 计量单位 体重 新生儿 体重 测量 计量单位 身长 新生儿 身长 测量 计量单位 出生地点 自治区 直辖市 新生儿 出生地点 自治区 直辖市 名称 出生地点 地区 新生儿 出生地点 地区 名称 出生地点 新生儿 出生地点 名称 出生地点 行政区划 代码 新生儿 出生地点 行政区划 代码 医疗机构 名称 助产 机构 名称 医疗机构 人员 人员 公安 户籍管理 部门 登记注册 姓名 人员 母亲 姓名 新生儿 母亲 公安 管理 部门 登记注册 姓名 母亲 病案 母亲 住院 病案 病案 母亲 出生日期 母亲 纪年 母亲 年龄 新生儿 母亲 年龄 母亲 国籍 母亲 国籍 母亲 民族 母亲 民族 母亲 户籍 所在地 母亲 户口 所在地 行政区划 名称 母亲 户籍 所在地 行政区划 代码 母亲 户口 所在地 行政区划 代码 母亲 住址 母亲 家庭 地址 乡镇 门牌号码 母亲 身份证件 类型 母亲 身份证件 类别 母亲 身份 证件号码 母亲 身份证件 法定 标识符 父亲 姓名 父亲 公安 管理 部门 登记注册 姓名 父亲 出生日期 父亲 纪年 父亲 年龄 新生儿 父亲 年龄 父亲 国籍 父亲 国籍 父亲 民族 父亲 民族 父亲 住址 父亲 家庭 地址 乡镇 门牌号码 父亲 身份证件 类型 父亲 身份证件 类别 父亲 身份 证件号码 父亲 身份证件 法定 标识符 领证 人员 姓名 领证 人员 公安 管理 部门 登记注册 姓名 证人 新生儿 关系 证人 新生儿 关系 母亲 父亲 外祖父母 证人 身份证件 类别 证人 身份证件 类别 证人 身份 证件号码 证人 身份证件 法定 标识符 机构名称 医学 证明 机构 机构名称 机构 行政区划 代码 医学 证明 机构 县区 行政区划 代码 机构 机构 代码 医学 证明 机构 机构 代码 机构 类别 代码 医学 证明 机构 类别 代码 人员 人员 公安 管理 部门 登记注册 姓名 类型 医学 证明 类型 换发 医疗机构 医学 证明 编号 新生儿 医学 证明 编号 换发 证件 情况 医学 证明 情况 正页 换发 换发 原因 类别 医学 证明 换发 原因 类别 换发 原因 类别 医学 证明 原因 类别 遗失 被盗 机构 医学 证明 纪年 信息 换发 原因 类型 数据 手写 钢笔 碳素 字迹 项目 医学 证明 医学 证明 专用章 新生儿 姓名 父亲 母亲 信息 医学 证明 出库 序号 字段名 标识符 数据 名称 定义 数据 元值 数据类型 格式 数据 证件 机构名称 医学 证明 出库 机构 机构名称 证件 机构 代码 医学 证明 出库 机构 机构 代码 入库 医学 证明 入库 纪年 入库 证件 编号 入库 医学 证明 编号 入库 证件 编号 入库 医学 证明 编号 入库 证件 数量 入库 医学 证明 数量 逻辑 校验 入库 类型 入库 医学 证明 类型 入库 调剂 入库 证件 机构名称 医学 证明 入库 机构 机构名称 证件 机构 代码 医学 证明 入库 机构 机构 代码 出库 医学 证明 出库 纪年 出库 证件 编号 出库 医学 证明 编号 出库 证件 编号 出库 医学 证明 编号 出库 证件 数量 出库 医学 证明 数量 逻辑 校验 出库 类型 出库 医学 证明 类型 出库 调剂 出库 原因 医学 证明 原因 错误 遗失 原因 医学 证明 原因 经办人 经办人 公安 管理 部门 登记注册 姓名 单位名称 报表 单位名称 单位 机构 代码 报表 单位 机构 代码 单位 行政区划 代码 单位 行政区划 代码 附件 平台 数量 硬件 集群 内存 光纤 网卡 以太网卡 硬盘 数据库 服务器 集群 内存 以太网卡 硬盘 端口 前置 服务器 服务器 软件 数据库 数据库 软件 企业 中间件 集群 开源 中间件 免费 前置 服务器 数据库 共用 系统 用户 平台 建议 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>国家食品药品监督管理总局公告
+  </si>
+  <si>
+    <t>国家食品药品监督管理总局公告
 （第160号）
 关于近期医疗器械注册资料电子数据传输情况的公告
 　　因近期受理系统和审评审批系统数据传输不稳定，导致前期少数医疗器械注册受理资料无法顺利转入审评审批系统，影响医疗器械注册产品的审评审批进度。对此，我们深表歉意，并采取了如下措施：
@@ -10238,22 +9229,9 @@
 　　特此公告。
 国家食品药品监督管理总局行政事项受理服务和投诉举报中心
 二〇一五年十二月十六日</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国家 食品药品 监督管理 总局 公告 医疗器械 资料 电子 情况 公告 系统 系统 医疗器械 资料 无法 系统 影响 医疗器械 产品 深表歉意 措施 技术 力量 研究 资料 传输 问题 时间 电子 数据 问题 影响 部门 纸质 材料 企业 有关 电子 问题 号码 咨询 器械 联系人 中心 联系人 中心 联系人 联系人 公告 国家 食品药品 监督管理 总局 行政 事项 服务</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>国家食品药品监督管理总局公告
+  </si>
+  <si>
+    <t>国家食品药品监督管理总局公告
 （第161号）
 关于启用医疗器械注册管理信息系统受理和制证、技术审评、行政审批子系统的公告
 　　根据《食品药品监管总局办公厅关于启用医疗器械注册管理信息系统受理和制证、技术审评、行政审批子系统的通知》（食药监办械管函〔2015〕804号）要求，现将该系统启用相关事宜公告如下：
@@ -10262,22 +9240,9 @@
 　　特此公告。
 国家食品药品监督管理总局行政事项受理服务和投诉举报中心
 二〇一五年十二月十七日</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>国家 食品药品 监督管理 总局 公告 医疗器械 技术 行政 子系统 公告 食品药品 监管 总局 办公厅 医疗器械 技术 行政 子系统 食药监 办械管 系统 事宜 公告 医疗器械 技术 行政 子系统 办理 国产 进口 医疗器械 业务 企业 医疗器械 时应 系统 系统 办理 业务 纸质 资料 国家 食品药品 监督管理 总局 网站 办事 栏目 医疗器械 视频 系统 公告 国家 食品药品 监督管理 总局 行政 事项 服务</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>国家食品药品监督管理总局办公厅关于启用医疗器械生产经营许可备案信息系统的通知
+  </si>
+  <si>
+    <t>国家食品药品监督管理总局办公厅关于启用医疗器械生产经营许可备案信息系统的通知
 （食药监办械监函[2014]476号）
 （法宝联想:　 地方法规规章约4篇 ）
 各省、自治区、直辖市食品药品监督管理局：
@@ -10291,22 +9256,9 @@
 　　系统咨询邮箱：cfda_qa@163.com
 国家食品药品监督管理总局办公厅
 2014年9月26日</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>国家 食品药品 监督管理 总局 办公厅 医疗器械 生产 经营 备案 信息系统 食药监 办械 监函 地方 法规 规章 自治区 直辖市 食品 医疗器械 生产 监督管理 办法 医疗器械 经营 监督管理 办法 总局 医疗器械 生产 经营 备案 信息化 工作 监管 效能 总局 医疗器械 生产 经营 备案 信息系统 有关 事项 系统 办理 医疗器械 生产 经营 备案 业务 监管 人员 企业 有关 人员 国家 食品药品 监督管理 总局 网站 办事 栏目 医疗器械 生产 经营 备案 信息系统 视频 系统 领导 系统管理 职责 分工 系统管理员 分配 系统 权限 系统 医疗器械 生产 经营 备案 数据 统一 医疗器械 生产 经营 监管部门 本行政区域 系统管理 部门 培训 有关 设区 市级 系统 医疗器械 生产 经营 备案 总局 有关 系统 数据 系统 数据 全国 医疗器械 监管 信息 系统 咨询电话 生产 监管 经营 监管 系统 咨询 邮箱 国家 食品药品 监督管理 总局 办公厅</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>国家食品药品监督管理总局办公厅关于进一步做好医疗器械召回信息公开工作的通知
+  </si>
+  <si>
+    <t>国家食品药品监督管理总局办公厅关于进一步做好医疗器械召回信息公开工作的通知
 （食药监办械监〔2014〕107号）
 （法宝联想:　 部门规章约1篇 地方法规规章约1篇 ）
 各省、自治区、直辖市食品药品监督管理局：
@@ -10338,22 +9290,9 @@
 　　附：责令召回通知书（参照《办法》相关要求）
 　　食品药品监督管理局
 　　备注：请将正文（word格式）、附件（jpg格式，宽度不低于700像素）以及发布信息的链接同时发送到总局医疗器械召回信息报送邮箱。</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>国家 食品药品 监督管理 总局 办公厅 医疗器械 信息 工作 食药监 办械 部门规章 地方 法规 规章 自治区 直辖市 食品 医疗器械 监督 管理条例 医疗器械 管理 办法 办法 规范 信息 公众 医疗器械 信息 渠道 有关 工作 食品药品 监督管理 部门 监督 本行政区域 医疗器械 生产 企业 进口 医疗器械 制造厂商 代理人 代理人 办法 规定 报告 医疗器械 信息 企业 官方网站 方面 医疗器械 生产 企业 进口 医疗器械 制造厂商 医疗器械 生产 企业 代理人 报告 所在地 食品药品 监督管理 部门 食品药品 监督管理 部门 办法 规定 医疗器械 监督管理 工作 医疗器械 信息 通报 制度 食品药品 监督管理 部门 官方网站 设置 医疗器械 专栏 本行政区域 责令 信息 信息 通报 计生 部门 医疗器械 专栏 分设 信息 责令 信息 栏目 信息 格式 内容 附件 企业 信息 食品药品 监督管理 部门 食品药品 监督管理 部门 信息 时应 信息 电子版 信息 链接 总局 总局 官方网站 医疗器械 专栏 食品药品 监督管理 部门 信息 医疗器械 信息 总局 责令 信息 总局 医疗器械 信息 工作 监督 检查 医疗器械 信息 总局 医疗器械 信息网 工作 联系人 邮箱 附件 医疗器械 信息 模板 医疗器械 责令 信息 模板 国家 食品药品 监督管理 总局 办公厅 附件 医疗器械 信息 模板 标题 生产 企业 名称 产品名称 正文 单位 报告 原因 生产 企业 名称 生产 产品名称 备案号 级别 产品 型号 规格 详细信息 医疗器械 事件报告 医疗器械 事件报告 办法 附表 正文 格式 附件 格式 宽度 像素 信息 链接 总局 医疗器械 信息 邮箱 附件 医疗器械 责令 信息 模板 标题 食品 生产 企业 名称 生产 产品名称 责令 正文 原因 食品 生产 企业 名称 生产 产品名称 备案号 责令 级别 详细信息 责令 责令 办法 食品 正文 格式 附件 格式 宽度 像素 信息 链接 总局 医疗器械 信息 邮箱</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>国家食品药品监管总局办公厅关于启用医疗器械注册管理信息系统受理和制证、技术审评、行政审批子系统的通知
+  </si>
+  <si>
+    <t>国家食品药品监管总局办公厅关于启用医疗器械注册管理信息系统受理和制证、技术审评、行政审批子系统的通知
 （食药监办械管函〔2015〕804号）
 （法宝联想:　 部门规章约1篇 ）
 食品药品监管总局器审中心、受理和举报中心、信息中心：
@@ -10393,22 +9332,9 @@
 　　受理和制证、行政审批子系统：段少洁 18810208401
 　　李祐祥 18910681032
 　　技术审评子系统：汪涛 18611115033</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>国家 食品药品 监管 总局 办公厅 医疗器械 技术 行政 子系统 食药监 办械管 部门规章 食品药品 监管 总局 中心 医疗器械 管理 信息化 工作 监管 效能 食品药品 监管 总局 医疗器械 技术 行政 子系统 子系统 有关 事项 子系统 办理 国产 进口 医疗器械 业务 发布公告 企业 医疗器械 系统 企业 系统 办理 业务 纸质 资料 监管 人员 企业 人员 食品药品 监管 总局 网站 办事 栏目 医疗器械 视频 系统 单位 人员培训 管理 问题 问题 食品药品 监管 总局 医疗器械 软件 模块 技术支持 人员 联系 医疗器械 总局 软件 模块 技术支持 附件 医疗器械 行政许可 信息管理系统 技术 行政 子系统 国家 食品药品 监管 总局 办公厅 附件 医疗器械 技术 行政 子系统 医疗器械 技术 行政 子系统 系统 食品药品 监管 总局 医疗器械 事项 申报 技术 行政 业务管理 信息 平台 功能 进口 医疗器械 事项 申报 业务流程 办理 信息 功能 系统 服务 用户 食品药品 监管 总局 领导 医疗器械 管理司 医疗器械 技术 中心 行政 事项 服务 企业 系统 系统 地址 食品药品 监管 总局 网站 办事 栏目 医疗器械 用户注册 总局 总局 用户 账户 密码 权限 系统管理员 信息安全 权限 分配 密码 企业 系统 企业 用户注册 功能 用户名 事项 申报 医疗器械 备案 子系统 备案 申报 企业 账号 密码 建议 企业 账户 企业 备案 事项 申报 统一 管理 用户 密码 密码 功能 用户注册 时所 邮箱 用户名 保证系统 系统 用户 牢记 用户名 密码 用户名 密码 信息 注册证 编号 注册证 编号 连续性 系统 总局 人员 联系 系统管理 人员 注册证 编号 业务 系统 系统 申请事项 系统 申报 行政许可 企业 医疗器械 试剂 电子 报盘 软件 申请事项 系统 办理 系统 用户 问题 系统 系统 功能 按钮 用户 视频 系统 用户 意见 试用 系统 问题 意见 总局 医疗器械 管理司 医疗器械 技术 中心 行政 事项 服务 统一 意见 技术支持 人员 企业 意见反馈 邮箱 技术支持 人员 行政 子系统 技术 子系统</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">国家食品药品监管总局办公厅关于启用医疗器械注册管理信息系统备案子系统的通知
+  </si>
+  <si>
+    <t xml:space="preserve">国家食品药品监管总局办公厅关于启用医疗器械注册管理信息系统备案子系统的通知
 （食药监办械管函〔2015〕534号）
 （法宝联想:　 地方法规规章约2篇 ）
 各省、自治区、直辖市食品药品监督管理局，总局信息中心、受理和举报中心：
@@ -10455,19 +9381,1638 @@
 　　联系方式：15201447968、18910681032
 　　省局端技术咨询QQ群：466453993
 </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>国家 食品药品 监管 总局 办公厅 医疗器械 备案 子系统 食药监 办械管 地方 法规 规章 自治区 直辖市 食品 总局 医疗器械 备案 管理 信息化 工作 监管 效能 总局 医疗器械 备案 子系统 备案 子系统 有关 事项 备案 子系统 办理 医疗器械 备案 备案 备案 业务 企业 系统 办理 业务 纸质 资料 监管 人员 企业 人员 总局 网站 办事 栏目 医疗器械 视频 系统 领导 系统管理 职责 分工 系统管理员 分配 系统 权限 系统 医疗器械 备案 数据 统一 监管部门 系统 办理 业务 时应 有关 医疗器械 备案 法规 医疗器械 管理 部门 行政区域 系统管理 部门 宣传 培训 食品药品 监督管理 部门 信息 有关 医疗器械 备案 信息 备案 子系统 行政区域 医疗器械 备案 信息 系统 总局 总局 备案 子系统 有关 设区 市级 信息系统 医疗器械 备案 备案 信息 备案 子系统 总局 数据 统一 管理 该软件 模块 过程 问题 医疗器械 管理司 技术人员 联系 医疗器械 管理司 联系人 总局 联系人 软件 模块 技术支持 联系人 附件 医疗器械 行政许可 信息管理系统 备案 子系统 国家 食品药品 监管 总局 办公厅 附件 医疗器械 备案 子系统 系统 功能 系统 地址 浏览器 设置 界面 医疗器械 备案 子系统 用户 总局 医疗器械 管理司 行政 事项 服务 局端 局端 企业 功能 进口 医疗器械 备案 申报 备案 业务 办理 信息 账号 管理 总局 系统管理员 分配 省局 系统管理员 权限 省局 系统管理员 账号 密码 附表 总局 用户 权限 省局 系统管理员 分配 省局 用户 设置 行政区域 市级 食品药品 监管 机构名称 市局 管理员 权限 市局 系统管理员 设置 分配 市局 用户 权限 省局 权限 备案 子系统 试用 情况 实际 情况 系统 局端 局端 备案 业务 办理 功能模块 系统 局端 设置 地区 管理 功能模块 分配 权限 局端 地区 管理 功能模块 行政区域 尚需 医疗器械 备案 地区 有关 信息 用户 管理 项下 机构 管理 功能模块 行政区域 医疗器械 备案 食品药品 监督管理 机构名称 信息 机构名称 规范 全称 分配 省局 人员 权限 行政区域 备案 业务 食品药品 监督管理 机构 设置 管理员 备案 业务管理 备案号 系统 省局 市局 办理 数量 备案 业务 省局 市局 管理员 备案号 功能模块 备案号 办理 业务 备案号 数据 医疗器械 备案 信息 备案 子系统 总局 备案 系统 省局 市局 系统 备案 信息 备案 子系统 信息 模块 备案 数据 方式 信息 全面 数据 总局 网站 用户 用户 问题 系统 系统 功能 按钮 用户 视频 系统 单位 联系人 东华 软件 股份公司 联系人 局端 技术咨询</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
+  </si>
+  <si>
+    <t>政府 信息 工作 报告 政府 信息 工作 报告 政务 办公室 信息 条例 条例 信息 条例 工作 社会 年度 政府 信息 工作 报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 工作 计划 部分 报告 数据 期限 报告 电子版 网站 政府 信息 专题 报告 政务 办公室 联系 地址 邮编 电话 电子邮箱 条例 政府 信息 重点 工作 政府 信息 工作 重点 领域 信息 力度 有序 信息 工作 医疗卫生 服务 单位 信息 机关 卫生系统 信息 工作 印发 政务 政务 服务 意见 卫生系统 政务 政务 服务 工作 印发 血站 信息 工作 政发 标准 信息 工作 监督 标准 群众利益 社会 高度 卫生领域 信息 工作 规范 力度 印发 公共卫生 公益 电话 建设 工作 政务 工作 交流 全国 热线 工作 会议 政务 热线 建设 年度 重点 工作 部署 热线 全国 省份 卫生系统 政府 信息 工作 网站 重点 功能 视频点播 矩阵 信息 办事 功能 信息 功能 网民 网站 内容 网站 稳定性 全国 范围 院务 示范点 活动 部分 单位 政府 信息 情况 政府 信息 网站 公报 新闻 形式 公众 利用 网站 政府 信息 工作 信息 动态 政府 信息 目录 网站 信息 政府 信息 目录 目录 信息 机构 职能 政策法规 信息 规划 计划 信息 行政许可 信息 卫生标准 信息 卫生统计 信息 工作 动态 信息 通告 公告 信息 网站 条例 有关 网站 部门 部门 经费 情况 公报 月刊 规章 规范性 法定 传染病 疫情 信息 政府 信息 方式 全国 行政 机关 医疗卫生 机构 免费 公报 发放量 公报 电子版 网站 公众 利用 新闻 方式 政府 信息 政策 指导性 政策 动态性 要闻 新闻 发布会 媒体 发布新闻 通稿 政府 信息 情况 政府 信息 互联网 表单 形式 电子邮件 信函 形式 政府 信息 全部 政府 信息 信息 信息 内容 机关 政府 信息 条例 范围 政府 信息 收费 情况 政府 信息 费用 行政复议 情况 有关 政府 信息 事务 行政复议 件次 全部 问题 工作 计划 政府 信息 工作 公众 日益增长 差距 政府 信息 力度 载体 信息化 水平 全面 政务 工作 条例 政务 政务 服务 意见 政府 信息 全国 医疗卫生 服务 单位 信息 工作 成果 基础 重点 工作 群众 生活 信息 工作 群众 区域 医疗机构 基本 情况 时间 特色 科室 便民 信息 区域 医疗 服务质量 费用 评价 监管 信息 方便群众 医疗机构 医疗机构 服务 提高质量 信息 行政部门 信息 内容 形式 责任 分工 信息 公众 交流 国家标准 工作 政府 信息 工作 信息化 水平 网站 内容 网站 办事 项目 网站 公众 行政部门 公众 交流 平台 影响力 网站 品牌 建设 矩阵 卫生系统 互联网 渠道 宣传 政策 热线 行政 主管部门 质量 考核 评价 制度 热线 管理中心 考核 工作 热线 政府 信息 工作 群众 针对性 医疗 服务 信息 新农 信息 服务型 政府 信息 政府 信息 方便群众 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 杀虫剂 政府 信息 意见 办公厅 杀虫剂 政府 信息 意见 信息 核实 农药 登记证 产品 蚊香 实业 有限公司 生产 产品名称 电热 蚊香 炔丙 菊酯 和四氟 甲醚 菊酯 含量 有效期 农药 登记证 产品 蚊香 实业 有限公司 生产 产品名称 电热 灭蚊 炔丙 菊酯 含量 有效期 信息 电子标签 农药 信息网 产品 标签 复印件 附件 农药 登记证 产品 标签 复印件 农药 登记证 产品 标签 复印件 办公厅 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>政府 信息 工作 报告 政府 信息 工作 报告 信息 条例 条例 信息 条例 工作 社会 年度 政府 信息 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 行政复议 情况 问题 情况 附表 部分 报告 数据 期限 报告 电子版 网站 政府 信息 专题 报告 政务 办公室 联系 地址 邮编 电话 电子邮箱 条例 政府 信息 工作 依法 政府 信息 工作 新闻 制度 公共卫生 事件 信息 行政许可 医疗卫生 服务 单位 信息 工作 机关 卫生系统 信息 工作 办公厅 印发 政府 信息 工作 机关 政府 信息 工作 保密 审查 细化 规定 院务 规范化 建设 印发 医院 基层 医疗卫生 机构 院务 考核 标准 全国 范围 医院 基层 医疗卫生 机构 全国 院务 示范点 专科医院 院务 工作 督导 全国 院务 示范点 经验交流 全国 院务 培训班 部分 地方 行政部门 区域 医疗机构 病种 质量 状况 住院日 医疗 质量指标 大众 媒体 医疗机构 质量 内涵 建设 政府 信息 情况 政府 信息 网站 公报 新闻 形式 公众 利用 网站 政府 信息 工作 信息 动态 政府 信息 目录 网站 信息 政府 信息 目录 目录 信息 政策法规 信息 规划 计划 信息 行政许可 信息 卫生标准 信息 卫生统计 信息 工作 动态 信息 通告 公告 信息 网站 有力 政府 信息 工作 条例 有关 网站 部门 经费 情况 公报 月刊 规章 规范性 法定 传染病 疫情 信息 政府 信息 方式 全国 行政 机关 医疗卫生 机构 免费 公报 发放量 公报 电子版 网站 公众 利用 新闻 方式 政府 信息 政策 指导性 政策 动态性 要闻 新闻 价值 信息 新闻 发布会 媒体 问题 媒体 公众 有关 政府 信息 新闻 发布会 媒体 发布新闻 通稿 政府 信息 情况 政府 信息 互联网 表单 形式 电子邮件 信函 形式 政府 信息 全部 政府 信息 政府 信息 信息 部门 条例 范围 信息 内容 地址 有误 行政复议 情况 有关 政府 信息 事务 行政复议 件次 全部 问题 工作 计划 工作 人民 群众 高度 政府 信息 工作 内容 人民 群众 差距 医疗卫生 服务 单位 信息 管理 办法 行政部门 医疗卫生 服务 单位 信息 工作 指导 督查 全面 政务 工作 条例 法治 政府 建设 意见 机关 全国 医疗卫生 服务 单位 信息 工作 政府 信息 制度 印发 政务 政务 服务 意见 卫生系统 政府 信息 工作 政府 信息 力度 网站 卫生系统 网站 建设 工作 方案 财力 人力 调整 网站 栏目 设置 重点 服务 交流 能力 政策 工作 政府 信息 可读性 利用 媒体 政府 信息 工作 标准 利用 部长 信箱 热线 渠道 群众 咨询 政府 信息 工作 交流 督导 检查 全国 政务 工作 交流会 总结 条例 经验 全国 卫生系统 政府 信息 水平 全国 卫生系统 政府 信息 工作 督导 检查 考核 指标体系 行政许可 平台 重点 信息化 建设 将部 全部 行政许可 行政许可 项目 行政许可 平台 系统 网站 后台 办理 网站 模式 网站 办理 流程 结果 附表 情况 单位 数量 信息 情况 单位 数量 总数 电子邮件 信函 总数 信息 部门 信息 范围 信息 内容 地址 有误 情况 单位 数量 行政复议 政务 办公室 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>印发 监督 信息 报告 管理 规定 修订版 印发 监督 信息 报告 管理 规定 修订版 监督 自治区 直辖市 疾病 监督 中心 监督 信息 报告 管理工作 信息 报告 质量 效率 监督 调查 制度 工作 监督 信息 报告 管理 规定 规定 印发 监督 信息 报告 管理 规定 修订版 总则 监督 信息 报告 管理 信息 报告 质量 效率 统计法 全国 卫生统计 工作 管理 办法 全国 监督 调查 制度 法律法规 规定 监督 信息 报告 监督 工作 内容 行政部门 基本 职能 行政部门 监督 信息 报告 工作 领导 监督管理 监督机构 规定 监督 信息 报告 工作 监督 信息 报告 依法 报告 统一 标准规范 分级 属地 管理 原则 职责 全国 监督 信息 报告 系统 建设 规定 监督 信息 报告 范围 内容 信息 标准 方式 监督 信息 报告 管理制度 地方 行政部门 辖区 监督 信息 报告 管理制度 信息 报告 系统 建设 监督 信息 报告 工作 监督 信息 报告 工作 监督 检查和 考核 评估 行政部门 监督 数据 资源 中心 建设 监督 中心 监督 信息 报告 系统 网络平台 数据 资源 中心 全国 监督 信息 报告 业务管理 培训 指导 全国 监督 信息 报告 汇总 分析 监督 信息 报告 系统 数据安全 地方 监督机构 辖区 监督 信息 报告 业务管理 培训 指导 辖区 监督 信息 报告 汇总 分析 信息 报告 网络系统 数据安全 报告 制度 行政部门 监督机构 监督 信息 责任 报告 单位 职责 分工 范围 监督 信息 报告 任务 监督员 监督 信息 报告 工作 监督机构 专职 报告 管理员 系统管理员 报告 管理员 监督 信息 报告 质量 工作 系统管理员 监督 信息 报告 工作 环境 管理 用户 权限 管理 监督 信息 报告 内容 全国 监督 调查 制度 规定 报告 信息 行政部门 监督 工作 信息 报告 内容 监督 信息 报告 网络 报告 方式 全国 统一 监督 信息 报告 系统 报告 监督 业务 系统 报告 监督 业务 系统 省份 国家 监督 信息 标准规范 机制 国家 监督 数据 资源 中心 信息 报告 工作 规定 报告 监督 个案 信息 报告 信息 产生 系统 机构 人员 信息 信息 数据 省份 机制 国家 监督 数据 资源 中心 信息 监督 信息 报告 规定 监督 信息 差错 报告 单位 漏报 补报 信息 资料 利用 管理 监督机构 监督 信息 分析 结果 监督机构 行政部门 报告 监督机构 结果 报告 行政部门 定期 社会公众 监督 工作 信息 监督 信息 规定 行政部门 监督 信息 制度 监督 信息 报告 资料 监督 档案管理 监督机构 监督 数据 定期 备份 信息安全 监督机构 国家 信息安全 制度 监督 信息 报告 系统 信息安全 监督机构 信息 报告 系统 用户 权限 信息 报告 系统 账户 管理 信息 报告 系统 人员 信息 报告 系统 账号 密码 信息 报告 系统 人员 账号 密码 被盗 密码 行政部门 监督机构 报告 保密 范围 监督 信息 规定 统一 管理 考核 评估 行政部门 监督 信息 报告 工作 考核 通报制度 定期 监督机构 行政部门 监督 信息 报告 工作 考核 评估 通报 成绩突出 单位 个人 奖励 问题 责令 限期 通报 行政部门 通报 监督机构 定期 机构 监督 信息 报告 工作 检查 检查 情况 监督 人员 考核内容 单位 个人 虚报 监督 信息 报告 资料 方式 单位 个人 信息 规定 规定 机构 人员 依法 依纪 追究责任 措施 行政部门 监督 信息 报告 工作 领导 监督 信息 报告 工作 运行机制 保障机制 监督 信息系统 建设 信息化 建设 资源 力量 监督机构 设置 专门 部门 监督 信息 报告 管理工作 监督 信息 报告 工作 所需 人员 设备 工作 条件 工作 经费 监督机构 监督 信息 报告 培训 工作 信息 报告 管理 队伍 监督 信息 报告 管理水平 信息 报告 质量 附则 自治区 直辖市 规定 实际 情况 实施细则 铁路 军队 部门 监督 信息 报告 工作 规定 规定 规定 监督 信息 报告 管理 规定 监督 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>印发 行业 信息安全 工作 指导 意见 印发 行业 信息安全 工作 指导 意见 自治区 直辖市 计划单列市 直属 单位 机关 司局 国家 信息安全 制度 规范 指导 全国 行业 信息安全 工作 公安部 信息安全 建设 工作 指导 意见 公信 行业 实际 研究 行业 信息安全 工作 指导 意见 印发 行业 信息安全 工作 指导 意见 信息安全 工作 卫生事业 发展 信息安全 工作 信息化 发展 医药卫生 公共利益 社会秩序 国家 意义 国家 信息安全 制度 规范 指导 全国 行业 信息安全 工作 指导 意见 工作 目标 国家 信息安全 制度 标准规范 行业 全面 信息安全 备案 建设 工作 信息安全 重点 信息安全 责任 信息安全 工作 长效机制 行业 信息安全 能力 隐患 能力 应急 能力 信息化 发展 全面 公共利益 社会秩序 国家 工作 原则 标准 重点保护 国家 信息安全 标准规范 行业 信息系统 特点 优先 信息系统 优先 重点 信息安全 行业 指导 属地 管理 行业 信息安全 工作 行业 指导 属地 管理 地方 行政部门 国家 信息安全 制度 有关 地区 信息系统 指导 管理工作 行业 单位 主管 运营 信息安全 责任 建设 动态 信息系统 规划设计 建设 过程 信息安全 工作 信息 信息系统 业务 类型 范围 条件 调整 信息系统 措施 工作 机制 地方 行政部门 信息安全 责任 信息化 工作 领导小组 信息安全 工作 信息化 工作 领导小组 全国 行业 信息安全 工作 组织协调 监督 指导 机关 信息安全 工作 地市级 行政部门 信息化 工作 领导小组 地区 行业 信息安全 工作 组织协调 监督 指导 单位 信息安全 工作 信息安全 工作 联络员 机制 行政部门 设置 信息安全 工作 联络员 联络员 职责 国家 信息安全 工作 有关 政策 技术标准 地区 信息安全 工作 动态 总体 情况 代表 地区 信息安全 管理 部门 联系 交流 地区 信息安全 工作 行政部门 信息安全 技术 专家 委员会 信息系统 指导 备案 审查 方案 论证 咨询 技术 工作 信息安全 技术 专家 委员会 行业 公安机关 信息安全 技术 专家 工作 任务 备案 行业 单位 单位 建设 运营 信息系统 自查 信息系统 信息安全 技术 信息系统 指南 工作 国家 信息安全 制度 信息安全 指导 监督 专控 信息系统 卫生统计 网络 直报 系统 传染性 疾病 报告 系统 监督 信息 报告 系统 公共卫生 事件 应急 信息系统 跨省 信息系统 国家 信息 平台 新农 监督 妇幼保健 数据中心 核心 业务 信息系统 网站 系统 信息安全 技术 专家 委员会 信息系统 信息系统 信息安全 技术 专家 委员会 论证 评审 行业 单位 信息系统 信息系统 属地 公安机关 行政部门 备案 跨省 信息系统 公安部 备案 分支 系统 属地 公安机关 备案 建设 信息系统 国家 信息安全 工作 规范 信息安全 技术 信息系统 基本 国家标准 现状 分析 国家 信息安全 标准 差距 信息系统 现状 分析 结果 信息安全 技术 信息系统 基本 信息安全 技术 信息系统 设计 技术 国家标准 信息系统 建设 方案 信息系统 建设 方案 信息安全 技术 专家 委员会 论证 行业 单位 信息系统 建设 方案 设施 管理制度 管理 措施 信息安全 技术 体系 信息安全 管理体系 信息系统 系统 建设 工作 信息安全 管理 办法 全国 信息安全 机构 目录 机构 信息系统 合格 报告 属地 公安机关 行政部门 备案 信息系统 部门 信息系统 宣传 培训 行政部门 信息化 工作 领导小组 地区 医疗卫生 机构 政策 标准规范 培训 单位 信息安全 管理人员 技术 能力 管理水平 行业 单位 信息安全 培训 全员 信息安全 意识 规范 信息安全 信息安全 能力 监督 检查 信息化 工作 领导小组 督导 检查 医疗卫生 机构 信息安全 工作 情况 机关 信息系统 责任 单位 信息安全 工作 行政部门 信息化 工作 领导小组 督导 检查 地区 行业 单位 信息安全 工作 情况 单位 信息安全 工作 行政部门 信息化 工作 领导小组 信息化 工作 领导小组 地区 信息系统 备案 建设 自查 工作 情况 工作 领导 行业 单位 信息安全 工作 居民 信息安全 医疗卫生 机构 运转 社会 意义 单位 负责同志 总责 分管 负责同志 职责 任务 信息安全 工作 议事日程 工作 绩效考核 指标 层层 经费 监管 行业 单位 经费 机制 信息安全 建设 信息安全 服务 技术培训 费用 信息化 建设 资金 监管 行政部门 信息安全 管理 部门 沟通交流 协作 机制 信息安全 工作 备案 建设 监督 检查 环节 信息安全 工作 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>互联网 医疗保健 信息 服务 有关 问题 卫办 地方 法规 规章 视康 远程 医学 科技 有限公司 互联网 医疗保健 信息 服务 有关 问题 研究 互联网 医疗保健 信息 服务 管理 办法 办法 医疗卫生 管理 法律 法规 医疗卫生 专业知识 技术人员 医师资格 考试 医师资格 证书 人员 医疗卫生 机构 网站 人员 网站 频道 全职 员工 网站 办法 互联网 医疗保健 信息 服务 医师资格 证书 医师 执业 证书 医疗卫生 机构 网站 办法 规定 申请材料 医疗卫生 专业 人员 学历证明 医师资格 证书 复印件 医师 执业 证书 复印件</t>
+  </si>
+  <si>
+    <t>办公厅 年度 白内障 手术 信息 报告 情况 通报 办公厅 年度 白内障 手术 信息 报告 情况 通报 自治区 直辖市 白内障 手术 信息 报告 系统 白内障 信息系统 行政部门 全面 医疗机构 白内障 手术 工作 情况 全国 设置 眼科 医疗机构 白内障 信息系统 白内障 手术 白内障 手术 全国 人口 白内障 手术 手术 例数 附件 白内障 信息系统 行政部门 全面 辖区 白内障 手术 情况 手段 白内障 手术 信息 白内障 手术 医疗机构 责任 义务 白内障 手术 信息 工作 程度 重点 工作 白内障 手术 医疗机构 办公厅 白内障 手术 信息 报告 系统 政发 信息 工作 医疗机构 信息 补报 工作 行政部门 综合 措施 辖区 医疗机构 信息 管理 白内障 手术 信息 情况 定期 通报 地区 行政部门 信息 医疗机构 部将 白内障 手术 信息 情况 评价 医疗机构 眼科 建设 工作 指标 医疗机构 眼科 能力 建设 工作 评先 资格 附件 白内障 手术 例数 全国 手术 医疗机构 手术 例数 医疗机构 数量 信息 综合 医院 附件 白内障 手术 例数 手术 例数 附件 全国 手术 医疗机构 序号 机构名称 例数 眼科 中心 眼科医院 眼科医院 眼科医院 眼视光 医院 眼科医院 人民 医院 眼科医院 医科大学 医院 耳鼻喉科 医院 新视界 眼科医院 眼科 中心 眼科医院 眼科医院 眼科医院 眼科 中心 集里 医院 眼科医院 光明 眼科医院 眼科医院 附件 手术 例数 医疗机构 数量 手术 例数 医疗机构 附件 信息 综合 医院 医疗机构 人民 医院 总医院 医科大学 医院 人民 医院 医科大学 医院 人民 医院 医院 医院 人民 医院 医院 联谊 医院 大学 医院 鼓楼 医院 医学院 医院 医学院 医院 医院 人民 医院 医院 眼科医院 同济 医学院 同济 医院 医科大学 医院 医科大学 医院 人民 医院 医科大学 医院 人民 医院 医院 人民 医院 医学院 医院 医院 医院 人民 医院 医院 医学院 医院 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 卫生统计 信息化 工作 办公厅 卫生统计 信息化 工作 自治区 直辖市 直属 单位 机关 司局 全国 工作 会议 精神 医药卫生 有力 卫生统计 信息化 工作 监测 评估 工作 进展 监测 工作 工作 规划 印发 监测 方案 监测 指标 常规 制度 监测 指标 连续性 一致性 监测 工作 领导 监测 工作 机制 监测数据 数据 督导 检查 信息 通报 制度 监测数据 质量 监测数据 汇总 分析 数据 研究 分析 报告 评估 工作 阶段性 评估 基础 评估 方案 力量 年度 评估 工作 居民 调查 医患 关系 行政部门 力量 地区 评估 工作 卫生统计 调查 工作 卫生统计 调查 制度 国家 卫生统计 调查 制度 印发 重点 调查 内容 监测 指标 住院 病案 人口 信息 常规 信息 调查 范围 军队 医院 地方 病人 数据 信息 方式 居民 档案 电子 病历 业务 系统 数据 数据 质量 现行 国家 卫生统计 调查 制度 有关 任务 年报 季报 周报 日报 工作 部将 全国 卫生统计 工作 管理 办法 工作 数据 质量检查 重点 医疗卫生 机构 医师 护士 登记注册 工作 住院 病案 数据库 具备条件 医院 直报 平台 季度 住院 病案 数据库 行政部门 工作 布置 人员培训 系统升级 疾病 编码 工作 部将 疾病 分类 代码 人口 信息库 部将 居民 水平 影响 因素 测量方法 标准 研究 人口 制度 人口 信息库 人口 死因 监测 工作 国家 服务 调查 工作 国家 服务 调查 框架 设计 家庭 调查 方案 调查 样本 调查 内容 设计 工作 部分 样本 地区 调查 调查 设计 服务 调查 代表性 服务 调查 工作 利用 行政部门 医药卫生 重点 工作 充分利用 卫生统计 数据库 专题 分析 分析 报告 信息 咨询 助手 大力 信息化 建设 印发 信息化 发展 规划 部将 印发 信息化 建设 指导 意见 信息化 发展 规划 指导 全国 信息化 建设 工作 地方 行政部门 地区 单位 规划 政策 居民 工作 居民 管理中心 密钥 管理系统 建设 模块 制作 系统 建设 综合 建设 任务 管理制度 业务 规则 工作 流程 全省 整体 全市 整体 银医 业务 条线 合作 模式 条件 试点 建设 力度 范围 居民 密钥 体系 管理制度 能力 建设 居民 信息 部级 居民 产品 检测 资质 管理机制 居民 产品 检测 资质 备案 工作 居民 金融 工作 方便群众 居民 标准规范 大类 居民 技术标准 规范 基础 试点 建设 工作 问题 实际 有关 标准规范 信息 标准 建设 工作 信息 标准 研制 工作 启动 年度 信息 标准制 项目 信息 标准 管理 平台 建设 工作 信息 标准 动态 管理 信息 标准 工作 体系 专家 队伍 利用 项目 资金 电子 档案 电子 病历 区域 平台 重点 内容 信息 标准 测试 规范 标准 管理 平台 标准 测试 平台 医疗卫生 机构 信息系统 标准化 成熟度 试点工作 基层 机构 企业应用 标准化 产品 信息 专项 建设 工作 信息化 专项 信息化 专项 建设项目 技术 指导 检查 督导 项目 技术 工作 项目 效益 基层 医疗卫生 机构 信息系统 方案 建设 标准 工作 综合 管理 平台 建设 信息 平台 建设 工作 信息 平台 区域 信息 平台 建设 跨地区 机构 信息 信息 业务 协同 办公厅 全面 行业 信息安全 工作 政策 技术培训 监督 检查 工作 行业 备案 工作 应急 信息系统 升级 工作 视频会议 系统 建设 工作 研究 综合 管理 数据 指标体系 数据 资源管理 工作 国家 行政部门 电子政务 骨干 传输 网络 建设 工作 电子政务 信息安全 工作 有关 信息化 工作 行政部门 卫生统计 信息化 工作 领导 总责 分管领导 有关 密切配合 卫生统计 信息 机构 骨干 主力军 工作 机制 医疗卫生 机构 卫生统计 信息化 建设 工作 责任感 紧迫感 信息化 服务 能力 水平 整体 工作 信息化 建设 力度 卫生统计 信息化 建设 发展 规划 发展 改革 财政 部门 卫生统计 信息化 建设 工作 所需 信息 机构 人才队伍 建设 人才队伍 建设 有关 信息 机构 队伍 建设 规划 机构 设置 人才 经费 政策 方面 措施 信息 机构 人员培训 服务 意识 监测 评估 信息化 建设 技术 卫生统计 信息化 工作 国际 合作 交流 充分发挥 学会 协会 学术 力量 信息化 建设 卫生统计 信息化 培训 宣传 信息化 技术标准 专业知识 业务 能力 层级 培训 技术水平 服务 能力 信息化 专项 信息化 人才 培训 地区 项目 任务 工作 信息技术 交流 大会 信息化 论坛 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 卫生统计 信息化 工作 办公厅 卫生统计 信息化 工作 自治区 直辖市 直属 单位 机关 司局 全国 工作 会议 精神 医药卫生 有力 卫生统计 信息化 工作 大力 信息化 建设 信息化 建设 指导 意见 信息化 建设 指导 意见 意见 意见 意见 地区 信息化 情况 地区 信息化 发展 规划 实施方案 信息化 建设 目标 任务 工作 绩效考核 指标 信息化 建设 监测 评价 工作 信息 标准 信息 目标 部将 国家 信息 标准 中央 投资 基层 医疗卫生 信息系统 建设 重点 部将 全国 统一 基层 医疗卫生 信息 标准 标准 系统 标准化 工作 机构 地域 信息 区域 医院 基层 医疗卫生 信息 标准 测试 试点工作 医疗卫生 机构 医疗 信息技术 企业 国家标准 信息 产品 信息 资源整合 利用 居民 工作 居民 便民 目标 居民 农民 新生儿 儿童 职业病 人群 无偿献血者 重点 人群 医疗机构 突破口 银行 社会 资助 银医 合作 居民 工作 医疗机构 工作 目标 任务 医院 居民 行政部门 居民 密钥 管理系统 居民 管理系统 建设 居民 管理系统 地区 部级 居民 管理系统 发卡 管理 管理 居民 工作 技术 信息 平台 建设 平台 试点 省份 试点 项目 目标 任务书 项目 任务 项目 建设 试点 省份 技术 方案 项目 评估 工作 部将 进展 地区 督导 项目 建设 国家 综合 管理 信息 平台 建设 区域 信息 平台 建设 部将 部分 省份 综合 平台 数据 利用 信息安全 管理工作 行业 信息安全 工作 指导 意见 信息安全 工作 机制 主管 运营 医疗卫生 单位 信息系统 全面 信息系统 备案 工作 培训 检查 工作 监测 监测 工作 年度 监测 工作 数据 汇总 年度 监测 结果 报告 监测 方案 年度 监测 工作 布置 平台 升级 人员培训 工作 国家 服务 调查 部将 全国 国家 服务 调查 调查 全国 试点县 部长 服务 调查 领导小组 专家组 工作组 调查 方案设计 师资 培训 调查 质量 技术 指导 咨询 工作 行政部门 样本 地区 服务 调查 领导 质量 资料 监督 指导 技术支持 工作 卫生统计 调查 制度 印发 国家 卫生统计 调查 制度 有关 任务 调查 制度 建设 医院 住院 病案 乡村 医生 数据库 报告 年报 季报 数据 业务 数据 校核 机制 统计数据 质量 人口 信息 制度 部将 有关 部门 印发 人口 信息 管理工作 规范 居民 工作 人群 人口 信息库 代表性 死因 监测 数据库 监测点 平台 建设 人员培训 漏报 调查 工作 有关 卫生统计 信息 工作 管理 卫生统计 信息化 建设 工作 领导 卫生统计 信息 机构 医疗卫生 机构 充分发挥 骨干 主力军 信息 工作 机制 工作 任务 资金 当地政府 发展 改革 财政 部门 筹集资金 项目 信息化 建设 统筹安排 项目 建设 设备 资金 卫生统计 信息化 建设 发展 信息 机构 人才队伍 建设 人才队伍 建设 有关 信息 机构 队伍 建设 规划 机构 设置 人才 经费 政策 方面 卫生统计 信息 工作 国际交流 合作 充分利用 学会 协会 学术团体 卫生统计 信息化 建设 办公厅 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 全面 行业 信息安全 工作 办公厅 全面 行业 信息安全 工作 卫办 自治区 直辖市 计划单列市 直属 单位 机关 司局 国家 信息安全 制度 行业 信息安全 工作 指导 意见 指导 意见 全面提高 行业 信息安全 能力 水平 信息化 发展 全面 信息安全 工作 有关 事项 具体内容 工作 机制 行政部门 信息安全 工作 联络员 信息安全 技术 专家 委员会 联络员 名单 专家 委员会 成员名单 限时 备案 情况 行政部门 将本 地区 备案 信息系统 情况 备案 工作 行业 单位 单位 信息系统 备案 工作 建设 工作 行业 单位 信息系统 备案 情况 工作 差距 风险 隐患 建设 方案 信息安全 建设 工作 行业 单位 标准 重点保护 行业 指导 属地 管理 建设 动态 原则 信息安全 工作 长效机制 行政部门 地区 行业 单位 指导 意见 信息安全 工作 行政部门 工作 联络员 报告 行政部门 报告 情况 地区 信息安全 工作 总结 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 卫生统计 信息化 人才队伍 建设 意见 办公厅 卫生统计 信息化 人才队伍 建设 意见 自治区 直辖市 直属 单位 机关 司局 医药卫生 意见 医药卫生 规划 实施方案 全面 卫生统计 信息化 人才队伍 建设 卫生统计 信息化 服务 能力 意见 卫生统计 信息化 人才队伍 建设 重要性 紧迫性 改革开放 卫生统计 工作 信息化 建设 卫生统计 信息化 人才队伍 不断扩大 人才 素质 国家 行政部门 医疗卫生 机构 卫生统计 信息化 管理体系 行政部门 统计法 部门 工作 信息化 发展 综合 信息 机构 专职 卫生统计 信息 人员 地市级 行政部门 人员 卫生统计 信息 工作 医疗卫生 机构 专职 卫生统计 信息 人员 工作 信息化 建设 卫生统计 信息化 人才队伍 建设 总量 专业 程度 问题 卫生统计 信息化 人才 方面 政策 管理体制 机构 性质 人员 待遇 因素 人员 变动 人才队伍 人才 结构 布局 人才 缺口 问题 制约 卫生统计 信息化 工作 发展 时期 医药卫生 卫生事业 全面 发展 关键 阶段 监测 任务 政府 社会公众 卫生统计 服务 信息化 任务 技术 日益 政府 社会 卫生统计 信息化 工作 任务 卫生统计 信息化 人才队伍 建设 指导思想 总体目标 基本 指导思想 医药卫生 意见 医药卫生 人才 发展 规划 人才 战略 卫生统计 信息化 人才 制度 机制 人才 总量 人员素质 卫生统计 信息化 工作 任务 人才 总体目标 卫生统计 信息化 人才 总量 基本 卫生统计 信息化 事业 发展 行政 信息 公共卫生 医疗 服务 机构 人员 卫生统计 信息 工作 人才 区域 结构 优化 人才 局面 人才 整体 水平 全面 卫生统计 信息 人才 发展 工作 机制 着力 规模 素质 结构合理 技术 管理 卫生统计 信息化 人才队伍 基本 战略 导向 原则 进展 监测 评估 信息化 建设 战略 任务 人才 素质 卫生统计 信息化 人才 增量 优化结构 确保重点 原则 进展 监测 评估 信息化 建设 重点 领域 优化 人才 结构 人才 发展 优先 顺序 人才 计划 整体 工作 机制 能力 原则 人才 施展 才干 环境 人才 发挥作用 平台 事业 制度 好人 原则 人才 能力 原则 信息化 发展 政府 社会 企业 市场 资源 合力 侧重于 信息化 标准规范 行业 指导 工作 合理 社会 企业 人才资源 信息化 工作 专家 团队 集思广益 工作 任务 卫生统计 信息化 人才 发展 任务 工程 实用型 卫生统计 人才 工程 卫生统计 人才 工程 实用型 信息技术 人才 工程 信息化 人才 工程 卫生统计 信息化 发展 层级 人才队伍 实用型 卫生统计 人才 工程 实用型 人才 医疗卫生 专业知识 技能 专业 学科 医疗 服务 妇幼卫生 疾病 防控 监督 财务 资产 人力 管理 专项 人才 人才 卫生统计 人才 比重 基础性 数据 整理 工作 统计数据 准确性 有效性 关键作用 医疗卫生 机构 国家 卫生统计 调查 制度 规定 内容 机构 工作 性质 工作量 合理 熟悉业务 工作 技能 专业 人员 卫生统计 人才 队伍素质 重点 技能 法规 培训 培训 规划 统计人员 全员 岗位培训 岗位培训 合格证书 培训 结果 岗位 年度 考核 职称 专业 统计人员 定期 教育 制度 人员 医疗卫生 机构 部门 专业 统计人员 培训基地 利用 医学院校 专业 卫生机构 妇幼卫生 疾病 防控 机构 优势 医疗卫生 机构 专业 统计人员 卫生统计 人才 工程 卫生统计 人才 专业 教育 背景 专业技能 管理 政策 专业 人才 卫生统计 管理 统计数据 综合 分析 利用 工作 卫生统计 人才 国家 专业 行政部门 综合 机构 规模 医疗卫生 机构 专职 人才 管理 方面 专业 背景 高校 毕业生 研究生 本科生 行政部门 医疗卫生 机构 卫生统计 工作 研究 卫生统计 人才 发展 规划 创新能力 建设 核心 建设 卫生统计 人才队伍 卫生统计 计划 影响力 学科 带头人 综合 卫生统计 人才 政策 管理 培训 服务 管理工作 充分发挥 卫生统计 工作 实用型 信息技术 人才 工程 实用型 信息技术 人才 基本 信息技术 系统 教育 背景 信息技术 技能 专业人才 实用型 信息技术 人才 医疗卫生 机构 管理系统 综合 管理 平台 运维 工作 行政部门 信息 机构 医疗卫生 机构 工作 实用型 信息化 人才 信息化 建设 管理 方面 培训 服务 信息化 工作 培训 规划 有关 人员 培训 岗位培训 合格证书 培训 结果 岗位 年度 考核 职称评定 信息化 人员 定期 教育 制度 信息化 人才 工程 信息化 人才 信息技术 医疗卫生 专业 特点 工作 流程 专业知识 信息技术 技能 人才 人才 规划 信息化 建设 信息 标准 规范 政策 工作 区域 信息化 人才 行政部门 信息化 技术 规划 管理 能力 人才 积极探索 信息化 基地 行政部门 医疗卫生 机构 信息化 人员 业务培训 措施 领导 信息化 人才队伍 建设 工作 行政部门 卫生统计 信息化 人才 建设 工作 卫生统计 信息化 人才 发展 战略 医药卫生 人才 发展 总体 战略规划 卫生统计 信息化 人才队伍 建设 卫生事业 改革 发展 重点 任务 领导 研究 卫生统计 信息化 人才 工作 责任制 目标 任务 资源 措施 卫生统计 信息化 人才队伍 建设 卫生统计 信息化 人才队伍 建设 力度 行政部门 发展 改革 财政 管理 部门 卫生统计 信息 机构 卫生统计 信息 机构 建设 经费 人才队伍 培训 经费 卫生统计 信息化 人才队伍 发展 经济 条件 地区 列支 专门 经费 卫生统计 信息化 人才队伍 建设 地区 卫生部门 会商 财政部门 财政 经费 卫生统计 信息化 人才队伍 建设 政府 用人单位 社会 资助 卫生统计 信息化 人才队伍 建设 机制 中央 地方 行政部门 卫生统计 信息化 专项资金 管理 办法 卫生统计 信息化 人才 建设 力度 社会 资本 卫生统计 信息化 人才队伍 建设 资金 监督管理 效益 体制 机制 卫生统计 信息化 人才队伍 活力 卫生统计 信息化 环节 卫生统计 信息化 人才 发展 制度 机制 卫生统计 信息化 机制 卫生统计 信息化 人才 教育培养 教育部门 协商 卫生统计 信息化 途径 卫生统计 信息化 人才 教育培养 学校 教育 医学教育 教育 发展 重点 研究生 教育 专科 教育 信息化 发展 人才 卫生统计 信息化 人才 增量 教育 重点 人才 培训 人员 基础性 专业培训 职业培训 制度 培训 项目 申报 国家 教育 学分 人才 职称评定 基础 卫生统计 信息化 人才 机制 卫生统计 信息化 人才队伍 类型 公平 方式 卫生统计 信息化 工作 人才 卫生统计 信息化 管理 部门 医疗卫生 机构 基层 医疗卫生 机构 人才 机制 标准 信息 人才 交叉性 人才 专业 背景 岗位 标准 方法 人才 管理制度 改革 人才 单位 部门 地域 户籍 单位 跨地区 人才 人才 管理权限 过分 管理 方法 管理制度 问题 卫生统计 信息化 人才 机制 统计法 有关 规定 综合 卫生统计 人员 当地政府 部门 统计人员 资格证书 方可 定期 考核 统计人员 资格证书 人员 培训 形式 信息化 人员 有关 部门 资格 管理 人才队伍 人才 素质 卫生统计 信息化 人员 管理 岗位 工资制度 卫生统计 信息化 人员 职称 晋升制度 绩效考核 激励机制 岗定酬 任务 定酬 业绩 定酬 原则 重点 关键 岗位 突出成绩 人员 部分 人才 工资 协议 工资 项目 工资 分配 办法 工作 业绩 核心 品德 能力 内容 卫生统计 信息化 人才 绩效考核 激励机制 业绩 人员 奖励 大胆 机制 卫生统计 信息化 人才 评价 体系 国家 人力资源 管理 部门 指导 卫生统计 信息化 专业 技术资格 评价 认证工作 积极探索 卫生统计 信息化 人才 评价 方法 客观 评价 卫生统计 信息化 专业 技术人员 能力 水平 卫生统计 信息化 人才 发展 情况 评估 工作 问题 技术 能力 水平 人才 发展 规划 任务 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 印发 电子 病历 医院 信息 平台 建设 技术 解决方案 办公厅 印发 电子 病历 医院 信息 平台 建设 技术 解决方案 自治区 直辖市 部属 医院 改革 试点工作 电子 病历 医院 管理 重点 医院 信息化 建设 医疗卫生 领域 业务 系统 信息 电子 病历 基本 架构 数据 标准 基础 电子 病历 医院 信息 平台 建设 技术 解决方案 印发 标准 文本 网站 过程 问题 有关 建议 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 印发 监督 信息化 建设 指导 意见 办公厅 印发 监督 信息化 建设 指导 意见 监督 自治区 直辖市 监督 中心 监督 信息化 建设 指导 意见 印发 监督 信息化 建设 指导 意见 医药卫生 监督 体系 建设 精神 信息化 建设 指导 意见 规范 指导 全国 监督 信息化 建设 监督 事业 发展 监督 信息化 建设 意见 监督 信息化 建设 重要性 监督 事业 发展 人民 群众 权益 医疗卫生 秩序 社会 力量 社会 经济 发展 方式 监督 社会 利益 格局 人们 思想观念 变化 监督 信息化 社会 管理 监督 体系 建设 社会 管理 效能 服务质量 途径 工作 全面 启动 监督 信息化 任务 工作 动态 辅助 科学决策 总体 框架 基本 原则 工作 目标 总体 框架 监督 信息化 建设 平台 核心 层级 业务 监督 信息 体系 架构 监督 信息 平台 建设 核心 国家 监督 业务 全国 监督 信息系统 管理 社会公众 公共卫生 服务 监督机构 人员 信息化 管理 服务 模式 行政部门 管理者 科学决策 基本 原则 总体规划 时期 信息化 建设 总体 思路 规划 全国 监督 信息化 建设 工作 充分利用 基础 网络 设备 人员 顶层 设计 监督 业务 信息化 发展 目标 监督 信息系统 统一标准 监督 信息 标准 业务 规范 监督 信息化 建设 指导 全国 监督 信息化 工作 行政部门 监督机构 标准规范 监督 法定 职责 监督 业务 服务 重点 核心 业务 系统 建设 信息技术 监督 工作 监督 发展 监督 信息化 实际 情况 充分利用 信息 资源 监督机构 行政部门 医疗 机构 信息 机制 监督 信息化 建设 实用性 信息化 前瞻性 信息化 现状 解决问题 国家 信息安全 制度 监督 信息化 建设 试点 先行 条件 单位 先行 试点 试点工作 指导 力度 试点 科学 技术 路线 经验 指导 全国 充分发挥 试点 指导作用 工作 目标 全面 全国 监督 情况 规范 监督 业务 监督 工作效率 传统 工作 模式 信息化 监督 信息 资源 中心 监督 信息 辅助 分析 决策 科学决策 提供数据 基础 重点 任务 重点 建设 监督 信息 平台 监督 信息 平台 设备 功能 性能 监督 信息 平台 监督 信息 报告 系统 业务 系统 计算技术 监督 信息化 领域 部分 地区 平台 服务 地市级 区级 网络 硬件 环境 条件 市级 监督 信息 网络平台 监督 信息 平台 建设 监督机构 装备 标准 建设 标准 监督 信息 标准 体系 监督 信息化 发展 目标 研究 监督 信息化 标准 体系 监督 信息化 标准 全国 监督 信息 标准 工作 标准 咨询服务 机制 监督机制 统一 业务 系统 省份 监督 信息 地方 标准 全省 范围 监督 业务 系统 国家 监督 信息 报告 系统 重点 调查 功能 统一 监督 监测 评价 系统 监督 综合 监督 培训 信息系统 试点 行政许可 管理系统 基础 监督 检查和 行政处罚 系统 基础 终端 打印机 规范 监督 工作效率 试点 监督 绩效考核 系统 基础 监督 工作 绩效考核 指标 信息 联网 技术 监督 现场 监测 领域 国家 统一 监督 信息 报告 系统 监督 监测 评价 信息系统 监督 培训 信息系统 监督 信息 国家标准 范围 统一 监督 业务 系统 监督 绩效考核 系统 国家 监督 业务 系统 基础 监督 绩效考核 系统 基础 实际 情况 条件 省份 全省 范围 统一 业务 监督 综合 信息系统 突发事件 信息系统 国家 统一 监督 业务 监督 网站 平台 办公自动化 系统 建设 监督 信息 资源 中心 信息 大力 监督 数据 资源 中心 建设 综合 管理 平台 监督 法定 职能 开展业务 分析 信息 资源 数据库 资源 目录 标准 数据库 国家 监督管理 基础 数据库 管理 信息 基础 信息 综合 管理 监督 信息 监督 评价 指标体系 监督 信息 分析 利用 管理决策 公共服务 标准化 规范化 监督 信息 资源 中心 监督机构 信息 监督机构 业务 系统 省份 监督 平台 全省 监督 信息系统 监督机构 充分利用 信息 资源 中心 监督 信息 分析 利用 监督 信息安全 保障体系 建设 国家 国家 综合 安全策略 技术 体系 管理体系 体系 建设 信息安全 能力 风险 监测 能力 应急 恢复能力 一体 综合 体系 建设 监督 信息化 人才队伍 监督 信息化 人才 发展 长效机制 教育 人才 制度 信息化 信息技术 操作技能 培训 创新型 监督 信息化 人才 研究 激励机制 监督 信息化 人员 职业培训 经费 重点 建设 监督 信息化 队伍 监督 信息化 专家 队伍 队伍 建设 系统管理员 信息 报告 管理员 队伍 措施 领导 机构 行政部门 领导 主管 领导 监督 信息化 建设 工作组 发挥作用 辖区 监督 信息化 建设 国家 监督机构 专门 信息化 管理 部门 区级 监督机构 信息化 管理 部门 专职 信息管理 人员 科学 规划 国家 研究 监督 信息化 建设 总体规划 信息 标准 功能 规范 国家 地区 实际 情况 监督 信息系统 建设 规划 发展 总体目标 方向 制度 行政部门 当地政府 监督 信息化 建设 工作 地区 信息化 重点 规划 项目 监督 信息管理 制度 规范 资产 管理 充分发挥 地方 积极性 创造性 监督 信息化 事业 培训 宣传 岗位培训 教育 重点 分类 形式 信息化 人力资源 培训 制度 监督 培训 信息系统 监督 业务 信息技术 人才 利用 网站 平台 宣传 监督 信息化 工作 监督 信息化 建设 社会 基础 评估 综合 全国 监督 信息化 工作 实际 情况 考核 指标 科学 信息化 工作 绩效考核 评价 体系 综合 激励机制 监督 信息化 工作 考核 信息化 工作实绩 考核 监督 信息化 队伍 整体 活力 附件 监督 信息系统 业务 软件名称 监督 信息 报告 系统 监督 信息 直报 动态 管理 统一 监督 监测 评价 系统 监督 监测 信息 网络 报告 动态 管理 统一 监督 综合 监督 综合 管理 信息 动态 统一 监督 培训 信息系统 监督员 网络 培训 统一 行政许可 管理系统 基础 规范 行政许可 审查 备案 工作 程序 监督管理 基本 信息 动态 管理 试点 标准 规范 监督 检查和 行政处罚 系统 基础 规范 监督 检查 工作 监督 监测 信息 现场 文书 监督 检查 工作 动态 管理 试点 标准 规范 监督 绩效考核 系统 基础 监督 工作 绩效考核 指标 信息 机构 人员 考核 试点 标准 规范 监督 综合 行政 管理 决策 全省 信息系统 咨询 信息化 管理 全省 突发事件 信息系统 公共卫生 事件 应急 工作 信息化 管理 全省 监督 网站 平台 监督 信息 咨询 功能 电子政务 系统 公众 监督 信息 办公自动化 系统 决策 信息管理 业务 功能 优化 工作 流程 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 全国 卫生统计 信息 工作 会议 办公厅 全国 卫生统计 信息 工作 会议 自治区 直辖市 部分 计划单列市 直属 有关 单位 机关 有关 司局 全国 工作 会议 精神 卫生统计 信息 工作 全国 卫生统计 信息 工作 会议 有关 事项 会议 内容 总结 全国 卫生统计 信息 工作 部署 工作 研究 进展 监测 评估 国家 服务 调查 死因 调查 有关 工作 研究 区域 信息 平台 建设 居民 信息 标准 信息安全 工作 交流 信息化 建设 监测 评估 工作 经验 实地考察 信息 平台 建设 居民 管理 情况 会议 时间 地点 会议 时间 日报 会议 地点 酒店 地址 旅游 度假区 枫丹路 电话 人员 有关 司局 负责同志 分管 信息化 工作 办公室 负责人 信息 机构 负责人 部分 计划单列市 信息 机构 负责人 直属 有关 单位 负责同志 有关 单位 负责同志 专家 事项 信息化 建设 综合 试点 信息安全 服务 调查 监测 评估 医院 信息 标准 测试 经验交流 材料 电子 文档 人员 交通费 自理 会议 会议 地点 会议 会议 交流 材料 联系人 联系人 电子邮箱 会议 联系人 联系人 电子邮箱 联系人 电子邮箱 附件 全国 卫生统计 信息 工作 会议 会议 宾馆 交通图 办公厅 附件 全国 卫生统计 信息 工作 会议 姓名 性别 所在单位 职务 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 国家 重性 精神疾病 基本 数据 分析 系统 办公厅 国家 重性 精神疾病 基本 数据 分析 系统 卫办疾 自治区 直辖市 计划单列市 疾病 重性 精神疾病 动态 国家 重性 精神疾病 基本 数据 分析 系统 系统 系统 工作 行政部门 辖区 精神 医疗机构 精神 技术 管理机构 基层 医疗卫生 机构 系统 管理人员 培训 费用 中央 地方 疾病 业务培训 项目 国家 重性 精神疾病 基本 数据 分析 系统管理 规范 附件 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 附件 网站 重性 精神疾病 患者 患者 信息 重性 精神疾病 管理 项目 项目 地区 全国 精神疾病 信息管理系统 患者 信息 系统 项目 地区 卫办疾 患者 信息 精神疾病 信息系统 省份 疾控中心 精神 中心 联系 国家 信息系统 基础 数据 国家 信息系统 信息系统 系统 过程 问题 疾控中心 精神 中心 联系 联系人 疾控中心 精神 中心 附件 国家 重性 精神疾病 基本 数据 分析 系统管理 规范 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 附件 国家 重性 精神疾病 基本 数据 分析 系统管理 规范 管理 国家 重性 精神疾病 基本 数据 分析 系统 系统 基本 数据 国家 基本 公共卫生 服务 规范 重性 精神疾病 管理 工作 规范 计算机信息 系统安全 条例 规范 基本 原则 分级 行政部门 精神 技术 管理机构 精防 机构 系统 建设 管理 行政部门 精防 机构 技术 指导 精神 工作 指导 意见 印发 精神 体系 建设 发展 规划 社会 精防 机构 行政部门 辖区 具备条件 精神 专科医院 精神科 专科 特长 综合 医院 精神 专科医院 行政部门 委托 疾病 管理 责任 委托 政府 精神科 综合 医院 技术 指导 责任 属地 管理 医疗机构 系统 基本 数据 报告 单位 精防 机构 技术 指导 管理 报告 病种 基本 数据 范围 报告 病种 精神分裂症 情感性 障碍 精神病 双相 情感 障碍 癫痫 精神障碍 精神 发育 精神障碍 重性 精神疾病 附表 病例 疑似病例 系统 报告 范围 基本 数据 范围 患者 个案 信息 附表 精神 工作 报表 责任 报告 单位 人员 责任 报告 单位 重性 精神疾病 服务 管理 精神 医疗机构 医疗机构 社区卫生 服务中心 乡镇 精防 机构 责任 报告 重性 精神疾病 患者 患者 建档 管理 基层 医务人员 患者 应急 医疗 精神 专业 人员 重性 精神疾病 管理 工作 报表 精防 机构 人员 人员 责任 报告 基本 数据 表格 数据 数据 患者 信息 基本 数据录入 质量 管理 人员 业务 管理员 业务 管理员 精防 机构 系统 用户 账号 分配 用户 权限 用户 管理 职责 责任人 基本 数据 报告 流程 患者 个案 信息 系统 患者 患者 辖区 基本 公共卫生 服务 管理 管理 居家 患者 患者 管理 应急 医疗 患者 管理 患者 患者 管理 任务 基层 医务人员 表格 数据 系统 患者 患者 应急 医疗 应急 医疗 精神 医疗机构 重性 精神疾病 应急 医疗 记录 应急 复印件 小时 内报 精防 机构 精防 机构 应急 精防 机构 辖区 患者 精防 机构 应急 患者 社区卫生 服务中心 乡镇 知情 前提 管理 患者 档案 定期 报告 程序 患者 辖区 患者 精防 机构 应急 单报 市级 精防 机构 市级 精防 机构 数据 本市 患者 应急 医疗 报表 系统 精神 工作 报表 患者 情况 工作 机构 人员 情况 工作 情况 重性 精神疾病 管理 项目 情况 精防 机构 汇总 年度 精神 工作 情况 报表 行政部门 系统 部门 机构 职责 行政部门 系统 管理 任务 管理 规范 制度 定期 督导 行政部门 系统 管理 硬件 地区 精神 工作 信息化 条件 报告 重性 精神疾病 种类 内容 系统 基础 设计 地区 重性 精神疾病 信息管理系统 系统 地市级 行政部门 地区 系统 管理 工作 技术 指导 管理机构 疾控中心 公共卫生 监测 信息 服务中心 系统 建设 定期 备份 师资 培训 疾控中心 精神 中心 精神 研究所 系统 管理 职责 系统管理 规范 管理制度 委托 系统 业务管理 工作 系统 权限 管理 机构 编码 数据 质量 汇总 报表 定期 师资 培训 委托 工作 精防 机构 行政部门 地区 重性 精神疾病 基本 数据 分析 方案 系统 业务管理 权限 管理 系统 数据 质量 汇总 报表 定期 行政部门 培训 市级 精防 机构 辖区 患者 应急 医疗 报表 汇总 网络 报告 任务 精防 机构 辖区 应急 单的 汇总 信息 分流 工作 精神 医疗机构 精神 医疗机构 精神 专科医院 精神科 综合 医院 单位 系统管理 报告 制度 重性 精神疾病 患者 出院 信息 出院 信息 精防 机构 基层 医疗机构 社区卫生 服务中心 乡镇 单位 系统管理 报告 制度 辖区 患者 基本 数据 网络 报告 任务 社区卫生 服务站 社区卫生 服务中心 乡镇 辖区 患者 基本 数据 报告 工作 信息管理 信息 报告 管理 患者 基本 数据 报告 纸质 表格 系统 网络 报告 形式 网络 报告 网络 直报 条件 责任 报告 单位 基本 数据录入 系统 网络 直报 条件 社区卫生 服务中心 乡镇 所在地 精防 机构 社区卫生 服务中心 乡镇 直报 用户 账号 信息 责任 报告 数据 基本 数据 准确性 完整性 责任 报告 纸质 表格 错项 漏项 逻辑 错误 检查 信息 数据 信息 核实 精防 机构 数据 辖区 网络 报告 基本 数据 信息 责任 报告 单位 核实 信息 责任 报告 单位 管理 信息 变化 患者 系统 信息 精防 机构 辖区 系统 网络 报告 信息 报告 患者 信息 基本相同 责任 报告 单位 数据 取得联系 核实 信息 信息安全 管理 精防 机构 系统 用户 管理 行政部门 系统 范围 权限 部门 机构 系统 信息 证明 行政部门 备案 行政部门 依法 全国 重性 精神疾病 管理 信息 责任 报告 单位 责任 报告 数据 精神 疾病防治 人员 无权 社会 信息 人员 患者 信息 业务 管理员 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 规定 履行职责 国家 法律法规 国家 保密制度 有关 规定 责任心 计算机 互联网络 基本 网络安全 网络 系统 信息 系统 资料 系统 患者 个案 信息 系统 定期 自动 常规 报表 统计图表 精神 管理 资料 基层 医疗机构 建档 产生 纸质 材料 患者 档案 信息 系统 自动 清空 患者 个案 信息 数据 定期 备份 基本 数据 结果 考核 评估 行政部门 定期 辖区 重性 精神疾病 信息 报告 管理工作 考核 精防 机构 行政部门 考核 方案 定期 医疗机构 指导 评估 有关 医疗机构 精神疾病 基本 数据 分析 工作 单位 考核 范围 定期 自查 附表 系统 报告 病种 名称 编码 系统 基础 数据 附表 系统 报告 病种 名称 编码 序号 编码 名称 编码 癫痫 精神障碍 精神分裂症 精神分裂症 精神分裂症 精神分裂症 分化 精神分裂症 精神分裂症 精神分裂症 精神分裂症 精神分裂症 精神分裂症 精神病 情感性 障碍 情感性 障碍 情感性 障碍 情感性 障碍 情感性 障碍 发作 精神病 症状 精神病 症状 发作 发作 双相 情感 障碍 发作 双相 情感 障碍 双相 情感 障碍 精神病 症状 发作 双相 情感 障碍 精神病 症状 发作 发作 双相 情感 障碍 双相 情感 障碍 精神病 症状 重度 发作 双相 情感 障碍 精神病 症状 重度 发作 发作 双相 情感 障碍 状态 双相 情感 障碍 双相 情感 障碍 双相 情感 障碍 精神 发育 精神障碍 附表 系统 基础 数据 序号 信息 条目 序号 信息 条目 患者 编号 时间 知情 基础 管理 病情 分类 知情 时间 危险性 评估 监护人 姓名 滋事 监护人 电话 肇事 监护人 患者 关系 肇祸 患者 姓名 身份证号 性别 服药 出生日期 效果 两系 重性 精神疾病 家族史 实验室 检查 婚姻状况 药物 民族 职业 个案 管理 文化 程度 个案 管理 病情 总体 评估 国标码 个案 管理 社会 功能 总评 户籍 国标码 应急 医疗 应急 滋事 时间 肇事 肇祸 精神病 药物 精神病 时间 经济 状况 急性 药物 项目管理 患者 项目管理 时间 应急 措施 现场 情况 精神科 门诊 住院 情况 精神科 住院 出院 时间 住院 患者 经费 原因 应急 医疗 状况 应急 医疗 性质 原因 应急 医疗 对象 来源 项目 重性 精神疾病 管理 项目 信息 条目 患者 个人信息 信息 附件 国家 重性 精神疾病 基本 数据 分析 系统 用户 权限 管理 规范 规范 国家 重性 精神疾病 基本 数据 分析 系统 系统 用户 权限 用户 职责 用户 功能 角色 定义 用户 系统 使用者 功能 用户 系统 个案 信息 角色 权限 管理 角色 功能 个案 信息 功能 角色 用户 类型 业务 管理员 精防 机构 系统 用户 账号 分配 权限 用户 管理 职责 责任人 用户 管理系统 系统 用户 管理系统 用户 账号 分配 权限 业务 管理员 责任心 计算机 网络 管理 精神 工作 体系 人员 国家 法律法规 国家 保密制度 有关 规定 网络 系统 信息 用户 业务 管理员 分配 权限 业务 功能 用户 国家 精神 医疗机构 精防 机构 直报 用户 业务 管理员 分配 患者 个案 信息 报告 用户 社区卫生 服务中心 乡镇 业务 管理员 职责 业务 管理员 负责管理 业务 管理员 用户 直报 用户 分级 方式 业务 管理员 辖区 用户 账号 角色 权限 分配 工作 业务 管理员 系统 角色 权限 分配 国家 市级 业务 管理员 业务 管理员 用户 账号 角色 业务 管理员 直报 用户 用户 账号 角色 分级 国家 市级 业务 管理员 业务 管理员 用户 培训 技术 指导 管理 任务 业务 管理员 直报 用户 用户 培训 技术 指导 管理 任务 业务 管理员 辖区 系统安全 用户 用户 原则 工作 用户 用户 权限 分配 数据 报告 原则 系统 角色 用户 合理 权限 业务 管理员 基层 医疗机构 责任 报告 单位 直报 用户 账号 网络 直报 条件 单人 原则 用户 账号 系统 用户 信息 实名制 系统 调整 业务 管理员 调整 角色 环境 用户 程序 用户 业务 管理员 国家 重性 精神疾病 基本 数据 分析 系统 用户 申请表 附表 用户 申请表 经本 单位 主管 领导 业务 管理员 账号 精防 机构 精神 医疗机构 医疗机构 系统 网络 直报 数据管理 用户 申请表 经本 单位 主管 领导 精防 机构 业务 管理员 账号 社区卫生 服务中心 乡镇 用户 申请表 经本 单位 领导 精防 机构 业务 管理员 直报 用户 账号 用户 业务 管理员 用户 申请表 国家 重性 精神疾病 基本 数据 分析 系统 用户 附表 经本 单位 主管 领导 单位 用户 单位 用户 申请表 业务 管理员 用户 步骤 账号 角色 角色 分配 权限 角色 业务 管理员 用户 账号 用户 业务 管理员 角色 用户 账号 命名 规则 用户 账号 命名 规则 用户 类型 首字母 县区 名称 首字母 用户 姓名 全拼 县区 名称 首字母 用户 行政区划 名称 首字母 字母 全部 小写 保定市 业务 管理员 账号 管理员 保定市 用户 账号 直报 用户 账号 直报 区县 用户 姓名 拼音 情况 顺序 账号 阿拉伯数字 角色 管理 角色 类型 角色 类型 个案 信息 个案 信息 报表 患者 应急 医疗 报表 报表 精神 工作 报表 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 报表 角色 业务 管理员 用户 对应 角色 附表 角色 用户 有效期 用户 有效期 设置 有效期 用户 业务 管理员 期限 期限 管理 系统安全 管理 用户 国家 法律法规 单位 规章制度 网络 反动 言论 国家 单位 机密 传播 系统 信息 用户 规定 网络 环境 专机 专用 计算机 系统 用户 系统 计算机上安装 防火墙 定期 病毒 木马 程序 黑客程序 用户 管理 账号 管理 业务 管理员 用户 信息 表单 定期检查 用户 账号 情况 用户 账号 角色 用户 调离 岗位 业务 管理员 报告 业务 管理员 用户 账号 密码 管理 业务 管理员 用户 账号 分配 初始密码 用户 业务 管理员 有权 重设 业务 管理员 账号密码 重设 生效 业务 管理员 记录 重设 原因 备查 用户 系统 初始密码 用户 密码 设置 数字 字母 符号 混合 用户 账号 密码 应急 管理 直报 用户 用户 账号密码 小时 业务 管理员 业务 管理员 情况 用户 权限 数据 用户 所报 数据 核查 报告 数据 用户 密码 用户 报告 权限 书面 记录 备查 业务 管理员 检查用户 权限 系统 用户 用户 信息 用户 账号 补救措施 危害 数据 行政部门 精防 机构 疾控中心 精神 中心 疾控中心 公共卫生 监测 信息 服务中心 报告 业务 管理员 账号 报告 业务 管理员 业务 管理员 用户 权限 核查 系统 账号 管理 数据安全 补救措施 系统安全 账号 功能 业务 管理员 业务 管理员 工作 单位 负责人 现场 账号 信息 密码 系统 用户 信息 文档 核查 工作 书面 报告 双方 单位 负责人 报告 业务 管理员 业务 管理员 业务 管理员 账号 业务 管理员 账号 督导 考核 评估 督导 责任 报告 单位 定期 权限 用户 管理 专项 督导 督导 重点 内容 业务 管理员 用户 申请表 分配 业务 管理员 用户 直报 用户 权限 岗位职责 用户 权限 申请表 权限 用户 有效期 管理 情况 调离 岗位 用户 机构 编码 年度 机构 用户 用户 权限 表单 用户 密码 管理 设置 密码 定期 密码 用户 账号 专人 专用 考核 评估 单位 考核 形式 重点 考核 管理 数据 质量 通报 年度 考核 结果 附表 系统 用户 申请表 系统 用户 用户 对应 角色 附表 系统 用户 申请表 所在单位 姓名 部门 手机 单位 性质 行政部门 疾病 机构 精神 医疗机构 社区卫生 服务中心 乡镇 精防 机构 账号 用户 类型 业务 管理员 用户 直报 用户 用途 系统管理 业务 业务 管理权限 系统 用户 管理 用户 管理 用户 角色 用户 资料 个案 信息管理 基本 信息 信息 全部 个案 信息 个案 信息 报表 管理 全部 报表 报表 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 报表 质量 全部 信息 报告 单位 类型 分析 报告 单位 直报 情况 调查 账号 有效期 单位 主管 领导 附表 系统 用户 单位名称 姓名 部门 用途 系统管理 业务 业务 账号 用户 类型 业务 管理员 用户 数据 用户 直报 用户 情况 理由 账号 有效期 地址 用户 账号 初始密码 业务 管理员 单位 主管 领导 初始密码 计算机 系统 附表 用户 对应 角色 序号 用户 类型 分配 角色 业务 管理员 用户 数据 个案 信息 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 报表 用户 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 业务 管理员 用户 数据 报表 个案 信息 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 用户 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 精神 工作 报表 市级 业务 管理员 市级 用户 数据 报表 个案 信息 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 市级 用户 个案 信息 汇总 报表 汇总 患者 应急 医疗 报表 业务 管理员 用户 数据 个案 信息 个案 信息 汇总 报表 用户 个案 信息 汇总 报表 直报 用户 个案 信息 个案 信息 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 审计工作 信息 报告 通报制度 办公厅 审计工作 信息 报告 通报制度 自治区 直辖市 部属 单位 卫生系统 审计工作 规定 部长 全国 卫生系统 审计工作 交流会 精神 地区 单位 审计工作 情况 交流 工作 信息 工作 经济 管理 科学化 信息化 建设 审计工作 信息 报告 通报制度 有关 事项 审计工作 信息 报告 工作 信息内容 经济 责任 财务收支 经济效益 专项资金 经济合同 项目 审计工作 情况 信息内容 项目 数量 资金 总额 问题 资金 额度 条数 问题 线索 情况 部门 情况 情况 范围 时间 自治区 直辖市 审计工作 情况 报告 专项 审计工作 情况 统计表 项目 审计工作 情况 统计表 附件 附件 附件 时间 工作 情况 年度 工作 情况 单位 部属 单位 审计工作 情况 报告 部属 单位 专项 审计工作 情况 统计表 部属 单位 项目 审计工作 情况 统计表 附件 附件 附件 时间 季度 信息 时间 行政部门 单位 方式 工作效率 经济 管理 信息化 建设 审计工作 信息 报告 报表 全部 地区 单位 规划 财务 信息 交流平台 纸质 报表 地区 单位 规划 财务 信息 平台 网址 情况 质量 地区 单位 专人 报表 审计工作 报表 编报 质量 管理 数据 真实性 准确性 部将 审计工作 信息 质量 监督 检查 资料 单位 质量 单位 通报 审计工作 信息 通报 部将 地区 单位 审计工作 信息 汇总 分析 规划 财务 信息 平台 通报 信息 地区 单位 负责人 地区 直属单位 地区 审计工作 情况 形式 通报 地区 单位 过程 问题 规划 联系 联系人 电话 附件 审计工作 情况 报告 专项 审计工作 情况 统计表 项目 审计工作 情况 统计表 部属 单位 审计工作 情况 报告 部属 单位 专项 审计工作 情况 统计表 部属 单位 项目 审计工作 情况 统计表 附件 审计工作 情况 报告 审计工作 情况 报告 单位 工作 概况 统计表 数据 问题 工作 计划 建议 典型 案例 负责人 报告 报告 工作 情况 工作 情况 附件 专项 审计工作 情况 统计表 专项 审计工作 情况 统计表 单位 金额 单位 类型 行次 项目 数量 资金 总额 问题 资金 处理意见 建议 线索 部门 项目 部门 人员 单位 意见 建议 规范 财务 资金 金额 资金 金额 损失 金额 规章制度 合计 管理 规范 金额 违规 违纪 金额 经济 责任 财务收支 经济效益 专项资金 经济合同 合计 负责人 统计表 统计表 工作 情况 工作 情况 项目 审计工作 情况 本表 附件 项目 审计工作 情况 统计表 项目 审计工作 情况 统计表 单位 金额 单位 行次 项目 资金 资金 违规 资金 处理意见 建议 问题 线索 部门 项目 部门 人员 资金 金额 单位 意见 建议 合计 项目 委托 项目 项目 项目 合计 负责人 统计表 统计表 工作 情况 工作 情况 附件 部属 单位 审计工作 情况 报告 单位 工作 概况 统计表 数据 问题 工作 计划 建议 典型 案例 负责人 报告 报告 统计表 统计表 工作 情况 工作 情况 情况 工作 附件 部属 单位 专项 审计工作 情况 统计表 单位 金额 单位 类型 行次 项目 数量 资金 总额 问题 资金 处理意见 建议 线索 部门 项目 部门 人员 单位 意见 建议 规范 财务 资金 金额 资金 金额 损失 金额 规章制度 合计 管理 规范 金额 违规 违纪 金额 经济 责任 财务收支 经济效益 专项资金 经济合同 合计 负责人 统计表 统计表 工作 情况 工作 情况 情况 工作 情况 项目 审计工作 情况 本表 附件 部属 单位 项目 审计工作 情况 统计表 单位 金额 单位 行次 项目 资金 资金 违规 资金 处理意见 建议 问题 线索 部门 项目 部门 人员 资金 金额 单位 意见 建议 合计 项目 委托 项目 项目 项目 合计 负责人 统计表 统计表 工作 情况 工作 情况 情况 工作 情况 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 国家 新型农村 合作医疗 信息 平台 建设 试点工作 卫办 自治区 直辖市 直属 单位 医药卫生 意见 医疗保障 信息系统 建设 国家 新型农村 合作医疗 信息 平台 国家 新农 平台 委托 医学 信息 研究所 工作 目的 联通 新农 信息 平台 新农 平台 新农 业务 数据 全国 新农 业务 监控 农民 跨省 管理 农民 服务 决策 服务 国家 新农 平台 新农 平台 国家 新农 平台 联通 试点工作 医院 试点 省份 单位 国家 平台 试点 省份 单位 领导 专人 实施方案 充分利用 资源 技术 优势 新农 业务 系统 环境 联通 试点工作 试点 局应 信息化 标准规范 实际 有关 项目 建设 建设 新农 平台 新农 信息系统 国家 新农 平台 联通 部将 新农 平台 程度 试点 范围 新农 平台 国家 新农 平台 办公厅 联系人 医学 信息 研究所 联系人</t>
+  </si>
+  <si>
+    <t>办公厅 国家 新型农村 合作医疗 信息 平台 建设 工作 办公厅 国家 新型农村 合作医疗 信息 平台 建设 工作 自治区 直辖市 直属 单位 办公厅 国家 新型农村 合作医疗 信息 平台 建设 试点工作 卫办 国家 新型农村 合作医疗 信息 平台 国家 新农 平台 部分 新农 平台 医院 信息系统 国家 新农 平台 建设 国家 新农 平台 新农 业务 监控 跨省 管理 联通 范围 有关 事项 联通 范围 联通 省份 单位 医院 附件 工作 内容 实施方案 联通 省份 单位 联通 实施方案 国家 新农 平台 联通 工作 平台 系统 管理 办法 指派 专人 定期 工作 机制 工作 平台 联通 联通 省份 单位 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 技术 方案 硬件 设备 所需 设置 参数 分配 网络带宽 系统 数据 功能 国家 新农 平台 联通 数据 联通 省份 介质 拷贝 形式 新农 基础 数据 业务 数据 报表 数据 数据 跨省 数据 技术 方案 时间 频率 联通 医院 技术 方案 时间 频率 跨省 数据 试点 跨省 管理 联通 省份 地区 试点 农民 跨省 费用 核查 服务 条件 地区 启动 农民 跨省 异地 结报 服务 评估 联通 工作 总体 联通 省份 单位 工作 全面 总结 问题 成功经验 平台 国家 新农 平台 联通 联通 省份 单位 网络 环境 系统 联通 省份 单位 数据 工作 联通 情况 检查 督导 工作 国家 新农 平台 平台 医院 信息系统 新农 合作 措施 单位 领导 有关 部门 工作 小组 分工 力量 联通 工作 联通 省份 新农 平台 国家 新农 平台 联通 工作 数据 跨省 数据 国家 新农 平台 平台 系统 医院 平台 联通 单位 联通 方式 平台 联通 单位 国家 新农 平台 联通 农民 跨省 数据 医学 信息 研究所 委托 建设 国家 新农 平台 联通 工作 联通 工作 技术 方案 网络 环境 测试 调用 程序 基础 数据 业务 数据 跨省 数据 联通 工作 技术支持 联通 范围 技术 方案 建设 新农 平台 数据 规范 程度 新农 信息系统 国家 新农 平台 联通 工作 系统 建设 基础 数据 质量 规范 省份 申请加入 联通 省份 办公厅 联系人 电话 农卫司 联系人 电话 医学 信息 研究所 联系人 电话 附件 联通 医院 名单 联通 省份 单位 联系人 登记表 办公厅 附件 联通 医院 名单 序号 医院 名称 心血管病 医院 人民 医院 医院 医院 联谊 医院 医院 肿瘤医院 人民 医院 人民 医院 同济 医院 梨园 医院 医院 医院 医院 医院 人民 医院 附件 联通 省份 单位 联系人 登记表 联通 省份 单位 联系人 电子邮件 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公厅 统一 医疗 质量 安全事件 信息 报告 系统 办公厅 统一 医疗 质量 安全事件 信息 报告 系统 自治区 直辖市 医疗 质量 安全事件 报告 医疗 质量 安全事件 信息 报告 系统 报告 系统 行政部门 医疗机构 统一 报告 系统 报告 医疗 质量 安全事件 有关 报告 系统 行政部门 医疗机构 行政部门 医疗机构 医管司 主页 版本 软件 说明书 行政部门 用户名 密码 统一 医疗机构 用户名 密码 医疗机构 执业 行政部门 设置 行政部门 医疗机构 医疗 医疗事故 报告 制度 规定 统一 医疗 医疗事故 报告 工作 软件 医疗 医疗事故 报告 工作 软件 报告 信息 报告 系统 过程 意见 建议 医管司 联系人 医管司 技术 咨询电话 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>疾控局 寄生虫病 信息管理系统 疾控局 寄生虫病 信息管理系统 血防 自治区 直辖市 局疾 地病 疾病 办公厅 国家 卫生统计 网络 直报 工作 局商 疾病 利用 疾病 信息系统 平台 寄生虫病 信息管理系统 寄生虫病 专报 系统 系统 月份 有关 事项 管理 疾病 寄生虫病 全国 寄生虫病 专报 系统 管理 行政部门 机构 专门 人员 本行政区域 寄生虫病 专报 系统 管理工作 报告 内容 办公厅 全国 监督 调查 制度 制度 寄生虫病 专报 系统 报告 内容 血吸虫病 工作 调查表 疟疾 工作 调查表 包虫病 工作 调查表 土源 线虫病 工作 调查表 卫统 卫统 血吸虫病 疟疾 土源 线虫病 国家 监测点 报表 寄生虫病 专报 系统 网络 直报 方式 寄生虫病 专报 系统 网址 数据 网络 直报 网络 直报 条件 网络 直报 网络 直报 条件 汇总 数据 网络 直报 权限 时限 网络 直报 数据 报表 领导 寄生虫病 专报 系统 规范 寄生虫病 信息管理 报告 效率 行政部门 单位 寄生虫病 专报 系统 工作 宣传 培训 寄生虫病 专报 系统 责任心 专业 人员 设备 设施 工作 经费 工作 顺利进行 疾病 系统维护 人员培训 技术 指导 保证系统 寄生虫病 专报 系统 管理 情况 检查和 督导 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>疾病 印发 结核病 核心 信息 疾病 印发 结核病 核心 信息 自治区 直辖市 局疾 统一 规范 宣传 结核病 工作 政策 要点 印发 结核病 核心 信息 核心 信息 核心 信息 结核病 工作 结核病 疫情 变化 工作 部分 核心 信息 调整 专家 结核病 核心 信息 结核病 核心 信息 印发 地区 工作 实际 结核病 工作 结核病 核心 信息 结核病 核心 信息 面向 人群 面向 目标 人群 核心 信息 面向 人群 核心 信息 核心 信息 工作 核心 信息 基础 目标 人群 面向 目标 人群 政府 领导 医务人员 患者 流动人口 教师 核心 信息 面向 人群 核心 信息 肺结核 传染病 肺结核 传播 勤洗手 通风 肺结核 掩口 随地吐痰 肺结核 传播 医院 结核病 定点 医疗卫生 机构 肺结核 检查 部分 项目 免费 政策 宣传 定点 医疗卫生 机构名称 免费 项目 面向 目标 人群 核心 信息 政府 领导 核心 信息 肺结核 依法 传染病 肺结核 疫情 社会 经济 发展 水平 政府 肺结核 疫情 关键 肺结核 政府 民生 肺结核 疫情 现状 面向 医务人员 核心 信息 患者 肺结核 肺结核 病例 依法 报告 肺结核 患者 家属 教育 面向 肺结核 患者 核心 信息 全程 规范 肺结核 耐药 关键 肺结核 传播 家人 社会 义务 责任 面向 核心 信息 患者 服药 定期 复查 规范 房间 通风 个人 面向 流动人口 核心 信息 肺结核 优惠政策 户籍 患者 居住地 全程 主管 医生 患者 居住地 结核病 医疗卫生 机构 面向 教师 核心 信息 结核病 检查 学校 常规 项目 教师 义务 学生 结核病 教育 学生 学校 结核病 定点 医疗卫生 机构 证明 管理 学生 患者 休学 复学 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>办公室 印发 国家 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 科技 部门规章 地方 法规 规章 自治区 直辖市 管理局 直属单位 国家 临床 研究 基地 建设 单位 国家 临床 研究 基地 督导组 成员 临床 科研 模式 特点 研究 方法 国家 临床 研究 基地 临床 研究 能力 效率 国家 临床 研究 基地 业务 建设 工作 总体 部署 国家 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 印发 有关 事项 基地 建设 单位 单位 实际 调查 研究 内容 工作 计划 工作 目标 步骤 工作 责任 系统 建设 有关 科技司 基地 科学院 联系 研究 信息 系统 建设 方案 过程 意见 建议 科技司 基地 业务 建设 督导组 基地 情况 督导 检查 重点 病种 研究 方面 系统 联系人 电话 科技司 科技处 基地 办公室 科学院 国家 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 总则 国家 临床 研究 基地 基地 业务 建设 充分利用 产生 大量 信息 高质量 研究 重点 建设 发展 规划 临床 研究 基地 建设 指导 意见 临床 研究 基地 医疗 临床 科研 信息 系统 建设 基本 基本 基地 医疗 临床 科研 信息 系统 系统 临床 科研 理念 临床 流行病学 循证 医学 原则 充分利用 信息技术 标准化 规范化 基础 计算机 数理统计 数据挖掘 人工智能 方法 临床 研究 技术 平台 系统 建设 目标 临床 研究 特点 基地 利用 临床 实际 数据 研究 关键技术 问题 临床 数据 管理 利用 技术 支撑体系 医疗 临床 科研 信息 整体 基地 临床 研究 能力 效率 基地 国家 服务 科技 体系 龙头 现代化 临床 研究 机构 基地 系统 建设 医院 领导 专职人员 专项经费 协同 建设 原则 系统 建设 基本 技术 指南 基地 医院 信息化 状况 系统 建设 实施方案 基地 临床 研究 系统 重点 病种 临床 研究 导向 充分利用 信息技术 计算机技术 数理统计 方法 高质量 临床 研究 数据 技术 资源 优化 系统 建设 医院 信息系统 基础 检验 图像 管理系统 充分利用 资源 优化 系统集成 技术 信息 孤岛 基地 管理 部门 总体 基础 定期 基地 系统 建设 质量 检查 国家 医疗 临床 科研 信息 系统 专家 指导 小组 基地 系统 建设 实施方案 系统 建设 技术咨询 业务 指导 科学院 基地 系统 共性 产品 技术 服务 项目 整体 部署 人员培训 指导 建设 规划 方案 研究 系统 关键技术 问题 基地 专家组 实施方案 计划 基地 系统 建设 任务 医院 信息系统 建设 系统 有机 融合 系统 临床 充分利用 海量 临床 数据 临床 研究 标准化 知识产权 信息 标准化 工作 系统 建设 基地 人员 信息 标准 质量 工作 基地 系统 建设 国家 行业标准 专家 基地 信息化 建设 标准 体系 系统 规范化 建设 基地 基地 重点 病种 方面 规范 术语 体系 质量关 高质量 临床 数据 国家 知识产权 规定 数据库 数据仓库 权限 管理 办法 单位 部门 个人 知识产权 系统 功能 医疗 临床 科研 信息 系统 临床 术语 术语 字典 数据 系统 数据 管理 数据仓库 数据挖掘 分析 部分 部分 有机 联系 临床 病历 书写 管理 高质量 临床 数据 产生 利用 功能 临床 术语 术语 字典 临床 术语 集是 规范 术语 有机 临床 术语 字典 临床 数据挖掘 利用 基础 规范 术语 来源 系统 建设 发展 基础 术语 字典 数据 系统 临床 规范 术语 工具 临床 数据 模板 病历 书写 术语 来源 系统 建设 统一 临床 术语 临床 术语 术语 字典 基地 临床 医疗 研究 术语 临床 数据 临床 研究 数据 质量 系统 结构化 数据 结构化 文本 临床 医疗 业务 科研 数据 系统 电子 病历 系统 功能 规范 电子 病历 系统 功能 规范 规范 系统 全面 规范 多媒体 格式 临床 信息 文字 表格 图片 音频 视频 系统 医院 系统集成 融合 系统 数据 研究 分析 所需 信息 数据 数据挖掘 工作 有机 病历 质量 临床 研究 数据 质量 监测 功能 数据 管理 原始数据 数据源 特征 数据 系统 全面 动态 数据 批量 汇总 数据 整理 数据 任务 数据 自动 数据仓库 特点 统一 建模 临床 数据仓库 数据 批量 数据 检索 可视化 合理 权限 管理 知识产权 功能 面向 重点 病种 专用 分析 功能 临床 研究 数据挖掘 分析 数据挖掘 基本 工具 基地 数据中心 全面 系统 数据库 管理 数据 整理 汇总 任务 基地 临床 研究 信息技术 中心 专用 工作场地 设备 专职人员 重点 病种 数据挖掘 人员 人员 国家 临床 研究 数据中心 国家 临床 研究 数据库 网络 建设 管理 数据 汇总 分析 研究 任务 基地 数据中心 技术支持 国家 临床 研究 数据中心 临床 基地 信息 双向 流通 机制 基地 信息 技术 管理 规范 附则 基本 科技司 基本 基地 协作单位 基本 附件 医疗 临床 科研 信息 系统 项目 指南 管理 建设 分工 条件 建设 硬件 软件 临床 术语 技术 技术 路线 实施方案 考核 数据 系统 技术 基本 步骤 考核 模板 系统 数据 质量 数据仓库 分析 技术 基本 基础设施 步骤 任务 分工 考核 平台 成果 基础设施 硬件 软件 数据仓库 软件 部署 管理 医疗 临床 科研 信息 系统 系统 临床 科研 理念 利用 信息技术 标准化 规范化 基础 计算机 数理统计 数据挖掘 人工智能 方法 临床 研究 技术 平台 临床 研究 基地 建设 指导 意见 临床 研究 基地 业务 建设 临床 科研 信息 系统 临床 研究 基地 业务 建设 任务 基地 建设 一体 两翼 建设 任务 指导 规范 基地 医疗 临床 科研 信息 系统 建设 医疗 临床 科研 信息 系统 项目 指南 指南 国家 系统 规范 研究 技术 标准规范 建设 基地 国家 统一 指导 系统 建设 基地 管理 部门 定期 基地 系统 建设 质量 检查 基地 系统 建设 基地 建设 总体方案 基础设施 建设 学科 专科 建设 协同 建设 分工 国家 医疗 临床 科研 信息 系统 专家 指导 小组 基地 系统 建设 标准 管理 咨询 科研 方法 指导 临床 科研 信息 学术交流 平台 定期 临床 研究 学术活动 技术 交流 临床 研究 人才 基地 系统 建设 领导小组 设置 机构 专职 人员 领导小组 医院 领导 成员 重点 研究 病种 负责人 科研 信息 医务 职能 科室 负责人 领导小组 基地 系统 建设 规划 重点 研究 病种 技术标准 体系 人员 技术培训 硬件 建设 信息系统 调试 方面 建设 任务 重点 研究 病种 病种 研究 术语 标准 规范 人员 名词术语 重点 病种 术语 字典 重点 病种 病历 模板 基地 科研 管理 医务 部门 科研 数据 质量 体系 规范 监督 重点 病种 数据 过程 指导 重点 病种 术语 模板 标准 体系 中医理论 临床 科研 数据 分析 能力 临床 科研 方法学 研究 人员 重点 病种 疗效 评价 方案 优化 评价 经验总结 研究 工作 基地 信息管理 部门 医院 系统安全 专职人员 语言 软件 编程语言 专业 数据库 能力 人员 数据 系统维护 传输数据 数据 基地 实际 系统 建设 专家 技术 系统 建设 技术咨询 方案 审查 质量 科学院 深入研究 系统 关键技术 问题 基地 共性 产品 技术 服务 项目 整体 部署 人员培训 指导 建设 规划 方案 条件 建设 硬件 系统 医院 信息 网络 基础 系统 医院 硬件 系统 中心 机房 综合 布线 系统 网络 建设 数据库 存储系统 符合国家 国际 建设 规范 技术标准 核心 设备 临床 研究 基地 信息 平台 软件 系统 建设 临床 数据 系统 数据库 管理系统 数据仓库 分析 软件 软件 临床 数据 系统 结构化 电子 病历 系统 信息化 建设 功能 规范 电子 病历 系统 实际 系统 临床 研究 基地 系统 临床 术语 临床 术语 集是 规范 术语 有机 临床 术语 字典 临床 数据挖掘 利用 基础 规范 术语 来源 术语 字典 数据 系统 临床 规范 术语 工具 临床 数据 模板 病历 书写 术语 来源 系统 建设 统一 临床 术语 临床 术语 术语 字典 技术 重点 病种 临床 术语 字典 系统 服务 方面 数据 数据检索 模型 病历 模板 数据 临床 数据 便捷性 灵活性 信息 数据检索 数据检索 调用 实际 检索 术语 能将 术语 术语 属性 同义 术语 编码 检索 模型 数据挖掘 模型 数据 整理 临床 数据仓库 数据挖掘 研究 服务 数据挖掘 结果 真实性 准确性 病历 模板 病历 模板 系统 核心 重点 病种 临床 术语 字典 病历 模板 技术 路线 实施方案 临床 术语 科学院 研制 临床 术语 资源 基地 基地 使用权 版权 科学院 过程中将 基地 情况 术语 重点 病种 临床 术语 字典 基地 重点 病种 研究 典型 病历 文献 病种 术语 统一 重点 病种 临床 术语 字典 结构 重点 病种 临床 术语 属性 临床 术语 重点 病种 临床 术语 字典 重点 病种 临床 术语 字典 术语 来源 临床 术语 若需 规范 重点 病种 临床 术语 字典 重点 病种 临床 术语 字典 术语 术语 术语 术语 时间 时间 结果 人员 权限 重点 病种 研究 专家 重点 病种 临床 术语 字典 术语 标识 重点 病种 临床 术语 字典 字典 权限 重点 病种 研究 专家 痕迹 考核 重点 病种 临床 术语 字典 临床 术语 术语 字典 机制 模式 数据 系统 技术 基本 临床 科研 病历 数据 工具 系统 结构化 电子 病历 工具 临床 医疗 业务 科研 数据 电子 病历 规范 系统 电子 病历 系统 功能 规范 电子 病历 系统 功能 规范 规范 全面 临床 信息 功能 系统 全面 规范 多媒体 格式 临床 信息 文字 表格 图片 音频 视频 医疗系统 系统 医院 系统集成 融合 数据挖掘 系统 有机 系统 数据 数据 数据挖掘 工作 有机 科研 病历 监测 功能 科研 病历 质量 监测 功能 核查 科研 病历 数据 信息 范围 基地 重点 病种 研究 科室 功能模块 基地 系统 项目 合理 分析 单位 功能模块 基础设施 基地 设备 网络 结构化 电子 病历 基本 项目 入场 基地 单位 设备 部门 科室 网络 系统 数据挖掘 分析 系统 专用 服务器 临床 科研 病历 数据 实际 数据库 管理软件 人员 基地 单位 专职 团队 工作 人员 医院 工作人员 基地 科研人员 工作 流程 方法 科室 基础 系统 设计 系统 系统 方案 医院 实际 情况 地区 方案 入场 组织协调 医院 信息系统 系统 工作 系统 医院 系统集成 融合 方案 计划 调研 报告 项目 基地 项目 调研 报告书 医院 项目 领导小组 成员 医院 信息化 现状 医院 硬件 建设 情况 机房 服务器 医院 重点 科室 临床 科室 情况 病历 结构 模板 格式 工作 场所 情况 接口标准 方案 系统 系统 方案 实施方案 计划 项目 调研 工作 方案 基地 单位 整体 实施方案 计划 步骤 项目 启动 会议议程 人员 会议 会议 地点 环境 检查 检查 服务器 客户端 环境 基础 环境 工作 客户端 网络 环境 工作 方案 细节 内容 开发计划 项目 启动 领导小组 动员 项目 工作 工作 计划 科室 调研 医院 情况 调研 科室 调研 重点 病种 临床 科室 病历 模板 资料 测试 商定 方案 计划 工作 环境 工作 实际 测试 模板 制作 重点 病种 临床 术语 临床 术语 部分 模板 电子 病历 系统 功能 规范 电子 病历 系统 功能 规范 规范 模板 制作 模板 模板 小组 专门 重点 病种 科研 模板 病种 模板 整理 制作 工作 调整 病历 模板 元素 内容 临床 科研 计划 项目 负责人 整体 计划 阶段 计划 计划 环境 服务器 客户端 环境 调试 科室 模板 整理 科室 病历 模板 格式 模板 制作 整理 调整 测试 工作 科室 院方 负责人 模板 培训 培训 环境 材料 科室 系统 培训 功能模块 科研 培训 内容 培训 系统 系统 实际 入院 病人 病历 内容 电子 病历 书写 规范 重点 病种 数据 关键点 病历 模板 内容 结构化 病历 信息 结构化 程度 定期 解析 内容 前台 数据 解析 数据 一致性 基地 数据中心 基地 临床 科研 数据 汇总 解析 任务 国家 临床 研究 数据中心 数据 信息 系统维护 电子 病历 整理 定期检查 服务器 客户端 系统 情况 考核 模板 原则 模板 格式 国家 电子 病历 书写 规范 标准 病历 模板 内容 科研 目的 科研 病历 数据 病历 模板 标准化 术语 术语 标准 知识库 病历 内容 后台 术语 库间 病历 模板 基本 元素 数值 典型 文本 重点 病种 病历 数据 测试 病历 解析 病历 数据字 结构 核查 系统 系统 重点 病种 数据 方面 工作 系统 合格 数据 质量 病历 模板 临床 实际操作 病人 入院 记录 病程 记录 手术 记录 量表 出院 记录 信息 书写 重点 病种 临床 研究 目标 关键 信息 病历 内容 病史 舌象 脉象 实验室 检查 特色 病历 内容 结构化 数据仓库 分析 临床 数据 中医理论 方法 疗效 证据 结构化 系统 数据 面向 临床 研究 数据 利用 研究 基地 临床 科研 信息 核心内容 任务 阶段 基地 临床 研究 人员 临床 研究 合理 分析 目标 临床 研究 数据 数据 整理 数据 质量 阶段 研究 过程 交叉 研究 步骤 数据仓库 分析 平台 临床 数据 利用 分析 研究 技术 结构化 临床 数据 数据 利用 分析 步骤 任务 方面 指导 技术 信息化 建设 基本 规范 临床 研究 分析 经验 辅助 功能 规范 国家 临床 研究 基地 临床 科研 信息 数据仓库 分析 技术 基本 数据 数据 结构化 病历 数据 关键 信息 病历 症状 体征 中药 处方 关键 疗效 指标 患者 记录 数据 结构化 病历 数据库 科研 分析 数据 代码 来源 病历 数据 数据仓库 数据 自动 数据 病历 数据 数据仓库 数据 自动 批量 汇总 数据仓库 细节 数据模型 病历 数据 患者 人口 信息 病历 病程 方药 检查 信息 面向 科研 分析 关系 数据模型 病历 数据 汇总 数据 细节 数据 规范 模型 细节 数据模型 数据模型 结构 规范 整理 科研 分析 数据 数据管理 数据库 管理软件 数据仓库 结构化 客户端 软件 环境 机制 数据 整理 数据 数据 整理 临床 术语 系统 临床 信息 标准 词典 症状 体征 方药 检查 规范 标准化 功能 数据 规范 数据 人工 规范 数据 数据 数据格式 整理 数据 分析 数据格式 数据 规范 整理 数据 分析 软件 数据 格式 检索 症状 体征 方药 指标 时间 患者 人口 信息 医生 用户 条件 面向 病种 研究 临床 数据 分析 数据挖掘 分析 专用 分析 平台 实际 临床 数据 面向 重点 病种 临床 研究 分析 专用 分析 功能 经验 处方 随症 规律 分析 临床 数据 方药 临床 优化 方案 经验 研究 临床 研究 数据挖掘 分析 任务 分析 算法 临床 效为 分析 主线 数据 预处理 因素 检验 分类 聚类 分析 网络分析 分析 算法 主题 数据模型 面向 主题 数据模型 检索 功能 数据模型 模式 主题 事实 形式 建模 动态数据 结构化 电子 病历 数据源 数据仓库 平台 医院 信息 来源 临床试验 数据库 动态数据 汇总 技术 基地 个性化 科研 分析 数据源 数据仓库 临床 决策 循证 数据仓库 平台 基础 面向 病种 辅助 决策 功能 临床 证据 分析 证据 证据 方法 辅助 临床 证据 数据挖掘 分析 阶段 方案 分析方法 临床 实际 数据 利用 决策 过程 模型 分析 动态 方案 核心 处方 药随症 规律 分析方法 研制 核心 处方 网络分析 方法 随症 用药 关系 方法 数据仓库 分析 平台 平台 利用 研究 阶段 部分 过程 原则 步骤 基本 基地 信息 条件 实际 临床 数据 病种 临床 研究 基础 数据仓库 分析 平台 病种 临床 研究 有机 基地 临床 研究 专职人员 临床 仓库 分析 平台 建设 研究 平台 扩展性 管理决策 基础设施 基本 局域网络 环境 数据仓库 分析 平台 软件 环境 硬件 数据仓库 服务器 分析 数据 管理 性能 内存 基础 重点 大容量 磁盘 盘阵 服务器 分析 报表 应用服务 服务 能力 数据处理 分析 工作站 数据 软件 分析 功能 数据 分析 高端 性能 服务器 软件 数据库 管理软件 中间件 软件 数据仓库 软件 部署 数据库 环境 数据表 细节 数据表 数据表 网络分析 数据表 系统 所需 信息 软件 部署 信息 数据库 报表 网络分析 系统 部署 步骤 数据仓库 分析 平台 临床 研究 平台 数据 数据仓库 专用 数据挖掘 检索 部分 功能 系统 数据 系统 分析 数据 数据仓库 系统 分析 数据 临床 研究 内容 数据 元素 关系 管理 结构化 服务 专用 数据挖掘 分析 系统 数据仓库 数据组织 模式 基础 数据挖掘 分析 算法 面向 数据 检索 系统 数据仓库 数据 检索 临床 数据 显性 数据 关系 数据仓库 系统 数据库 管理系统 基础 数据库 数据仓库 关系 数据表 临床 研究 问题 对应 数据 内容 数据模型 设计 软件 设计 数据模型 模型 数据仓库 数据表 数据 系统 测试 硬件 服务器 环境 数据 系统 部署 结构化 数据 数据 数据 测试 数据 一致性 专用 数据挖掘 系统 测试 专用 数据挖掘 分析 系统 数据仓库 系统 联机 数据仓库 数据 数据 测试数据 样例 功能 测试 检索 分析 系统 分析 设计 检索 分析 系统 数据模型 临床 分析 问题 基础 分析 设计 工具 水晶 报表 分析 报表 设计 平台 流程 临床 数据 利用 分析 临床 利用 阶段 任务 利用 临床 结构化 数据 重点 病种 重点 科室 临床 分析 目标 临床 数据 数据挖掘 分析 临床 研究成果 总结 科研任务 分析 经验 平台 流程 数据 利用 分析 流程 部分 内容 测试 平台 分析 基地 平台 分析 测试阶段 分析 目的 基地 目标 分析 技术 环节 基地 分析 人员 平台 功能 培训 任务 基地 平台 分析 基地 分析 人员 临床 研究 人员 常规 分析 研究 平台 研究组 人员 技术 指导 分析 过程 平台 功能 优化 分析 临床 研究 基地 临床 人员 病种 研究 特点 面向 分析 临床 研究 临床 研究 目标 内容 分析 数据 条件 研究 目标 临床 数据 内容 病史 症状 体征 指标 药物 结局 指标 临床 角度 数据 研究 目标 程度 研究 目标 数据 充分利用 基地 数据 优势 特点 临床 研究 核心 目标 数据 数据 质量 部分 工作 基地 临床 研究 人员 分析 目标 临床 人员 临床 研究 目标 平台 技术 人员 分析 临床 数据 情况 角度 临床 人员 面向 分析 临床 研究 数据 信息 利用 数据 系统 数据 数据 整理 数据 功能 临床 数据仓库 科研 临床 结构化 临床 数据 分析 目标 数据 元素 变量 规范 整理 整理 数据 数据 分析 数据 内容 临床 病历 内容 分析 数据 显性 分析 利用 检索 分析 系统 分析 功能 临床 分析 目标 报表 检索 分析 结果 临床 结果 分析 隐性 分析 临床 研究 基地 分析 目标 数据仓库 整理 数据 专用 数据挖掘 系统 数据挖掘 建模 分析 数据挖掘 分析方法 数据挖掘 分析 任务 利用 临床 理论 分析 结果 总结 规律 特点 专家 知识库 指导 医生 结果 临床 成果 总结 结果 分析 结果 基地 临床 研究 人员 预期 研究 目标 情况 分析 步骤 数据 重新处理 分析 临床 研究成果 总结 基础理论 预期 临床 研究 目标 基地 临床 研究 人员 分析 结果 理论 临床 研究成果 数据 利用 分析阶段 流程 任务 分工 原则 平台 阶段 技术 人员 基地 临床 研究 专职人员 条件 建设 数据 利用 分析阶段 基地 临床 研究 专职人员 技术 人员 技术 指导 辅助 具体任务 平台 过程 任务 基础设施 专职人员 条件 专职 数据仓库 数据处理 分析 人员 数据 测试 数据 数据 内容 数据 整理 分析 报表 测试 步骤 利用 任务 分析 主体 工作 基地 分析 人员 培训 基地 临床 研究 平台 基础 分析 工作 专职 分析 人员 基地 临床 研究 人员 平台 研究组 人员 重点 分析方法 任务 指导 临床 研究 数据 内容 临床 研究 关键 分析 研究 结果 实际 数据 条件 基础 合理 临床 研究 数据 整理 数据 整理 保证数据 数据 质量 预期 目标 环节 工作量 步骤 专职 临床 研究 人员 结果 面向 病种 分析 结果 临床 阶段性 问题 平台 技术 研究成果 基地 病种 研究 平台 临床 数据 基础 价值 临床 研究 结果 病证 经验 规律 优势 病种 方案 考核 平台 基本功能 功能 数据仓库 分析 平台 平台 数量 住院 门诊 病历 记录 分析 利用 临床 数据 数据 内容 分析 成果 平台 实际 临床 数据 分析 研究成果 典型 医案 分析 案例 典型 医案 数据仓库 平台 分析方法 研究 专家 病证 经验 面向 基地 病种 优化 方案 实际 临床 数据 临床 研究 研究 机制 模式 基础设施 基本 局域网络 环境 数据仓库 分析 平台 软件 环境 硬件 数据仓库 服务器 分析 数据 管理 性能 内存 基础 重点 大容量 磁盘 盘阵 服务器 分析 报表 应用服务 服务 能力 数据处理 分析 工作站 数据 软件 分析 功能 数据 分析 高端 性能 服务器 软件 数据库 管理软件 中间件 软件 数据仓库 软件 部署 数据库 环境 数据表 细节 数据表 数据表 网络分析 数据表 系统 所需 信息 软件 部署 信息 数据库 报表 网络分析 系统 部署</t>
+  </si>
+  <si>
+    <t>国家 委员会 人口 信息化 建设 指导 意见 国家 委员会 人口 信息化 建设 指导 意见 规划 自治区 直辖市 人口 计生委 计生委 管理局 人口 计生委 机关 司局 直属 联系 单位 建设 人口 信息化 计生 服务 管理水平 意见 人口 信息化 建设 重要性 紧迫性 信息化 经济 社会 发展 驱动力 人口 信息化 国家 信息化 建设 重点 领域 医药卫生 内容 国民 生活 质量 国家 综合 实力 标志 领导 有关 部门 系统 人口 信息化 建设 全面 发展 计生 服务 管理水平 城乡 传染病 公共卫生 事件报告 网络 全面 临床 电子 病历 建设 内容 医院 信息化 建设 进展 远程 系统 基层 医疗卫生 步伐 居民 试点 信息 标准 体系 建设 日益 标准 规范 人口 信息化 建设 部分 地方 信息 平台 地市 区域 信息 平台 区域 信息 区域 业务 协同 国家 全员 人口 信息 资源库 人口 信息 人口 业务 人口 决策 数据 服务 模式 服务 管理 信息 跨部门 地域 服务 管理 粗放型 精细化 人口 信息化 建设 问题 计生 信息系统 区域 信息 平台 覆盖面 联网 水平 系统 互通 信息 业务 协同 计生 服务 能力 水平 人民 群众 医疗卫生 机构 信息化 建设 状态 医疗卫生 机构 信息化 建设 发展 数据 信息 资源 水平 科学决策 能力 制度 管理 人才 资金 信息 标准 体系 信息化 建设 时期 医药卫生 攻坚 阶段 基本 医疗卫生 制度 关键时期 人口 信息化 决策 战略部署 人口 信息化 建设 机遇 信息技术 人口 生命周期 精细化 人口 服务 人口 社会 全面 大力 人口 信息技术 计生 融合 发展 服务水平 服务 模式 管理工作 机制 手段 事关 目标 事关 基本国策 事关 计生 事业 科学 发展 人口 信息化 建设 人人 基本 医疗 服务 目标 战略意义 现实意义 基本 原则 总体 框架 建设 目标 基本 原则 国家 信息化 发展 战略 部署 制度 先行 设计 业务 协同 原则 生育 政策 计生 融合 发展 全面 人口 信息化 工作 业务 系统 协同 评估 运维 机制 科学决策 精细化 管理 个性化 服务水平 重点 行业 发展 总体 框架 人口 信息 资源 制度 标准 体系 建设 全员 人口 信息 电子 档案 电子 病历 数据库 资源 公共卫生 医疗 服务 医疗保障 药品 管理 综合 管理 业务 建设 国家 人口 信息 平台 平台 业务 枢纽 居民 群众 计生 服务 介质 计生 机构 机构 统一 网络 业务 信息 协同 总体目标 业务 管理 导向 全面 人口 信息 网络体系 医药卫生 基本国策 事业 发展 计生 服务 管理水平 人人 基本 医疗卫生 服务 目标 有力 信息技术 阶段 目标 基本 计生 机构 信息 网络安全 区域 重点 全员 人口 信息 电子 档案 电子 病历 数据库 建设 试点 地区 地方 实际 合理 信息 平台 业务 基本 省份 地市 县区 综合 改革 试点 地区 试点 地区 居民 时期 新一轮 信息技术 革命 人口 信息化 全力 重点 业务 全员 人口 信息 电子 档案 电子 病历 数据库 基本 覆盖全国 人口 全面 信息 平台 业务 业务 协同 信息 居民 全国 一卡通 重点 任务 健全制度 统一标准 体系 人口 信息化 管理制度 居民 工作 机制 管理制度 区域 人口 信息 平台 全员 人口 信息 电子 档案 电子 病历 数据库 建设 和运维 管理 工作 机制 工作 业务 发展 计生 科学 发展 数据 管理 方面 人口 信息化 标准规范 体系 全员 人口 信息 电子 档案 电子 病历 数据 标准 技术规范 统一 人口 数据 值域 代码 数据库 业务 领域 信息 标准 协同 业务 术语 标准 数据 标准 统一 接口标准 信息化 标准 管理工作 机制 信息 标准 人口 软件 终端 网络 标准 测试 标准 评估 人口 信息系统 标准 统一 互通 发展 建设 数据库 全员 人口 信息 数据库 建设 全员 人口 信息 动态 管理 人口 经济社会 资源 环境 全面 发展 居民 电子 档案 数据库 建设 居民 电子 档案 数据库 区域 基层 计生 机构 信息 动态 业务 协同 公共卫生 基层 医疗卫生 应用服务 水平 居民 个人 档案 信息 自我保健 管理 能力 全民 水平 电子 病历 建设 电子 病历 核心 医院 信息 资源整合 医疗 服务 效率 质量 监管 公益性 区域 信息 平台 居民 基本 信息 检查 检验 结果 医学影像 用药 记录 医疗机构 信息 区域 居民 电子 档案 电子 病历 动态 数据 质量 全员 人口 信息 电子 档案 电子 病历 数据库 数据库 基本 信息 一致性 准确性 完整性 基础 部门 信息 临床 基础医学 科学研究 水平 信息 资源 综合 信息 人口 战略决策 精细化 服务 管理 建设 业务 系统 建设 计生 业务 领域 公共卫生 医疗 服务 医疗保障 药品 管理 综合 管理 重点 业务 系统 数据 联网 联网 技术 人口 信息化 业务 水平 公共卫生 信息系统 建设 数据 协同 疾病 防控 教育 妇幼 血液 管理 综合 监督 应急 决策 信息系统 业务 能力 计生 门户网站 服务 热线 建设 基本 公共卫生 服务 均等化 信息系统 建设 人口 信息 监测 预警 机制 流动人口 服务 管理 地域 业务 协同 人口 性别比 利益 导向 政策 依法行政 便民服务 家庭 发展 能力 人口 目标 管理 责任制 考核 人口 工作 转型 发展 医疗 服务 信息系统 建设 电子 病历 远程 医疗 优化 医疗 服务 流程 规范 医疗 服务 信息化 手段 医疗 服务质量 效率 医疗 方便群众 医疗保障 信息系统 计生 行业 医疗 体系 信息 新农 信息系统 新农 基金 监管 水平 效率 农民 异地 结报 全国 新农 业务 监控 信息 决策 医疗机构 公共卫生 机构 药品 供应 信息系统 基本 药物 管理 药品 医疗器械 招标 物流配送 管理 监管 综合 管理 信息系统 人口 信息 数据 准确性 信息 数据 能力 计生 机构 业务 工作 财务管理 精细化 管理 计生 战略决策 政策 规划 合理 信息 平台 建设 标准 统一 融合 有机 国家 人口 信息 平台 服务 人口数量 地域 特点 合理 规划 建设 地市 区域 信息 平台 联通 区域 计生 机构 信息系统 服务 居民 中心 公共卫生 医疗 服务 医疗保障 药品 管理 综合 管理 业务 远程 挂号 双向 咨询 服务 传染病 防控 预防接种 重点 精神障碍 报告 管理 电子 病历 电子 档案 信息 居民 个人 档案 区域 医疗卫生 人员 绩效考核 计生 服务 监管 药物 监管 精细化 管理 联通 信息 平台 区域 业务 协同 信息 平台 数据 辖区 内地 信息 平台 全省 居民 电子 档案 业务 功能 综合 管理 科学决策 区域 信息 业务 协同 全员 人口 信息 数据库 辖区 服务 管理 联通 国家 平台 跨省 业务 协同 国家 平台 数据 平台 管理 疾病 妇幼 综合 监督 新农 应急 管理 功能 信息 资源库 主题 数据库 全国 人口 信息 数据挖掘 综合 分析 国家 人口 管理 决策 跨省 业务 领域 信息 业务 协同 有关 部门 信息系统 信息 人口 信息网络 统一 建设 人口 信息化 建设 重点 信息 计生 业务 协同 数据 信息 资源 数据 优势 人口 科学决策 服务 管理水平 国家 电子政务 外网 骨干 网络 人口 信息网络 网络 覆盖面 信息 平台 平台 计生 机构 信息系统 行业 信息 业务 协同 居民 建设 居民 介质 人口 信息 平台 全员 人口 信息 电子 档案 电子 病历 信息 居民 专属 功能 居民 身份 基本 信息 区域 机构 费用 居民 个人 电子 信息 动态 个人 疾病 监测 管理 优化 规范 流程 居民 计生 服务 信息安全 体系 建设 国家 信息安全 制度 分级 制度 信息安全 审查 制度 规划 设计 人口 信息系统 平台 建设 管理机制 制度 信息安全 体系 建设 容灾 备份 工作 系统 信息安全 电子 技术 基础 网络 信任 体系 建设 统一 体系 业务 居民 信息安全 体系 建设 信息 发展 重点 工程 全面 全民 信息化 工程 工程 国家 政务 信息化 规划 建设 全民 信息化 工程 政务 部门 信息 业务 协同 公共卫生 事件 能力 疾病 防控 能力 综合 监督 公众 能力 基层 医疗卫生 服务 能力 医疗卫生 事业 行政 监督管理 水平 远程 医疗 服务 能力 基本 公共卫生 服务 均等化 人民 群众 医疗卫生 服务 重点 疾病 防控 网络 主体 协同 公共卫生 信息系统 风险 监测 评估 主体 信息系统 城乡 公共卫生 医疗 服务 综合 监督 信息系统 基本 药物 采购供应 管理 居民 管理 绩效考核 功能 基层 医疗卫生 管理系统 妇幼卫生 监测 孕产妇 儿童 管理 生殖 服务 妇幼 服务 信息系统 城乡居民 电子 档案 电子 病历 重点 建设 医院 医药 医疗 业务 协同 居民 监测 咨询 医疗 公共服务 信息系统 医疗机构 分级 协作 费用 核查 建设 基本 药物 制度 基本 医疗卫生 服务质量 绩效评价 信息系统 国家 全员 人口 工程 建设 全员 人口 信息 业务 办理 人口 服务 管理 国家 全员 人口 数据中心 标准 统一 全员 人口 管理 信息 资源 公共服务 管理 基本 全国 流动人口 信息 异地 办证 人口 医学 证明 信息系统 人口 信息 监测 性别比 家庭 主体 信息管理 家庭 利益 导向 人口老龄化 政策 人口 政策 辅助 决策 支撑体系 人口 总量 素质 结构 动态 家庭 发展 能力 人口 城镇化 关系 社会 发展 问题 动态 监测 分析 评价 科学 预测 政策 信息 全面 业务 基础设施 数据 信息 数据 信息 工程 信息 消费 扩大内需 远程 医疗 居民 建设 信息 工程 建设 国家 远程 医疗 服务 监管 系统 远程 医疗 服务 信息系统 远程 医疗系统 远程 医疗 服务 资源 远程 远程 影像 远程 心电 远程 病理 远程 监护 远程 医学 服务 居民 医疗机构 新农 人群 新生儿 群体 职业 人群 无偿献血者 人群 服务 居民 情况 医院 评审 考核 指标 区域 人口 信息化 全国 区域 人口 信息化 成功经验 居民 医疗卫生 人员 绩效考核 电子 区域 人口 信息 业务 协同 资源 集约 流程 科学 服务 规范 服务 模式 居民 优质 医疗卫生 服务 居民 管理 理念 管理 监管 绩效考核 政府 补偿 核心 监管 体系 整体 效应 信息化 建设 继续加强 人口 信息化 综合 建设 工作 居民 电子 档案 电子 病历 门诊 管理 综合 管理 信息 平台 区域 信息 平台 建设 医疗卫生 机构 单位 建设 统一 基层 医疗卫生 机构 基本 药物 招标 采购供应 居民 管理 公共卫生 监测 服务 规范化 绩效考核 基本功能 基层 医疗卫生 机构 规范化 服务质量 水平 医疗卫生 机构 药品 电子 监管 系统 建设 医疗机构 疾控 机构 药品 疫苗 全程 监管 事件 应急 信息化 建设 国家 突发事件 应急 体系 建设 规划 基础 应急 决策 信息系统 建设 移动 应急 平台 建设 应急 监测 应急 信息 数据 分析 研判 能力 应急 预警 评估 辅助 决策 现场 异地 会商 队伍 物资 管理 调度 国家 信息 反应 应急 体系 服务 信息化 建设 人口 信息 平台 计生 业务 协同 信息 建设 电子政务 综合 系统 医院 社区卫生 服务中心 电子 病历 医疗 信息系统 中药 资源 基础 数据服务 动态 监测 信息系统 建设 民族 医药 信息化 能力 建设 措施 机制 计生 行政部门 领导 人口 信息化 管理 专业 机构 业务部门 机构 信息化 建设 工作 职责 任务 信息化 建设 业务 指导 监督 评估 信息化 建设 年度 目标 考核内容 部门 政策 方面 人口 信息化 工作 制度 人才队伍 建设 人口 信息化 管理机制 规章制度 体系 人口 信息化 建设 管控 有序 重点 人才队伍 建设 高端 急需 人才 基层 人才 业务培训 考核 职称 制度 制度 人才队伍 管理 保障制度 力度 计生 行政部门 统筹安排 信息化 建设 资金 会同 发展 改革 财政 信息化 管理 有关 部门 人口 信息化 建设 科研 资金投入 重点 系统 运维 经费 人口 信息化 建设 体制 机制 信息化 归口 管理 业务部门 分工协作 工作 机制 政府 部门 社会 便民 合作 人口 信息化 建设 模式 充分利用 信息 资源 专业 咨询机构 科研机构 知识产权 知名企业 战略 合作 充分发挥 信息 学会 协会 行业软件 评价 机制 国家 计生委 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 印发 人口 信息管理 办法 国家 委员会 印发 人口 信息管理 办法 规划 自治区 直辖市 计生委 人口 计生委 人口 计生委 机关 司局 直属 联系 单位 规范 人口 信息 管理工作 人口 信息 利用 计生 事业 科学 发展 法律法规 研究 人口 信息管理 办法 印发 国家 计生委 人口 信息管理 办法 规范 人口 信息 管理工作 人口 信息 利用 计生 事业 科学 发展 办法 办法 医疗卫生 计生 服务 机构 人口 信息 管理 利用 工作 办法 人口 信息 国家 法律法规 工作 职责 医疗卫生 计生 服务 机构 服务 管理 过程 产生 人口 基本 信息 医疗卫生 服务 信息 人口 信息 电子签名 有关 法律法规 规定 人口 电子信息 纸质 文本 法律效力 人口 信息管理 工作 统一标准 属地 管理 责权 便民 计生 行政部门 行政部门 人口 信息 主管部门 国家 计生委 全国 人口 信息 发展 规划 管理 规范 指导 全国 人口 信息管理 工作 地方 计生 行政部门 指导 监督 本行政区域 人口 信息管理 工作 医疗卫生 计生 服务 机构 服务 机构 人口 信息 利用 管理 人口 信息管理 责任 单位 责任 单位 利用 管理 人口 信息 法律法规 规定 医学 原则 信息安全 责任 单位 单位 人口 信息 利用 管理 情况 人口 信息管理 部门 岗位职责 人口 信息 质量 管理制度 利用 信息系统 标准 程序 标准 统一 术语 规范 内容 责任 单位 一源 原则 人口 信息 信息 业务 管理 服务 管理 对象 单位 信息系统 身份 标识 基本 数据项 一致性 信息 信息 程序 人口 信息 分级 责任 单位 国家 管理工作 产生 人口 信息 规定 数据 容灾 备份 管理 条件 人口 信息 容灾 备份 工作 机制 定期 备份 检测 数据 历史数据 管理 责任 单位 服务 管理工作 人口 信息 信息 状态 人口 信息 服务器 服务器 委托 机构 运维 人口 信息 委托 单位 人口 信息 管理 责任 委托 运维 机构 委托 协议 人口 信息管理 技术支持 权限 利用 人口 信息 责任 单位 管理 人口 信息 主管部门 职能 机构 管理 人口 信息 人口 信息 利用 分类管理 人口 信息 利用 医学 研究 科学决策 便民服务 水平 目的 依法 社会 信息 保密 信息 信息 责任 单位 人口 信息 工作 制度 利用 有关 信息 利用 单位 个人 范围 利用 人口 信息 责任 单位 服务 管理 对象 人口 个案 信息 服务 信息 渠道 责任 单位 人口 信息安全 工作 国家 信息安全 制度 建设 人口 信息 系统安全 保障体系 管理制度 技术规范 人口 信息安全 利用 单位 个人 人口 信息安全 工作 国家 秘密 人口 信息系统 国家 信息管理 分级 责任 单位 痕迹 管理制度 人口 信息 用户 身份 管理 人口 信息 系统 信息技术 产品 服务提供者 信息安全 审查 制度 方式 合理 技术支持 服务 人口 信息 系统 条件 计生 行政部门 本行政区域 责任 单位 人口 信息管理 工作 监督 检查 本行政区域 责任 单位 人口 信息 工作 指导 监督 精细化 人口 服务 管理 能力 计生 行政部门 通报制度 单位 个人 人口 信息 利用 人口 信息系统 建设 技术支持 过程 办法 规定 主管部门 责任 单位 通报 情节严重 国家 法律法规 法律法规 追究其 法律责任 计生 行政部门 人口 信息管理 工作 责任 制度 办法 规定 主管部门 责任 单位 主管部门 情节 督导 行政处分 建议 办法 印发 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 印发 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 部门规章 自治区 直辖市 计生委 直属单位 新农 信息化 建设 指导 国家 新农 信息 平台 新农 信息 平台 医院 信息系统 联通 新农 基础 数据 业务 数据 跨省 数据 国家 新农 信息 平台 新农 信息 平台 系统 研究 论证 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 国家 委员会 网站 印发 附件 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 国家 委员会 办公厅 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 目录 适用范围 规范性 术语 定义 缩略语 国家 平台 联通 平台 技术 方案 技术 方案 网络 环境 流程 内容 服务 技术 方案 网络 环境 模式 身份验证 服务 国家 平台 联通 医院 信息系统 技术 方案 网络 环境 流程 内容 内容 频率 内容 结构设计 服务 医院 信息系统 调用 模式 医院 信息系统 拷贝 模式 页面 模式 内容 结构 医疗机构 管理机构 数据 乡镇 档案 数据 农民 家庭 数据 农民 个人 数据 医疗 记录 补偿 数据 基金 管理 数据 医院 信息系统 数据 报表 内容 结构 卫统 报表 情况 调查表 卫统 报表 新农 基金 情况 调查表 卫统 报表 新农 基金 分配 情况 调查表 卫统 报表 新农 补偿 情况 调查表 住院 补偿 卫统 报表 新农 补偿 情况 调查表 门诊 补偿 卫统 报表 新农 补偿 情况 调查表 补偿 卫统 报表 新农 经办 机构 调查表 疾病 医疗保障 水平 试点工作 基本 情况 调查表 疾病 医疗保障 水平 试点工作 补偿 情况 季度 报表 新农 数据 字典 疾病 目录 药品 项目 材料 行政区域 数据 代码 规范 性别 代码 国家标准 个人 基本 信息 分类 代码 婚姻状况 代码 国家标准 婚姻状况 代码 民族 代码 国家标准 民族 代码 地区 代码 国家标准 健康状况 代码 国家标准 健康状况 代码 家庭 关系 代码 家庭 关系 代码 职业 分类 代码 国家标准 医疗卫生 专业 技术 职务 代码 国家标准 属性 代码 户口 类别 代码 标志 代码 个人 状态 代码 卫生机构 分类 代码 行业标准 机构 关系 代码 国家标准 科室 代码 定点 医疗机构 类型 代码 资助 部门 类型 代码 医疗机构 级别 代码 疾病 分类 代码 国家标准 入院 状态 代码 信息 数据 值域 代码 部分 医学 住院 疾病 状态 代码 出院 状态 代码 病情 代码 医疗 服务项目 代码 类型 代码 补偿 类别 代码 属性 代码 手术 名称 代码 补偿 帐户 类别 代码 状态 代码 指标 代码 基本 药品 目录 会计科目 代码 标识 代码 报告期 代码 医院 资质等级 户籍 类型 机构 类型 名称 行政级别 医疗 状态 项目 类别 跨省 项目 类别 病案 费用 类别 适用范围 方案 国家 新型农村 合作医疗 信息 平台 国家 平台 联通 新型农村 合作医疗 信息 平台 平台 医院 信息系统 网络 环境 部署 数据处理 流程 传输服务 方案 指导 国家 平台 平台 医院 信息系统 联通 新农 数据 国家 平台 平台 系统 新农 监控 跨省 管理 远程 平台 技术 规范性 新型农村 合作医疗 基本 规范 修订版 新型农村 合作医疗 信息系统 基本 规范 数据 格式 公民 身份 号码 性别 代码 婚姻状况 代码 民族 名称 拼写法 代码 文化 程度 代码 户口 类别 代码 信息 数据 目录 信息 数据 值域 代码 城乡居民 档案 基本 数据 居民 技术规范 部门 新型农村 合作医疗 制度 意见 新型农村 合作医疗 信息系统 建设 指导 意见 办公厅 新型农村 合作医疗 试点工作 卫办 基妇 新型农村 合作医疗 试点工作 农卫 信息系统 基本 公通字 医院 信息系统 软件 基本功能 规范 政务信息 资源 体系 对象 协议 服务 描述语言 服务 业务流程 语言 印发 全国 新型农村 合作医疗 制度 农卫司 调整 新农 疾病 医疗保障 试点 信息 报表 术语 定义 信息 基本 数据 规范 术语 定义 方案 方案 术语 定义 新型农村 合作医疗 新农 政府 农民 个人 集体 政府 筹资 大病 农民 医疗 共济 制度 国家 新型农村 合作医疗 信息 平台 服务 决策 联系 新农 信息网络 枢纽 海量 数据 数据 业务 监测 功能 费用 核查 农民 医疗机构 费用 纸质 凭证 信息 经办 机构 经办 机构 管理人员 国家 平台 费用 数据 核查 凭证 信息 真实性 过程 异地 结报 农民 医疗机构 费用 纸质 凭证 信息 经办 机构 经办 机构 管理人员 异议 国家 平台 费用 数据 核查 补偿 方案 金额 补偿 费用 农民 银行帐户 过程 标记 语言 标记 电子 结构性 标记 语言 标记 数据 定义数据 类型 用户 标记 语言 定义 源语言 自描述 模块化 定位 调用 专用 网络 通讯 协议 专用 网络 通讯 线路 中间件 网络 环境 数据库 软件 标准接口 协议 异构 系统 数据 平台 医院 信息系统 新农 国家 平台 过程 新农 数据 新农 基本 数据 业务 数据 跨省 数据 数据 平台 医院 信息系统 国家 平台 数据 过程 国家 平台 数据 跨省 数据 管理 数据 信息 缩略语 缩略语 方案 国际 疾病 分类 国际 疾病 分类 第九版 临床 国家 平台 联通 平台 医院 信息系统 技术 方案 网络 环境 流程 内容 频率 定义 国家 平台 平台 医院 信息系统 服务 技术 方案 网络 环境 模式 方案 国家 平台 联通 平台 技术 方案 国家 平台 联通 医院 信息系统 技术 方案 部分 方案 技术 方案 适用范围 规范性 术语 定义 缩略语 规范 内容 格式 数据 代码 规范 内容 格式 数据 代码 规范 新型农村 合作医疗 基本 规范 修订版 数据字 标识 编号 基本 数据 代号 新型农村 合作医疗 基本 规范 修订版 数据 代码 规范 代号 新型农村 合作医疗 基本 规范 修订版 基本 数据 新型农村 合作医疗 基本 规范 修订版 基础 数据 代号 新型农村 合作医疗 基本 规范 修订版 基础 数据 服务 数据 服务 国家 平台 医院 信息系统 服务 数据 元值 数据类型 方案 字符 形式 字符 形式 枚举 代码 形式 数据 元值 数据类型 规则 数据类型 字符 字符 形式 类型 字母 字符 数字 字符 又称 逻辑 形式 类型 数值 数字 形式 类型 格式 类型 时间 格式 类型 字符 时间 标志符 时间 时间 时间 格式 类型 二进制 无法 数据类型 图像 音频 视频 二进制 数据 元值 格式 数据 元值 格式 字符 含义 规则 字母 字符 数字 字符 字母 数字 字符 格式 年份 月份 格式 小时 格式 字符 时间 标志符 时间 字符 数据 元值 格式 字符 规则 数据类型 字符 数目 定义 字符 数据类型 数据 字符 数目 定义 字符 数据类型 字符 字符 字符 规定 字符 规定 字符 小数位 字符 整数 位数 小数点 位数 国家 平台 联通 平台 技术 方案 技术 方案 网络 环境 平台 国家 平台 联通 平台 部署 前置 平台 业务 影响 前置 服务器 建议 部署 双机 热备 前置 机应 性能 内存 硬盘 网卡 双网卡 分配 地址 设备 建议 国家 平台 品牌 设备 部署 环境 系统 环境 版本 防火墙 流程 新农 平台 新农 数据 方案 规定 格式 国家 平台 中间件 国家 平台 国家 平台 数据 校验 国家 平台 数据中心 平台 流程图 流程 数据 平台 国家 平台 标记 语言 标准 数据 数据 平台 调用 前置 部署 程序 数据 前置 前置 数据 网络 传输 国家 平台 前置 数据 数据 规则 传输 国家 平台 前置 机上 数据 数据 前置 数据 入库 数据 入库 规则 数据 规范 数据 国家 平台 中心 数据库 数据 国家 平台 数据 程序 国家 中心 数据库 平台 数据 跨省 费用 核查 数据 标准 格式 国家 平台 前置 数据 国家 平台 前置 程序 平台 数据 网络 平台 前置 数据 平台 系统 调用 前置 数据 系统 内容 内容 频率 内容 频率 新农 业务 数据 基础 数据 新农 定点 医疗机构 管理机构 乡镇 基本 情况 医疗机构 数据 新农 管理 经办 机构 数据 乡镇 档案 数据 频率 数据 农民 家庭 个人 基本 情况 情况 频率 医疗 记录 补偿 数据 农民 基本 情况 情况 补偿 情况 农民 医疗 记录 补偿 数据 门诊 基础 数据 门诊 数据 门诊 费用 补偿 数据 住院 基础 数据 住院 数据 住院费用 补偿 数据 数据 频率 补偿 数据 数据 频率 基金 管理 数据 全省 新农 基金 情况 基金 数据 基金 规划 数据 基金 分配 数据 基金 数据 农民 家庭 帐户 管理 数据 基金 数据 基金 规划 数据 基金 分配 数据 农民 家庭 帐户 管理 数据 频率 基金 数据 频率 报表 数据 全省 新农 情况 疾病 医疗保障 试点工作 情况 全国 新型农村 合作医疗 调查 制度 规定 卫生统计 报表 疾病 医疗保障 水平 试点工作 基本 情况 调查表 基本 情况 报表 疾病 医疗保障 水平 试点工作 补偿 情况 季度 报表 补偿 情况 报表 卫生统计 报表 数据 频率 全国 新型农村 合作医疗 调查 制度 规定 基本 情况 报表 频率 补偿 情况 报表 频率 新农 补偿 方案 补偿 方案 情况 年度 补偿 方案 补偿 方案 频率 跨省 业务 数据 外省 农民 跨省 医疗 记录 补偿 数据 外省 农民 定点 医疗机构 跨省 医疗 记录 补偿 情况 频率 费用 核查 申请单 数据 新农 管理 经办 机构 农民 定点 医疗机构 费用 核查 情况 频率 内容 频率 跨省 核查 定点 医疗机构 数据 跨省 费用 核查 功能 定点 医疗机构 数据 频率 跨省 信息 服务 农民 跨省 核查 定点 医疗机构 数据 频率 跨省 信息 批量 农民 跨省 核查 定点 医疗机构 数据 频率 内容 结构设计 格式 平台 国家 平台 数据 双向 格式 内容 格式 设计 新型农村 合作医疗 基本 规范 修订版 规范 全国 新型农村 合作医疗 调查 制度 调查 制度 农卫司 调整 新农 疾病 医疗保障 试点 信息 报表 规范性 数据 类别 内容 内容 格式 基础 数据 新农 定点 医疗机构 规范 住院 床日 门诊 费用 住院费用 职能 机构 类型 管理机构 数据格式 乡镇 规范 行政区域 代码 行政区域 名称 行政区域 全称 机构名称 数据 农民 家庭 基本 数据 规范 户籍 类型 医疗 卡号 户主 代码 医疗 状态 农民 家庭 数据 规范 年度 农民 家庭 资助 数据 数据格式 农民 个人 基本 数据 规范 个人 代码 居民 卡号 农民 个人 数据 规范 个人 代码 年度 地区 代码 属性 医疗 记录 补偿 数据 门诊 基础 数据 规范 机构名称 地区 代码 年度 症状 疾病诊断 代码 疾病诊断 名称 疾病诊断 代码 疾病诊断 名称 门诊 数据 规范 项目名称 单位 地区 代码 个人 代码 补偿 金额 门诊 费用 补偿 数据 规范 补偿 机构名称 地区 代码 个人 代码 民族 药费 门诊 费用 补偿 年度 基金 补偿 金额 民政 救助 金额 保险 补偿 金额 年度 金额 住院 基础 数据 规范 机构名称 入院 科室 名称 出院 科室 名称 医院 名称 地区 代码 手术 名称 代码 手术 名称 疾病诊断 代码 疾病诊断 名称 疾病诊断 代码 疾病诊断 名称 年度 名称 住院 数据 规范 项目名称 单位 地区 代码 个人 代码 补偿 金额 住院费用 补偿 数据 规范 机构名称 个人 代码 地区 代码 补偿 年度 住院 民族 药费 费用 基金 补偿 金额 民政 救助 金额 年度 数据 规范 经办 机构名称 医院 名称 医院 名称 姓名 地区 代码 疾病 名称 数据 规范 补偿 数据 数据格式 基金 管理 数据 农民 家庭 账户 管理 规范 地区 代码 年度 基金 规范 季度 基金 分配 规范 基金 规范 月份 基金 规划 数据格式 全国 新农 合卫统 报表 数据 卫统 卫统 卫统 卫统 卫统 卫统 卫统 调查 制度 疾病 医疗保障 试点 信息 报表 基本 情况 调查表 基本 情况 调查表 补偿 情况 季度 报表 补偿 情况 季度 报表 跨省 数据 费用 核查 申请单 数据格式 跨省 基础 数据 跨省 数据 服务 服务 面向 引擎 核心 架构 异构 系统 复杂性 动态性 可扩展性 国家 平台 服务 服务 调用 格式 信息 新农 标记 语言 格式 新农 标记 语言 格式文件 国家 新农 数据中心 报文 统一 类型 数据 基本 理念 报文 报文 文体 文体 内容 接口类型 内容 批量 类型 形式 响应速度 报文 数据 记录 批量 数据文件 结构 数据文件 定义 基本 结构 报文 数据项 数据 时间 格式 数据 类型 信息 数据项 数据 报文 声明 数据文件 声明 规范 文字 编码 标准 语言 服务 参数 定义 参数 名称 平台 服务 用户 名称 平台 服务 用户 密码 调用 时间 国家 行政区域 代码 代码 服务 返回值 参数 名称 返回值 用户名 密码 对应 服务 权限 节点 节点 服务 参数 文档 规范 调用 参数 错误 格式 规范 错误 文档 格式 规范 节点 节点 节点 节点 节点 代指 节点 名称 节点 属性 属性 数据 农民 家庭 个人 资助 门诊 住院 键值 文档 规范 代指 主键 节点 名称 代指 主键 节点 名称 前置 国家 前置 机间 网络 网络连接 前置 硬盘 错误 错误 联系 人员 结果 样式 服务 汇总 编号 名称 定义 参数 测试 案例 服务 服务 医疗机构 数据 服务 管理机构 数据 服务 乡镇 档案 数据 服务 农民 家庭 基本 数据 服务 农民 家庭 数据 服务 农民 个人 基本 数据 服务 农民 个人 数据 服务 门诊 数据 服务 住院 数据 服务 数据 服务 补偿 数据服务 农民 家庭 账户 管理 数据服务 基金 数据服务 基金 规划 数据服务 基金 分配 数据服务 基金 数据服务 跨省 患者 医疗 记录 数据服务 全国 新型农村 合作医疗 卫统 报表 服务 疾病 医疗保障 试点 信息 报表 服务 费用 核查 服务 费用 核查 申请单 服务 费用 核查 申请单 服务 数据 服务 新农 补偿 方案 服务 数据 字典 服务 服务 跨省 核查 定点 医疗机构 服务 跨省 信息 服务 跨省 信息 批量 服务 费用 核查 待处理 申请单 服务 费用 核查 申请单 服务 数据 服务 数据 数据 条数 规范 编号 名称 条数 文档 医疗机构 数据 服务 管理机构 数据 服务 乡镇 档案 数据 服务 农民 家庭 基本 数据 服务 农民 家庭 数据 服务 农民 个人 基本 数据 服务 农民 个人 数据 服务 门诊 数据 服务 门诊 基础 数据 门诊 数据 门诊 费用 补偿 数据 服务 住院 数据 服务 住院 基础 数据 住院 数据 住院费用 补偿 数据 服务 数据 服务 补偿 数据 服务 农民 家庭 账户 管理 数据 服务 基金 数据 服务 基金 规划 数据 服务 基金 分配 数据 服务 基金 数据 服务 跨省 患者 医疗 记录 数据 服务 全国 新型农村 合作医疗 卫统 报表 服务 疾病 医疗保障 试点 信息 报表 服务 费用 核查 服务 费用 核查 申请单 服务 费用 核查 申请单 服务 数据 服务 新农 补偿 方案 服务 数据 字典 服务 医疗机构 管理机构 数据 服务 医疗机构 数据 服务 参数 参数 名称 医疗机构 内容 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 机构 代码 地区 代码 卫生机构 代码 卫生机构 名称 关系 代码 主管 单位 机构 级别 代码 通讯地址 邮政编码 电话号码 电子邮箱 开业 法定代表 姓名 负责人 注册资金 个数 床位数 床位数 职工 总数 卫技 人员 科室 行政区划 代码 门诊 次数 农民 门诊 次数 出院 次数 农民 出院 次数 业务收入 农民 业务收入 申报 定点 类型 代码 定点 类型 代码 年度 医院 代码 职能 标志 机构 类型 代码 关系 名称 住院 床日 门诊 费用 住院费用 机构 级别 名称 行政区划 名称 申报 定点 类型 名称 定点 类型 名称 医院 资质等级 名称 职能 标志 名称 机构 类型 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 机构 代码 地区 代码 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 管理机构 数据 服务 参数 参数 名称 管理机构 内容 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 机构 代码 地区 代码 卫生机构 代码 卫生机构 名称 行政区划 代码 法定代表 姓名 邮政编码 电话号码 电子邮箱 人数 人数 人数 乡镇 人数 乡镇 开户银行 名称 开户银行 账号 关系 代码 通讯地址 年度 行政区划 名称 关系 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 机构 代码 地区 代码 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 乡镇 档案 数据 服务 参数 参数 名称 乡镇 档案 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 地区 代码 乡镇 代码 年度 行政区划 代码 乡镇 代码 行政级别 代码 乡镇 行政村 组数 农业 户数 人口数 农业 人口数 五保户 人口数 人口数 人口数 人口数 联系人 姓名 通讯地址 邮政编码 经办 机构 电话号码 电子邮箱 行政区划 代码 行政区划 名称 行政区域 全称 乡镇 名称 年度 生产总值 财政收入 财政支出 农民 纯收入 行政区划 名称 行政级别 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 地区 代码 乡镇 代码 年度 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 农民 家庭 服务 农民 家庭 基本 数据 服务 参数 参数 名称 农民 家庭 基本 数据 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 家庭 代码 地区 代码 家庭 代码 行政区划 代码 乡镇 代码 代码 代码 户主 姓名 户主 性别 代码 户主 身份证号 通讯地址 邮政编码 家庭 电话号码 联系人 姓名 联系人 移动 电话号码 电子邮箱 家庭 人口数 家庭 农业 人口数 家庭 农业 人口数 属性 代码 属性 代码 户口 类别 代码 标志 代码 标志 代码 原因 原因 民政 救助 家庭 标志 姓名 医疗 卡号 户主 代码 医疗 状态 标志 户籍 类型 代码 地区 名称 乡镇 名称 户主 性别 名称 属性 名称 属性 名称 户口 类别 名称 标志 名称 民政 救助 家庭 标记 名称 医疗 状态 名称 户籍 类型 名称 户主 档案 编号 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 家庭 代码 地区 代码 对应 文档 节点 对应 文档 节点 数据 信息 农民 家庭 数据 服务 参数 参数 名称 农民 家庭 数据 格式 字符串 参数 内容 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 属性 家庭 代码 地区 代码 年度 农民 家庭 数据 家庭 代码 家庭 金额 民政 医疗 救助 金额 行政区划 代码 年度 地区 名称 时间 时间 农民 家庭 资助 数据 家庭 代码 行政区划 代码 年度 资助 部门 代码 资助 金额 地区 名称 资助 部门 名称 时间 时间 数据 信息 内容 格式 参数 内容 格式 结果 内容 数据 处理结果 返回值 总体 信息 章节 元素 名称 属性 基数 约束 章节 元素 标识 处理结果 标识 标识 时间 数据 业务 类型 数据 来源 类型 平台 区县 平台 医院 来源 符合国家 行政区划 数据 源代码 符合国家 行政区划 平台 代码 代表 国家 平台 内容 错误 业务 数据 信息 章节 元素 名称 属性 基数 约束 章节 元素 内容 错误 对应 节点 节点 错误 节点 节点 对应 节点 记录 标识 代码 家庭 代码 地区 代码 年度 对应 文档 节点 对应 文档 节点 数据 信息 结果 样式 农民 个人 服务 农民 个人 基本 数据 服务</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 印发 核心 信息 国家 委员会 办公厅 印发 核心 信息 家庭 自治区 直辖市 计生委 老年人 意识 教育 营造 社会 关心 社会 氛围 老年人 素养 水平 专家 核心 信息 印发 国家 计生委 办公厅 核心 信息 老龄化 老年人 自我保健 意识 监护 技能 规范 疾病 疾病 功能 合理 膳食 营养 老年人 饮食 定量 食物 品种 谷类 豆类 薯类 动物性 食物 蔬菜 水果 奶类 奶制品 坚果 烹调油 食盐 摄入量 建议 老年人 能量 分配 早餐 午餐 晚餐 零食 水果 运动 老年人 情况 轻中度 运动 项目 游泳 舞蹈 太极拳 运动 时间 运动 时间 戒烟 限量 饮酒 戒烟 饮酒 限量 饮用 烈性酒 保持良好 小时 安眠药 医嘱 定期 监测 血压 情绪 劳累 测量 间隔 平均值 高血压 患者 测血压 血压 晨峰 现象 心肌梗死 用药 低血压 定期 监测 血糖 老年人 监测 血糖 监测 空腹 血糖 监测 小时 血糖 糖尿病 患者 血糖 监测 血糖 糖尿病 患者 血糖 控制目标 空腹 血糖 小时 血糖 糖化 水平 心脑血管 疾病 老年人 生活 方式 心脑血管 疾病 因素 油脂 盐分 过量 运动 保持良好 定期 冠心病 症状 症状 老年人 肢体 无力 语言 恶心 症状 条件 医院 功能 浓茶 咖啡 毒性 药物 庆大霉素 链霉素 力求 生活 环境 听力 老年人 医疗机构 检查 助听器 定期检查 视力 视力 口腔 饭后漱口 合理 牙线 牙签 口腔 检查 龋齿 牙齿 功能 老年人 骨折 运动 眼镜 视力 环境 规则 物品 地面 骨关节 疾病 骨质疏松症 膝关节 过量 下楼梯 体重 下肢 关节 压力 时间 蛋白质 饮食 步行 跑步 运动 强度 压力 腹压 方式 生活习惯 保持良好 心态 学会 老年人 头痛 眼花 症状 心情 精神 小事 活动 兴趣 自卑 被动 过分 生活 意义 心情 无力 胸闷 障碍 体重 头晕 头痛 症状 专科医生 心理 辅导 药物 发展 进行性 记忆 语言 空间 障碍 人格 老年人 记忆力 症状 发展 合理 用药 用药 医嘱 禁忌证 用药 用药 抗生素 消炎 止痛药 强心药 秘方 偏方 验方 新药 洋药 用药 定期 老年人 政府 医院 普查 肿块 肠腔 癌症 信号 肿瘤 专科医院 癌症 医院 规范化 疾病 采取有效 措施 疾病 风险 病历 资料 应急 姓名 家庭 住址 工作 单位 家属 基本 信息 疾病 情况 要点 联系 车辆 医院 事项 老年人 社会 情况 有益 体育 文化娱乐 活动 科学 生活 方式 生殖 社会 老年人 有所 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>远程 医疗 信息系统 建设 技术 指南 国家 委员会 背景 发展 简况 发展 概况 紧迫性 社会效益 经济效益 原则 目标 任务 建设 原则 建设 目标 建设 任务 分析 用户 分析 业务 分析 功能 分析 信息 分析 技术 分析 信息安全 设计 架构 系统 架构 功能 架构 信息 架构 技术 架构 标准 标准规范 建设 信息安全 建设 基础设施 建设 远程 医疗系统 硬件 建设 远程 医疗 建设 远程 医疗 中心 机房 建设 网络系统 建设 服务 站点 建设 远程 终端 系统 专用 远程 诊室 远程 重症 监护 系统 手术 系统 多媒体 系统 教学 系统 系统 部署 模式 集中式 模式 分布式 模式 远程 医疗 运营 职责 数据中心 管理 服务 流程 管理 规范 服务 过程 服务 系统 支撑体系 服务 资源 信息管理 营运 管理 服务 质量 监理 建设 质量 管理 质量 管理 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 站点 市级 远程 医疗 服务 站点 远程 医疗 服务 站点 乡镇 社区 远程 医疗 服务 站点 远程 医疗 信息系统 建设 技术 指南 总结 远程 医疗 信息系统 建设 发展 经验教训 远程 医疗 信息系统 建设 发展 远程 医疗 信息系统 建设 原则 目标 任务 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 站点 基本功能 技术 架构 建设 标准 远程 医疗 信息系统 区域 信息 平台 关系 项目 建设 管理 运营 工作 建议 远程 医疗 信息系统 建设 技术 指南 指导 远程 医疗 信息系统 建设 规范性 远程 医疗 信息系统 建设 方案设计 工程 项目 评估 工作 远程 医疗 信息系统 建设 技术 指南 内容 部分 背景 发展 简况 紧迫性 效益 经济效益 分析 部分 原则 目标 任务 远程 医疗 信息系统 建设 原则 建设 目标 建设 任务 部分 分析 用户 业务 功能 信息 技术 信息安全 角度 远程 医疗 信息系统 技术 分析 部分 总体设计 远程 医疗 信息系统 总体 系统 架构 功能 架构 信息 架构 技术 架构 部分 标准 远程 医疗 信息系统 标准 体系 框架 标准 信息安全 部分 基础设施 建设 远程 医疗 信息系统 硬件 基础设施 远程 数据中心 机房 网络 建设 方案 建议 部分 服务 站点 建设 场景 功能 技术参数 方面 远程 终端 系统 专用 远程 诊室 远程 重症 监护 系统 手术 系统 多媒体 系统 教学 系统 远程 服务 站点 建设 部分 系统 部署 模式 集中式 分布式 建设 部署 模式 部分 医疗机构 数据中心 基础设施 工厂 设备 统一 管理 服务 管理 服务 服务 管理 服务 资源 信息 管理 运维 服务 内容 部分 质量 监理 建设 质量 管理 质量 管理 方面 内容 背景 卫生事业 发展 医疗 资源 总量 资源配置 问题 优质 医疗 资源 地区 基层 农村 地区 医疗 服务 服务 效率 医疗 服务质量 群众 看病难 问题 远程 医疗 利用 医疗卫生 资源 基层 医疗卫生 服务 能力 城乡 医疗 服务 均等化 人口 信息化 建设 远程 医疗 信息技术 网络化 信息 平台 联通 地区 医疗 机构 患者 机构 地域 医疗 交流 医疗 活动 医疗 服务 业务 监管 和运维 服务 体系 医药卫生 意见 发展 面向农村 远程 医疗 国家 远程 医疗 建设项目 办公厅 印发 远程 建设 项目管理 方案 办公厅 印发 远程 系统 项目 技术 方案 医管司 远程 系统 建设 目的 办公厅 医院 能力 建设 远程 系统 建设项目 重要文件 印发 卫生事业 规划 远程 医疗 信息系统 医药卫生 信息化 建设 重点 工程 发展 面向农村 远程 系统 基层 医疗 服务水平 公平性 国家 战略性 发展 规划 医疗 信息 工程 建设 内容 全民 信息化 工程 基础 远程 医疗 分析 调查 研究 服务业 发展 面向基层 地区 远程 影像 远程 远程 监护 指导 远程 手术 指导 内容 发展 远程 医疗 国家 计生委 印发 人口 信息化 建设 指导 意见 规划 明确提出 医疗 服务 信息系统 建设 电子 病历 医疗 任务 远程 医疗 信息系统 建设 进展 总体规划 功能 方面 关键问题 迫切需要 规范性 技术 指导 远程 医疗 信息系统 建设 项目 建设 效率 质量 远程 信息系统 规范 科学 发展 国家 计生委 规划 息司 全国 专家 研究 远程 医疗 信息系统 建设 指南 发展 简况 发展 经历 远程 医疗 概念 世纪 远程 医疗 侧重于 研究性 局部 试点 世纪 技术 远程 医疗 发展 远程 咨询 远程 医学 远距离 传输 远程 会议 方面 进展 代表性 教育 医学 系统 中心 综合性 医学中心 乡村 医院 远端 站点 活动 世界 远程 医疗 网络 国家 大力发展 远程 医疗 目的 医疗 质量 目的 医疗 费用 国家 宇航局 远程 医学 试验台 太空 宇航员 印第安人 居住区 远程 医疗 服务 远程 医疗 试验 医疗 改革 计划 信息 远程 手段 医疗 费用 目的 利用 远程 医疗 技术 发展 卫生事业 国家 全国 远程 医疗 网络 远程 医疗 重点 发展 乡村 地区 远程 医疗保健 网络 建设 家庭 远程 监护 远程 医疗 发展 状况 集中地 代表 远程 医疗 活动 水平 远程 医疗 远程 医学教育 远程 医学 研究 公共卫生 医疗保健 管理 方面 进展 大学 医院 实验性 网络 远程 医疗 基础 国家 远程 医疗系统 临床学科 远程 读片 中心 系统 中心 数据 多用户 医生 专家 社区 医生 网络 电信 合作 收费 服务 运营 模式 系统 系统 服务 处方 总结 报告 数据 社区 远程 医学 内容 世纪 生物医学 战略 优先 资助 领域 国家 本学科 领域 产品 技术水平 生产 品种 规模 产品 临床 产品 产品 领先地位 产品 基本上 代表 远程 医学 产品 方向 技术 远程 医疗 特征 公众 通讯网 服务 客户端 桌面 服务 发展 商业化 项目 移动 联网 联网 技术 远程 医疗 发展 远程 动态 监测 血压 血糖 心电 智能 医疗 产品 监测 设备 技术 发展 远程 医疗 医院 大门 社区 家庭 面向 个人 定向 个性化 服务 发展 特点 远程 医疗 发展 历史 远程 医疗 技术 高科技 领域 军用 民用 社区 家庭 老百姓 远程 医疗 人人 目标 技术 手段 程度 人类 技术 多元化 融合 远程 通讯 技术 信息学 技术 医疗 技术 日益 发展 融合 远程 医疗 技术 多元化 专业化 小型化 方面 体系化 医疗 服务 远程 通讯 技术 计算机 发展 远程 医疗 网络 环境 材料 工艺 革新 远程 医学 系统 设备 体积小 功能 个人 家庭 护理 研制 程度较高 移动性 携式 远程 医学 设备 远程 医疗 社区 家庭 医疗保健 救援 军队 平战时 伤病 远程 医学 远程 医疗 运行机制 发展 远程 数据通信 技术 计算机 条件 制约 远程 医疗 科研 试验 项目 总体 阶段 世纪 技术 项目 启动 远程 医疗 发展 远程 医疗 概念 发展 系统 理念 远程 医学 咨询 远程 病情 监护 远程 手术 指导 远程 远程 学术交流 远程 医学 文献 服务 模式 远程 医疗 基础 平台 医技 专科 融合 实践证明 远程 医疗 临床 专科 辅助 专业 医学 科研 教育 远程 医学 国家 发展 经验 远程 医学 专科 程度 远程 医学 效益 医疗 专家 前线 远程 放射学 远程 病理学 技术 放射学 理学 传统 模式 相似性 产生 系统 技术标准 人员 资质 标准 质量保证 标准 业内人士 医学 领先 学科 发展 概况 全国 信息化 发展 规划 纲要 研究 数据 远程 医疗 市场 发展 阶段 阶段 发展 简况 世纪 研究性 远程 医疗 试验 实用性 远程 医疗系统 建设 开花 专域 发展 局面 部分 医院 地区 医院 医疗系统 医疗 专网 远程 医疗系统 面向全国 地区 信息网络 架构 远程 医疗 业务 国家 政策 实际 业务 省市 建设 远程 医疗 信息系统 对口 欠发达 省份 工作 世纪 远程 医疗 建设 发展 国家 区域性 远程 医疗 试点 项目 建设 范围 部属 综合 医院 综合 医院 综合 医院 医院 远程 医学中心 协和 医院 高端 远程 医疗系统 投入使用 年度 基层 远程 系统 项目 任务 年度 基层 远程 系统 项目 任务 社会效益 远程 医疗系统 投入使用 程度 医疗 资源 问题 技术 研究 机构 生产 厂商 医疗机构 联网 技术 发展 家居 监测 产品 远程 医疗 模式 前景 总体 远程 医疗系统 建设 局域 研究 试用 区域性 集团化 建设 域性 协同 阶段 典型 案例 远程 医疗 项目 典型 远程 医学中心 国家 计生委 医疗 管理 培训中心 全国 省市 自治区 国家 地区 远程 医疗 活动 远程 医疗 信息管理 平台 统一 管理 视频 远程 视频 终端 手术 远程 直播 教育 培训 系统 数字 专线 国际 线路 互联网 方式 临床 影像 病理 教学 培训 手术 学科 病例 学术会议 远程 医疗 活动 远程 手术 领先水平 远程 医疗 业务流程 医疗 质量 管理 运营 机制 方面 有益 群众 看病难 看病贵 基层医院 医疗 服务水平 医院 医院 国际 远程 医学中心 国家 科技 计划 重点项目 国家 数字 关键技术 区域 研究 核心 成果 网络 医疗 服务平台 全省 远程 医疗 服务 网络 医院 市县 医院 社区服务 远程 远程 监护 双向 远程 区域 影像 检验 服务 省市 大学 大学 总院 医学中心 国际 远程 医疗 平台 交流 合作 优质 医疗 国际 全省 余例 远程 专家 远程 监护 临床 案例 远程 专题 教学 学术 远程 知识讲座 远程 手术 直播 国际 合作 交流 医院 远程 医学中心 实际 远程 医学中心 中心 面积 通讯 远程 影像 视频会议 挂号 双向 管理 培训 数字 资源共享 功能 一体 区域 协同 医疗 综合 服务平台 中心 免费 协作 医院 远程 医疗 设备 光纤 专线 基础设施 免费 远程 电子 图书馆 远程 教育 远程 医疗 服务 模式 医院 服务网络 人民 医院 人民 医院 区域 建设 乡镇 服务中心 社区卫生 服务 远程 医疗 服务体系 病人 培训 基层 医务人员 远程 中心 人民 医院 医科 大学 附院 远程 分中心 互联网 内地 医院 远程 自治区 基层 医疗机构 服务 远程 出院 患者 服务 一体 网络 医院 现场 双向 病人 个性化 服务 服务 挂号 人次 病人 人次 远程 专家门诊 影像 病理 移动 远程 监护 小时 远程 医学教育 远程 心电 人次 事件 远程 指导 远程 医学中心 信息 专网 远程 医学网 远程 医学 活动 远程 医学中心 单位 医疗机构 地区 医疗机构 医疗机构 合作 传统 远程 医学 手段 车载 内窥镜 指导 远程 门诊 公共卫生 应急 中心 建立联系 卫生事件 国家 计生委 远程 医学 信息 服务 标准 远程 医学 内涵 问题 影响 远程 医疗 信息系统 建设 问题 政策法规 管理 方面 技术 建设 方面 问题 地区 远程 医疗 信息系统 建设 成形 地区 系统 远程 医疗 信息学 系统 合力 地域 范围 协同 效应 远程 医疗 具体内容 远程 医疗 信息系统 技术规范 建设 地域 系统 远程 医疗 业务 协同 远程 医疗 信息系统 远程 医疗 信息系统 功能 国家 行政 管理部 业务 监管 手段 远程 医疗 服务 点对点 业务 功能 远程 医疗 信息系统 数据 标准 信息 孤岛 优质 医疗 资源 无法 效用 远程 医疗 集成度 融合 系统 高度 融合 系统 信息安全 措施 患者 保密 医疗 信息安全 隐患 全国 统一 系统 建设 评价 体系 远程 医疗 建设 水平 信息 技术 激励机制 无法 国产化 发展 远程 医疗 信息系统 医院 信息系统 临床 信息系统 医疗 设备 远程 医疗 信息系统 区域 信息 平台 信息 远程 医疗 远程 医疗 远程 医疗 设备 特色 远程 医疗 运营 体系 闭环 流程 决策 流程 决策 问题 紧迫性 地区 差距 城乡 差距 阶层 差距 医疗卫生 资源 看病难 看病贵 问题 原因 医疗 资源 结构性 医疗 资源 过分 医院 基层 医疗机构 服务 能力 服务质量 医疗卫生 机构 人次 入院 人数 年份 人数 入院 人数 医院 基层 医疗卫生 机构 医院 基层 医疗卫生 机构 来源 卫生统计 医院 病床 使用率 总计 经济 类型 医院 医院 医院 医院 医院 类别 综合 医院 专科医院 来源 卫生统计 基层 医疗机构 服务 能力 服务质量 病人 医院 资源 利用 医院 医院 病床 使用率 医疗 服务 供给 方面 低效率 医院 基层 医疗机构 病床 医疗卫生 人员 充分利用 医疗 服务 财政负担 城乡 医疗卫生 服务体系 发展 均衡性 世界 医疗 资源 医疗 费用 问题 远程 医疗 医疗 资源 整体 医疗 水平 医疗 费用 医疗 水平 区域 地区 整体 医疗 条件 信息技术 医疗卫生 资源 建设 远程 医疗 信息系统 社会 病人 人民 生活 水平 服务 经验 医学专家 教授 岗位 人们 医疗 服务 发展 远程 医疗 信息系统 服务 异地 病人 医疗 服务 疑难 危重病 患者 危重 患者 外地 看病难 节约 资源 患者 时间 远程 医疗 信息系统 服务 突破 地域 时间 医疗 优质 医疗 资源 医疗 技术 基层 医疗机构 医生 医疗 指导 异地 医生 疑难 危重 患者 检查 患者 患者 时间 医学专家 技术 社会 服务 充分利用 患者 节省 费用 社会效益 经济效益 社会效益 分析 基层医院 医疗 服务质量 远程 医疗 信息系统 研究 医院 专科 医疗 中心 优质 医疗 资源 基层医院 准确率 患者 医疗 服务 途径 远程 医疗 信息系统 研究 原本 患者 医院 资深 专家 患者 专家 局面 异地 盲目性 社会 医疗 资源 远程 医疗 信息系统 研究 突破 地域 时间 利用 重点 医院 范围 患者 权威性 服务 优质 医疗 资源 医疗 技术 基层 医疗 医疗 资源共享 经验丰富 医疗 专家 服务 充分利用 优质 医疗 资源 患者 节省 费用 资源 状况 构筑 临床 案例 医学教育 渠道 远程 医疗 信息系统 技术 传统 医护人员 教育 方式 医护人员 工作岗位 临床 案例 高质量 培训 现实 基层 医护人员 优质 教育 机会 医护人员 技术水平 终身教育 体制 事件 战争 远程 医疗 信息系统 事件 战争 环境 时期 环境 伤员 工作 环境 应急 机动 远程 医疗 信息系统 地面 条件 影响 医疗机构 管理 部门 联系 事件 地区 医疗卫生 资源 事发 现场 事发 疾病 应急 水平 传染病 传播 途径 医务人员 限度 人民 群众 官兵 医护人员 生命 经济效益 分析 医疗 服务 医疗 资源 重症 患者 异地 成本 属地 远程 医疗 信息系统 研究 患者 异地 检查 费用 个人 国家 医疗 支出费用 交通费 住宿费 家属 误工 损失 患者 总体 成本 优质 医学教育 基层 医疗机构 教育 经费有限 方式 选派 人员 教育 成本 教育 面窄 选派 人员 培训 基层医院 工作 远程 医疗 信息系统 研究 医护人员 工作岗位 高质量 医学教育 成本 教育 人群 医师 基层医院 门诊量 医疗 远程 医疗 信息系统 研究 基层 医疗机构 服务 能力 服务质量 患者 范围 医院 公信力 患者 信赖 基层 医疗机构 基层 医院 医院 专科 医疗 中心 管理 优势 基层 医疗机构 管理效率 基层医院 医疗 原则 目标 任务 建设 原则 顶层 设计 资源共享 全国 远程 医疗 服务 监管 体系 目标 全局 分层 分阶段 建设 政府 政策 医疗机构 医疗 资源共享 统一标准 待发布 远程 医疗 标准规范 建设 系统 人为 设置 技术 壁垒 建设 体系 远程 医疗系统 信息 资源 医疗 资源 全国 范围 条件 信息 系统安全 医疗系统 规范 服务 监管 规范 优化 远程 医疗 服务 流程 不断扩大 服务 范围 形式 服务 管理 规范 服务 局面 远程 医疗系统 建设 运营 情况 政府 监管 机制 政策 行政 监管 手段 远程 医疗系统 有序 发展 政府 远程 医疗 建设 管理 任务 政府 工作 计划 考核 指标 专门 部门 人员 工作 积极性 社会 力量 积极性 市场 运营 机制 远程 医疗 建设 业务 基础 省份 医院 重点 建设 远程 医疗系统 建设 浪费 充分发挥 示范带头 全国 地区 建设 经验 管理 机制 模式 积极探索 建设 经验 全国 范点 样板间 建设 模式 全国 省份 地区 地区 基础 定位 建设 系统 重点 特色 远程 医疗 业务 全国 统一 远程 医疗 服务 管理 建设 目标 业务 目标 全国 统一 远程 医疗 服务体系 覆盖全国 远程 医疗 服务网 体系 利用 全国 优质 医疗 服务 资源 地域 均等化 体系 远程 医疗 服务 全国 综合性 医院 高端 医疗 专家 优质服务 基层 医疗卫生 机构 远程 医疗 服务 模式 远程 远程 重症 监护 远程 影像 远程 心电 远程 经络 远程 宏观 观舌 培训 远程 手术 指导 远程 医疗 服务 模式 基础 联网 视频 技术 发展 远程 手术 器械 远程 体质 远程 医疗 特色 服务 模式 远程 医疗 服务 范围 远程 医疗 运营 监管 机制 国家 区域 远程 服务 资源 监管 中心 核心 远程 医疗 运营 服务质量 业务费 内容 监督管理 机制 全国 范围 远程 医疗 建设 有序 机制 制度 建设 研究 有关 远程 医疗 权利 医疗 责任 患者 运行机制 方面 制度 规范 远程 医疗 建设 运营 管理制度 技术标准 信息化 目标 国家 统一 规范 标准 远程 医疗 服务 业务 监管 和运维 服务 体系 国家 优势 资源 信息 跨域 远程 医疗 综合 服务 农村 医疗卫生 服务质量 水平 医疗 百姓 看病难 问题 目标 远程 医疗 业务 服务 技术 体系 覆盖全国 远程 医疗 服务网络 体系 利用 全国 优质 医疗 服务 资源 地域 体系 专科 特色化 建设 远程 医疗 服务 技术 体系 全国 综合性 医院 高端 医疗 专家 优质服务 基层 医疗卫生 机构 远程 远程 重症 监护 远程 影像 远程 心电 远程 培训 远程 手术 指导 远程 医疗 模式 移动 联网 视频 技术 发展 远程 手术 器械 检查 远程 医疗 服务 模式 医疗 服务 范围 远程 医疗 业务 监管 体系 建设 国家 区域 远程 医疗 服务 资源 监管 中心 远程 医疗 运营 服务质量 业务费 内容 监督管理 机制 研究 有关 远程 医疗 权利义务 医疗 责任 患者 运行机制 方面 制度 规范 远程 医疗 建设 运营 管理制度 政策 制度 远程 医疗 医疗 服务 项目 新农 远程 医疗 筹资 收费 合理 补偿 方案 管理 远程 医疗机构 专家 资质 机制 业务 监管 机制 远程 医疗 标准 中国国情 远程 医疗 监督管理 体系 全国 范围 远程 医疗 建设 有序 远程 医疗 运维 服务体系 远程 医疗 业务 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 数据中心 基础设施 设备 统一 维和 管理 部署 运维 服务 机制 远程 医疗 服务平台 项目 数据中心 运营 运维 服务 部门 整体 运维 服务 运维 服务 部门 公司 服务 形式 整体 数据中心 运维 技术 服务体系 项目 队伍 服务 制度 管理制度 项目 上线 建设 任务 功能 标准 统一 协同 远程 医疗 系统 标准化 远程 医疗 系统 乡镇 社区 医疗卫生 机构 远程 医疗 服务 统一 远程 医疗 功能 远程 医疗 服务 信息网络 框架 体系 积极探索 网络 技术 模式 远程 医疗 服务 管理 医疗 网络 环境 国家 信息 专网 核心 国家 远程 医疗 监管 网络 利用 技术 医疗机构 远程 医疗 服务网络 全国 地域 统一标准 远程 医疗 信息网络 体系 国家 远程 医疗 服务 资源 监管 中心 信息系统 平台 规范化 标准化 方式 远程 医疗 区域 平台 建设 统一 远程 医疗 监督管理 服务 机制 全国 远程 医疗 业务 监督管理 跨省 远程 医疗 服务 协同 医疗 资源 调配 业务 统一 分级 部署 建设 国家 远程 医疗 服务 资源 监管 中心 系统 平台 规范化 标准化 方式 全国 远程 医疗 业务 监督 跨省 远程 医疗 服务 协同 医疗 资源 调配 业务 规范化 远程 医疗 用户 终端 服务 站点 标准化 方式 远程 医疗机构 分级 功能 标准 统一 远程 医疗 用户 终端 站点 社区 医疗卫生 机构 远程 医疗 服务 统一 远程 医疗 服务 国家 省市 信息 平台 应急 指挥系统 平战 管理 业务 国家 标准规范 远程 医疗 服务 信息网络 国家 信息 平台 应急 信息系统 资源共享 业务 协同 分析 用户 分析 远程 医疗 信息系统 面向 国家 远程 医疗 服务 资源 监管 中心 面向 医疗机构 服务 站点 面向 系统 服务提供商 面向 就诊者 业务 远程 医疗 信息系统 用户 行政 监管 用户 系统 管理 用户 服务 运营 用户 业务 用户 患者 远程 医疗 信息系统 用户 行政 监管 人员 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 用户 远程 医疗 服务 资源 监管 中心 用户 系统 远程 医疗 服务 监督管理 工作 系统 人员 远程 医疗 信息系统 技术 管理 用户 远程 医疗 服务器 数据中心 基础设施 设备 统一 维和 管理 服务 运营 人员 远程 医疗 服务 运营 用户 医疗机构 机构 运营 服务 管理员 服务 调度员 服务提供商 系统 远程 医疗 服务 管理 合作方 工作 服务 资源 时间 远程 医疗 业务 远程 医疗 资源 业务 专家 医务人员 远程 医疗 业务 医疗机构 科室 人员 总体 区分 远程 医疗 用户 用户 用户 远程 医疗 远程 医疗 资料 远程 医疗 过程 远程 医疗 结果 报告 用户 用户 远程 医疗 远程 医疗 资料 专家 时间 意见 远程 医疗 服务 用户 患者 远程 医疗 服务 目标 对象 业务 分析 远程 医疗 业务 基本 业务 高端 业务 业务 基本 业务 远程 远程 影像 远程 心电 远程 经络 远程 体质 远程 医学教育 远程 远程 双向 高端 业务 远程 重症 监护 远程 病理 远程 手术 远程 宏观 微观 业务 医疗 专业 远程 患者 个人 家庭 医疗机构 医疗 服务 指南 部门 远程 医疗 基本 高端 业务 服务 远程 远程 方向 专家 远程 远程 意见 报告 过程 远程 医院 专家 会同 基层医院 患者 主管 医生 远程 技术手段 患者 病情 针对性 方案 远程 小病 社区 疾病 远程 系统 专家 服务 远程 资源共享 目的 远程 流程图 远程 影像 影像 诊断系统 利用 影像 数字化 医疗机构 检查 设备 结果 数字化 系统 病历 资料 报告 视频 远程 系统 评价 报告 管理员 系统 视频 书面 诊断书 专家 专家 单位 专家 账号 管理 会议 管理 远程 病历 数据 远程 远程 影像 流程图 远程 心电 远程 心电 诊断系统 模块 申请单 系统 病历 资料 影像 报告 远程 远程 影像 系统 评价 影像 报告 管理员 系统 远程 影像 报告 专家 专家 单位 专家 账号 管理 管理 患者 病历 信息 申请单 启动 心电 诊断系统 检查 心电 诊断系统 检查 报告 意见 管理 模块 意见 检查报告 报告单 远程 心电 流程图 系统 病历 资料 心电 报告 远程 远程 心电 系统 评价 心电 报告 管理员 系统 远程 心电 报告 专家 专家 单位 专家 账号 管理 管理 远程 经络 远程 经络 诊断系统 手掌 经络 全息 理论 利用 手指 皮肤 生物电 测量 技术 检测 单元 经络 生物 电信号 经络 原理 自动 经络 数据 网络 远程 病历 数据 远程 远程 经络 流程图 系统 病历 资料 经络 报告 远程 远程 经络 系统 评价 经络 报告 管理员 系统 远程 经络 报告 专家 专家 单位 专家 账号 管理 管理 远程 医学教育 课件 培训 模式 远程 培训 系统 远程 专题讲座 远程 学术 研讨 课件 远程 培训 远程 病案 远程 手术 远程 护理 示教 临床 实际 案例 远程 培训 远程 实际 案例 针对性 医护人员 工作 优质 培训 临床 问题 情况 目的 基层 医护人员 优质 教育 大规 高效能 基层 医务人员 服务 能力 水平 培训 专家 音视频 课件 培训 参与方 培训 过程 远程 中心 流媒体 课件 制作 整理 归类 课件 远程 培训 系统 课件 服务 文字 幻灯 课件网 课件 管理 功能 远程 医学教育 流程图 远程 基层医院 门诊 疑难 病人 门诊 医生 病情 医院 专家门诊 病情 门诊 医生 系统 病人 挂号 系统 医院 专门 专家 专家 挂号 情况 医生 平台 自动 过程 短信 方式 医生 病人 基层医院 挂号 检查 转院 医院 信息反馈 远程 流程图 双向 双向 病情 人群 医院 科室 过程 医院 本院 范围 患者 本院 患者 医院 医院 病情 情况 患者 医院 双向 流程图 远程 重症 监护 远程 重症 监护 网络 生理 信息 医学 信号传 监护 分析 检测 人体生理 参数 视频 监控 监护 对象 身体状况 自动 分析 监护 对象 健康状况 情况 医疗 中心 报警 救助 系统 医院 医疗 信息系统 信息 意见 技术手段 远程 监护 技术 医生 患者 距离 医生 生理 信息 患者 医疗 服务 远程 重症 监护 流程图 远程 病理 利用 远程 病理 检查 工作站 患者 病理切片 专家 病理 专家 分析 病理 专家 远端 移动 图像 病理 图片 病理 报告 患者 主治医生 临床 远程 病理 流程图 系统 病历 资料 病理 报告 远程 远程 病理 系统 评价 病理 报告 管理员 系统 远程 病理 报告 专家 专家 单位 专家 账号 管理 管理 远程 手术 远程 技术 视频 技术 临床 手术 现场 手术 画面 影像 全程 记录 远程 传输 远程 手术 教学 系统 医院 手术 系统 手术室 手术 信息 视频 终端 视频 手术 医生 手术室 电脑 全部 屏蔽 部分 终端 远程 手术 手术 系统 手术室 医生 手术过程 手术室 医疗 设备 视频 资料 实习医生 人员 教学 学术交流 目的 手术 教学 手术 转播 医院 手术 现状 手术 优点 利用 医院 网络 节省 大量 建设 经费 手术过程 细节 信息 微创 镜类 手术 设备 教学效果 手术过程 传统 模式 时间 空间 人数 资料 备份 方式 方式 方式 地域 手术 手术 影像 场景 视频 全程 记录 高质量 教学 争议 手术 利用 视频 资料 科学 手术 影像 资料 研究 医生 手术 水平 手术 现场 教学 过程 关键 动作 方法 图片 分析 学习者 图片下载 专家 远程 专家 手术室 会议室 手术 画面 现场 医生 患者 手术 指导 现场 手术 网络 教学 终端 手术 研讨会 手术 远程 手术 流程图 远程 体质 利用 远程 体质 工作站 体质 模块 体质 申请单 信息 患者 病历 信息 申请单 启动 体质 辅助 设备 辅助 设备 检查 报告 意见 专家 体质 量表 报告 意见 体质 管理 模块 意见 报告 报告单 远程 体质 流程图 系统 病历 资料 体质 报告 远程 远程 体质 系统 评价 体质 报告 管理员 系统 远程 体质 报告 专家 专家 单位 专家 账号 管理 管理 远程 宏观 微观 远程 宏观 微观 诊断系统 运用 舌象 津血 同源 原理 电子 技术 专业 医疗 技术 舌部 图像 信息 舌苔 样本 微观 分析 宏观 舌象 临床 图谱 病理 评估 脏腑 气血 健康状况 病理 报告 患者 主治医生 临床 远程 宏观 微观 流程图 系统 病历 资料 报告 远程 远程 宏观 微观 系统 评价 报告 管理员 系统 远程 报告 专家 专家 单位 专家 账号 管理 管理 功能 分析 远程 医疗 信息系统 远程 医疗 信息系统 功能 规范 功能 医院 医院 医院 管理 医院 远程 远程 双向 远程 影像 远程 心电 远程 经络 远程 监护 远程 病理 远程 手术 远程 体质 远程 宏观 微观 业务 远程 医疗 信息系统 远程 医疗 信息系统 规范 远程 医疗 信息 系统 会员 医院 中心 业务 远程 医疗 信息系统 平台 医院 信息 平台 区域 信息 平台 远程 医疗 信息系统 业务 医疗 信息 资料 功能 远程 医疗 信息系统 音视频 协作 经络 远程 设备 功能 辅助 医院 医院 医院 部署 医院 远程 远程 双向 远程 影像 远程 心电 远程 经络 远程 监护 远程 病理 远程 手术 远程 门诊 体质 远程 宏观 微观 远程 管理 业务 远程 音视频 协作 系统 医疗 协作 场景 详细描述 远程 医疗 服务 业务 业务流程 功能 管理工具 管理 业务 系统集成 节点 监控 远程 医疗 业务 情况 用户 数据 数据 保密 业务流程 系统日志 记录 消息 可靠性 消息 系统 备份 功能 高可靠性 单点 系统 数据 用户 系统 数据库 二次开发 环境 基础 业务 组件 信息 分析 信息内容 远程 医疗 数据 总体 远程 医疗 业务 数据 监管 数据 系统 数据 服务 运营 数据 远程 医疗 业务 数据 远程 医疗 业务 数据 业务 数据 数据 方数 远程 医疗 申请量 远程 申请量 病历 数据 科室 申请量 比重 医生 人数 申请量 远程 疗病 数据 远程 医疗 服务 数据 专家 资源 数据 医院 医疗机构 远程 医疗 业务 情况 分析 远程 医疗 业务 数据 远程 医疗 医院 趋势 分析 远程 医疗 费者 趋势 分析 远程 医疗 消费者 区域分析 区域 人口 分析 分析 全面 远程 医疗 服务 情况 政策 决策 提供数据 监管 数据 监管 数据 基本 情况 数据 服务质量 数据 财务 监管 数据 情况 机构 数量 分析 机构 情况 分析 服务 资源 情况 分析 辅助 项目 分析 患者 病情 情况 分析 单位 远程 医疗 信息系统 基本 情况 监管 服务质量 服务满意 分析 情况 分析 评价 分析 系统 情况 评价 分析 质量 评价 分析 单位 区域 远程 医疗 服务质量 监管 财务 监管 分析 诊疗费 分析 医疗 方式 分析 单位 区域 远程 医疗 财务费用 监管 系统 运维 数据 系统 运维 数据 基础设施 状况 性能 状况 信息安全 状况 容量 状况 业务 连续性 状况 方面 分析 远程 医疗 信息系统 性能 检测 状态 监测 错误 报警 性能 数据 故障 功能 保障系统 基础设施 平台 硬件 基础 平台 平台 数据库 中间件 硬件 基础设施 服务器 系统 存储系统 性能 数据 系统 用户数 服务 时间 网络 性能 数据 网络 服务器 数据库 中间件 系统 性能 监控 性能 基线 定期 性能 报表 趋势 趋势 分析 性能 优化 建议 系统 参数 系统 信息安全 状况 技术 业务 层面 物理 网络安全 数据库安全 系统安全 安全策略 容量 状况 定期 测景 容量 信息系统 能力 问题 网络带宽 状况 容量 状况 系统 情况 系统 吞吐量 业务 连续性 状况 数据中心 灾难 规定 时间 关键 业务 功能 强制性 预先 影响 企业 关键 业务 能力 过程 事件 策略 医疗机构 事件 业务 容灾 技术 数据 容灾 容灾 服务 运营 数据 服务 运营 数据 服务 运营 部门 工作 考核 数据 远程 医疗 申请单 时间 时间 远程 医疗 过程 运营 人员 工作量 服务态度 评价 服务 运营 工作 流程 数据 分析 服务质量 工作效率 音视频 协作 医学专家 医院 医生 病人 远程 交流 异地 摄像头 远程 调整 视角 危重症 患者 床边 患者 病床 专家 远程 远程 监护 服务 医院 国家 计生委 医院 远程 服务 专科 机构 跨区 专家 基层 患者 医院 系统 无缝 系统 效率 能力 专家 音视频 课件 幻灯 双方 交流 培训 过程 医疗机构 视频会议 医疗机构 学术交流 病例 经验 业务 条件 应急 指挥系统 视频 平台 音视频 信息 音视频 会议 教学 过程 网络 方式 专线 终端 平板 电脑 智能手机 终端 通讯 视频 终端 条件 应急 指挥系统 视频 平台 音视频 信息 视频会议 系统 系统 扩展性 应急 视频 平台 条件 情况 远程 视频会议 系统 国家 应急 视频 平台 应急 会商 事件 图像 信息 信息 远程 医疗 信息系统 医疗机构 异构 系统 信息 业务流程 协同 系统 信息 流程 方面 患者 标识 远程 医疗 过程 患者 远程 医疗 交叉 远程 医疗 业务 外院 交流 定位 患者 患者 病历 医院 业务 系统 远程 医疗系统 患者 本院 病历 资料 远程 医疗 数据中心 协同 过程 调用 协作 项目 医技 协作 单所 项目 本院 系统 错误 报告 远程 医疗系统 报告 模块 医院 医技 系统 辅助 检查 系统 社区卫生 服务中心 电子 档案 系统 检验 检查 数据 协作 机构 医疗机构 系统 异构 平台 技术 信息 任务 适配器 行业 方案 系统 耦合 系统 整体 可靠性 病历 病历 远程 医疗 信息系统 核心 病历 服务 目录 目录 检索 文档 功能 文档 病历 住院 医嘱 检查报告 检验 报告 病历 病历 医院 业务 系统 数据 医院 业务 系统 资料 加工 标准化 格式 文档 远程 医疗 数据中心 远程 医疗 业务 病历 目录 管理 文档 目录 文档 信息 文档 信息 远程 医疗 客户 检索服务 文档 文档 服务 文档 有效性 文档 技术 分析 远程 医疗 信息系统 建设 信息化 技术 理念 技术 成熟性 实用性 系统 专业 信息系统 建设 功能 总体设计 国际 技术标准 国家标准 技术 管理 体系结构 形象 服务 服务 社会 大类 特点 系统 技术 网络 环境 架构 信息 资源 社会公众 信息 交流 渠道 优质 服务 信息 资源 基础 标准化 原则 系统 管理 信息化 标准 档案 公文 管理 有关 规定 资源 建设 属性 国家 信息技术 软件 质量标准 可靠性 可用性 系统 可靠性 因特网 用户 系统 用户 用户界面 可用性 用户 界面设计 系统 功能 原则 用户 可扩展性 系统 过程 用户 系统 扩展性 功能 模块化 系统 规模 系统 模块 模块 任务 功能 模块 设计 任务 细分 代码 模块化 功能 独立性 成本 培训 成本 客户端 浏览器 软件 系统 应用程序 升级 计算机 标准接口 数据库 平台 数据库系统 系统 数据备份 功能 海量 数据 性能 数据库 机制 物理 网络安全 数据 方面 基本 技术 技术 体系 建设 统一 身份验证 中心 人员 统一 权限 分配 能力 访问控制 页面 系统 平台 过程 全程 数据 关键 数据 传输 过程 监听 敏感数据 用户 密码 系统 界面 系统 服务 专业 人员 培训 系统 流程 处理速度 使用者 额外负担 界面 用户 特色 环境 适应性 环境 不确定性 计算机本身 处理速度 网络 环境 因素 系统配置 方面 网络 环境 方面 功能 网络 环境 计算机硬件 条件 性能需求 构件 面向对象 系统 架构 体系 充分考虑 系统 能力 网络 性能 网络 环境 操作性 界面 系统 时间 数据量 记录 字节 数据量 系统 稳定性 系统 小时 故障 时间 故障 视音频 视频 声音 现象 声音 声音 标准 标准 音视频 外设 终端 诊室 部署 桌面 实际 用户 外院 本院 用户 规模 平台 医疗 用户 远程 医疗 信息系统 网络 诊室 实际 系统 数据 数据 医疗 质量 核磁 光机 经络 辅助 设备 医学影像 信息 数据 一致性 互动性 资源共享 医院 资源 利用 标准 校验 稳定性 系统 过程 错误 无法 现象 影响 信息安全 患者 信息 远程 医疗 信息系统 信息 电子 病历 档案 信息 影像 数据 电子 病历 档案 个人 基本 信息 病史 数据 信息 专家 患者 信息 患者 数据 患者 利益 影响 医院 远程 医疗 信息 传输 过程 影响 结果 医疗事故 信息 传输 完整性 检测 保密性 数据备份 数据 异地 备份 数据安全 远程 医疗 信息系统 机构 信息 远程 医疗 专业 机构 企业 内网 远程 医疗 部分 信息 大量 信息 医疗机构 挑战 部分 联通 情况 医疗机构 信息安全 远程 医疗系统 整体 基层医院 互联网 地市级 数据中心 医院 网络 联网 边界 防火墙 完整性 检测 控制措施 业务 数据库 远程 医疗系统 教学 大量 业务 信息 业务 工作 部分 患者 信息 动态 历史 信息 医疗 业务 网络层 业务 系统 核心 信息 资产 危害 远程 医疗系统 信息安全 管理制度 管理 措施 系统 病毒 网络 传播 影响 系统 完整性 可用性 权限 过度 系统资源 权限 系统配置 数据 运维 人员 错误 问题 设计 架构 系统 架构 远程 医疗 信息系统 总体 架构 远程 医疗 信息系统 总体 架构 远程 医疗 信息系统 管理 服务 角度 业务 覆盖范围 过程 环节 建模 业务 驱动 前提 统一 目标 设计 管理机构 医院 基层 社区 机构 统一 业务 发展 融合 远程 医疗 信息系统 远程 医疗 业务 管理 运转 远程 医疗 信息系统 管理 服务 业务流程 优化 目标 远程 医疗 信息系统 远程 医疗 服务 资源 监管 中心 医疗机构 终端 站点 专用 业务 网络 系统 远程 医疗 信息系统 总体 架构 远程 医疗 信息系统 部署 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 体系 后台 管理 角色 远程 医疗 信息系统 核心 管理 要素 远程 医疗 服务 资源 监管 中心 业务 监管 宏观 指导 监管 远程 医疗系统 建设 运营 情况 整体 建设 规划 措施 全国 远程 医疗 资源 合理 调配 统一 管理 远程 医疗 服务 资源 监管 中心 统一 平台 医疗 资源 远程 医疗 特色 医疗 服务 条件 专科 系统 应急 指挥系统 监管 职责 指导 监督 远程 医疗系统 建设 运营 情况 国家 监管 服务 信息 互通 全国 统一 服务 监管 网络 医疗机构 终端 站点 医院 服务站 医院 服务 站点 基层 医疗卫生 机构 服务 站点 远程 医疗 服务 资源 监管 中心 医疗 监管 服务 中心 远程 医疗 系统 医院 医院 基层 医疗卫生 机构 图像 设备 音视频 终端 医疗 数据 设备 医生 工作站 医疗机构 远程 医疗 终端 站点 医疗 业务 服务 医疗 信息 医疗 资源 业务 活动 服务质量 医疗 专用 业务 网络 远程 医疗 信息网络 远程 医疗 服务 资源 监管 骨干 网络 核心 节点 医院 医院 乡镇 社区卫生 服务中心 救护车 业务 单元 机构 机构 医疗 信息系统 基本 单位 专线 远程 医疗 服务 资源 监管 中心 系统 远程 医疗 服务 资源 监管 中心 远程 医疗 信息 资源 远程 医疗 子系统 业务 体系 远程 医疗 信息系统 国家 信息 平台 信息 平台 区域 信息 平台 医院 信息 平台 信息 远程 医疗 服务 资源 监管 中心 建设 模式 远程 医疗 监管 任务 地区 建设 经验 远程 医疗 服务 资源 中心 建设 模式 单体 模式 区域 信息 平台 医院 综合 医院 成型 远程 医疗 服务 资源 监管 中心 远程 医疗 服务 资源 监管 中心 区域 医疗机构 分体 模式 监管 资源 服务 系统 远程 医疗 服务 系统 部分 管理机构 建设 监管 资源 服务 系统 区域 远程 医疗 服务 中心 医院 协同 备份 区域 远程 医疗 服务 系统 功能 架构 系统 业务 功能 架构图 远程 医疗 信息系统 远程 医疗 信息系统 业务 功能 监管 功能 功能 基础 功能 监管 功能 基本 情况 服务质量 财务 方面 监管 功能 基本 业务 功能 高端 业务 功能 基本 业务 功能 远程</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 印发 远程 医疗 信息系统 建设 技术 指南 规划 地方 法规 规章 实务 自治区 直辖市 计生委 人口 计生委 规范 指导 远程 医疗 体系 建设 远程 医疗系统 建设 发展 研究 远程 医疗 信息系统 建设 技术 指南 网站 规划 信息 栏目 印发 国家 计生委 办公厅</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 监督 信息 报告 工作 督导 检查 国家 委员会 办公厅 监督 信息 报告 工作 督导 检查 监督 自治区 直辖市 计生委 监督 中心 全国 监督 调查 制度 计生 行政部门 监督 调查 制度 布置 监督 信息 报告 工作 督导 检查 监督 信息 报告 工作 督导 检查 方案 附件 方案 自查 工作 自查 工作 总结 我委 地方 工作 情况 督导 检查 联系人 国家 计生委 监督局 红军 附件 监督 信息 报告 工作 督导 检查 方案 国家 计生委 办公厅 年度 监督 信息 报告 督导 检查 方案 工作 目的 国家 计生委 办公厅 印发 全国 资源 医疗 服务 调查 制度 制度 规划 办公厅 印发 监督 信息 报告 管理 规定 监督 现场 督导 检查 基层 监督 信息 报告 实际 工作 现状及 问题 信息 报告 工作 重点 监督 信息 报告 质量 检查 范围 检查 范围 监督 信息 报告 系统 网络 直报 省份 信息 报告 省份 方式 监督 信息 报告 工作 省份 省份 监督机构 督导 对象 地市级 监督机构 区级 监督机构 重点 检查 直辖市 地市级 监督机构 检查 检查 内容 全国 监督 调查 制度 监督 信息 报告 管理 规定 修订版 监督 监督 信息 报告 工作 情况 全国 监督 调查 制度 报告 系统 情况 全省 培训 机构 人员 基本 信息 情况 系统 人员 信息 实际 情况 监督 单位 个案 信息 情况 现场 经常性 监督 监督 监测 案件 建设项目 审查 信息 报告 情况 现场 工作 情况 系统 个案 信息 检查 个案 信息 报告 时限 质量 利用 情况 监督 信息 报告 数据 分析 利用 情况 省份 监督机构 检查 检查 具体内容 附件 计生 行政部门 监督机构 自查 国家 计生委 监督局 监督 中心 督导 检查 方式 工作 自查 阶段 督导 方案 自查 工作 现场 督导 国家 计生委 监督局 监督 中心 监督 信息 报告 数据 分中心 专家 现场 督导 总结 通报 国家 计生委 监督局 监督 中心 督导 工作 总结 信息 报告 工作 通报 监督 信息 报告 工作 督导 检查 评分表 检查 单位 调研 时间 检查 内容 工作 方法 检查 评分 项目 评分标准 管理 情况 全国 监督 调查 制度 培训 情况 全省 范围 全国 监督 调查 制度 培训 工作 会议 交流 资料 全国 监督 调查 制度 专题 培训 信息化 培训 全国 监督 调查 制度 有关 内容 督导 全国 监督 调查 制度 督导 情况 全省 范围 全国 监督 调查 制度 督导 工作 会议 交流 资料 全国 监督 调查 制度 专项 督导 监督 工作 督导 全国 监督 调查 制度 有关 内容 督导 信息 报告 工作 情况通报 全省 范围 监督 信息 报告 工作 情况通报 会议 交流 资料 计生 行政 通报 监督机构 通报 督导 工作 计划 本年度 监督 信息 报告 工作 计划 会议 交流 资料 监督 中心 年度 监督 信息 报告 工作 监督 信息 报告 工作 计划 监督 中心 年度 监督 信息 报告 工作 督导 措施 专人 监督 信息 报告 工作 会议 交流 资料 信息 报告 管理员 管理员 省份 省份 督导 人员 稳定性 信息 报告 管理人员 会议 交流 资料 信息 报告 管理员 监督 单位 报告 情况 监督 单位 情况 监督 单位 信息 情况 监督 信息 报告 系统 数据 会议 交流 监督 信息 报告 系统 监督 信息 报告 系统 监督 单位 重卡 监督 单位 信息 错误率 监督 信息 报告 系统 自动 监控 监督 信息 报告 系统 监督 信息 报告 系统 自动 监控 错误率 错误率 错误率 实际 数值 标化 抽样检查 监督 单位 底档 监督 信息 报告 系统 监督 信息卡 检查 信息卡 有误 单位 档案 监督 信息 报告 系统 现场 调研 资料 监督 单位 信息卡 内容 监督 单位 信息卡 信息 档案 记录 经常性 监督 监督 监测 信息 报告 情况 经常性 监督 报告 经常性 监督 报告 情况 监督 信息 报告 系统 现场 调研 本年度 经常性 监督 信息 经常性 监督 报告 情况 经常性 监督 信息 突击 补报 情况 监督 信息 报告 系统 现场 调研 检查 监督 监督 单位 经常性 监督 覆盖率 单位 经常性 监督 覆盖率 情况 监督 信息 报告 系统 现场 调研 会议 交流 监督 经常性 监督 覆盖率 标化 抽样检查 经常性 监督 监督 监测 信息 监督 信息 报告 系统 经常性 监督 信息卡 监督 监测 信息卡 检查 信息卡 档案 监督 信息 报告 系统 现场 调研 资料 信息卡 信息 档案 记录 案件 信息 报告 情况 案件 信息 错误率 监督 信息 报告 系统 自动 监控 监督 信息 报告 系统 监督 信息 报告 系统 自动 监控 错误率 错误率 错误率 实际 数值 标化 抽样检查 案件 底档 监督 信息 报告 系统 案件 信息卡 检查 信息卡 有误 单位 档案 监督 信息 报告 系统 现场 调研 资料 监督 单位 信息卡 内容 监督 单位 信息卡 信息 档案 记录 机构 人员 信息 报告 情况 机构 情况 年度 监督机构 信息卡 工作 监督 信息 报告 系统 人员 基本 信息 情况 人员 基本 信息 情况 监督 信息 报告 系统 实际 情况 会议 交流 资料 监督机构 人员 情况 信息 汇总表 监督 信息 报告 系统 人力资源 信息卡 监督机构 实际 情况 人员 人扣 数据 工作 情况 分中心 情况 分中心 错误 监督 信息 报告 系统 利用 工作 情况 利用 利用 工作 会议 交流 资料 利用 工作 督导 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 人口 信息化 专家 咨询 委员会 人口 信息化 专家 咨询 委员会 章程 国家 委员会 办公厅 人口 信息化 专家 咨询 委员会 规划 自治区 直辖市 计生委 人口 计生委 人口 计生委 机关 司局 直属 联系 单位 人口 信息化 工作 水平 经委 会议 研究 人口 信息化 专家 咨询 委员会 医学 信息学 工程学 数学 管理学 法学 社会学 领域 专家 专家 咨询 委员会 委员 名单 附件 专家 咨询 委员会 国家 计生委 信息化 工作 领导小组 领导 工作 专业 咨询 决策 人口 信息化 建设 研究 附件 人口 信息化 专家 咨询 委员会 委员 名单 人口 信息化 专家 咨询 委员会 章程 国家 计生委 办公厅 附件 人口 信息化 专家 咨询 委员会 委员 名单 科学技术 协会主席 传染病 国家 重点 实验室 院士 教授 主任医师 教授 信息 学会 常务 副会长 秘书长 部长 信息 学会 副会长 社会 人口 学院 院长 教授 姓氏笔画 排序 院长 教授 软件 学院 院长 教授 法治 政府 研究院 院长 教授 医学 信息 研究所 图书馆 馆长 研究员 专家 咨询 委员会 员会 研究员 科学院 院长 主任医师 工程 咨询中心 科技 委员 研究员 数据管理 中心 教授级 高工 国家 信息化 专家组 咨询 委员会 委员 协会 副理事长 院士 电子 学会 秘书长 教授级 高工 信息网络 工程 研究 中心 教授 计算机 学院 院长 教授 国家 发展 研究院 教授 国家 食品 研究员 电子政务 工程 常务副 经济 总工程师 教授级 高工 所长 教授 人口 发展 研究 中心 研究员 建平 信息 研究所 教研室 教授 工业 信息化 信息化 副司长 司长级 副校长 医院院长 教授 临床 医学院 医院 书记 教授 数字证书 中心 总经理 高工 附件 人口 信息化 专家 咨询 委员会 章程 人口 信息化 专家 咨询 委员会 国家 计生委 信息化 工作 领导小组 咨询机构 国家 计生委 信息化 工作 领导小组 领导 工作 人口 信息化 专家 咨询 委员会 宗旨 人口 信息化 战略决策 科学化 人口 信息化 发展 进程 专家 咨询 委员会 职责 国家 计生委 信息化 工作 领导小组 领导小组 领导小组 办公室 委托 国家 人口 信息化 发展 战略 政策 规划 意见 建议 领导小组 重要文件 咨询 评议 国家 人口 信息化 发展 问题 建议 信息化 问题 前瞻性 研究 专家 教学科研 单位 政府 机构 人口 信息化 部门 交流 合作 专家 咨询 委员会 专家 咨询 委员会 秘书处 国家 计生委 规划 信息司 专家 咨询 委员会 日常事务 专家 咨询 委员会 委员 国家 人口 信息化 发展 政策 战略 工作 专业 理论 水平 实践经验 社会 联系 医学 信息学 工程学 数学 管理学 法学 社会学 领域 方面 专家 全局观念 敬业精神 人口 信息化 工作 服务 专家 咨询 委员会 人选 秘书处 章程 规定 领导小组 专家 咨询 委员会 委员 人选 秘书处 根据上述 原则 工作 专家 咨询 委员会 委员 候选人 有关 方面 意见 领导小组 专家 咨询 委员会 委员 领导小组 任期 专家 咨询 委员会 委员 基本权利 专家 咨询 委员会 委员 意见 建议 权利 专家 咨询 委员会 经费 人口 信息化 问题 调研 有关 资料 专家 咨询 委员会 委员 义务 专家 咨询 委员会 会议 活动 意见 建议 研究 咨询 任务 有关 事宜 保密 义务 专家 咨询 委员会 统一 部署 分工协作 分散相 会议 方式 职责 范围 有关 事宜 工作 调研 方式 工作 委员 个人 专长 集体 秘书处 专家 咨询 委员会 工作 报告 领导小组 报告 人口 信息化 战略 问题 研究成果 委员 意见 建议 专家 咨询 委员会 全体会议 咨询 评议 问题 专门 会议 全体会议 研究 问题 委员 意见 建议 专家 咨询 委员会 国家 计生委 门户网站 社会 有关 意见 建议 专家 咨询 委员会 秘书处 事业 经费 国家 计生委 有关 规定 办理 专家 咨询 委员会 委员 自律 专家 咨询 委员会 委员 名义 经营 活动 商业 宣传 专家 咨询 委员会 名义 活动 专家 咨询 委员会 委员 义务 章程 秘书处 领导 小组会议 委员 资格 章程 印发 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 信息化 工作 领导小组 国家 委员会 办公厅 信息化 工作 领导小组 规划 自治区 直辖市 计生委 人口 计生委 人口 计生委 机关 司局 直属 联系 单位 信息化 建设 工作 领导 人口 信息化 工作 水平 经委 会议 国家 计生委 信息化 工作 领导小组 领导小组 领导小组 副组长 副局长 领导小组 成员 领导小组 职责 国家 计生委 信息化 工作 领导小组 国家 计生委 信息化 整体 建设 议事 机构 管理 计生 信息化 总体 建设 计生 信息化 建设 战略规划 重大项目 综合 政策 研究 年度计划 重点 任务 责任 分工 地区 系统 单位 部署 情况 任务 情况 建设 任务 重点难点 问题 领导小组 办公室 职责 领导小组 办公室 办公室 规划 信息司 办公室 规划 信息司 司长 规划 信息司 副司长 副司长 建平 人口 发展 研究 中心 总工程师 领导小组 办公室 成员 振华 领导小组 办公室 职责 领导小组 办公室 国家 计生委 信息化 工作 领导小组 执行机构 领导小组 事项 信息化 制度 工作 机制 阶段性 部署 计生 信息化 年度 建设 任务 国家 计生委 信息化 建设 工作 机制 领导小组 民主集中制 原则 研究 计生 信息化 工作 事项 司局 直属 联系 单位 有关 事项 议题 领导小组 办公室 领导小组 办公室 汇总 议题 意见 领导小组 领导小组 办公室 领导小组 办公室 总体规划 顶层 设计 重点项目 标准 监管 评估 事项 行业 信息化 工作 指导 业务 司局 系统 建设 司局 业务 领域 项目 有关 直属 联系 单位 信息 标准 网络 技术 研究 事项 领导小组 办公室 专题会议 协商 领导小组 领导小组 办公室 有关 部门 办理 研究 情况 处理结果 通报 领导小组 成员 单位 领导 小组会议 制度 领导小组 全体会议 专题会议 计生 信息化 建设 进展 情况 阶段 重点 工作 汇报 研究部署 计生 信息化 建设 工作 任务 工作 问题 领导小组 全体会议 领导小组 专题会议 领导小组 工作 领导小组 全体会议 专题会议 领导小组 办公室 计生 信息化 工作 事项 工作 部署 指导性 意见 会议纪要 形式 印发 有关 单位 会议纪要 领导小组 办公室 会议 主持人 领导小组 成员 部署 工作 事项 阶段性 工作 情况 领导小组 办公室 工作 信息化 项目 情况 任务 领导小组 成员 单位 责任 分工 业务 原则 领导小组 统一 领导 成员 单位 责任 分工 规划 信息司 综合 部门 总体规划 顶层 设计 重点项目 标准 建设 监管 评估 人员培训 具体任务 司局 直属 联系 单位 业务 领域 信息化 建设 项目 监管 任务 计生 信息化 经费 管理 财务 工作 人口 发展 研究 中心 疾病 监督 中心 发展 研究 中心 医院 管理 研究所 信息 有关 直属 联系 单位 信息 标准 网络 技术 业务部门 计生 信息化 建设 调研 项目管理 方案 设计 论证 部署 项目 技术 方案 工作 国家 计生委 办公厅 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 办公厅 医院 信息 报告 工作 国家 委员会 办公厅 医院 信息 报告 工作 自治区 直辖市 计生委 医院 报告 管理 规范 政发 规范 全国 医院 信息 报告 系统 报告 系统 医院 信息化 管理 方面 经验 报告 质量 问题 医院 信息 报告 工作 医院 报告 工作 领导 计生 行政部门 机制 医院 报告 医院 管理 手段 医疗机构 医院 信息 报告 医院 事件 全面 医院 客观规律 方面 规范 信息 义务 医院 报告 医疗机构 规定 责任 医院 信息 报告 标准 医疗机构 医院 医院 标准 医院 程度 规范 报告 计生 行政部门 医疗机构 无法 医院 医院 联系 计生 行政部门 计生 行政部门 指导 规范 病原体 病原体 影响 医院 医疗机构 规范 规定 时限 计生 行政部门 规范 报告 系统 管理 计生 行政部门 医疗机构 统一 医院 信息 报告 系统 用户 信息 工作 医疗机构 医院 调查报告 报告 系统 网站 结果 计生 行政部门 地市级 顺序 医院 调查报告 结果 调查 医院 报告 系统 标记 医院 计生 行政部门 规范 调查 报告 系统 标记 计生 行政部门 无法 医院 医院 规范 规定 报告 系统 标记 计生 行政部门 辖区 报告 全国 医院 报告 情况 指导 实际 有关 专家 技术支持 报告 系统 数据 质量 计生 行政部门 充分发挥 医院 管理 质量 专业 指导 医疗机构 报告 制度 程序 医院 报告 数据 质量 医院 管理 能力 数据 质量 医疗机构 我委 委托 机构 数据 质量 区域 单位 数据 季度 全国 医院 信息 报告 数据 质量 标杆 报告 系统 部分 医院 监测 系统 监测 医院 情况 基准值 报告 系统 信息 分析 利用 计生 行政部门 医院 管理 质量 医院 信息 报告 分析 利用 机制 指导 医疗机构 采取有效 防控 措施 总结 医院 预警 应急 方面 工作 经验 书面报告 我委 委托 机构 报告 系统 数据 样本 定期 医院 人群 特点 季节 趋势 易发 部位 病原体 规律性 信息 原则 指导 医院 管理工作 医院 监测 系统 附件 总结 季度 系统 监测 医院 情况 季度 医院 报告 情况 调查表 电子邮件 形式 委医 医管局 表格 附件 附件 医院 监测 系统 名单 医院 报告 情况 调查表 国家 计生委 办公厅 附件 医院 监测 系统 省区市 名单 附件 医院 报告 情况 调查表 市区 季度 填表人 电话 电子邮箱 调查 项目 项目 编码 数量 总体 情况 出院 病人 总数 人次 医院 次数 医院 部位 报告 次数 心血管 系统 血液 系统 腹部 系统 泌尿系统 手术 部位 皮肤 关节 生殖道 口腔 医院 病原体 报告 次数 铜绿 单胞菌 杆菌 金黄色 葡萄球菌 杆菌 球菌 肺炎 白菌 大肠 表皮 葡萄球菌 真菌 病毒 法定 乙类 传染病 调查表 单位 统一 专门 部门 人员 工作 调查 指标值 整数 数据 指标 备注栏 调查表 调查 指标 调查表 格式 调查 指标 信息 调查 指标 出院 病人 总数 卫生统计 年鉴 辖区 全部 医疗机构 出院 病人 总数 医院 次数 指省 医院 事件 次数 部位 病原体 单位 报告 次数 病例 耐药 种类 耐药 医院 控制技术 指南 政发 法定 乙类 传染病 调查 信息 制作 附件 病原体 名称 医院 事件 次数 信息 信息 次数 倒序 时间段 季度 调查表 国家 计生委 医政 医管局 电子邮箱 国家 计生委 医政 医管局 联系人 电话 医院 管理 研究所 联系人 电话 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 流动人口 服务中心 流动人口 动态 监测数据 国家 委员会 流动人口 服务中心 流动人口 动态 监测数据 流服 有关 单位 流动人口 数量 流动 情况 国家 人口 计生委 全国 范围 流动人口 动态 监测 调查 数据 资源 数据 政府部门 政策 研究 机构 研究 国家 计生委 流动人口 服务中心 国家 计生委 流动人口 服务 管理司 委托 流动人口 动态 监测数据 项目 年度 数据 工作 通告 主体 数据 范围 主体 动态 监测数据 主体 科研机构 高校 事业单位 内设 机构 法人资格 企业 单位 决策 学术研究 个人 名义 数据 数据 范围 数据 范围 数据 流动人口 发展 状况 特征 情况 社会 融合 心理健康 基本 公共服务 基本 医疗 服务 基本 社会保险 内容 数据 分类 方式 数据 单位 数据 方式 单位 数据 数据 合作 单位 数据 研究成果 数据 年度 数据 方式 数据 研究课题 方案 研究课题 背景 项目名称 研究 内容 时间 预期 成果 课题 方向 人口迁移 基本 公共卫生 计生 服务 医疗卫生 改革 发展 流动人口 社会 融合 内容 时间 数据 有效期 流动人口 服务中心 单位 数据 流动人口 服务中心 单位 资料 情况 流动人口 结果 数据 流程 单位 双方 协议 基础 方式 流程 流程 单位 流动人口 动态 监测数据 申请表 附件 双方 协议 单位 负责人 单位 公章 申请表 协议 电子版 流动人口 服务中心 单位 资质 数据 内容 数据 目的 预计 成果 情况 意见 流动人口 流动人口 服务中心 流动人口 意见 数据 单位 数据 单位 数据 成果 数据 来源 国家 计生委 流动人口 动态 监测数据 数据 成果 核心 刊物 发表文章 学术著作 价值 报告 单位 数据 产生 成果 流动人口 动态 监测数据 成果 登记表 附件 研究成果 原件 复印件 原件 流程 单位 流动人口 动态 监测数据 申请表 附件 双方 协议 数据 调查 方案 问卷 数据 内容 来源 调查 范围 调查 方法 数据 质量 情况 保证数据 来源 合法 质量 单位 负责人 单位 公章 申请表 协议 电子版 流动人口 服务中心 单位 资质 数据 情况 数据 内容 数据 目的 预计 成果 情况 优先 意见 流动人口 流动人口 服务中心 流动人口 意见 数据 单位 数据 单位 数据 成果 数据 来源 国家 计生委 流动人口 动态 监测数据 数据 流动人口 动态 监测数据 成果 登记表 附件 研究成果 原件 复印件 原件 有关 数据 单位 单位 数据 人员 保密 教育 管理 数据 人员 国家 保密法 国家 计生委 有关 数据 保密 规定 调查 数据 受访者 书面 形式 受访者 信息 数据 部分 全部 形式 数据 数据 人员 数据 文本 措施 数据 数据 成果 优质 单位 中心 年度 数据 工作 时间 数据 范围 数据 质量 合作 方式 年度 数据 单位 申报 研究成果 国家 计生委 内部资料 流动人口 发展 报告 课题 成果 单位 数据 利用 产生 价值 成果 单位 协议 规定 数据 单位 流动人口 服务中心 数据 权限 时间 数据 供给 方式 法律责任 流动人口 服务中心 数据 研究 数据 使用权 流动人口 服务中心 数据 研究成果 言论 政治 经济 法律责任 数据 单位 咨询 联系人 郎易 通信地址 知春路 国家 计生委 流动人口 服务中心 邮编 联系 邮箱 附件 流动人口 动态 监测数据 申请表 流动人口 动态 监测数据 申请表 流动人口 动态 监测数据 成果 登记表 国家 计生委 流动人口 服务中心 附件 流动人口 动态 监测数据 申请表 编号 单位 全称 数据 内容 数据 年度 流动人口 发展 状况 人口 流动 特征 流动人口 流动人口 情况 流动人口 社会 融合 流动人口 心理健康 流动人口 基本 公共服务 流动人口 基本 医疗 服务 流动人口 基本 社会保险 数据 目的 预计 成果 形式 数量 联系人 姓名 职务 职称 办公 电话 手机 电子邮箱 单位地址 邮政编码 单位 单位 国家 计生委 流动人口 服务中心 流动人口 动态 监测数据 协议 规定 数据 数据 研究 成果 单位 全部 责任 单位 负责人 单位 公章 流动人口 服务中心 意见 负责人 流动人口 意见 负责人 签章 申请表 纸质 正反面 申请表 知春路 国家 计生委 流动人口 服务中心 数据 邮编 申请表 电子版 邮箱 附件 流动人口 动态 监测数据 申请表 编号 单位 全称 单位 提供数据 内容 来源 单位 提供数据 单位 内容 数据 年度 流动人口 发展 状况 人口 流动 特征 流动人口 流动人口 情况 流动人口 社会 融合 流动人口 心理健康 流动人口 基本 公共服务 流动人口 基本 医疗 服务 流动人口 基本 社会保险 目的 预计 成果 形式 联系人 姓名 职务 职称 办公 电话 手机 电子邮箱 单位地址 邮政编码 单位 单位 国家 计生委 流动人口 服务中心 流动人口 动态 监测数据 协议 规定 数据 单位 全部 责任 单位 负责人 单位 公章 流动人口 服务中心 意见 负责人 流动人口 意见 负责人 申请表 纸质 正反面 申请表 知春路 国家 计生委 流动人口 服务中心 邮编 申请表 电子版 邮箱 附件 流动人口 动态 监测数据 成果 登记表 成果 名称 成果 形式 调查报告 期刊 文章 学术著作 会议 论文 作者 单位 职称 职务 作者 作者 作者 刊物 出版社 出版日期 成果 质量 情况 中文 核心 出版物 领导批示 省部级 司局级 情况 情况 姓名 单位 核实 单位 负责人 单位 公章 登记表 知春路 国家 计生委 流动人口 服务中心 邮编 登记表 电子版 邮箱 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 信息技术 交流 大会 工作 国家 委员会 信息技术 交流 大会 工作 卫统 中心 自治区 直辖市 计生委 计划单列市 计生委 有关 医疗卫生 单位 信息技术 交流 大会 信息技术 交流 大会 规模 内容 影响力 信息技术 交流 产品 盛会 充分发挥 会议 交流 信息化 发展 建设 居民 有关 事项 宣传 自治区 直辖市 计生委 大会 附件 网站 人员 工作 地区 系统 单位 卫生统计 信息管理 技术 工作 有关 人员 会议 大会 投稿 会议 优秀论文 作者 证书 部分 优秀论文 作者 作分 论坛 报告 奖励 会议 有关 事项 有关 费用 信息 信息 学会 信息管理 杂志社 信息技术 交流 大会 国家 委员会 网站 会议 官方网站 联系人 联系人 电话 电子邮箱 附件 信息技术 交流 大会 学会 国家 委员会 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 通告 慢性病 监测 信息系统 基本功能 规范 推荐性 行业标准 通告 国家 委员会 通告 慢性病 监测 信息系统 基本功能 规范 推荐性 行业标准 通告 慢性病 监测 信息系统 基本功能 规范 推荐性 行业标准 编号 名称 慢性病 监测 信息系统 基本功能 规范 新型农村 合作医疗 基本功能 规范 医疗 信息系统 基本功能 规范 监督 业务 信息系统 基本功能 规范 标准 通告 国家 计生委 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 委员会 通告 电子 病历 基本 数据 部分 病例 行业标准 通告 国家 委员会 通告 电子 病历 基本 数据 部分 病例 行业标准 通告 电子 病历 基本 数据 部分 病例 行业标准 编号 名称 电子 病历 基本 数据 部分 病历 电子 病历 基本 数据 部分 电子 病历 基本 数据 部分 处方 电子 病历 基本 数据 部分 检查 检验 记录 电子 病历 基本 数据 部分 记录 电子 病历 基本 数据 部分 助产 记录 电子 病历 基本 数据 部分 护理 记录 电子 病历 基本 数据 部分 护理 评估 计划 电子 病历 基本 数据 部分 知情 信息 电子 病历 基本 数据 部分 住院 病案 电子 病历 基本 数据 部分 住院 病案 电子 病历 基本 数据 部分 入院 记录 电子 病历 基本 数据 部分 住院 病程 记录 电子 病历 基本 数据 部分 住院 医嘱 电子 病历 基本 数据 部分 出院 小结 电子 病历 基本 数据 部分 记录 电子 病历 基本 数据 部分 医疗机构 信息 居民 档案 医学 检验 项目 代码 电子 病历 医院 信息 平台 技术规范 居民 档案 区域 信息 平台 技术规范 标准 通告 国家 计生委 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 政府 信息 工作 报告 国家 计生委 政府 信息 工作 报告 信息 条例 条例 有关 规定 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 情况 部分 报告 数据 期限 国家 计生委 条例 有关 着力 政府 信息 工作 机构 建设 制度 建设 平台 建设 渠道 建设 院务 重点 医疗卫生 机构 信息 工作 全面 政府 信息 工作 水平 政府 信息 机构 建设 国家 计生委 党组 政府 信息 工作 国家 计生委 政务 工作 领导小组 工作 机制 领导小组 副组长 驻委 机关 司局 行政事务 部分 直属 联系 单位 负责同志 成员 领导小组 办公室 国家 计生委 政务 政府 信息 工作 政府 信息 工作 机制 研究 国家 计生委 政府 信息 工作 制度 规范 政府 信息 工作 新闻 新闻媒体 领导 活动 会议 新闻报道 政府 网站 新闻宣传 新闻宣传 新闻宣传 培训 制度 政府 信息 平台 功能 国家 人口 计生委 政府 网站 国家 计生委 网站 政府 信息 平台 重点 功能 视频点播 矩阵 信息 服务 办事 功能 信息 功能 公众 网站 内容 政策 政策 媒体 公众 工作 动态 直属单位 重点 工作 信息 工作 亮点 计生 系统 整体 形象 政府 信息 渠道 积极探索 微信 媒体 手段 辅助 政府 信息 工作 热线服务 管理体系 群众 咨询 建议 公共卫生 事件 活动 舆情 监测 风险 电话 调查 服务 禽流感 疫情 全国 管理中心 小时 网友 问题 充分发挥 计生 服务 热线 服务 范围 行医 建设 政务 大厅 现场 群众 院务 重点 医疗卫生 机构 信息 工作 院务 示范点 建设 医院 基层 医疗机构 院务 示范点 区域 信息化 医院 信息 建设 医疗 服务 信息 方式 患者 检验 检查 结果 医院 方便群众 经济负担 医疗机构 价格 制度 服务 场所 收费 价格 情况 患者 形式 医药 费用 服务 基层 医疗卫生 服务 机构 信息 信息 乡镇 规范 管理 社区卫生 服务 机构 绩效考核 工作 血站 信息 宣传 工作 血站 信息 工作 血液 督导 检查 范围 妇幼保健 机构 信息 信息 妇幼 服务 管理 内容 全面推行 妇幼保健 机构 院务 制度 计生 监督 信息 范围 信誉度 工作 公共卫生 监督 社区 居民 生活 饮用水 监督 监测 信息 试点工作 新农 信息 部署 新农 制度 建设 活动 政府 信息 情况 国家 计生委 政府 信息 委政府 网站 国家 计生委 公报 新闻 形式 公众 政府 网站 信息 情况 国家 计生委 网站 信息 政府 信息 目录 目录 信息 机构 职能 政策法规 信息 规划 计划 信息 行政许可 信息 标准 信息 计生 信息 工作 动态 信息 通告 公告 信息 网站 信息 政府 信息 目录 目录 信息 机构 职能 政策法规 信息 规划 计划 信息 行政许可 信息 卫生标准 信息 卫生统计 信息 工作 动态 信息 通告 公告 信息 国家 人口 计生委 网站 政府 信息 机构 职能 信息 领导 信息 综合 政务 信息 政策法规 信息 规划 计划 信息 信息 人事 信息 财政 信息 政府 信息 业务 工作 信息 工作 信息 信息 条例 有关 国家 计生委 委政府 网站 社会 国家 人口 计生委 部门 行政 经费支出 经费 情况 部门 国家 计生委 委政府 网站 国家标准 国家标准 食源性 疾病 管理 办法 食品 原料 审查 管理 办法 食品 原料 申报 规定 食品 原料 审查 规程 重点 信息 工作 部分 消毒 产品 产品 行政 项目 公告 消毒 产品 消毒 产品 产品 信息 人类 辅助 生殖 技术 设置 人类 精子库 机构 名单 人体 项目 医院 名单 医院 名录 基本 药物 目录 群众 权益 政府 信息 群众 科学 部门 公报 信息 情况 国家 计生委 国家 计生委 公报 月刊 国家 计生委 规章 规范性 法定 传染病 疫情 信息 政府 信息 方式 计生 行政 机构 医疗卫生 计生 服务 机构 免费 国家 计生委 公报 电子版 国家 计生委 网站 公众 新闻 信息 情况 国家 计生委 充分利用 新闻 发布会 专题 新闻 发布会 媒体 形式 群众 热点 问题 信息 国家 计生委 新闻 发布会 新闻 媒体 热线电话 书面 发布新闻 通稿 政府 信息 政府 信息 情况 国家 计生委 政府 信息 互联网 表单 形式 电子邮件 信函 形式 政府 信息 全部 符合条件 政府 信息 政府 信息 信息 信息 内容 机关 政府 信息 条例 范围 政府 信息 收费 情况 国家 计生委 政府 信息 检索 成本费用 行政复议 情况 国家 计生委 国家 计生委 政府 信息 行政复议 案件 全部 行政复议 案件 国家 计生委 案件 案件 问题 情况 国家 计生委 政府 信息 工作 公众 日益增长 差距 政府 信息 工作 力度 信息 平台 渠道 建设 工作 效率 质量 国家 计生委 条例 有关 计生 政府 信息 工作 信息 水平 成果 基础 政府 信息 工作 组织协调 信息 能力 建设 平台 建设 有关 政府 信息 政策 媒体 社会 公信力 工作 依法 人民 群众 信息 院务 重点 医疗卫生 机构 信息 工作 医疗卫生 机构 信息 目录 指导 规范 医疗卫生 机构 信息 工作 信息 工作 培训 信息 工作 培训 计生 行政部门 工作人员 报告 国家 计生委 政务 工作 办公室 联系 地址 邮编 电话 电子邮箱 国家 计生委 政务 工作 办公室 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 年度 政府 信息 工作 报告 国家 计生委 年度 政府 信息 工作 报告 信息 条例 条例 有关 规定 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 情况 部分 报告 数据 期限 国家 计生委 条例 有关 部门 实际 政府 信息 工作 工作 机制 领导 政务 工作 领导 小组会议 政府 信息 工作 研究部署 印发 国家 计生委 政府 信息 管理 办法 工作 范围 方式 程序 培训 制度 工作 培训 年度 培训 计划 政府 信息 媒体 素养 培训班 工作 水平 新闻 制度 舆情 研判 机制 媒体报道 热点 社会 热议 事件 委政府 信息 指南 目录 动态 机制 分类整理 国家 人口 计生委 网站 政策 信息 全部 委政府 网站 政府 信息 目录 计生 服务 热线 热线服务 工作 人民 群众 咨询服务 医疗卫生 领域 服务 信息 利用 信息化 手段 医疗卫生 服务 机构 信息 服务水平 检验 检查 结果 居民 时段 省份 医院 试点 居民 医疗 异地 检验 检查 信息 居民 管理 医疗 费用 患者 排队 次数 等候 时间 医疗机构 重点 院务 工作 医疗机构 院务 工作 医疗机构 综合 评价 体系 医疗卫生 行风 建设 抗菌 药物 临床 专项 整治 工作 信息 妇幼 优质服务 创建活动 评估 指标 人类 辅助 生殖 技术 医疗机构 名单 建设 乡镇 活动 医务人员 信息 药品 检查 项目 价格 新农 信息 规范 管理制度 患者 指导 血站 信息 血站 基本 开放日 制度 关心 工作 社会 现场 工作 平台 网站 服务 行业 作风 建设 信息 社会 监督 基本 医疗卫生 机构 信息 目录 工作 规范 医疗卫生 机构 信息 工作 公共资源 信息 政府 信息 工作 研究 甲类 医用 设备 记录 机制 指导 招标 采购网 信息 指导 低价 药品 招标 信息 工作 医药 领域 商业 记录 制度 指导 本行政区域 医药 领域 商业 记录 实施办法 国家 计生委 政府 网站 商业 记录 专栏 商业 记录 工程 建设项目 信息 管理 单位 国家 投资 事项 规则 项目 单位 总体规划 项目 情况 信息 建设 事项 科技 管理 项目 经费 信息 委级 科研 基地 核查 信息 社会 工作 国家 科技奖 评审 科技 专项 评审 信息 科研成果 信息 科技 专项 科技 报告 工作 政府 信息 情况 国家 计生委 政府 信息 委政府 网站 国家 计生委 公报 新闻 发布会 形式 公众 委政府 网站 信息 情况 政府 信息 政策 信息 政策 信息 网站 信息内容 形式 计生 重点 工作 政策 网友 交流 栏目 制作 视频 计生 工作 活动 政策 信息 网站 重点 内容 财政 信息 统一 年度 部门 年度 部门 经费 情况 法定 传染病 公共卫生 事件 信息 定期 传染病 疫情 年度 全国 预防接种 反应 监测 信息 综合征 传染病 防控 信息 规范性 卫生标准 信息 委政府 网站 法制网 社会 社会 抚养费 管理条例 送审稿 条例 送审稿 行政 法规 规范性 意见 卫生标准 信息 标准 调整 专业 归类 标准 标准 委政府 网站 社会 信息 国家标准 信息 社会 国家标准 草案 意见 传统 食品 中药材 物质 目录 管理 办法 食源性 疾病 管理 办法 政策 意见 国家标准 项目 计划 国家标准 文本 有关 材料 工作 国家标准 工作 标准 软件 专门 社会 国家标准 鱼肝油 数量 白酒 产品 塑化剂 居民 膳食 风险 评估 结果 社会 信息 委政府 网站 行政 信息 核准 项委 行政 事项 目录 行政 事项 全部 政务 大厅 统一 规范 流程 政务 大厅 网页 信息管理系统 情况 结果 公告 意见反馈 功能 行政处罚 信息 委政府 网站 医疗 秩序 行医 专项 行动 专栏 政策 汇总 全国 执业 证书 执业 助理 医师 名单 基本 公共卫生 服务 信息 委政府 网站 国家 基本 公共卫生 服务项目 专栏 国家 基本 公共卫生 服务项目 有关 政策 经验 群众 问题 国家 基本 公共卫生 服务项目 委政府 网站 部门 公报 信息 情况 编辑出版 国家 计生委 公报 纸质 刊物 出版发行 部门规章 政策 疫情 信息 电子版 委政府 网站 方便群众 新闻 发布会 媒体 信息 情况 专题 新闻 发布会 政策 活动 研究 报告 政务 微信 部分 违规 幼儿 集体 服用 处方药 部分 医院 待产 事件 政策 社会 问题 政务 政府 信息 政务 微信 政府 信息 政府 信息 政府 信息 情况 国家 计生委 政府 信息 互联网 表单 形式 电子邮件 信函 形式 办理 部分 政府 信息 政府 信息 条例 调整 范围 机关 政府 信息 意见 政府 信息 收费 情况 国家 计生委 政府 信息 检索 成本费用 行政复议 情况 国家 计生委 机关 政府 信息 行政复议 政府 信息 机关 审理 行政复议 案件 行政 国家 计生委 情形 法院 审理 国家 计生委 政府 信息 政府 信息 情形 案件 案件 问题 情况 委政府 网站 信息 目录 建设 办理 数量 机构 人员配备 工作 目的 利益 问题 国家 计生委 有关 工作 力度 委政府 网站 建设 功能 信息 服务水平 社会 热点问题 舆情 医疗卫生 领域 信息 医疗卫生 机构 信息 目录 医疗 服务 价格 信息 工作 法定 传染病 公共卫生 事件 信息 政府 信息 工作 水平 政府 信息 情况 统计表 附件 报告 国家 计生委 政务 工作 办公室 联系 地址 邮编 电话 电子邮箱 附件 年度 国家 计生委 政府 信息 情况 统计表 单位 情况 政府 信息 渠道 方式 信息 规范性 规范性 总数 渠道 方式 政府 信息 情况 政府 公报 政府 信息 政府 网站 政府 信息 政务 政府 信息 政务 微信 政府 信息 情况 网络 信函 范围 书面 部分 国家 秘密 商业秘密 国家 经济 社会 条例 所指 政府 信息 行政 机关 信息 条例 调整 范围 情形 意见 行政复议 数量 行政 依法 情形 数量 行政 原告 诉讼请求 依法 情形 数量 条例 规定 挂号信 邮局 信件 信息 费用 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 年度 政府 信息 工作 报告 国家 计生委 年度 政府 信息 工作 报告 信息 条例 条例 有关 规定 年度报告 报告 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 问题 情况 部分 报告 数据 期限 国家 计生委 条例 政府 信息 工作 要点 部门 实际 政府 信息 工作 健全制度 机制 司局 单位 职责 分工 政府 信息 工作 政务 工作 领导 小组会议 总结 年度 委政府 信息 政务 工作 政府 信息 政务 工作 全面 动员 部署 工作 政务 工作 领导小组 办公室 成员 调整 全国 计生 系统 政府 信息 培训班 系统 政府 信息 工作 水平 媒体 素养 培训 计生 系统 媒体 能力 水平 公共资源 信息 医用 设备 配置管理 信息 医用 设备 国产 医疗 设备 目录 政府 信息 建设项目 信息 建设项目 信息 工作 机制 建设 装备 监管 平台 建设 项目 单位 建设项目 监管 投资 信息 国家 发展 改革 平台 投资 项目 核准 药品 招标 信息 委官 药品 政策 建设 国家 药品 供应 综合 管理 信息 平台 医药 领域 商业 记录 工作 省份 医药 领域 商业 记录 名单 医疗卫生 服务 领域 信息 印发 医院 技术 服务 机构 医疗卫生 机构 信息 目录 政务 医疗卫生 机构 信息 工作 指导 医疗卫生 机构 信息 规范 具体内容 形式 方式 方法 方便群众 医疗卫生 服务 机构 设置 职能 工作 规则 办事 程序 服务 内容 服务 收费 项目 监督 渠道 信息 医院 信息 工作 座谈会 交流 医疗机构 院务 经验 研究 院务 工作 计生 行风 建设 院务 医院 巡查 院务 科学 民主决策 医院 信息 医疗 服务 行动计划 印发 医疗 服务 行动计划 实施方案 医疗机构 服务 信息技术 优势 分流 患者 患者 体验 医疗机构 综合 评价 信息 工作 全国 医院 系统 共收录 医院 信息 规范 医院 评审 医院 管理 社会公众 核查 医院 信息 建设 乡镇 活动 医疗保障 制度 政策 制度 社区卫生 信息 平台 社区 公共服务 平台 服务 对象 基层 服务 机构 服务 范围 服务项目 价格 内容 血站 信息 血站 信息 目录 规范 血站 信息 工作 全国 血站 血站 开放日 制度 关心 工作 社会 现场 工作 平台 新农 信息 新农 定期 制度 定期 新农 信息 补偿 方案 目录 基金 收支 信息 国家 新农 平台 新农 平台 医院 信息系统 联通 工作 充分发挥 国家 新农 信息 平台 新农 业务 监控 跨省 管理 政府 信息 情况 政府 信息 工作 部门 经费 部门 情况 法定 传染病 公共卫生 事件 信息 突发事件 应急 传染病 疫情 防控 工作 信息 工作 动态 政策 信息 内容 委官 全国 法定 传染病 疫情 月份 网站 年度 疫情 信息 综合征 疫情 防控 方案 流感 重点 传染病 防控 工作 行政许可 办理 信息 国家 计生委 行政许可 事项 目录 行政许可 事项 职业 健康检查 管理 办法 国家 计生委 血浆 管理 办法 规章 信息 国家标准 国家标准 文本 材料 标准 速冻 食品 生产 规范 饮用 矿泉水 肉制品 经营 规范 标准 草案 社会 传统 食品 中药材 物质 目录 管理 办法 食源性 疾病 管理 办法 意见 计生 监管 信息 指导 计生 行政处罚 职责 目录 违法 案件 信息 医疗机构 医务人员 资质 信用 信息 力度 研究 制度 印发 学校 监督 信息 试点工作 学校 监督 信息 试点工作 汇总 委官 全国 执业 证书 执业 助理 医师 名单 汇总 省份 执业 证书 执业 助理 医师 名单 基层 计生 行政 管理 服务 信息 流动人口 居住地 办理 生育 服务 流程 所需 材料 婚育 证明 材料 流动人口 信息 平台 核查 流动人口 委政府 网站 信息 情况 全国 政府 网站 普查 工作 优化 委政府 网站 栏目 内容 功能 建设 特色 栏目 动态 委政府 信息 目录 官网 政府 信息 主渠道 运用 官方 微信 媒体 信息 政府 信息 传播 范围 信息 平台 渠道 信息 内容 委官 信息 官方 官方 微信 网站 评估 结果显示 委中 文官 部委 直属机构 部委 管理 网站 名次 报刊 新闻 网站 信息 影响力 新闻 发布会 媒体 信息 情况 新闻 制度 信息 政策 社会 问题 组织协调 新闻 发布会 新闻 发布会 专题 发布会 网络 传播 特点 运用 图片 图集 图解 视频 可视化 方式 政策 效果 委官 发布会 视频 政务 大厅 情况 政务 大厅 行政 事项 申报材料 现场 方式 文书 电话 信件 现场 形式 咨询 部门 公报 信息 情况 出版发行 国家 计生委 公报 政策 疫情 信息 政府 信息 政府 信息 情况 国家 计生委 政府 信息 互联网 表单 形式 电子邮件 信函 形式 办理 部分 政府 信息 条例 调整 范围 机关 政府 信息 意见 政府 信息 收费 情况 国家 计生委 政府 信息 检索 成本费用 行政复议 情况 国家 计生委 机关 政府 信息 行政复议 政府 信息 机关 审理 行政 国家 计生委 情况 法院 审理 国家 计生委 政府 信息 审理 行政 原告 诉讼请求 依法 案件 问题 情况 委政府 网站 信息 平台 政府 信息 办理 委政府 信息 大量 提出申请 情况 时有发生 国家 计生委 全面 政务 工作 意见 委官 政府 信息 目录 有关 栏目 内容 将委 官网 建设 计生 政府 信息 平台 利用 新闻 发布会 委官 官方 微信 信息 政策 中心 工作 宣传 建设 战略 宣传 进展 成就 信息 社会 政府 信息 情况 统计表 附件 报告 国家 计生委 政务 办公室 联系 地址 知春路 邮编 电话 国家 计生委 办公厅 附件 年度 国家 计生委 政府 信息 情况 统计表 单位 情况 政府 信息 渠道 方式 信息 规范性 规范性 总数 渠道 方式 政府 信息 情况 政府 公报 政府 信息 政府 网站 政府 信息 政务 政府 信息 政务 微信 政府 信息 情况 网络 信函 单位 意见 范围 部分 国家 秘密 商业秘密 国家 经济 社会 条例 所指 政府 信息 行政 机关 单位 信息 条例 调整 范围 行政复议 数量 行政 依法 情形 未果 数量 行政 原告 诉讼请求 依法 情形 数量 内容 信息 费用 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 印发 国家 计生委 政府 信息 管理 办法 国家 计生委 印发 国家 计生委 政府 信息 管理 办法 机关 司局 联系 单位 国家 计生委 政府 信息 管理 办法 国家 计生委 会议 印发 国家 计生委 国家 计生委 政府 信息 管理 办法 依法行政 水平 规范 国家 计生委 政府 信息 工作 公民 法人 依法 国家 计生委 政府 信息 权益 工作 透明度 政务 依法行政 建设 服务型 政府 信息 条例 法律法规 工作 实际 办法 办法 所称 国家 计生委 政府 信息 国家 计生委 依法 履行职责 过程 制作 形式 记录 信息 国家 计生委 政务 工作 领导小组 指导 机关 政府 信息 工作 研究 政府 信息 工作 问题 领导小组 办公室 办公厅 机关 政府 信息 工作 执行机构 领导小组 办公室 职责 研究 机关 政府 信息 工作 制度 工作 计划 组织协调 机关 政府 信息 保密 审查 工作 考核 机关 政府 信息 工作 统一 公民 法人 依法 国家 计生委 信息 责任 司局 单位 办理 工作 督查 政府 信息 统一 编号 机关 政府 信息 指南 目录 年度报告 政府 信息 有关 职责 产生 原则 司局 单位 职责 范围 政府 信息 工作 司局 单位 政府 信息 工作 制度 规范 政府 信息 流程 政府 信息 保密 审查 司局 单位 负责人 司局 单位 政府 信息 工作 责任人 司局 单位 政府 信息 工作 司局 单位 指派 责任心 业务 同志 政府 信息 工作 联络员 政府 信息 工作 报委 政务 工作 领导小组 办公室 备案 国家 计生委 政府 信息 合法 便民 原则 政府 信息 国家 计生委 信息 行政 机关 有关 行政 机关 信息 国家 计生委 政府 信息 国家 经济 社会 范围 国家 计生委 政府 信息 社会 机构 职能 国家 计生委 内设 机构 直属 联系 单位 机构 设置 领导 办事 指南 政策法规 计生 工作 法律 法规 部门规章 规范性 规划 计划 计生 事业 发展 规划 计生 工作 年度 计生 工作 要点 计生 专项 工作 方案 国家 计生委 部门 部门 国家 计生委 主体 行政许可 事项 名称 条件 数量 程序 期限 全部 材料 目录 文本 办理 情况 收费 项目 标准 卫生标准 国家标准 国家 计生委 技术标准 全国 计生 事业 发展 信息 国家 计生委 公告 通告 法定 传染病 疫情 公共卫生 事件 信息 干部 公务员 招标 社会公众 信息 工作 动态 综合 管理 人事管理 规划 信息 财务管理 应急 疾病 防控 爱国卫生 医政 医管 基层 妇幼 综合 监督 管理 基层 计生 家庭 发展 流动人口 新闻宣传 科技 教育 国际 合作 合作 行风 建设 方面 政策措施 监督 检查 情况 法律法规 规定 事项 国家 计生委 群众利益 规章 标准 规范性 草案 社会 办法 政府 信息 国家 计生委 公报 有关 报纸 杂志 书籍 出版物 公民 法人 生产 生活 科研 国家 计生委 政府 信息 政府 信息 国家 秘密 商业秘密 个人 隐私权 管理 信息 调查 政府 信息 行政 有关 影响 检查 调查 活动 合法权益 法律 法规 规定 情形 国家 计生委 司局 单位 国家 秘密 政府 信息 保密 审查 工作 国家 计生委 保密工作 有关 规定 法律 法规 政府 信息 保密 审查 方式 程序 国家 计生委 信息 国家 计生委 网站 网址 现场 新闻 发布会 国家 计生委 公报 报刊 广播 电视 辅助性 形式 司局 单位 办法 范围 职责 范围 规定 程序 地向 社会 范围 司局 单位 事项 书面 理由 经本 司局 单位 负责人 核签 国家 计生委 政务 工作 领导小组 负责人 司局 单位 政府 信息 产生 法律 法规 政府 信息 期限 规定 规定 规定 政府 信息 政府 信息 国家 计生委 门户网站 内容 工作 有关 规定 方式 程序 公民 法人 信函 电子邮件 国家 计生委 机关 政务 大厅 形式 国家 计生委 政府 信息 国家 计生委 政府 信息 申请表 办公厅 国家 计生委 政府 信息 工作 归口 管理 部门 政府 信息 工作 司局 单位 政府 信息 保密 审查 政策 办公厅 政府 信息 编号 内容 审查 申请表 信息 信息 提出申请 内容 司局 单位 办理 司局 单位 办理 经本 司局 单位 负责人 办公厅 编号 国家 计生委 政务 工作 领导小组 办公室 负责人 期限 工作日 司局 单位 办公厅 政府 信息 事项 分管领导 公民 法人 利益 社会 影响 政府 信息 程序 政务 工作 领导小组 负责人 司局 单位 政府 信息 法律 法规 有关 规定 有关 主管部门 司局 单位 政府 信息 商业秘密 书面 意见 司局 单位 公共利益 影响 国家 计生委 政务 工作 领导小组 办公室 负责人 政府 信息内容 理由 书面通知 意见 时间 办法 规定 期限内 政府 信息 情形 范围 政府 信息 方式 途径 范围 理由 依法 国家 计生委 政府 信息 政府 信息 机关 行政 机关 名称 部分 范围 理由 信息内容 内容 司局 单位 政府 信息 形式 无法 形式 资料 复制件 形式 政府 信息 过程 检索 成本费用 国家 计生委 办公厅 价格 主管部门 会同 财政部门 标准 统一 变相 政府 信息 公民 经济 国家 计生委 政务 工作 领导小组 办公室 负责人 费用 监督 政府 信息 工作 经费 国家 计生委 政府 信息 工作 国家 计生委 绩效考核 建设 责任制 考核 内容 国家 计生委 政务 工作 领导小组 办公室 定期 司局 单位 政府 信息 工作 情况 问题 国家 计生委 政务 工作 领导小组 司局 单位 政府 信息 工作 考核 成绩 工作 不力 考核 内容 范围 政府 信息 政府 信息 依法 政府 信息 政府 信息 保密 审查 群众 问题 依法 政府 信息 义务 情况 责令 行政处分 情形 国家 计生委 政务 工作 领导小组 责令 政府 信息 指南 目录 政府 信息 依法 政府 信息 未经审查 政府 信息 后果 司局 政府 信息 年度 工作 情况 情形 国家 计生委 政务 工作 领导小组 本年度 责令 本年度 行政复议 违法 责令 群众 依法 政府 信息 义务 调查 未经审查 政府 信息 情形 国家 计生委 政务 工作 领导小组 建议 国家 计生委 党组 司局 单位 负责人 责任人 行政处分 资格 司法机关 追究其 法律责任 本年度 责令 本年度 群众 依法 政府 信息 义务 调查 未经审查 政府 信息 失泄密 事件 举报人 司局 单位 前提 交上 年度 政府 信息 工作 情况 办公厅 汇总 国家 计生委 政府 信息 工作 年度报告 国家 计生委 政务 工作 领导小组 年度报告 内容 政府 信息 情况 政府 信息 情况 政府 信息 收费 情况 政府 信息 行政复议 情况 政府 信息 工作 问题 情况 报告 情况 国家 计生委 社会 监督机制 监督 渠道 公民 法人 监督 国家 计生委 政府 信息 工作 政府 信息 工作 民主评议 计生 行风 活动 内容 群众 意见 建议 国家 计生委 监督员 制度 群众 代表 国家 计生委 政府 信息 工作 监督 监督 电话 监察部 国家 计生委 监察局 公民 法人 依法 政府 信息 义务 依法 调查 调查 处理意见 国家 计生委 政务 工作 领导小组 公民 法人 国家 计生委 政府 信息 工作 行政 合法权益 依法 行政复议 国家 计生委 公共事业 单位 信息 工作 办法 办法 办法 国家 计生委 政务 工作 领导小组 办公室 印发 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 办公厅 全面 国家 新型农村 合作医疗 信息 平台 建设 工作 基层 部门规章 自治区 直辖市 计生委 国家 计生委 新型农村 合作医疗 跨省 费用 核查 结报 工作 指导 意见 基层 指导 意见 有关 国家 新型农村 合作医疗 信息 平台 国家 新农 平台 新农 业务 监控 跨省 管理 全面 国家 新农 平台 新农 平台 医院 信息系统 联通 工作 有关 事项 联通 范围 联通 省份 新农 平台 新农 职能 部门 管理 区域 信息 平台 联通 国家 新农 平台 跨省 数据 国家 新农 平台 联通 省份 创造条件 国家 新农 平台 联通 数据 功能 国家 新农 平台 联通 省份 数据 质量 新农 平台 联通 医院 工作 内容 实施方案 联通 实施方案 国家 新农 平台 联通 工作 新农 平台 系统 管理 办法 指派 专人 定期 工作 工作 平台 联通 医院 国家 新型农村 合作医疗 信息 平台 联通 技术 方案 技术 方案 硬件 设备 所需 设置 参数 分配 网络带宽 系统 数据 功能 国家 新农 平台 联通 数据 指导 意见 技术 方案 时间 频率 新农 基础 数据 业务 数据 报表 数据 联通 医院 指导 意见 技术 方案 时间 频率 跨省 数据 跨省 数据 新农 平台 国家 新农 平台 费用 核查 联通 利用 国家 新农 平台 跨省 数据 省域 新农 经办 机构 跨省 费用 核查 服务 利用 国家 新农 平台 省份 费用 核查 费用 核查 任务 规范 管理 系统安全 规范 国家 新农 平台 联通 流程 管理 医院 有关 国家 新农 平台 运维 联通 省份 新农 平台 网络 环境 系统 启动 新农 数据 工作 省份 部分 地区 定点 医疗机构 跨省 费用 核查 结报 试点 医院 信息系统 跨省 数据 工作 单位 领导 会同 财政部门 指导 意见 有关 部门 工作 小组 部门 部门 分工 力量 联通 工作 专人 部门 部门 附件 计生委 新农 平台 国家 新农 平台 联通 工作 医院 系统 数据 工作 数据 跨省 数据 国家 新农 信息 平台 经办 机构 跨省 费用 核查 服务 利用 信息 平台 省份 费用 核查 联通 医院 新农 部门 联络 新农 合管 机构 核查 人员 票据 真实性 住院处 患者 基本 信息 费用 信息 信息 部门 信息系统 利用 新农 平台 网络 本院 患者 数据 新农 平台 医学 信息 研究所 委托 建设 国家 新农 平台 联通 工作 联通 工作 技术 方案 网络 环境 测试 调用 程序 基础 数据 业务 数据 跨省 数据 联通 工作 技术支持 跨省 费用 核查 业务 联通 省份 医院 工作 我委 定期 通报 工作进度 新农 平台 人口 信息 平台 信息 业务 协同 工作 国家 计生委 基层 联系人 电话 电子邮件 医学 信息 研究所 联系人 电话 电子邮件 附件 联系人 登记表 国家 计生委 办公厅</t>
+  </si>
+  <si>
+    <t>国家 计生委 办公厅 印发 传染病 信息 报告 管理 规范 国家 计生委 办公厅 印发 传染病 信息 报告 管理 规范 国卫 办疾 自治区 直辖市 计生委 疾病 传染病 防控 工作 形势 全国 传染病 信息 报告 管理 报告 质量 传染病 防治法 法律法规 有关 规定 传染病 信息 报告 管理 规范 疾病 防控 业务 频道 印发 印发 传染病 信息 报告 管理 规范 附件 传染病 信息 报告 管理 规范 国家 计生委 办公厅 传染病 信息 报告 管理 规范 传染病 防控 工作 形势 全国 传染病 信息 报告 管理工作 报告 质量 传染病 防治法 电子签名 法律法规 规范 机构 职责 分级 属地 管理 原则 有关 部门 机构 传染病 信息 报告 管理工作 职责 计生 行政部门 辖区 传染病 信息 报告 工作 管理 辖区 传染病 信息 报告 工作 管理 建设 辖区 传染病 信息网络 报告 系统 系统 条件 法律法规 规定 辖区 传染病 信息 报告 工作 实施方案 传染病 信息 报告 工作 定期 医疗卫生 机构 传染病 信息 报告 管理 工作 监督 检查 国家 计生委 地方 计生 行政部门 全国 疾病 工作 调整 传染病 监测 报告 病种 内容 疾病 机构 辖区 传染病 信息 报告 工作 业务 指导 技术支持 疾病 全国 传染病 信息 报告 业务管理 技术培训 工作 指导 国家 计生委 标准 技术规范 指导 方案 全国 传染病 信息 分析 报告 预测 传染病 趋势 传染病 信息 报告 管理 质量 评价 动态 全国 传染病 报告 信息 疫情 变化 态势 分析 分析 报告 异常情况 甲类 甲类 管理 传染病 疫情 国家 信息 报告 网络系统 规划 建设 性能 系统 建设 技术支持 全国 传染病 信息 报告 数据备份 数据安全 全国 传染病 信息 报告 考核 评估 地方 疾病 机构 辖区 传染病 信息 报告 业务管理 技术培训 工作 指导 传染病 信息 报告 管理 规范 方案 传染病 信息 报告 管理 制度 辖区 传染病 信息 分析 报告 预测 传染病 趋势 传染病 信息 报告 管理 质量 评价 动态 辖区 传染病 报告 信息 疫情 变化 态势 分析 分析 报告 调查核实 异常情况 甲类 甲类 管理 传染病 疫情 辖区 信息 报告 网络系统 技术支持 辖区 传染病 信息 分析 数据备份 报告 数据安全 辖区 传染病 信息 报告 工作 考核 评估 疾病 机构 职责 辖区 医疗机构 责任 报告 单位 报告 传染病 信息 辖区 网络 直报 条件 责任 报告 单位 报告 传染病 信息 网络 直报 指导 辖区 基本 公共卫生 服务项目 任务 基层 医疗卫生 机构 网络 直报 条件 责任 报告 单位 报告 传染病 信息 网络 报告 监督机构 计生 行政部门 传染病 报告 管理工作 情况 监督 检查 履行职责 单位 个人 依法 医疗机构 负责制 依法 报告 法定 传染病 传染病 信息 报告 管理 传染病 报告 工作 程序 科室 传染病 信息 报告 管理工作 职责 传染病 报告 培训 质量 管理 自查 制度 部门 人员 传染病 信息 报告 管理工作 医疗机构 人员 医疗机构 人员 医疗机构 传染病 信息 报告 专用 计算机 网络设备 疫情报告 管理工作 单位 医务人员 传染病 标准 信息 报告 管理 技术 内容 培训 传染病 信息 报告 管理 检查 网络 报告 质量 定期 单位 报告 传染病 情况 报告 质量 分析 汇总 通报 疾病 机构 传染病 疫情 调查 信息 报告 质量 考核 评估 基本 公共卫生 服务项目 任务 基层 医疗卫生 机构 职责 报告 责任 范围 传染病 信息 疾病 机构 指导 辖区 网络 直报 条件 责任 报告 单位 报告 传染病 信息网络 报告 采供血 机构 人员 艾滋病 艾滋病 病毒感染 标准 检测 结果 阳性 病例 网络 报告 传染病 信息 报告 责任 报告 单位 报告 医疗卫生 机构 责任 报告 单位 职务 人员 乡村 医生 个体 开业 医生 责任 疫情报告 报告 病种 法定 传染病 甲类 传染病 鼠疫 乙类 传染病 传染性 非典型 肺炎 艾滋病 艾滋病 病毒感染者 病毒性 肝炎 脊髓灰质炎 致病性 禽流感 麻疹 流行性 狂犬病 流行性 乙型 脑炎 登革热 炭疽 细菌性 痢疾 肺结核 副伤寒 流行性 脑脊髓 膜炎 百日咳 白喉 新生儿 淋病 梅毒 钩端 螺旋体 血吸虫病 疟疾 禽流感 丙类 传染病 流行性 流行性 腮腺炎 风疹 急性 出血性 结膜炎 麻风病 流行性 地方性 斑疹伤寒 黑热病 包虫病 丝虫病 细菌性 痢疾 副伤寒 感染性 口病 国家 计生委 乙类 丙类 传染病 管理 传染病 甲类 管理 应急 监测 报告 传染病 传染病 乙类 丙类 管理 地方性 传染病 原因 传染病 原因 肺炎 病例 原因 病例 重点 监测 疾病 分类 责任 报告 传染病 标准 计生 行业标准 传染病 病人 病人 传染病 分类 疑似病例 临床 病例 病例 病原 携带者 报告 病原 携带者 病种 脊髓灰质炎 国家 计生委 规定 传染病 报告 责任 报告 单位 责任 报告 过程 规范 电子 病历 电子 档案 自动 规范 门诊 出院 检测 检验 医生 过程 传染病 病人 病人 规定 报告 病原 携带者 传染病 报告 传染病 报告 附件 电子 病历 电子 档案 自动 文档 标准 电子 传染病 报告 乙类 丙类 管理 地方性 传染病 原因 传染病 传染病 报告 信息 传染病 报告 传染病 报告 统一 格式 纸质 电子 形式 内容 纸质 报告 印刷 钢笔 签字笔 字迹 电子 文档 符合国家 统一 标准 电子签名 时间 传染病 报告 患者 有效证件 居民 社会保障 新农 医疗卡 身份 号码 患者 学生 幼托 儿童 学校 幼托 机构 全称 班级 名称 传染病 专项 调查 监测 信息 报告 国家 传染病 工作 专项 调查 报告 监测 传染病 规范 基础 有关 报告 程序 方式 传染病 报告 管理 负责制 传染病 报告 医生 职务 人员 现场 调查 传染病 病例 属地 医疗机构 报告 采供血 机构 阳性 病例 报告 传染病 疫情 信息 网络 直报 网络 直报 条件 医疗机构 规定 时限 传染病 报告 信息 报告 属地 乡镇 社区卫生 服务中心 疾病 机构 网络 报告 传染病 报告 代报 单位 区域 信息 平台 医疗机构 电子 档案 电子 病历 系统 传染病 信息 报告 管理 功能 传染病 信息 报告 管理 功能 传染病 报告 信息管理系统 数据 自动 功能 军队 医疗卫生 机构 社会公众 医疗 服务 传染病 疫情 规定 传染病 网络 报告 报告 时限 责任 报告 单位 责任 疫情报告 甲类 传染病 乙类 传染病 炭疽 传染性 非典型 肺炎 甲类 管理 传染病 病人 传染病 原因 疾病 小时 传染病 报告 网络 报告 丙类 传染病 病人 病人 规定 报告 传染病 病原 携带者 小时 网络 报告 网络 直报 条件 医疗机构 属地 乡镇 社区卫生 服务中心 疾病 机构 报告 小时 传染病 报告 代报 单位 报告 数据管理 医疗机构 传染病 报告 管理人员 纸质 传染病 报告 电子 病历 电子 档案 系统 电子 传染病 报告 信息 错项 漏项 逻辑 错误 检查 报告 核实 疾病 机构 疫情 管理人员 辖区 报告 传染病 信息 报告 信息 报告 单位 报告 核实 误报 信息 甲类 传染病 乙类 传染病 炭疽 传染性 非典型 肺炎 甲类 管理 病人 病人 传染病 原因 疾病 报告 信息 调查核实 小时 网络 报告 信息 丙类 传染病 报告 疾病 机构 小时 网络 医疗卫生 机构 报告 病例 报告 病例 错误 医疗卫生 机构 报告 传染病 报告 电子 传染病 报告 卡片 类别 报告 报告 疑似病例 专病 报告 管理 传染病 专病 管理机构 部门 报告 病例 传染病 报告 信息 有误 病例 小时 电子 病历 电子 档案 数据 自动 功能 身份 标识 传染病 个案 报告 专病 数据 动态 管理 具备条件 传染病 报告 信息管理系统 信息 动态 保证数据 一致性 补报 责任 报告 单位 本年度 漏报 传染病 病例 补报 疾病 机构 网络 直报 条件 医疗机构 报告 信息 报告 信息 传染病 疫情 分析 利用 疫情 分析 所需 人口 资料 国家 部门 数据 计生 行政部门 定期 本行政区域 传染病 疫情 信息 法定 传染病 死亡数 传染病 报告 信息管理系统 住址 数据 病种 疫情 信息 通报 报告 死亡数 传染病 报告 信息管理系统 数据 保持一致 疾病 机构 网络 报告 传染病 疫情 动态 监控 疾病 机构 报告 疾病 机构 传染病 疫情 分析 医疗机构 传染病 报告 汇总 分析 甲类 甲类 管理 传染病 疫情报告 专题 分析 报告 疾病 机构 疫情 分析 结果 信息 报告 形式 疾病 机构 计生 行政部门 报告 疾病 机构 疾病 机构 定期 辖区 疫情 分析 结果 辖区 医疗机构 疾病 机构 甲类 传染病 乙类 传染病 炭疽 传染性 非典型 肺炎 甲类 管理 传染病 传染病 原因 疾病 传染病 病人 病人 报告 所在地 报告 计生 行政部门 报告 疾病 机构 报告 计生 行政部门 通讯 方式 计生 行政部门 通报 疫情 地区 计生 行政部门 通报 本行政区域 传染病 疫情 监测 预警 信息 信息 利用 分级分类 管理 计生 行业 公民 法人 信息 政府 信息 条例 有关 规定 办理 资料 医疗卫生 机构 纸质 传染病 报告 传染病 报告 记录 网络 直报 条件 医疗机构 传染病 报告 代报 单位 报告 单位 备案 电子签名 电子 传染病 报告 纸质 文本 法律效力 备份 工作 备份 时间 纸质 传染病 报告 纸质 卡片 医生 备案 疾病 机构 传染病 信息 资料 规定 档案管理 信息系统 管理 传染病 信息 报告 管理系统 功能 调整 疾病 风险 评估 国家 计生委 疾病 机构 专网 专网 网络 报告 辖区 医疗机构 疾病 机构 辖区 信息 报告 系统 用户 权限 管理 信息安全 制度 分级 电子 服务体系 信息 报告 系统 账号 管理 医疗机构 电子 病历 传染病 报告 功能 身份 用户 管理 管理 信息系统 人员 信息系统 账号 密码 账号 密码 被盗 密码 疾病 机构 报告 传染病 信息 报告 管理 部门 个人 传染病 数据 制度 利用 传染病 数据 危害 国家 社会 公共利益 合法权益 活动 传染病 病人 信息 资料 考核 评估 计生 行政部门 定期 辖区 传染病 信息 报告 工作 督导 检查 问题 通报 责令 限期 疾病 机构 传染病 信息 报告 工作 考核 方案 定期 辖区 医疗机构 疾病 机构 指导 考核 医疗机构 传染病 信息 报告 管理工作 工作 考核 范围 定期 自查 附件 传染病 报告 卡片 编号 报卡 类别 报告 报告 姓名 患儿 家长 姓名 有效证件 性别 出生日期 出生日期 实足年龄 年龄 单位 工作 单位 学校 病人 本市 县区 外省 外籍 住址 省市 街道 门牌号 人群 分类 幼托 儿童 儿童 学生 教师 保育员 餐饮 食品业 商业 服务 医务人员 工人 民工 农民 牧民 干部 职员 人员 家务 待业 病例 分类 疑似病例 临床 病例 病例 病原 携带者 急性 乙型肝炎 血吸虫病 丙肝 甲类 传染病 鼠疫 乙类 传染病 传染性 非典型 肺炎 艾滋病 艾滋病 病人 病毒性 肝炎 乙型 丙型 分型 脊髓灰质炎 致病性 禽流感 麻疹 流行性 狂犬病 流行性 乙型 脑炎 登革热 炭疽 炭疽 皮肤 炭疽 分型 痢疾 细菌性 肺结核 菌阴 副伤寒 流行性 脑脊髓 膜炎 百日咳 白喉 新生儿 淋病 梅毒 期胎 隐性 钩端 螺旋体 血吸虫病 疟疾 恶性疟 分型 禽流感 丙类 传染病 流行性 流行性 腮腺炎 风疹 急性 出血性 结膜炎 麻风病 流行性 地方性 斑疹伤寒 黑热病 包虫病 丝虫病 细菌性 痢疾 副伤寒 感染性 口病 法定 管理 重点 监测 传染病 原因 报告 单位 医生 传染病 报告 卡片 编码 报告 单位 姓名 患者 名字 姓名 身份证 姓名 家长 姓名 患儿 患者 家长 姓名 有效证件 有效证件 居民身份证 护照 军官证 居民 社会保障 新农 医疗卡 身份 号码 人员 编码 标识 性别 性别 出生日期 出生日期 年龄 出生日期 年龄 实足年龄 出生日期 用户 年龄 年龄 单位 新生儿 月龄 儿童 年龄 单位 工作 单位 学校 患者 工作 单位 学生 幼托 儿童 学校 班级 名称 患者 病例 类别 标识 病人 地址 医院 地区 关系 地址 乡镇 街道 住址 原则 病人 居住地 地址 病人 地址 报告 单位地址 职业 职业 病例 分类 类别 病原 携带者 时间 采供血 机构 报告 献血者 小时 采供血 机构 实验 病例 时间 疾病 名称 病名 法定 管理 重点 监测 传染病 报告 管理 传染病 病种 名称 报告 病名 原因 卡片 合格 原因 报告 单位 报告 传染病 单位 医生 传染病 报告 医生 姓名 本卡 用户 文字 信息 报告 传染病 病名 肺结核 肺结核 患者 报告 卡带 部份 项目 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 办公厅 印发 信息 传播 指南 国家 计生委 办公厅 印发 信息 传播 指南 宣传 自治区 直辖市 计生委 全民 素养 行动 规划 工作 科学 规范 信息 传播 指南 国家 计生委 网站 印发 国家 计生委 办公厅 信息 传播 技术 指南 经济社会 发展 人们 疾病 日益 工作 形式 传播 活动 领域 科学知识 科学 方法 科学 精神 公众 传播 公众 素养 教育 工作 内容 教育 工作 全民 素养 行动 规划 目标 工作 科学 规范 公众 观念 生活 方式 公众 权益 指南 目的 计生 机构 信息 传播 工作 技术 指导 计生 机构 科学 规范 规范 全国 工作 信息 定义 信息 领域 科学技术 科学 观念 科学 方法 科学 技能 内容 公众 方式 传播 信息 信息 公众 观念 技能 素养 信息 原则 流程 信息 原则 科学性 原则 内容 事实 评判 错误 科学 证据 循证 原则 进展 共识 政府 卫生机构 专业 机构 行业标准 指南 报告 研究 方法 证据 文献 个人 观点 专家 机构 评议 意见 公众 专家 个人观点 宣传 教育 目标 信息 适用性 原则 公众 热点问题 信息 语言 文字 目标 人群 文化 水平 能力 民族 性别 宗教 文化 年龄 种族 方面 产生 信息 信息 流程 评估 受众 现场 调查 文献 方式 目标 受众 问题 目标 人群 信息 目标 人群 信息 程度 信息 建议 可行性 影响 信息 传播 因素 态度 文化 经济 服务 受众 信息 形式 能力 信息 传播 时机 场合 信息 信息 受众 受众 信息 信息 信息 信息 过程 领域 专家 信息 信息 通俗化 信息 制作 通俗 信息 目标 人群 信息 试验 信息 定稿 数量 目标 人群 试验性 信息 目标 人群 部分 目标 人群 个人 小组 形式 试验 信息 试验 结果 信息 调整 信息 风险 评估 信息 信息 风险 评估 信息 法律法规 信息 冲突 负面 信息 科学 歧义 社会 公众 公众 工作 实际 专家 试验 阶段 风险 评估 内容 信息 专家 论证 信息 传播 原则 信息 传播 原则 适用性 原则 目标 受众 特点 传播 形式 传播 形式 信息 内容 预期 传播 目标 原则 信息 目标 受众 地方 公告栏 电视 广播 社交 人际 网络 信息 渠道 传播 时间 一致性 经济性 原则 信息 传播 节约 原则 信息 传播 内容 传播 效果 前提 经济 传播方式 传播 渠道 信息 传播 来源 信息 标明 证据 来源 作者 作者 个人 机构 身份 专业 资质 经验 时间 信息 受众 信息 人群 目标 人群 目的 信息 目的 信息 医生 医嘱 疗法 有效性 信息 传播 效果 评价 评价 种类 内容 评价 信息 受众 问题 信息 传播 障碍 信息 流程 受众 评估 部分 过程 评价 方面 信息 内容 形式 信息 媒体 传播 信息 信息 偏差 公众 媒体 工作人员 信息 方法 信息 公众 正确理解 偏差 受众 信息 内容 形式 传播 方式 信息 覆盖面 预期 效果 评价 方面 信息 传播 效果 公众 媒介 信息 指标 传播 内容 传播方式 信息 内容 传播 受众 人群 水平 指标 合格率 知晓率 信息 受众 人群 态度 产生 影响 指标 信念 信息 传播 事件 政策 舆论 生活 质量 促进作用 指标 环境 服务 条件 舆论 发病率 患病率 死亡率 评价 方法 专家 咨询 信息 专业性 适用人群 传播方式 渠道 传播 目标 专业 领域 专家 咨询 信息 阶段 定量 调查 封闭式 问题 结果 分析 信息 传播 阶段 效果 评价 定性 调查 专题 小组 个人 方式 目标 人群 信息 程度 接受程度 语言表达 方式 合理 内容 信息 传播 阶段 评价 舆情 监测 网络 监测 公众 方式 公众 传播 信息 现实生活 热点 焦点 问题 态度 情绪 意见 建议 信息 传播 阶段 效果 评价 公众 教育 内容 信息 总结 经验 教训 调整 信息 内容 传播 形式 信息 教育 人群 技术 指南 计生 机构 社会 机构 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 计生委 办公厅 印发 医院 技术 服务 机构 医疗卫生 机构 信息 目录 政务 地方 法规 规章 案例 裁判 文书 自治区 直辖市 计生委 人口 计生委 机关 司局 直属 联系 单位 信息 条例 印发 监督 疾病 医院 妇幼卫生 社区卫生 乡镇 医疗卫生 机构 信息 目录 有关 政府 信息 工作 医疗卫生 领域 信息 规范 医疗卫生 服务 信息 工作 调研 基础 计生 综合 监督机构 疾病 机构 医院 妇幼保健 机构 社区卫生 机构 乡镇 技术 服务 机构 血站 教育 机构 医疗卫生 机构 信息 目录 国家 计生委 网站 下载区 印发 计生 行政部门 指导 辖区 医疗卫生 机构 信息 目录 细化 信息 目录 服务 信息 工作 情况 监督 检查 医疗卫生 服务 信息 工作 附件 计生 综合 监督 机构 信息 目录 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 监督机构 基本 情况 机构 机构 性质 职能 网站 公示栏 图册 电子 屏幕 政府 信息 条例 领导 领导 姓名 照片 职务 职责 机构 设置 单位 机构 设置 情况 职责 情况 监督 人员 情况 监督员 姓名 身份 职务 职责 网站 公示栏 办事 指南 单位 地理位置 行走路线 办理 事务 工作 程序 指南 通讯地址 网址 网站 指示牌 法律 计生 监督 法律 网站 图书 公示栏 宣传 画册 法规 计生 监督 行政 法规 地方性 法规 规章 计生 监督 部门规章 政府 规章 规范性 计生 监督 规范性 标准 技术规范 计生 监督 计生 标准 技术规范 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 计生 监督制度 计生 监督 工作 规范 计生 行政部门 计生 监督机构 计生 监督 工作 规范 计生 监督 行政 制度 网站 图书 宣传 画册 办公 场所 显要位置 工作 规范 监督员 执行公务 监督员 证件 政府 信息 条例 行风 行业 作风 规章制度 工作 措施 渠道 信息反馈 渠道 措施 计生 监督 动态 计生 监督 指导 部署 工作 网站 公示栏 资料 媒体 计生 监督 工作 动态 监督 检查 内容 程序 范围 活动 信息 部门 核准 产品 结果 行政许可 事项 依法 行政许可 事项 网站 行政许可 专栏 行政 政府 信息 条例 行政许可 有关 法律 法规 部门规章 收费 项目 标准 大厅 资料 信息 公告栏 电子信息 咨询电话 行政许可 条件 行政许可 程序 全部 材料 目录 资料 时限 情况 情况 理由 短信 平台 书面 文书 电子政务 系统 情况 行政许可 结果 行政许可 结果 网站 公众 渠道 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 计生 行政处罚 行政处罚 情况 计生 行政处罚 种类 程序 时限 结果 网站 新闻媒体 发布公告 计生 监督 信息 专栏 形式 政府 信息 条例 大要案 案件 情况 部门 核准 大案要案 过程 结果 情况 附件 疾病 机构 信息 目录 类别 信息 名称 内容 途径 责任 部门 法规 基本 信息 机构 职能 机构 概况 机构 疾病 机构 时间 单位 历史 成绩 内容 机构 形式 条件 互联网 网站 公示栏 电子 屏幕 基本 概况 机构 情况 人员构成 比例 内容 领导 分工 负责人 内设 处室 职能 科室 职责 分工 资质 资质 能力 机构 资质 能力 情况 专家 队伍 单位 专家 政策 法规 法律法规 标准 传染病 防治法 内部资料 形式 印刷 成文 网站 公示栏 电子 屏幕 精神 卫生法 公共卫生 事件 应急 条例 病原 实验室 管理条例 疫苗 流通 预防接种 管理条例 艾滋病 条例 血吸虫病 条例 法律法规 标准 政策 法规 政策 传染病 技术 方案 疾病 地方 行业 管理 规定 技术 标准 规范 方案 内部资料 形式 印刷 成文 网站 公示栏 电子 屏幕 疾病 业务 指导性 公共卫生 服务 影响 工作 信息 疾病 传染病 传染病 监测 预警 传染病 监测点 设置 传染病 综合 监测 指导 传染病 监测 预测 预报 预警 信息 编印 目录 定期 传染病 疫情 传染源 管理 管理 传播 途径 技术 措施 人群 措施 公众 建议 传染病 免费 管理 免费 政策 技术 方案 免费 物品 管理 信息 规划 辖区 单位 设置 服务 时间 免疫预防 策略 程序 规范 消毒 病媒 生物 疫源地 消毒 病媒 生物 控制技术 方案 措施 重点 行业 场所 消毒 技术标准 地方病 寄生虫病 地方病 寄生虫病 监测 管理 地方病 寄生虫病 病区 分类管理 办法 寄生虫 宿主 媒介 调查 寄生虫 宿主 媒介 生物 种群 密度 消长 趋势 预警 信息 管理 寄生虫病 传染源 传播媒介 公众 建议 寄生虫病 疫情 调查 寄生虫病 流行病学 调查 流程 寄生虫病 人群 指导 建议 地方病 寄生虫病 综合 地方病 寄生虫病 综合 措施 工作 信息 传染性 疾病 死因 报告 管理 规定 因素 防控 建议 社会 心理 因素 措施 编印 目录 定期 口腔疾病 口腔 信息 资料 管理系统 口腔 危害 因素 监测 口腔 防治效果 评估 精神 精神 政策 措施 精神障碍 管理 工作 规范 医疗 服务 职责 医院 信息 目录 公共卫生 事件 应急 公共卫生 事件 应急 公共卫生 事件 应急 机制 应急 预案 技术 方案 目录 预测 预警 机制 管理制度 公共卫生 事件 应急 储备 公共卫生 事件 技能 培训 演练 信息 公共卫生 事件报告 预警 报告 核实 公共卫生 事件报告 流程 事件 预警 公共卫生 事件 预警 建议 公共卫生 事件 控制措施 公共卫生 事件 应急 公共卫生 流程 工作 信息 疫情 因素 信息管理 建设 疾病 信息 平台 基础 建设 网络 建设 信息管理 编印 目录 定期 信息系统 管理 监测 信息系统 疾病 监测 信息系统 目录 信息 利用 服务 社会 信息 服务 疾病 信息 工作 信息 危害 因素 监测 职业病 危害 因素 职业病 危害 因素 职业病 职业 健康检查 信息 编印 目录 定期 职业病 机构 目录 职业 技术 服务 职业 技术 服务 资质 范围 服务项目 信息 信息 医疗 服务 职责 医院 信息 内容 放射性 职业病 危害 因素 放射性 职业病 危害 因素 工作人员 放射性 职业病 职业 健康检查 有关 信息 技术 服务 技术 服务 资质 范围 服务项目 信息 环境危害 因素 环境危害 因素 监测 环境危害 因素 监测 资质 内容 办法 食源性 疾病 风险 监测 风险 监测 内容 办法 标准 食源性 疾病 食源性 疾病 监测 办法 食源性 疾病 食源性 疾病 现场 流行病学 调查 方法 营养 监测 营养 营养 人群 食品 营养 建议 人群 合理 膳食 指导 学生 危害 因素 学生 危害 因素 监测 学生 危害 因素 监测 内容 方法 工作 信息 实验室 检测 评价 实验室 管理 实验室 工作 实验室 资质 检测 项目 目录 实验室 检验 标准 规程 实验室 质量 实验室 建设 规范 实验室 管理 规定 编印 目录 定期 教育 教育 方案 教育 方案 经常性 教育 活动 方案 重点项目 教育 活动 方案 编印 目录 定期 教育 活动 时期 人群 教育 策略 经常性 教育 策略 疫情 教育 策略 规划 公众 教育 策略 农民 学生 社区 居民 重点 人群 教育 策略 教育 公众 宣传 教育 工作 信息 教育 信息 宣传 技术 管理 研究 指导 管理 指导 技术培训 培训 项目 规划 培训 目录 信息 技术支持 技术咨询 行政部门 技术咨询 渠道 内容 热线电话 技术 服务 技术 服务项目 政府 委托 公共服务 服务 内容 机构 形式 条件 互联网 网站 公示栏 电子 屏幕 服务 时间 服务 价格 服务 方式 社会 技术 服务 服务 内容 服务 时间 服务 价格 服务 方式 服务 监督 服务 监督 方式 监督机构 监督机构 服务 监督 结果 信息 附件 医院 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医院 概况 执业 医院院长 法定代表 姓名 科目 执业 地点 医疗机构 执业 有效期 机关 医院 门诊 大厅 设置 公示栏 形式 医疗机构 管理条例 实施细则 基本 信息 医院 名称 级别 网址 技术 行政部门 技术 临床 检验 项目 名称 有效期 人体 技术 人类 辅助 生殖 技术 公示栏 电子屏 形式 人类 辅助 生殖 技术 管理 办法 人体 技术 临床 管理 医用 设备 行政部门 医用 设备 名称 资质 医用 设备 复印件 资质证书 复印件 医用 设备 科室 医用 设备 管理 办法 教学 任务 医院 院校 医学生 专科生 本科生 研究生 任务 基本 情况 学生 数量 教学 时间 医院 门诊 大厅 设置 公示栏 形式 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医院 概况 工作人员 医师 姓名 职务 职称 标牌 形式 护士 姓名 职务 职称 医技 人员 姓名 职务 职称 行政 管理人员 姓名 部门 职务 后勤人员 姓名 部门 职务 试用期 人员 姓名 身份 医院 环境 交通 线路 停靠站 停车场 医院 网站 设置 标牌 路标 形式 交通 医院 车辆 出口 停车场 总车 位数 行车 设置 医院 布局 标牌 路标 形式 科室 布局 科室 格局 绿色通道 路径 应急 应急 路线 应急 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 形式 医院 网站 病人 权利 义务 病人 权利 义务 内容 社会 资助 情况 财产 管理 情况 医疗卫生 机构 社会 资助 管理 暂行办法 医院 服务 方式 本院 服务 监督 部门 电话 信箱 方式 行政部门 电话 信箱 医疗 服务 医疗 服务 基本 情况 临床 医技 科室 名称 服务 内容 公示栏 电子屏 医院 网站 形式 专科 专业 门诊 专科 专业 门诊 服务 内容 特色 专家 姓名 专长 时间 医院 服务 时间 门诊 服务 时间 办理 出院 时间 住院 时间 时间 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医疗 服务 服务 流程 门诊 挂号 交费 事项 流程 服务 地点 公示栏 电子屏 医院 网站 形式 挂号 方式 挂号 时间 流程 方法 住院 服务 流程 入院 出院 转科 转院 服务 流程 特需 服务项目 特需 服务 项目 内容 特殊人群 优先 措施 老年人 特殊人群 服务 优先 措施 门诊 咨询服务 咨询服务 场所 方式 设置 咨询电话 咨询 服务台 形式 教育 咨询服务 常见疾病 教育 合理 用药 咨询服务 时间 地点 公示栏 电子屏 医院 网站 形式 患者 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 患者 病情 制度 情况 内容 公示栏 电子屏 印刷 检查单 形式 服务 流程 患者 重症 监护 手术 血液 净化 服务 流程 检查 项目 报告 临床 检验 项目 报告 时限 公示栏 电子屏 印刷 检查单 形式 造影 辅助 检查 项目 流程 地点 报告 时限 辅助 检查 事项 心电图 造影 辅助 检查 检查 注意事项 处理程序 医院 程序 职能部门 电话 公示栏 电子屏 形式 病历 服务 病历 服务 流程 地点 公示栏 电子屏 形式 医疗机构 病历 管理 规定 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 价格 收费 收费 制度 患者 有关 收费 项目 制度 公示栏 电子屏 医院 网站 形式 医疗 服务项目 价格 医疗 服务 项目名称 项目 内涵 计价 单位 价格 药品 价格 药品 生产厂家 剂型 规格 价格 药品 管理法 条例 医用 耗材 价格 医用 耗材 规格 型号 生产厂家 价格 门诊 费用 门诊 费用 药品 医疗 服务 名称 数量 单价 金额 服务 费用 形式 住院费用 住院病人 费用 出院 总费用 药品 医用 耗材 医疗 服务 名称 数量 单价 金额 医疗机构 价格 规定 附件 妇幼保健 机构 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 机构 资质 依法 执业 医疗机构 执业 业务范围 机构 评审 证书 内容 医疗机构 执业 有效期 科目 代码 校验 情况 内容 门诊 大厅 设置 电子屏 机构 网站 服务 医疗机构 管理条例 实施细则 院长 负责人 姓名 职能 科室 设置 床位数 机构 电话 网址 内容 技术 计生 行政部门 核准 技术 临床 检验 项目 名称 有效期 母婴 专项 技术 人类 辅助 生殖 技术 公示栏 电子屏 科室 形式 母婴 保健法 人类 辅助 生殖 技术 管理 办法 重点学科 人员 情况 重点学科 学科 带头人 资质 信息 公示栏 电子屏 网站 重点学科 主任医师 人员 资质 信息 教学 任务 情况 院校 医学生 专科生 本科生 研究生 临床 临床 毕业 任务 教学 医院 牌匾 机构 门诊 大厅 设置 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 妇幼保健 管理 妇幼保健 管理 单位 辖区 妇幼保健 职责 任务 网站 公示栏 电子屏 形式 母婴 保健法 妇幼保健 机构 管理 办法 单位 妇幼保健 服务项目 孕产 服务 产时 产后 儿童 服务 儿童 儿童 营养 儿童 心理卫生 儿童 儿童 口腔 儿童 耳鼻喉 儿童 儿科 新生儿 儿科 妇女 服务 乳腺 妇女 妇科 妇科 技术 服务 咨询 指导 手术 男性 生殖 避孕药 管理 母婴 专项 技术 筛查 新生儿 疾病 筛查 助产 技术 结扎手术 妇幼保健 管理 辖区 妇幼保健 工作 程序 孕产妇 儿童 手册 医学 检查 医学 证明 流程 注意事项 国家 基本 公共卫生 服务 项目管理 妇幼保健 网点 名称 咨询电话 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医用 设备 医用 设备 规定 医用 设备 医用 设备 科室 地方 计生 行政部门 医用 设备 复制件 形式 医用 设备 管理 暂行办法 机构 环境 科室 格局 机构 结构 布局 示意图 科室 格局 标牌 文字 规范 设置 标牌 路标 网站 方式 应急 应急 应急 路线 绿色通道 路径 标牌 文字 规范 设置 标牌 应急 指示灯 方式 标识 医院 吸烟区 建筑物 等候 会议室 厕所 走廊 电梯 楼梯 区域 标识 吸烟区 标识 计生 机构 评分标准 交通 情况 车辆 出口 停车场 车位 行车 文字 规范 设置 标牌 路标 应急 指示灯 方式 交通 情况 停靠站 停车场 车位 文字 规范 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 服务 方式 本院 服务 监督 部门 电话 网站 信箱 方法 门诊 大厅 大厅 地方 设置 医疗保健 服务 信箱 意见簿 形式 网站 电话 项目 计生 行政部门 机构 政务 信息 情况 公示栏 电子屏 服务 形式 服务 对象 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 病人 对象 权利 义务 病人 对象 权利 义务 重点 内容 公示栏 电子屏 宣传 小册 形式 工作 服务 人员 工作人员 标志 医生 姓名 照片 工号 科室 职务 职称 标牌 胸牌 服务 护理人员 姓名 照片 工号 科室 职务 职称 标牌 医技 人员 姓名 照片 工号 科室 职务 职称 标牌 行政 管理人员 姓名 照片 工号 科室 职务 标牌 后勤人员 姓名 照片 工号 科室 职务 标牌 人员 姓名 照片 身份 专业 情况 职称 标牌 医疗保健 服务 机构 服务 基本 情况 科室 医技 科室 设置 名称 服务 内容 情况 公示栏 电子屏 网站 服务 专科 专业 门诊 专科 专业 门诊 服务 内容 特色 服务 时间 门诊 服务 时间 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医疗保健 服务 服务 流程 门诊 挂号 交费 事项 流程 服务 地点 网络 电话 挂号 指南 电子屏 网络 形式 专家 方式 流程 公示栏 电子屏 服务 住院 服务 流程 入院 出院 转科 转院 服务 流程 新农 住院 证件 办理 流程 书面 形式 基本 医疗保健 服务项目 新农 范围 基本 医疗保健 服务项目 药品 内容 计生 行政部门 规定 公示栏 书面 形式 基本 医疗保健 服务项目 基本 医疗保健 服务项目 特需 服务 自费 医疗保健 服务项目 电子屏 网络 形式 特殊人群 优先 措施 患者 特殊人群 服务 优先 措施 服务 地方 形式 门诊 服务 咨询 门诊 大厅 设置 咨询 服务台 服务 信息 咨询服务 设置 咨询 服务台 咨询服务 形式 咨询服务 热线 咨询服务 热线 对象 母婴 咨询服务 海报 宣传 折页 媒体 形式 社会 咨询服务 热线 号码 医学 证明 办理 程序 时间 地点 公示栏 电子屏 服务 形式 母婴 保健法 有关 规定 教育 咨询服务 服务 对象 就诊者 妇幼保健 疾病防治 合理 用药 教育 咨询服务 文字 图片 影视 讲座 课堂 教育 处方 网站 微信 公众 平台 咨询 病历 服务 患者 病历 资料 内容 服务 流程 病区 医务 管理 部门 病案 管理 部门 形式 医疗机构 病历 管理 规定 服务 患者 病情 制度 患者 手术 创伤性 辅助 生殖 技术 服务 检查 情况 书面 知情 同意书 服务 形式 服务 流程 患者 重症 监护 手术 血液 净化 高值 费用 项目 服务 流程 咨询服务 形式 检查 项目 报告 时限 临床 检验 项目 流程 检验 注意事项 检验 地点 报告 时限 公示栏 电子屏 服务 印刷 检查单 形式 辅助 检查 项目 流程 检验 注意事项 检验 地点 报告 时限 临床 检验 项目 临床 检验 项目 检查 注意事项 报告 时限 辅助 检查 项目 心电图 造影 辅助 检查 检查 注意事项 报告 时限 处理程序 程序 职能部门 电话 具体位置 电子屏 服务 形式 门诊 大厅 服务 价格 收费 制度 收费 项目 制度 公示栏 电子屏 形式 医疗保健 服务项目 价格 医疗 服务项目 名称 项目 内涵 计价 单位 价格 公示栏 电子屏 服务 形式 药品 价格 药品 生产厂家 剂型 规格 价格 药品 管理法 条例 医用 耗材 价格 医用 耗材 规格 型号 生产厂家 价格 住院病人 费用 住院病人 费用 制度 制度 出院 总费用 药品 医用 耗材 医疗 服务 名称 数量 单价 金额 服务 费用 形式 医疗机构 价格 规定 项目 计生 行政部门 机构 政务 服务 情况 公示栏 电子屏 服务 形式 附件 社区卫生 服务 机构 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 机构 资质 依法 执业 医疗机构 执业 社区卫生 服务中心 大厅 设置 公示栏 服务 医疗保险 定点 医疗机构 资质 编码 机构 负责人 姓名 技术 行政部门 核准 技术 有效期 公示栏 电子屏 人员 资质 人员 情况 全科 团队 人员 人员 资质 服务 区域 服务 内容 高级职称 人员 资质 信息 社区卫生 服务 医院 专家 姓名 专长 服务 时间 工作人员 标志 医生 护理人员 姓名 职务 职称 标牌 胸卡 服务 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 机构 环境 科室 格局 科室 格局 标牌 文字 规范 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 应急 路径 路径 应急 路线 标牌 设置 标牌 应急 指示灯 方式 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 服务 方式 机构 服务 监督 部门 电话 信箱 门诊 大厅 大厅 地方 设置 医疗 服务 方法 信箱 咨询电话 形式 方式 行政部门 电话 信箱 项目 信息 情况 服务 人群 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 公共卫生 基本 医疗 服务 服务 区域 服务 人群 基本 情况 机构 服务 区域 范围 公示栏 电子屏 服务 区域 人群 基本 情况 重点 人群 服务 人数 服务 基本 情况 科室 设置 名称 医疗 服务 基本 公共卫生 服务 内容 公示栏 电子屏 网站 服务 服务 时间 门诊 服务 时间 部分 服务项目 服务 时间 服务 流程 门诊 服务 流程 公示栏 电子屏 网络 形式 住院 服务 流程 双向 服务 流程 基本 药物 基本 药物 目录 双向 关系 综合 专科医院 名称 社区卫生 服务 机构 双向 关系 综合 专科医院 名称 服务 特殊人群 优惠 措施 老年人 残疾人 群体 特殊人群 服务 优惠 措施 服务 地方 公示栏 形式 服务 对象 健康状况 服务 对象 健康状况 疾病 情况 公示栏 电子屏 服务 形式 辅助 检查 项目 辅助 检查 检查 注意事项 服务 价格 医疗 服务项目 价格 药品 价格 医用 耗材 价格 项目 服务 情况 公示栏 电子屏 服务 形式 附件 乡镇 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 医院 概况 资质 医疗机构 执业 工作人员 标志 医院 门诊 大厅 设置 公示栏 形式 环境 科室 格局 行风 建设 医德 医风 建设 病人 权利 义务 社会 医疗 服务 方式 患者 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 医疗卫生 服务 医疗 服务 基本 情况 服务 时间 服务 流程 特殊人群 优先 措施 基本 公共卫生 服务 内容 公示栏 电子屏 形式 服务 患者 病情 事故 流程 服务 价格 收费 制度 医疗 服务项目 价格 服务 费用 形式 药品 价格 医用 耗材 价格 新农 政策 新农 补偿 流程 公示栏 电子屏 形式 附件 技术 服务 机构 信息 目录 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 基本 情况 技术 服务 机构 时间 单位 机构 性质 职能 机构 公示栏 电子 屏幕 形式 条件 互联网 网站 政府 信息 条例 执业 资质 技术 服务 机构 执业 机构名称 法定代表 服务 科目 有效期 机关 内容 门诊 大厅 设置 电子屏 技术 服务 管理条例 服务 技术 行政部门 核准 技术 服务项目 名称 公示栏 电子屏 形式 技术 服务项目 评审 基本 标准 机构 设置 服务 机构 结构 布局 示意图 科室 格局 标牌 设置 标牌 路标 网站 方式 农村 服务 机构 基础设施 建设 标准 重点 科室 人员 重点 科室 学科 带头人 主治医师 人员 资质 信息 公示栏 电子屏 网站 服务指南 单位 地理位置 行走路线 通讯地址 网址 网站 指示牌 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 基本 情况 应急 应急 路线 绿色通道 路径 标牌 设置 标牌 应急 指示灯 地线 方式 技术 服务 科室 情况 科室 设置 名称 服务 内容 情况 公示栏 电子屏 网站 手册 服务 服务 时间 服务 时间 服务 流程 门诊 挂号 交费 事项 流程 服务 地点 专家 流程 公示栏 电子屏 网络 形式 住院 服务 流程 入院 出院 转科 转院 服务 流程 书面 形式 门诊 服务 咨询 门诊 大厅 设置 咨询 服务台 服务 信息 咨询服务 设置 咨询 服务台 咨询服务 形式 咨询电话 咨询服务 服务 对象 门诊患者 疾病防治 合理 用药 教育 咨询服务 文字 图片 影视 讲座 课堂 教育 处方 个别 咨询电话 服务 医学 文书 服务 服务 对象 文书 资料 服务 流程 管理 部门 文书 管理 部门 形式 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 服务 对象 制度 服务 对象 手术 创伤性 检查 情况 书面 知情 同意书 检查 项目 报告 时限 临床 检验 项目 检查 项目 流程 报告 时限 公示栏 电子屏 服务 印刷 检查单 形式 辅助 检查 项目 心电图 造影 辅助 检查 检查 注意事项 服务 价格 收费 制度 收费 项目 制度 公示栏 电子屏 服务 形式 医疗机构 价格 规定 免费 技术 服务项目 免费 技术 服务项目 项目 内涵 医疗保健 服务项目 价格 医疗 服务项目 名称 项目 内涵 计价 单位 价格 药品 价格 药品 生产厂家 剂型 规格 价格 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 服务 价格 医用 耗材 价格 医用 耗材 品名 规格 价格 有关 情况 住院病人 费用 条件 技术 服务 机构 住院费用 制度 服务 费用 形式 门诊患者 费用 门诊患者 费用 药品 医疗保健 服务 名称 数量 单价 金额 工作人员 工作人员 标志 医生 姓名 职务 职称 标牌 胸卡 服务 护理人员 姓名 职务 职称 标牌 医技 人员 姓名 职务 职称 标牌 行政 管理人员 姓名 部门 职务 标牌 后勤人员 姓名 部门 职务 标牌 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 行风 建设 医德 医风 建设 医德 医风 建设 有关 规定 门诊 大厅 大厅 地方 公示栏 电子屏 宣传 小册 形式 服务 方式 机构 服务 电话 信箱 方法 门诊 大厅 大厅 地方 设置 技术 服务 信箱 咨询电话 意见簿 形式 项目 诊断室 染色体 检测 设备 工作 场所 设置 医学 胎儿 性别 选择性 人工 标志 公示栏 形式 医学 胎儿 性别 选择性 人工 规定 项目 计生 行政部门 技术 服务 机构 政务 信息 情况 公示栏 电子屏 服务 形式 附件 血站 信息 目录 社会 信息 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 概况 执业 血站 依法 执业 情况 大厅 采血车 网站 公示栏 形式 血站 管理 办法 基本 信息 血站 名称 网址 地址 流动 采血车 流动 采血车 设置 情况 公示栏 电子屏 形式 血站 管理 办法 工作人员 医师 姓名 工号 职务 职称 标牌 形式 护士 姓名 工号 职务 职称 医技 人员 姓名 工号 职务 职称 行政 管理人员 姓名 工号 部门 职务 职称 后勤人员 姓名 工号 部门 职务 试用期 人员 姓名 工号 身份 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 环境 交通 线路 停靠站 停车场 网站 形式 交通 车辆 出口 行车 设置 血站 布局 标牌 路标 形式 科室 布局 科室 格局 应急 应急 路线 应急 行风 建设 医德 医风 建设 行风 建设 规定 网站 公示栏 电子屏 形式 血站 工作人员 执业 职业道德 规范 行为准则 服务 血站 工作人员 服务 用语 服务 规范 服务 标准 服务 社会 资助 情况 财产 管理 情况 医疗卫生 机构 社会 资助 管理 暂行办法 血站 服务 方式 服务 监督 部门 电话 信箱 方式 行政部门 电话 信箱 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 服务 流程 科室 名称 服务 内容 宣传 资料 公示栏 电子屏 网站 形式 服务 服务 热线 服务 网点 服务 时间 地址 联系人 血站 服务 时间 服务 时间 血液 库存 预警 信息 血型 预警 级别 网站 宣传 资料 信息 宣传 橱窗 电子屏 献血者 权利 义务 献血者 权利 义务 内容 献血者 咨询 献血者 咨询 内容 献血者 献血者 内容 注意事项 注意事项 血液 检测 血液 检测 项目 类别 序号 信息 名称 基本 内容 途径 责任 部门 法规 血站 服务 合格 血液 合格 血液 流程 献血者 所献 血液 检测 结果 情况 献血者 所献 血液 检测 结果 情况 患者 受血者 信息 电话 短信 微信 形式 献血者 信息 公示栏 电子屏 网站 形式 临床 献血者 临床 费用 政策 程序 咨询电话 收费 项目 标准 国家 行政部门 会同 价格 主管部门 收费 项目 收费 标准 收费 献血者 类别 信息 名称 基本 内容 途径 责任 部门 法规 血站 服务 献血者 所献 血液 检测 结果 情况 献血者 所献 血液 检测 结果 情况 患者 受血者 信息 电话 短信 微信 形式 献血者 附件 教育 机构 信息 目录 类别 序号 信息 名称 内容 途径 责任 部门 法规 教育 机构 基本 情况 机构 性质 基本 情况 机构 性质 时间 地理位置 基本 情况 网站 公示栏 电子屏 宣传 画册 政府 信息 条例 机构 职能 职能 机构 设置 单位 机构 设置 情况 职责 机构 领导 领导 职务 职责 政策 法规 法律法规 教育 法律 网站 图书 公示栏 电子屏 教育 法规 规范性 全国 教育 专业 机构 工作 规范 国家 基本 公共卫生 服务 规范 教育 服务 规范 网站 图书 公示栏 电子屏 教育 地方性 规范 标准 技术规范 教育 技术标准 规范 工作指南 网站 图书 公示栏 电子屏 教育 业务 指导性 公众 重要文献 类别 序号 信息 名称 内容 途径 责任 部门 法规 工作 信息 动态 工作 信息 工作 动态 教育 工作 信息 动态 网站 公示栏 电子 屏幕 通讯 形式 定期 公众 教育 服务 技能 人群 疾病 场所 问题 公共卫生 事件 教育 内容 核心 信息 技能 网站 图书 公示栏 电子屏 大众 媒体 传播 材料 平面 影视 实物 传播 材料 教育 活动 咨询 讲座 教育 活动 信息 资料 形式 印刷 成文 网站 公示栏 电子 屏幕 典型 经验 技术 教育 工作 典型 经验 成果 网站 图书 公示栏 电子屏 大众 媒体 教育 工作 技术 方法 策略 信息 计生 行政部门 管理机构 政务 信息 情况 国家 计生委 办公厅</t>
+  </si>
+  <si>
+    <t>国家 计生委 办公厅 医学 证明 建设 国家 计生委 办公厅 医学 证明 建设 妇幼 自治区 直辖市 计生委 医学 证明 规范 管理 信息 人口 信息化 建设 医学 证明 建设 有关 事项 工作 任务 信息 报告 医学 证明 机构 证书 网络 报告 医学 信息 报告 附件 医学 证明 管理机构 机构 出入库 网络 报告 医学 证明 出库 登记表 附件 系统 建设 医学 证明 数据 接口标准 附件 平台 附件 系统 建设 升级 任务 医学 证明 软件 免费 数据 数据 时间 年度 数据 医学 证明 信息库 省份 医学 证明 数据 接口标准 数据 平台 电子政务 外网 平台 方式 国家 人口 数据中心 传输数据 压缩包 试点 省份 系统 数据 工作 工作 领导 医学 证明 基础 人口 信息 调整 生育 政策 公共卫生 服务 国家 人口 基础 信息库 基础 数据 建设 医学 证明 紧迫性 领导 利用 资源 部署 平台 分工协作 保障机制 人员培训 顺利开展 职责 分工 规划司 妇幼 业务管理 计生委 规划 信息 组织协调 妇幼 业务管理 系统 建设 技术支持 医学 证明 管理机构 信息 数据 人员培训 数据 工作进度 数据 接口标准 规范 数据 信息 校核 机制 数据 纸质 信息 地区 单位 数据 我委 督导 检查 通报 检查 结果 信息 医学 证明 建设 人口 信息化 建设 跨部门 区域 系统 业务 协同 计生 服务水平 人口 政策 信息 国家 信息安全 规定 信息安全 信息 制度 单位 个人 信息 国家 计生委 妇幼 联系人 电话 国家 计生委 规划 信息司 联系人 电话 国家 计生委 联系人 电话 附件 医学 信息 报告 医学 证明 出库 登记表 医学 证明 数据 接口标准 平台 国家 计生委 办公厅 附件 医学 信息 报告 医学 证明 编号 新生儿 信息 新生儿 姓名 性别 时间 体重 身长 出生地点 省市 出生地点 行政区划 代码 医疗机构 名称 人员 母亲 信息 母亲 姓名 病案 母亲 出生日期 母亲 年龄 母亲 国籍 母亲 民族 母亲 户籍 所在地 母亲 户籍 所在地 行政区划 代码 母亲 住址 母亲 身份证件 类别 母亲 身份 证件号码 父亲 信息 父亲 姓名 父亲 出生日期 父亲 年龄 父亲 国籍 父亲 民族 父亲 住址 父亲 身份证件 类别 父亲 身份 证件号码 证人 姓名 新生儿 关系 身份证件 类别 身份 证件号码 机构 机构名称 行政区划 代码 机构 代码 机构 类别 代码 人员 信息 类型 医学 证明 编号 证件 情况 换发 原因 类别 原因 类别 单位 本表 医学 证明 机构 单位 医学 证明 换发 证件 证件 医学 证明 网络 报告 附件 医学 证明 出库 登记表 证件 入库 单位 机构 代码 行政区划 代码 证件 机构名称 证件 机构 机构 代码 入库 入库 证件 编号 入库 证件 编号 入库 证件 数量 入库 类型 入库 调剂 入库 负责人 本表 医学 证明 管理机构 机构 证件 入库 证件 入库 医学 证明 网络 报告 证件 出库 单位 机构 代码 行政区划 代码 证件 机构名称 证件 机构 机构 代码 出库 出库 证件 编号 出库 证件 编号 出库 证件 数量 出库 类型 出库 调剂 出库 原因 错误 遗失 经办人 负责人 本表 医学 证明 管理机构 机构 证件 出库 出库 类型 出库 类型 单张 证件 管理机构 机构 入库 出库 证件 数量 证件 出库 医学 证明 网络 报告 附件 医学 证明 数据 接口标准 医学 信息 报告 序号 字段名 标识符 数据 名称 定义 数据 元值 数据类型 格式 数据 系统 人口 信息系统 新生儿 编码 系统 主键 新生儿 编码 新生儿 标识 医学 证明 编号 新生儿 纸质 医学 证明 顺序号 新生儿 姓名 新生儿 公安 管理 部门 登记注册 姓名 性别 新生儿 生理性 代码 时间 新生儿 纪年 时间 新生儿 母亲 计量单位 体重 新生儿 体重 测量 计量单位 身长 新生儿 身长 测量 计量单位 出生地点 自治区 直辖市 新生儿 出生地点 自治区 直辖市 名称 出生地点 地区 新生儿 出生地点 地区 名称 出生地点 新生儿 出生地点 名称 出生地点 行政区划 代码 新生儿 出生地点 行政区划 代码 医疗机构 名称 助产 机构 名称 医疗机构 人员 人员 公安 户籍管理 部门 登记注册 姓名 人员 母亲 姓名 新生儿 母亲 公安 管理 部门 登记注册 姓名 母亲 病案 母亲 住院 病案 病案 母亲 出生日期 母亲 纪年 母亲 年龄 新生儿 母亲 年龄 母亲 国籍 母亲 国籍 母亲 民族 母亲 民族 母亲 户籍 所在地 母亲 户口 所在地 行政区划 名称 母亲 户籍 所在地 行政区划 代码 母亲 户口 所在地 行政区划 代码 母亲 住址 母亲 家庭 地址 乡镇 门牌号码 母亲 身份证件 类型 母亲 身份证件 类别 母亲 身份 证件号码 母亲 身份证件 法定 标识符 父亲 姓名 父亲 公安 管理 部门 登记注册 姓名 父亲 出生日期 父亲 纪年 父亲 年龄 新生儿 父亲 年龄 父亲 国籍 父亲 国籍 父亲 民族 父亲 民族 父亲 住址 父亲 家庭 地址 乡镇 门牌号码 父亲 身份证件 类型 父亲 身份证件 类别 父亲 身份 证件号码 父亲 身份证件 法定 标识符 领证 人员 姓名 领证 人员 公安 管理 部门 登记注册 姓名 证人 新生儿 关系 证人 新生儿 关系 母亲 父亲 外祖父母 证人 身份证件 类别 证人 身份证件 类别 证人 身份 证件号码 证人 身份证件 法定 标识符 机构名称 医学 证明 机构 机构名称 机构 行政区划 代码 医学 证明 机构 县区 行政区划 代码 机构 机构 代码 医学 证明 机构 机构 代码 机构 类别 代码 医学 证明 机构 类别 代码 人员 人员 公安 管理 部门 登记注册 姓名 类型 医学 证明 类型 换发 医疗机构 医学 证明 编号 新生儿 医学 证明 编号 换发 证件 情况 医学 证明 情况 正页 换发 换发 原因 类别 医学 证明 换发 原因 类别 换发 原因 类别 医学 证明 原因 类别 遗失 被盗 机构 医学 证明 纪年 信息 换发 原因 类型 数据 手写 钢笔 碳素 字迹 项目 医学 证明 医学 证明 专用章 新生儿 姓名 父亲 母亲 信息 医学 证明 出库 序号 字段名 标识符 数据 名称 定义 数据 元值 数据类型 格式 数据 证件 机构名称 医学 证明 出库 机构 机构名称 证件 机构 代码 医学 证明 出库 机构 机构 代码 入库 医学 证明 入库 纪年 入库 证件 编号 入库 医学 证明 编号 入库 证件 编号 入库 医学 证明 编号 入库 证件 数量 入库 医学 证明 数量 逻辑 校验 入库 类型 入库 医学 证明 类型 入库 调剂 入库 证件 机构名称 医学 证明 入库 机构 机构名称 证件 机构 代码 医学 证明 入库 机构 机构 代码 出库 医学 证明 出库 纪年 出库 证件 编号 出库 医学 证明 编号 出库 证件 编号 出库 医学 证明 编号 出库 证件 数量 出库 医学 证明 数量 逻辑 校验 出库 类型 出库 医学 证明 类型 出库 调剂 出库 原因 医学 证明 原因 错误 遗失 原因 医学 证明 原因 经办人 经办人 公安 管理 部门 登记注册 姓名 单位名称 报表 单位名称 单位 机构 代码 报表 单位 机构 代码 单位 行政区划 代码 单位 行政区划 代码 附件 平台 数量 硬件 集群 内存 光纤 网卡 以太网卡 硬盘 数据库 服务器 集群 内存 以太网卡 硬盘 端口 前置 服务器 服务器 软件 数据库 数据库 软件 企业 中间件 集群 开源 中间件 免费 前置 服务器 数据库 共用 系统 用户 平台 建议 法律法规 条文 规定 标准 文本 体验 功能 系列产品 法律法规 司法案例 学术期刊 检察 文书 行政处罚 文书 服务 智能 解决方案 产品 服务 扫码</t>
+  </si>
+  <si>
+    <t>国家 食品药品 监督管理 总局 公告 医疗器械 资料 电子 情况 公告 系统 系统 医疗器械 资料 无法 系统 影响 医疗器械 产品 深表歉意 措施 技术 力量 研究 资料 传输 问题 时间 电子 数据 问题 影响 部门 纸质 材料 企业 有关 电子 问题 号码 咨询 器械 联系人 中心 联系人 中心 联系人 联系人 公告 国家 食品药品 监督管理 总局 行政 事项 服务</t>
+  </si>
+  <si>
+    <t>国家 食品药品 监督管理 总局 公告 医疗器械 技术 行政 子系统 公告 食品药品 监管 总局 办公厅 医疗器械 技术 行政 子系统 食药监 办械管 系统 事宜 公告 医疗器械 技术 行政 子系统 办理 国产 进口 医疗器械 业务 企业 医疗器械 时应 系统 系统 办理 业务 纸质 资料 国家 食品药品 监督管理 总局 网站 办事 栏目 医疗器械 视频 系统 公告 国家 食品药品 监督管理 总局 行政 事项 服务</t>
+  </si>
+  <si>
+    <t>国家 食品药品 监督管理 总局 办公厅 医疗器械 生产 经营 备案 信息系统 食药监 办械 监函 地方 法规 规章 自治区 直辖市 食品 医疗器械 生产 监督管理 办法 医疗器械 经营 监督管理 办法 总局 医疗器械 生产 经营 备案 信息化 工作 监管 效能 总局 医疗器械 生产 经营 备案 信息系统 有关 事项 系统 办理 医疗器械 生产 经营 备案 业务 监管 人员 企业 有关 人员 国家 食品药品 监督管理 总局 网站 办事 栏目 医疗器械 生产 经营 备案 信息系统 视频 系统 领导 系统管理 职责 分工 系统管理员 分配 系统 权限 系统 医疗器械 生产 经营 备案 数据 统一 医疗器械 生产 经营 监管部门 本行政区域 系统管理 部门 培训 有关 设区 市级 系统 医疗器械 生产 经营 备案 总局 有关 系统 数据 系统 数据 全国 医疗器械 监管 信息 系统 咨询电话 生产 监管 经营 监管 系统 咨询 邮箱 国家 食品药品 监督管理 总局 办公厅</t>
+  </si>
+  <si>
+    <t>国家 食品药品 监督管理 总局 办公厅 医疗器械 信息 工作 食药监 办械 部门规章 地方 法规 规章 自治区 直辖市 食品 医疗器械 监督 管理条例 医疗器械 管理 办法 办法 规范 信息 公众 医疗器械 信息 渠道 有关 工作 食品药品 监督管理 部门 监督 本行政区域 医疗器械 生产 企业 进口 医疗器械 制造厂商 代理人 代理人 办法 规定 报告 医疗器械 信息 企业 官方网站 方面 医疗器械 生产 企业 进口 医疗器械 制造厂商 医疗器械 生产 企业 代理人 报告 所在地 食品药品 监督管理 部门 食品药品 监督管理 部门 办法 规定 医疗器械 监督管理 工作 医疗器械 信息 通报 制度 食品药品 监督管理 部门 官方网站 设置 医疗器械 专栏 本行政区域 责令 信息 信息 通报 计生 部门 医疗器械 专栏 分设 信息 责令 信息 栏目 信息 格式 内容 附件 企业 信息 食品药品 监督管理 部门 食品药品 监督管理 部门 信息 时应 信息 电子版 信息 链接 总局 总局 官方网站 医疗器械 专栏 食品药品 监督管理 部门 信息 医疗器械 信息 总局 责令 信息 总局 医疗器械 信息 工作 监督 检查 医疗器械 信息 总局 医疗器械 信息网 工作 联系人 邮箱 附件 医疗器械 信息 模板 医疗器械 责令 信息 模板 国家 食品药品 监督管理 总局 办公厅 附件 医疗器械 信息 模板 标题 生产 企业 名称 产品名称 正文 单位 报告 原因 生产 企业 名称 生产 产品名称 备案号 级别 产品 型号 规格 详细信息 医疗器械 事件报告 医疗器械 事件报告 办法 附表 正文 格式 附件 格式 宽度 像素 信息 链接 总局 医疗器械 信息 邮箱 附件 医疗器械 责令 信息 模板 标题 食品 生产 企业 名称 生产 产品名称 责令 正文 原因 食品 生产 企业 名称 生产 产品名称 备案号 责令 级别 详细信息 责令 责令 办法 食品 正文 格式 附件 格式 宽度 像素 信息 链接 总局 医疗器械 信息 邮箱</t>
+  </si>
+  <si>
+    <t>国家 食品药品 监管 总局 办公厅 医疗器械 技术 行政 子系统 食药监 办械管 部门规章 食品药品 监管 总局 中心 医疗器械 管理 信息化 工作 监管 效能 食品药品 监管 总局 医疗器械 技术 行政 子系统 子系统 有关 事项 子系统 办理 国产 进口 医疗器械 业务 发布公告 企业 医疗器械 系统 企业 系统 办理 业务 纸质 资料 监管 人员 企业 人员 食品药品 监管 总局 网站 办事 栏目 医疗器械 视频 系统 单位 人员培训 管理 问题 问题 食品药品 监管 总局 医疗器械 软件 模块 技术支持 人员 联系 医疗器械 总局 软件 模块 技术支持 附件 医疗器械 行政许可 信息管理系统 技术 行政 子系统 国家 食品药品 监管 总局 办公厅 附件 医疗器械 技术 行政 子系统 医疗器械 技术 行政 子系统 系统 食品药品 监管 总局 医疗器械 事项 申报 技术 行政 业务管理 信息 平台 功能 进口 医疗器械 事项 申报 业务流程 办理 信息 功能 系统 服务 用户 食品药品 监管 总局 领导 医疗器械 管理司 医疗器械 技术 中心 行政 事项 服务 企业 系统 系统 地址 食品药品 监管 总局 网站 办事 栏目 医疗器械 用户注册 总局 总局 用户 账户 密码 权限 系统管理员 信息安全 权限 分配 密码 企业 系统 企业 用户注册 功能 用户名 事项 申报 医疗器械 备案 子系统 备案 申报 企业 账号 密码 建议 企业 账户 企业 备案 事项 申报 统一 管理 用户 密码 密码 功能 用户注册 时所 邮箱 用户名 保证系统 系统 用户 牢记 用户名 密码 用户名 密码 信息 注册证 编号 注册证 编号 连续性 系统 总局 人员 联系 系统管理 人员 注册证 编号 业务 系统 系统 申请事项 系统 申报 行政许可 企业 医疗器械 试剂 电子 报盘 软件 申请事项 系统 办理 系统 用户 问题 系统 系统 功能 按钮 用户 视频 系统 用户 意见 试用 系统 问题 意见 总局 医疗器械 管理司 医疗器械 技术 中心 行政 事项 服务 统一 意见 技术支持 人员 企业 意见反馈 邮箱 技术支持 人员 行政 子系统 技术 子系统</t>
+  </si>
+  <si>
+    <t>国家 食品药品 监管 总局 办公厅 医疗器械 备案 子系统 食药监 办械管 地方 法规 规章 自治区 直辖市 食品 总局 医疗器械 备案 管理 信息化 工作 监管 效能 总局 医疗器械 备案 子系统 备案 子系统 有关 事项 备案 子系统 办理 医疗器械 备案 备案 备案 业务 企业 系统 办理 业务 纸质 资料 监管 人员 企业 人员 总局 网站 办事 栏目 医疗器械 视频 系统 领导 系统管理 职责 分工 系统管理员 分配 系统 权限 系统 医疗器械 备案 数据 统一 监管部门 系统 办理 业务 时应 有关 医疗器械 备案 法规 医疗器械 管理 部门 行政区域 系统管理 部门 宣传 培训 食品药品 监督管理 部门 信息 有关 医疗器械 备案 信息 备案 子系统 行政区域 医疗器械 备案 信息 系统 总局 总局 备案 子系统 有关 设区 市级 信息系统 医疗器械 备案 备案 信息 备案 子系统 总局 数据 统一 管理 该软件 模块 过程 问题 医疗器械 管理司 技术人员 联系 医疗器械 管理司 联系人 总局 联系人 软件 模块 技术支持 联系人 附件 医疗器械 行政许可 信息管理系统 备案 子系统 国家 食品药品 监管 总局 办公厅 附件 医疗器械 备案 子系统 系统 功能 系统 地址 浏览器 设置 界面 医疗器械 备案 子系统 用户 总局 医疗器械 管理司 行政 事项 服务 局端 局端 企业 功能 进口 医疗器械 备案 申报 备案 业务 办理 信息 账号 管理 总局 系统管理员 分配 省局 系统管理员 权限 省局 系统管理员 账号 密码 附表 总局 用户 权限 省局 系统管理员 分配 省局 用户 设置 行政区域 市级 食品药品 监管 机构名称 市局 管理员 权限 市局 系统管理员 设置 分配 市局 用户 权限 省局 权限 备案 子系统 试用 情况 实际 情况 系统 局端 局端 备案 业务 办理 功能模块 系统 局端 设置 地区 管理 功能模块 分配 权限 局端 地区 管理 功能模块 行政区域 尚需 医疗器械 备案 地区 有关 信息 用户 管理 项下 机构 管理 功能模块 行政区域 医疗器械 备案 食品药品 监督管理 机构名称 信息 机构名称 规范 全称 分配 省局 人员 权限 行政区域 备案 业务 食品药品 监督管理 机构 设置 管理员 备案 业务管理 备案号 系统 省局 市局 办理 数量 备案 业务 省局 市局 管理员 备案号 功能模块 备案号 办理 业务 备案号 数据 医疗器械 备案 信息 备案 子系统 总局 备案 系统 省局 市局 系统 备案 信息 备案 子系统 信息 模块 备案 数据 方式 信息 全面 数据 总局 网站 用户 用户 问题 系统 系统 功能 按钮 用户 视频 系统 单位 联系人 东华 软件 股份公司 联系人 局端 技术咨询</t>
+  </si>
+  <si>
+    <t>Topic #3</t>
+  </si>
+  <si>
+    <t>Topic #4</t>
+  </si>
+  <si>
+    <t>Topic #0</t>
+  </si>
+  <si>
+    <t>Topic #2</t>
+  </si>
+  <si>
+    <t>Topic #6</t>
+  </si>
+  <si>
+    <t>Topic #1</t>
+  </si>
+  <si>
+    <t>Topic #7</t>
+  </si>
+  <si>
+    <t>Topic #5</t>
+  </si>
+  <si>
+    <t>[8.23188569e-04 8.23973539e-04 8.24235314e-04 8.49103316e-01
+ 2.57684628e-02 8.24031212e-04 9.15082757e-02 3.03245172e-02]</t>
+  </si>
+  <si>
+    <t>[0.03125    0.03126907 0.03129102 0.78100476 0.03131734 0.03125102
+ 0.03125119 0.03136561]</t>
+  </si>
+  <si>
+    <t>[8.02202339e-04 8.02185315e-04 8.02693934e-04 8.59846938e-01
+ 1.05262148e-01 8.02621506e-04 3.08792285e-02 8.01982228e-04]</t>
+  </si>
+  <si>
+    <t>[6.39069198e-04 1.55145910e-01 6.38485682e-04 6.38339223e-04
+ 8.41022315e-01 6.38636341e-04 6.38909544e-04 6.38335572e-04]</t>
+  </si>
+  <si>
+    <t>[9.96788758e-01 4.58531808e-04 4.58838438e-04 4.58498140e-04
+ 4.58733116e-04 4.58563219e-04 4.59256693e-04 4.58821034e-04]</t>
+  </si>
+  <si>
+    <t>[0.00521833 0.00521131 0.73089725 0.00521798 0.00521007 0.00523134
+ 0.23779495 0.00521876]</t>
+  </si>
+  <si>
+    <t>[0.02270283 0.00134596 0.0013457  0.00134462 0.96922308 0.0013457
+ 0.00134587 0.00134624]</t>
+  </si>
+  <si>
+    <t>[1.44733004e-01 6.11048309e-04 6.10879604e-04 6.10484556e-04
+ 1.48746946e-01 6.11068415e-04 7.03465979e-01 6.10589703e-04]</t>
+  </si>
+  <si>
+    <t>[0.11523232 0.0008692  0.00086903 0.00086918 0.2133982  0.00086987
+ 0.66702272 0.00086947]</t>
+  </si>
+  <si>
+    <t>[0.98464215 0.00219372 0.00219335 0.00219421 0.0021943  0.0021938
+ 0.00219455 0.00219392]</t>
+  </si>
+  <si>
+    <t>[3.56467231e-04 3.56413115e-04 3.56856357e-04 3.56731677e-04
+ 3.56585223e-04 3.56712228e-04 9.97503811e-01 3.56423640e-04]</t>
+  </si>
+  <si>
+    <t>[0.00543909 0.00543992 0.07559861 0.00544764 0.23035186 0.00544581
+ 0.42263509 0.24964199]</t>
+  </si>
+  <si>
+    <t>[5.24949746e-02 3.27570384e-04 4.81174737e-02 3.27787653e-04
+ 6.30311532e-01 8.01778209e-02 1.87915130e-01 3.27710987e-04]</t>
+  </si>
+  <si>
+    <t>[0.17137928 0.0016674  0.00166926 0.00167007 0.00167043 0.00166901
+ 0.61257416 0.20770039]</t>
+  </si>
+  <si>
+    <t>[1.98936755e-04 7.84558923e-01 1.95935353e-02 2.16003061e-02
+ 1.99467476e-04 9.23767072e-02 1.99091045e-04 8.12730335e-02]</t>
+  </si>
+  <si>
+    <t>[0.00145469 0.07896655 0.0014563  0.00145669 0.31676054 0.00145534
+ 0.0014547  0.59699518]</t>
+  </si>
+  <si>
+    <t>[0.00347558 0.003473   0.00347268 0.0034743  0.1593936  0.003477
+ 0.00347389 0.81975996]</t>
+  </si>
+  <si>
+    <t>[0.00100896 0.0010088  0.00100961 0.00100897 0.47097544 0.00100892
+ 0.00100887 0.52297042]</t>
+  </si>
+  <si>
+    <t>[0.00329085 0.00329346 0.00329376 0.00329156 0.43623358 0.54400927
+ 0.00329041 0.00329711]</t>
+  </si>
+  <si>
+    <t>[0.00348027 0.66473521 0.14715484 0.00347822 0.06567219 0.0034775
+ 0.10852508 0.00347669]</t>
+  </si>
+  <si>
+    <t>[0.00166944 0.1441459  0.10394216 0.23689821 0.00166842 0.06055767
+ 0.00167033 0.44944788]</t>
+  </si>
+  <si>
+    <t>[1.60533354e-04 1.60486878e-04 1.60601467e-04 1.60454208e-04
+ 1.60805990e-04 9.98876071e-01 1.60522455e-04 1.60524922e-04]</t>
+  </si>
+  <si>
+    <t>[2.08355555e-01 1.01796642e-01 1.99684100e-04 1.99749077e-04
+ 1.99794076e-04 1.59417726e-01 5.04471455e-01 2.53593955e-02]</t>
+  </si>
+  <si>
+    <t>[0.58005411 0.36207308 0.0006079  0.02325471 0.00060799 0.00060758
+ 0.00913112 0.02366351]</t>
+  </si>
+  <si>
+    <t>[2.08819152e-04 2.08935350e-04 2.08971708e-04 2.08983279e-04
+ 2.08836788e-04 2.09048591e-04 2.09028126e-04 9.98537377e-01]</t>
+  </si>
+  <si>
+    <t>[0.09483034 0.00178913 0.60409594 0.07162951 0.00178801 0.00178854
+ 0.00178939 0.22228913]</t>
+  </si>
+  <si>
+    <t>[4.03133907e-03 7.03307692e-05 7.02686708e-05 1.53636833e-02
+ 4.94214856e-03 9.39209660e-01 1.74176019e-02 1.88949682e-02]</t>
+  </si>
+  <si>
+    <t>[0.40369358 0.00568371 0.00569928 0.30786229 0.00568442 0.26000129
+ 0.00569018 0.00568526]</t>
+  </si>
+  <si>
+    <t>[3.99721132e-04 3.99662305e-04 3.99844261e-04 3.99750746e-04
+ 9.97201034e-01 4.00345746e-04 3.99692522e-04 3.99949525e-04]</t>
+  </si>
+  <si>
+    <t>[8.09138463e-01 5.17611178e-04 5.17426131e-04 9.12526385e-02
+ 5.17369211e-04 5.17702147e-04 2.49974986e-02 7.25412907e-02]</t>
+  </si>
+  <si>
+    <t>[0.67512937 0.09649065 0.00088155 0.20231008 0.00088288 0.0225418
+ 0.00088206 0.00088161]</t>
+  </si>
+  <si>
+    <t>[6.73002657e-04 6.98262542e-02 5.22280238e-02 6.73060927e-04
+ 8.74579683e-01 6.73064052e-04 6.73871685e-04 6.73039256e-04]</t>
+  </si>
+  <si>
+    <t>[0.08325779 0.00079239 0.18769897 0.44710914 0.00079271 0.08806906
+ 0.00079258 0.19148737]</t>
+  </si>
+  <si>
+    <t>[0.16517738 0.00255172 0.00255516 0.18268529 0.00255595 0.00255339
+ 0.52581116 0.11610995]</t>
+  </si>
+  <si>
+    <t>[0.56995923 0.00735809 0.38583461 0.00736004 0.00737384 0.00738488
+ 0.00736664 0.00736268]</t>
+  </si>
+  <si>
+    <t>[0.00152787 0.0015259  0.0015266  0.00152681 0.00152657 0.00152593
+ 0.67217338 0.31866693]</t>
+  </si>
+  <si>
+    <t>[5.15567571e-04 5.15126657e-04 5.15304929e-04 8.26388640e-01
+ 6.34998590e-02 5.15154696e-04 8.90187103e-02 1.90316372e-02]</t>
+  </si>
+  <si>
+    <t>[4.11958933e-04 4.11941634e-04 6.69760648e-02 7.98297624e-01
+ 4.12254397e-04 4.12082178e-04 1.02638006e-01 3.04400682e-02]</t>
+  </si>
+  <si>
+    <t>[4.42186458e-04 4.42743630e-04 4.42582100e-04 7.88825671e-01
+ 7.82815982e-02 4.61295559e-02 1.56665302e-02 6.97691325e-02]</t>
+  </si>
+  <si>
+    <t>[3.30184540e-04 3.30280461e-04 3.68676861e-02 9.30763156e-01
+ 3.07179966e-02 3.30124644e-04 3.30232821e-04 3.30338351e-04]</t>
+  </si>
+  <si>
+    <t>[0.01745208 0.00097063 0.00097046 0.00097096 0.31818715 0.00097077
+ 0.00097074 0.65950723]</t>
+  </si>
+  <si>
+    <t>[2.36227810e-04 9.98346129e-01 2.36193924e-04 2.36350465e-04
+ 2.36409826e-04 2.36192293e-04 2.36212857e-04 2.36283899e-04]</t>
+  </si>
+  <si>
+    <t>[0.0007874  0.00078731 0.30719662 0.17261211 0.0007871  0.16461587
+ 0.35242539 0.0007882 ]</t>
+  </si>
+  <si>
+    <t>[1.14692056e-02 1.03828189e-04 9.22751495e-01 2.96452156e-02
+ 8.51577586e-03 1.03843992e-04 1.42713748e-02 1.31392609e-02]</t>
+  </si>
+  <si>
+    <t>[7.72874455e-02 6.76924852e-04 6.76706587e-04 1.40365536e-01
+ 9.19987398e-02 6.76768683e-04 6.77220793e-04 6.87640657e-01]</t>
+  </si>
+  <si>
+    <t>[0.00521554 0.00521627 0.49963197 0.00521802 0.00521541 0.210628
+ 0.00522114 0.26365366]</t>
+  </si>
+  <si>
+    <t>[0.00781356 0.00781901 0.00782346 0.94527822 0.00781854 0.00781852
+ 0.00781351 0.00781517]</t>
+  </si>
+  <si>
+    <t>[0.16958797 0.00321012 0.00321155 0.81115367 0.00320866 0.00321151
+ 0.00320838 0.00320813]</t>
+  </si>
+  <si>
+    <t>[0.00245153 0.0024521  0.83104936 0.00245476 0.15423108 0.00245323
+ 0.00245302 0.00245491]</t>
+  </si>
+  <si>
+    <t>[0.00144123 0.16599796 0.00143818 0.67238593 0.0014384  0.15442215
+ 0.00143781 0.00143835]</t>
+  </si>
+  <si>
+    <t>[0.00102602 0.1550603  0.00102623 0.73365805 0.00102552 0.0010259
+ 0.00102507 0.10615291]</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>